--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Station\Gitee\website-v2\data\compatibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B3C4B-229B-4D88-9B37-24F0378BB42F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D67DA6F-C088-4A1D-9FE9-88E0A14CD3F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="252">
   <si>
     <t>vendorID</t>
   </si>
@@ -1038,6 +1038,142 @@
   </si>
   <si>
     <t>MT27808A0-FCCF-EV</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:12.8.0.4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES3600C V5-3200GB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>hns3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>a221</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>14e4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15b3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>16a1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>101b</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1077</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3c1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnx2x</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.31</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.01</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.02</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>47560B938AF29493141D36D0E2AE8D113A6174E9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6MB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>195K</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3MB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7MB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qlogic</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mellanox</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM210</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>QLE3442-RJ-SP</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX653105A-EFAT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTL8211</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCM57840</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CX6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>03025VYQ</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>06310110</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>06030516</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1276,7 +1412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1369,9 +1505,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +1521,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1697,12 +1850,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" customWidth="1"/>
     <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" customWidth="1"/>
@@ -2158,7 +2312,7 @@
         <v>80</v>
       </c>
       <c r="P8" s="14"/>
-      <c r="Q8" s="54" t="s">
+      <c r="Q8" s="53" t="s">
         <v>215</v>
       </c>
       <c r="R8" s="14"/>
@@ -2268,7 +2422,7 @@
       <c r="P10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="54" t="s">
         <v>216</v>
       </c>
       <c r="R10" s="20"/>
@@ -2904,7 +3058,7 @@
       <c r="N22" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="56" t="s">
+      <c r="O22" s="55" t="s">
         <v>217</v>
       </c>
       <c r="P22" s="26" t="s">
@@ -3195,8 +3349,8 @@
       <c r="G28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>23</v>
+      <c r="H28" s="56" t="s">
+        <v>218</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>24</v>
@@ -3651,9 +3805,6 @@
       <c r="Q36" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="26" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="37" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
@@ -3707,9 +3858,6 @@
       <c r="Q37" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="26" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="38" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
@@ -3721,7 +3869,7 @@
       <c r="C38" s="35">
         <v>8086</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="52" t="s">
         <v>214</v>
       </c>
       <c r="E38" s="35" t="s">
@@ -3775,7 +3923,7 @@
       <c r="C39" s="35">
         <v>8086</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="52" t="s">
         <v>214</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -3922,65 +4070,267 @@
       </c>
     </row>
     <row r="42" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="42">
         <v>3714</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="42">
         <v>5132</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J42" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="K42" s="35" t="s">
+      <c r="K42" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="L42" s="35" t="s">
+      <c r="L42" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="M42" s="35" t="s">
+      <c r="M42" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="N42" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" s="35" t="s">
+      <c r="O42" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="P42" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="35" t="s">
+      <c r="Q42" s="42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" s="59"/>
+      <c r="I43" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="J43" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="K43" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L43" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="M43" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="O43" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="P43" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q43" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="H44" s="59"/>
+      <c r="I44" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="K44" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L44" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="M44" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="N44" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="O44" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="P44" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q44" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="K45" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L45" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="M45" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="N45" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="O45" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="P45" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q45" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="51">
+        <v>1077</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="51"/>
+      <c r="I46" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="J46" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="K46" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="M46" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="N46" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="O46" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="P46" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q46" s="51" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:U37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{1496AB1C-C786-46AE-AD06-F8A883B01793}">
@@ -4001,10 +4351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4016,43 +4366,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A3" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4070,18 +4404,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="5"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
+<autofilters xmlns="https://web.wps.cn/et/2018/main">
+  <sheetItem sheetStid="4">
+    <filterData filterID="AK20210901:AK20210901JXNSXO4694343"/>
+    <autofilterInfo filterID="AK20210901:AK20210901JXNSXO4694343">
+      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U37"/>
+    </autofilterInfo>
+  </sheetItem>
+</autofilters>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4097,22 +4431,22 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<autofilters xmlns="https://web.wps.cn/et/2018/main">
-  <sheetItem sheetStid="4">
-    <filterData filterID="AK20210901:AK20210901JXNSXO4694343"/>
-    <autofilterInfo filterID="AK20210901:AK20210901JXNSXO4694343">
-      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U37"/>
-    </autofilterInfo>
-  </sheetItem>
-</autofilters>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="5"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4121,7 +4455,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4139,7 +4473,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4148,7 +4482,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Station\Gitee\website-v2\data\compatibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D67DA6F-C088-4A1D-9FE9-88E0A14CD3F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB2ADD2-9DB5-4D70-8F5A-381598620C07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="254">
   <si>
     <t>vendorID</t>
   </si>
@@ -1176,12 +1176,20 @@
     <t>06030516</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>EXL710QDA2G1P5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,6 +1266,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1412,7 +1428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1499,9 +1515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1513,9 +1526,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
@@ -1541,6 +1551,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1850,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2312,7 +2333,7 @@
         <v>80</v>
       </c>
       <c r="P8" s="14"/>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="51" t="s">
         <v>215</v>
       </c>
       <c r="R8" s="14"/>
@@ -2422,7 +2443,7 @@
       <c r="P10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="52" t="s">
         <v>216</v>
       </c>
       <c r="R10" s="20"/>
@@ -3058,7 +3079,7 @@
       <c r="N22" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="55" t="s">
+      <c r="O22" s="53" t="s">
         <v>217</v>
       </c>
       <c r="P22" s="26" t="s">
@@ -3349,7 +3370,7 @@
       <c r="G28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="54" t="s">
         <v>218</v>
       </c>
       <c r="I28" s="14" t="s">
@@ -3860,53 +3881,53 @@
       </c>
     </row>
     <row r="38" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
+      <c r="A38" s="62">
         <v>8086</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="62">
         <v>1583</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="62">
         <v>8086</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35" t="s">
+      <c r="H38" s="62"/>
+      <c r="I38" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="35" t="s">
+      <c r="J38" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="K38" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="L38" s="35" t="s">
+      <c r="L38" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="M38" s="35" t="s">
+      <c r="M38" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="N38" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" s="46" t="s">
+      <c r="N38" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="O38" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="P38" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="Q38" s="26" t="s">
+      <c r="Q38" s="65" t="s">
         <v>30</v>
       </c>
       <c r="R38" s="26" t="s">
@@ -3914,53 +3935,53 @@
       </c>
     </row>
     <row r="39" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+      <c r="A39" s="62">
         <v>8086</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="62">
         <v>1583</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="62">
         <v>8086</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26" t="s">
+      <c r="H39" s="65"/>
+      <c r="I39" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="J39" s="35" t="s">
+      <c r="J39" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="26" t="s">
+      <c r="L39" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="26" t="s">
+      <c r="N39" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="O39" s="26" t="s">
+      <c r="O39" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="P39" s="30" t="s">
+      <c r="P39" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="Q39" s="26" t="s">
+      <c r="Q39" s="65" t="s">
         <v>30</v>
       </c>
       <c r="R39" s="26" t="s">
@@ -4014,7 +4035,7 @@
       <c r="P40" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="Q40" s="47" t="s">
+      <c r="Q40" s="46" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4065,7 +4086,7 @@
       <c r="P41" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="Q41" s="47" t="s">
+      <c r="Q41" s="46" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4112,7 +4133,7 @@
       <c r="N42" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="58" t="s">
+      <c r="O42" s="56" t="s">
         <v>219</v>
       </c>
       <c r="P42" s="42" t="s">
@@ -4122,209 +4143,209 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+    <row r="43" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="H43" s="59"/>
-      <c r="I43" s="63" t="s">
+      <c r="H43" s="57"/>
+      <c r="I43" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="J43" s="60" t="s">
+      <c r="J43" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="K43" s="63" t="s">
+      <c r="K43" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="L43" s="63" t="s">
+      <c r="L43" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="M43" s="51" t="s">
+      <c r="M43" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="N43" s="63" t="s">
+      <c r="N43" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="O43" s="63" t="s">
+      <c r="O43" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="P43" s="63" t="s">
+      <c r="P43" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="Q43" s="51" t="s">
+      <c r="Q43" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
+    <row r="44" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="H44" s="59"/>
-      <c r="I44" s="63" t="s">
+      <c r="H44" s="57"/>
+      <c r="I44" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="J44" s="60" t="s">
+      <c r="J44" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="K44" s="63" t="s">
+      <c r="K44" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="L44" s="63" t="s">
+      <c r="L44" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="M44" s="63" t="s">
+      <c r="M44" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="N44" s="63" t="s">
+      <c r="N44" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="O44" s="63" t="s">
+      <c r="O44" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="P44" s="63" t="s">
+      <c r="P44" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="Q44" s="51" t="s">
+      <c r="Q44" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+    <row r="45" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="61" t="s">
+      <c r="H45" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="51" t="s">
+      <c r="I45" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="J45" s="60" t="s">
+      <c r="J45" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="K45" s="63" t="s">
+      <c r="K45" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="L45" s="63" t="s">
+      <c r="L45" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="M45" s="63" t="s">
+      <c r="M45" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="N45" s="63" t="s">
+      <c r="N45" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="O45" s="63" t="s">
+      <c r="O45" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="P45" s="63" t="s">
+      <c r="P45" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="Q45" s="51" t="s">
+      <c r="Q45" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="50">
         <v>1077</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="63" t="s">
+      <c r="G46" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="63" t="s">
+      <c r="H46" s="50"/>
+      <c r="I46" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="J46" s="60" t="s">
+      <c r="J46" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="K46" s="51" t="s">
+      <c r="K46" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="L46" s="60" t="s">
+      <c r="L46" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="M46" s="62" t="s">
+      <c r="M46" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="N46" s="63" t="s">
+      <c r="N46" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="O46" s="63" t="s">
+      <c r="O46" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="P46" s="63" t="s">
+      <c r="P46" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="Q46" s="51" t="s">
+      <c r="Q46" s="50" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4366,27 +4387,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4404,18 +4425,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="5"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<autofilters xmlns="https://web.wps.cn/et/2018/main">
-  <sheetItem sheetStid="4">
-    <filterData filterID="AK20210901:AK20210901JXNSXO4694343"/>
-    <autofilterInfo filterID="AK20210901:AK20210901JXNSXO4694343">
-      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U37"/>
-    </autofilterInfo>
-  </sheetItem>
-</autofilters>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4431,22 +4452,22 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
+<autofilters xmlns="https://web.wps.cn/et/2018/main">
+  <sheetItem sheetStid="4">
+    <filterData filterID="AK20210901:AK20210901JXNSXO4694343"/>
+    <autofilterInfo filterID="AK20210901:AK20210901JXNSXO4694343">
+      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U37"/>
+    </autofilterInfo>
+  </sheetItem>
+</autofilters>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="5"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4455,7 +4476,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4473,7 +4494,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4482,7 +4503,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Station\Gitee\website-v2\data\compatibility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA590FEB-A2DA-4A1A-8693-A998BD8B0200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$46</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="245">
   <si>
     <t>vendorID</t>
   </si>
@@ -737,12 +736,87 @@
   <si>
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnxt_en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>16d7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1402</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>406K</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.05.26</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>roadcom</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06310148</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CM57414</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCM957414A4142CC_08</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>207352D392184F5F7FBE52CE0A5C064DA1687B2</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -827,7 +901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -935,6 +1009,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -946,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1053,11 +1162,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1437,30 +1566,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" customWidth="1"/>
-    <col min="15" max="15" width="28.08984375" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="28.125" customWidth="1"/>
     <col min="17" max="17" width="138" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1648,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -1576,7 +1705,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1633,7 +1762,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
@@ -1688,9 +1817,9 @@
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="58"/>
+    </row>
+    <row r="5" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
@@ -1745,9 +1874,9 @@
       <c r="R5" s="9"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
@@ -1800,9 +1929,9 @@
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="1:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
@@ -1857,9 +1986,9 @@
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-    </row>
-    <row r="8" spans="1:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="U7" s="59"/>
+    </row>
+    <row r="8" spans="1:21" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>79</v>
       </c>
@@ -1910,9 +2039,9 @@
       <c r="R8" s="9"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-    </row>
-    <row r="9" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="58"/>
+    </row>
+    <row r="9" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -1965,9 +2094,9 @@
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>79</v>
       </c>
@@ -2020,9 +2149,9 @@
       <c r="R10" s="17"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-    </row>
-    <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="59"/>
+    </row>
+    <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>99</v>
       </c>
@@ -2075,8 +2204,9 @@
         <v>32</v>
       </c>
       <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
         <v>112</v>
       </c>
@@ -2130,7 +2260,7 @@
       </c>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>112</v>
       </c>
@@ -2183,7 +2313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>99</v>
       </c>
@@ -2235,8 +2365,9 @@
       <c r="Q14" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="56"/>
+    </row>
+    <row r="15" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>99</v>
       </c>
@@ -2288,8 +2419,9 @@
       <c r="Q15" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="51"/>
+    </row>
+    <row r="16" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
         <v>112</v>
       </c>
@@ -2342,7 +2474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
         <v>112</v>
       </c>
@@ -2395,7 +2527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="s">
         <v>99</v>
       </c>
@@ -2447,8 +2579,9 @@
       <c r="Q18" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="56"/>
+    </row>
+    <row r="19" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
         <v>99</v>
       </c>
@@ -2501,7 +2634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>99</v>
       </c>
@@ -2554,7 +2687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>112</v>
       </c>
@@ -2606,8 +2739,9 @@
       <c r="Q21" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="51"/>
+    </row>
+    <row r="22" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
@@ -2657,7 +2791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>60</v>
       </c>
@@ -2707,7 +2841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
@@ -2759,8 +2893,9 @@
       <c r="Q24" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="56"/>
+    </row>
+    <row r="25" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -2813,7 +2948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
@@ -2866,7 +3001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>18</v>
       </c>
@@ -2919,7 +3054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>18</v>
       </c>
@@ -2972,7 +3107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>18</v>
       </c>
@@ -3025,7 +3160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>18</v>
       </c>
@@ -3082,7 +3217,7 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
     </row>
-    <row r="31" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>99</v>
       </c>
@@ -3131,11 +3266,11 @@
       <c r="P31" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q31" s="19" t="s">
+      <c r="Q31" s="50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
         <v>48</v>
       </c>
@@ -3184,11 +3319,15 @@
       <c r="P32" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+    </row>
+    <row r="33" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>79</v>
       </c>
@@ -3235,11 +3374,11 @@
       <c r="P33" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="Q33" s="48" t="s">
+      <c r="Q33" s="52" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
         <v>112</v>
       </c>
@@ -3288,11 +3427,15 @@
       <c r="P34" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="Q34" s="23" t="s">
+      <c r="Q34" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+    </row>
+    <row r="35" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
         <v>112</v>
       </c>
@@ -3341,11 +3484,11 @@
       <c r="P35" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="Q35" s="23" t="s">
+      <c r="Q35" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
         <v>112</v>
       </c>
@@ -3394,11 +3537,11 @@
       <c r="P36" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="Q36" s="25" t="s">
+      <c r="Q36" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="34">
         <v>8086</v>
       </c>
@@ -3451,8 +3594,11 @@
       <c r="R37" s="20" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+    </row>
+    <row r="38" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="34">
         <v>8086</v>
       </c>
@@ -3505,8 +3651,11 @@
       <c r="R38" s="20" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+    </row>
+    <row r="39" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>79</v>
       </c>
@@ -3553,11 +3702,11 @@
       <c r="P39" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="Q39" s="49" t="s">
+      <c r="Q39" s="53" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>79</v>
       </c>
@@ -3608,7 +3757,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
         <v>48</v>
       </c>
@@ -3661,7 +3810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
         <v>48</v>
       </c>
@@ -3711,8 +3860,12 @@
       <c r="Q42" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+    </row>
+    <row r="43" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
         <v>212</v>
       </c>
@@ -3762,8 +3915,12 @@
       <c r="Q43" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+    </row>
+    <row r="44" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
         <v>112</v>
       </c>
@@ -3812,11 +3969,11 @@
       <c r="P44" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="Q44" s="26" t="s">
+      <c r="Q44" s="54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="39" t="s">
         <v>212</v>
       </c>
@@ -3866,22 +4023,81 @@
       <c r="Q45" s="26" t="s">
         <v>32</v>
       </c>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="N46" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="O46" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q46" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U46"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
       <formula1>"aarch64,x86_64"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1" xr:uid="{56C7505E-31E3-44A8-8711-B2DBD6BA8BE4}"/>
-    <hyperlink ref="Q8" r:id="rId2" xr:uid="{849B5B12-9AD1-4285-9018-34CBC3A2E6CD}"/>
-    <hyperlink ref="Q33" r:id="rId3" xr:uid="{A452A69E-32A6-4A99-B45C-835DF8A6B211}"/>
-    <hyperlink ref="Q39" r:id="rId4" xr:uid="{346646CB-0781-4F18-BCB9-A8D42D045FF3}"/>
-    <hyperlink ref="Q40" r:id="rId5" xr:uid="{A4A30801-2F7D-40F5-A5F3-1196628CF4C0}"/>
+    <hyperlink ref="Q10" r:id="rId1"/>
+    <hyperlink ref="Q8" r:id="rId2"/>
+    <hyperlink ref="Q33" r:id="rId3"/>
+    <hyperlink ref="Q39" r:id="rId4"/>
+    <hyperlink ref="Q40" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -3889,22 +4105,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="43" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="43" customWidth="1"/>
     <col min="4" max="1024" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>229</v>
       </c>
@@ -3913,7 +4129,7 @@
       </c>
       <c r="C1" s="45"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>198</v>
       </c>
@@ -3921,7 +4137,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>198</v>
       </c>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="296">
   <si>
     <t>vendorID</t>
   </si>
@@ -271,6 +266,9 @@
     <t>145f</t>
   </si>
   <si>
+    <t>x86_64</t>
+  </si>
+  <si>
     <t>nvidia</t>
   </si>
   <si>
@@ -292,9 +290,6 @@
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.4.2_470.57.02_linux.run</t>
   </si>
   <si>
-    <t>x86_64</t>
-  </si>
-  <si>
     <t>2022.03.18</t>
   </si>
   <si>
@@ -457,7 +452,7 @@
     <t>CX4</t>
   </si>
   <si>
-    <t>'06310161</t>
+    <t>06310161</t>
   </si>
   <si>
     <t>7CB01C12F2BC9C554FFB08CC1B2A56D3A30E7F4A</t>
@@ -868,6 +863,9 @@
     <t>1170</t>
   </si>
   <si>
+    <t>2022.05.24</t>
+  </si>
+  <si>
     <t>Xilinx</t>
   </si>
   <si>
@@ -883,6 +881,9 @@
     <t>2170</t>
   </si>
   <si>
+    <t>2022.05.25</t>
+  </si>
+  <si>
     <t>Mini PCI-E密码卡 SJK19140</t>
   </si>
   <si>
@@ -956,25 +957,19 @@
   </si>
   <si>
     <t>网卡速率不达标</t>
-  </si>
-  <si>
-    <t>2022.05.26</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.05.24</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.05.25</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -983,12 +978,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1029,24 +1018,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1054,25 +1025,150 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1091,8 +1187,194 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1235,10 +1517,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,15 +1767,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1278,45 +1799,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1329,47 +1842,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,10 +1882,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1393,17 +1897,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1413,24 +1917,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1503,9 +2050,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1763,19 +2307,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:J67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
@@ -1788,10 +2332,11 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
     <col min="14" max="14" width="31.125" customWidth="1"/>
     <col min="15" max="15" width="28.125" customWidth="1"/>
+    <col min="16" max="16" width="9.375" customWidth="1"/>
     <col min="17" max="17" width="138" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:21">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1843,14 +2388,14 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S1" s="50"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -1903,11 +2448,11 @@
         <v>32</v>
       </c>
       <c r="R2" s="12"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1960,11 +2505,11 @@
         <v>32</v>
       </c>
       <c r="R3" s="12"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
@@ -2017,11 +2562,11 @@
         <v>32</v>
       </c>
       <c r="R4" s="12"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="58"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="51"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -2043,7 +2588,7 @@
       <c r="G5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2055,7 +2600,7 @@
       <c r="K5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>55</v>
       </c>
       <c r="M5" s="12" t="s">
@@ -2064,21 +2609,21 @@
       <c r="N5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="32" t="s">
         <v>59</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="12"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -2097,7 +2642,7 @@
       <c r="F6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="12"/>
@@ -2129,21 +2674,21 @@
         <v>32</v>
       </c>
       <c r="R6" s="12"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" ht="14.25" spans="1:21">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -2152,13 +2697,13 @@
       <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>74</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -2167,83 +2712,83 @@
       <c r="K7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>75</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="33" t="s">
         <v>78</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="R7" s="12"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="59"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="52"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:21">
+      <c r="A8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>84</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="34" t="s">
         <v>87</v>
       </c>
+      <c r="O8" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="P8" s="12"/>
-      <c r="Q8" s="60" t="s">
-        <v>88</v>
+      <c r="Q8" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="R8" s="12"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="51"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -2257,12 +2802,12 @@
         <v>62</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="12"/>
@@ -2290,676 +2835,676 @@
       <c r="P9" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="54" t="s">
         <v>32</v>
       </c>
       <c r="R9" s="12"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:21">
+      <c r="A10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="F10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="52"/>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:21">
+      <c r="A11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="59"/>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="F11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="U11" s="56"/>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:18">
+      <c r="A12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="1:17">
+      <c r="A13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="1:21">
+      <c r="A14" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="D14" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="17" t="s">
+      <c r="J14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="57"/>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="1:21">
+      <c r="A15" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="17" t="s">
+      <c r="L15" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" s="17" t="s">
+      <c r="N15" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="U11" s="63"/>
-    </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="U15" s="56"/>
+    </row>
+    <row r="16" s="5" customFormat="1" spans="1:17">
+      <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C16" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:17">
+      <c r="A17" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:21">
+      <c r="A18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D18" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q12" s="20" t="s">
+      <c r="F18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="U18" s="57"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="1:17">
+      <c r="A19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="20" t="s">
+      <c r="D19" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q19" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+    <row r="20" s="5" customFormat="1" spans="1:17">
+      <c r="A20" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="E20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I20" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="20" t="s">
+      <c r="K20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N20" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O20" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="P20" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="64"/>
-    </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="63"/>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="O17" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="64"/>
-    </row>
-    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:21">
       <c r="A21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="18" t="s">
         <v>118</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="18" t="s">
         <v>120</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="35" t="s">
         <v>158</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="63"/>
-    </row>
-    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U21" s="56"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:17">
       <c r="A22" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2968,10 +3513,10 @@
       <c r="I22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="18" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -2983,33 +3528,33 @@
       <c r="N22" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="5" customFormat="1" spans="1:17">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -3018,7 +3563,7 @@
       <c r="I23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="18" t="s">
         <v>156</v>
       </c>
       <c r="K23" s="12" t="s">
@@ -3033,17 +3578,17 @@
       <c r="N23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="18" t="s">
         <v>165</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="5" customFormat="1" spans="1:21">
       <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
@@ -3056,10 +3601,10 @@
       <c r="D24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -3071,13 +3616,13 @@
       <c r="I24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="18" t="s">
         <v>169</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="18" t="s">
         <v>170</v>
       </c>
       <c r="M24" s="12" t="s">
@@ -3095,9 +3640,9 @@
       <c r="Q24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U24" s="64"/>
-    </row>
-    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U24" s="57"/>
+    </row>
+    <row r="25" s="5" customFormat="1" spans="1:17">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -3110,10 +3655,10 @@
       <c r="D25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="E25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -3125,13 +3670,13 @@
       <c r="I25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="18" t="s">
         <v>171</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="18" t="s">
         <v>172</v>
       </c>
       <c r="M25" s="12" t="s">
@@ -3150,7 +3695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="5" customFormat="1" spans="1:17">
       <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
@@ -3163,10 +3708,10 @@
       <c r="D26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -3178,13 +3723,13 @@
       <c r="I26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="18" t="s">
         <v>173</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="18" t="s">
         <v>172</v>
       </c>
       <c r="M26" s="12" t="s">
@@ -3203,7 +3748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="5" customFormat="1" spans="1:17">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -3216,28 +3761,28 @@
       <c r="D27" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="18" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="18" t="s">
         <v>172</v>
       </c>
       <c r="M27" s="12" t="s">
@@ -3256,7 +3801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="5" customFormat="1" spans="1:17">
       <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
@@ -3269,10 +3814,10 @@
       <c r="D28" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -3284,13 +3829,13 @@
       <c r="I28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="18" t="s">
         <v>107</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="18" t="s">
         <v>172</v>
       </c>
       <c r="M28" s="12" t="s">
@@ -3309,7 +3854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="5" customFormat="1" spans="1:17">
       <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
@@ -3322,10 +3867,10 @@
       <c r="D29" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -3337,13 +3882,13 @@
       <c r="I29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="18" t="s">
         <v>183</v>
       </c>
       <c r="M29" s="12" t="s">
@@ -3362,7 +3907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21">
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
@@ -3375,10 +3920,10 @@
       <c r="D30" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -3390,10 +3935,10 @@
       <c r="I30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="18" t="s">
         <v>182</v>
       </c>
       <c r="L30" s="12" t="s">
@@ -3419,106 +3964,106 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:17">
+      <c r="A31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="P31" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="Q31" s="65" t="s">
+      <c r="Q31" s="58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
+    <row r="32" ht="14.25" spans="1:21">
+      <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="36" t="s">
+      <c r="P32" s="32" t="s">
         <v>59</v>
       </c>
       <c r="Q32" s="12" t="s">
@@ -3529,33 +4074,33 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
+    <row r="33" ht="14.25" spans="1:17">
+      <c r="A33" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="4">
         <v>1214</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>89</v>
+      <c r="E33" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>82</v>
+      <c r="G33" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>84</v>
+      <c r="I33" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>188</v>
@@ -3565,44 +4110,44 @@
         <v>96</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="P33" s="41" t="s">
+      <c r="P33" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="Q33" s="66" t="s">
+      <c r="Q33" s="59" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="5" customFormat="1" spans="1:21">
       <c r="A34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="20" t="s">
+      <c r="E34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>118</v>
       </c>
       <c r="I34" s="5" t="s">
@@ -3614,10 +4159,10 @@
       <c r="K34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="18" t="s">
         <v>120</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -3629,168 +4174,168 @@
       <c r="P34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="Q34" s="21" t="s">
+      <c r="Q34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-    </row>
-    <row r="35" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+    </row>
+    <row r="35" s="5" customFormat="1" spans="1:17">
+      <c r="A35" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="21" t="s">
+      <c r="E35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="O35" s="22" t="s">
+      <c r="O35" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="P35" s="22" t="s">
+      <c r="P35" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
+    <row r="36" s="5" customFormat="1" spans="1:17">
+      <c r="A36" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="25" t="s">
+      <c r="F36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="K36" s="29" t="s">
+      <c r="K36" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="M36" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="P36" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="Q36" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A37" s="26">
+    <row r="37" spans="1:21">
+      <c r="A37" s="24">
         <v>8086</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>1583</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <v>8086</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="26" t="s">
+      <c r="F37" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26" t="s">
+      <c r="H37" s="24"/>
+      <c r="I37" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="L37" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="26" t="s">
+      <c r="N37" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="O37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="P37" s="26" t="s">
+      <c r="P37" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="Q37" s="28" t="s">
+      <c r="Q37" s="26" t="s">
         <v>32</v>
       </c>
       <c r="R37" s="5" t="s">
@@ -3800,54 +4345,54 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A38" s="26">
+    <row r="38" spans="1:21">
+      <c r="A38" s="24">
         <v>8086</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="24">
         <v>1583</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="24">
         <v>8086</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="28" t="s">
+      <c r="E38" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28" t="s">
+      <c r="H38" s="26"/>
+      <c r="I38" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="M38" s="28" t="s">
+      <c r="M38" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="N38" s="28" t="s">
+      <c r="N38" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="O38" s="28" t="s">
+      <c r="O38" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="P38" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="Q38" s="28" t="s">
+      <c r="Q38" s="26" t="s">
         <v>32</v>
       </c>
       <c r="R38" s="5" t="s">
@@ -3857,7 +4402,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
@@ -3877,13 +4422,13 @@
         <v>22</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>204</v>
@@ -3893,7 +4438,7 @@
         <v>96</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>97</v>
@@ -3904,11 +4449,11 @@
       <c r="P39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Q39" s="67" t="s">
+      <c r="Q39" s="60" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
@@ -3928,13 +4473,13 @@
         <v>22</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>204</v>
@@ -3944,7 +4489,7 @@
         <v>96</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>189</v>
@@ -3955,74 +4500,74 @@
       <c r="P40" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="Q40" s="68" t="s">
+      <c r="Q40" s="61" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:17">
+      <c r="A41" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="22">
         <v>3714</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="22">
         <v>5132</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="24" t="s">
+      <c r="E41" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="M41" s="24" t="s">
+      <c r="M41" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="N41" s="24" t="s">
+      <c r="N41" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="O41" s="42" t="s">
+      <c r="O41" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="P41" s="24" t="s">
+      <c r="P41" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="30" t="s">
+    <row r="42" s="7" customFormat="1" spans="1:21">
+      <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="27" t="s">
         <v>208</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -4031,53 +4576,53 @@
       <c r="F42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31" t="s">
+      <c r="H42" s="27"/>
+      <c r="I42" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="43" t="s">
+      <c r="J42" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="L42" s="31" t="s">
+      <c r="L42" s="27" t="s">
         <v>211</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="N42" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="O42" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="P42" s="27" t="s">
         <v>214</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-    </row>
-    <row r="43" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="31" t="s">
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="62"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="1:21">
+      <c r="A43" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="27" t="s">
         <v>217</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -4086,53 +4631,53 @@
       <c r="F43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31" t="s">
+      <c r="H43" s="27"/>
+      <c r="I43" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="43" t="s">
+      <c r="J43" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="L43" s="31" t="s">
+      <c r="L43" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="M43" s="31" t="s">
+      <c r="M43" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="31" t="s">
+      <c r="N43" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="O43" s="31" t="s">
+      <c r="O43" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="P43" s="31" t="s">
+      <c r="P43" s="27" t="s">
         <v>223</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-    </row>
-    <row r="44" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="31" t="s">
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="62"/>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:17">
+      <c r="A44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="27" t="s">
         <v>225</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4141,85 +4686,85 @@
       <c r="F44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="27" t="s">
         <v>118</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J44" s="43" t="s">
+      <c r="J44" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="31" t="s">
+      <c r="L44" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="N44" s="31" t="s">
+      <c r="N44" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="O44" s="31" t="s">
+      <c r="O44" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="P44" s="31" t="s">
+      <c r="P44" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="Q44" s="70" t="s">
+      <c r="Q44" s="63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A45" s="31" t="s">
+    <row r="45" spans="1:21">
+      <c r="A45" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="27" t="s">
         <v>216</v>
       </c>
       <c r="C45" s="4">
         <v>1077</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="27" t="s">
         <v>217</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="27" t="s">
         <v>218</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="J45" s="38" t="s">
         <v>230</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L45" s="43" t="s">
+      <c r="L45" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="M45" s="44" t="s">
+      <c r="M45" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="31" t="s">
+      <c r="N45" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="O45" s="31" t="s">
+      <c r="O45" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="31" t="s">
+      <c r="P45" s="27" t="s">
         <v>223</v>
       </c>
       <c r="Q45" s="4" t="s">
@@ -4230,17 +4775,17 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:21">
+      <c r="A46" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="27" t="s">
         <v>233</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -4249,2215 +4794,2215 @@
       <c r="F46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="27" t="s">
         <v>234</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="J46" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K46" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="L46" s="31" t="s">
+      <c r="L46" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="N46" s="39" t="s">
+      <c r="N46" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="O46" s="39" t="s">
+      <c r="O46" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="P46" s="31" t="s">
+      <c r="P46" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="Q46" s="71" t="s">
+      <c r="Q46" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="32" t="s">
+    <row r="47" ht="27" spans="1:28">
+      <c r="A47" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="30" t="s">
         <v>244</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J47" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="K47" s="46" t="s">
+      <c r="J47" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K47" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L47" s="34" t="s">
+      <c r="L47" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M47" s="34" t="s">
+      <c r="M47" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="N47" s="34" t="s">
+      <c r="N47" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="O47" s="34" t="s">
+      <c r="O47" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="72" t="s">
+      <c r="P47" s="40"/>
+      <c r="Q47" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="69"/>
-      <c r="AA47" s="69"/>
-      <c r="AB47" s="69"/>
-    </row>
-    <row r="48" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="32" t="s">
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+    </row>
+    <row r="48" ht="27" spans="1:28">
+      <c r="A48" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="30" t="s">
         <v>244</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J48" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="K48" s="46" t="s">
+      <c r="J48" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K48" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L48" s="34" t="s">
+      <c r="L48" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M48" s="34" t="s">
+      <c r="M48" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="N48" s="34" t="s">
+      <c r="N48" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="O48" s="34" t="s">
+      <c r="O48" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="72" t="s">
+      <c r="P48" s="41"/>
+      <c r="Q48" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R48" s="69"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="69"/>
-      <c r="U48" s="69"/>
-      <c r="V48" s="69"/>
-      <c r="W48" s="69"/>
-      <c r="X48" s="69"/>
-      <c r="Y48" s="69"/>
-      <c r="Z48" s="69"/>
-      <c r="AA48" s="69"/>
-      <c r="AB48" s="69"/>
-    </row>
-    <row r="49" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="32" t="s">
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="62"/>
+    </row>
+    <row r="49" ht="27" spans="1:28">
+      <c r="A49" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="30" t="s">
         <v>244</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J49" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="K49" s="46" t="s">
+      <c r="J49" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K49" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L49" s="34" t="s">
+      <c r="L49" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M49" s="34" t="s">
+      <c r="M49" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="N49" s="34" t="s">
+      <c r="N49" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="O49" s="34" t="s">
+      <c r="O49" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="72" t="s">
+      <c r="P49" s="42"/>
+      <c r="Q49" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R49" s="69"/>
-      <c r="S49" s="69"/>
-      <c r="T49" s="69"/>
-      <c r="U49" s="69"/>
-      <c r="V49" s="69"/>
-      <c r="W49" s="69"/>
-      <c r="X49" s="69"/>
-      <c r="Y49" s="69"/>
-      <c r="Z49" s="69"/>
-      <c r="AA49" s="69"/>
-      <c r="AB49" s="69"/>
-    </row>
-    <row r="50" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="32" t="s">
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
+      <c r="AA49" s="62"/>
+      <c r="AB49" s="62"/>
+    </row>
+    <row r="50" ht="27" spans="1:28">
+      <c r="A50" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="30" t="s">
         <v>244</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J50" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="K50" s="46" t="s">
+      <c r="J50" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K50" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L50" s="34" t="s">
+      <c r="L50" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M50" s="34" t="s">
+      <c r="M50" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="N50" s="34" t="s">
+      <c r="N50" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="O50" s="34" t="s">
+      <c r="O50" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="72" t="s">
+      <c r="P50" s="43"/>
+      <c r="Q50" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R50" s="69"/>
-      <c r="S50" s="69"/>
-      <c r="T50" s="69"/>
-      <c r="U50" s="69"/>
-      <c r="V50" s="69"/>
-      <c r="W50" s="69"/>
-      <c r="X50" s="69"/>
-      <c r="Y50" s="69"/>
-      <c r="Z50" s="69"/>
-      <c r="AA50" s="69"/>
-      <c r="AB50" s="69"/>
-    </row>
-    <row r="51" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="34" t="s">
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="62"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="62"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="62"/>
+      <c r="AA50" s="62"/>
+      <c r="AB50" s="62"/>
+    </row>
+    <row r="51" ht="27" spans="1:28">
+      <c r="A51" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="30" t="s">
         <v>244</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J51" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="K51" s="46" t="s">
+      <c r="J51" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K51" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L51" s="34" t="s">
+      <c r="L51" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M51" s="34" t="s">
+      <c r="M51" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N51" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O51" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="62"/>
+      <c r="V51" s="62"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="62"/>
+      <c r="AA51" s="62"/>
+      <c r="AB51" s="62"/>
+    </row>
+    <row r="52" ht="27" spans="1:28">
+      <c r="A52" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="N51" s="34" t="s">
+      <c r="K52" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M52" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="O51" s="51" t="s">
+      <c r="N52" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O52" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="62"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62"/>
+      <c r="AB52" s="62"/>
+    </row>
+    <row r="53" ht="27" spans="1:28">
+      <c r="A53" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N53" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O53" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="62"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="62"/>
+      <c r="AA53" s="62"/>
+      <c r="AB53" s="62"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K54" s="39"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="N54" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="O54" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="62"/>
+      <c r="AA54" s="62"/>
+      <c r="AB54" s="62"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="N55" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="O55" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="62"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K56" s="39"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="O56" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+    </row>
+    <row r="57" ht="27" spans="1:28">
+      <c r="A57" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K57" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="O57" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="62"/>
+      <c r="AB57" s="62"/>
+    </row>
+    <row r="58" ht="27" spans="1:28">
+      <c r="A58" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K58" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L58" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M58" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N58" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="O58" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="66"/>
+      <c r="W58" s="66"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="66"/>
+      <c r="Z58" s="66"/>
+      <c r="AA58" s="66"/>
+      <c r="AB58" s="66"/>
+    </row>
+    <row r="59" ht="27" spans="1:28">
+      <c r="A59" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M59" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="O59" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="66"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="66"/>
+      <c r="Z59" s="66"/>
+      <c r="AA59" s="66"/>
+      <c r="AB59" s="66"/>
+    </row>
+    <row r="60" ht="27" spans="1:28">
+      <c r="A60" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J60" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K60" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L60" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M60" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N60" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="O60" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R60" s="66"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="66"/>
+      <c r="V60" s="66"/>
+      <c r="W60" s="66"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="66"/>
+      <c r="Z60" s="66"/>
+      <c r="AA60" s="66"/>
+      <c r="AB60" s="66"/>
+    </row>
+    <row r="61" ht="27" spans="1:28">
+      <c r="A61" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L61" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M61" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N61" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O61" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="62"/>
+      <c r="Y61" s="62"/>
+      <c r="Z61" s="62"/>
+      <c r="AA61" s="62"/>
+      <c r="AB61" s="62"/>
+    </row>
+    <row r="62" ht="27" spans="1:28">
+      <c r="A62" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K62" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L62" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M62" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N62" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O62" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="62"/>
+      <c r="Z62" s="62"/>
+      <c r="AA62" s="62"/>
+      <c r="AB62" s="62"/>
+    </row>
+    <row r="63" ht="27" spans="1:28">
+      <c r="A63" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I63" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K63" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L63" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M63" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N63" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="O63" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="62"/>
+      <c r="Z63" s="62"/>
+      <c r="AA63" s="62"/>
+      <c r="AB63" s="62"/>
+    </row>
+    <row r="64" ht="27" spans="1:28">
+      <c r="A64" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L64" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M64" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N64" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O64" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="62"/>
+      <c r="W64" s="62"/>
+      <c r="X64" s="62"/>
+      <c r="Y64" s="62"/>
+      <c r="Z64" s="62"/>
+      <c r="AA64" s="62"/>
+      <c r="AB64" s="62"/>
+    </row>
+    <row r="65" ht="27" spans="1:28">
+      <c r="A65" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L65" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M65" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="O65" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="62"/>
+      <c r="W65" s="62"/>
+      <c r="X65" s="62"/>
+      <c r="Y65" s="62"/>
+      <c r="Z65" s="62"/>
+      <c r="AA65" s="62"/>
+      <c r="AB65" s="62"/>
+    </row>
+    <row r="66" ht="27" spans="1:28">
+      <c r="A66" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K66" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L66" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M66" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N66" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O66" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R66" s="62"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="62"/>
+      <c r="V66" s="62"/>
+      <c r="W66" s="62"/>
+      <c r="X66" s="62"/>
+      <c r="Y66" s="62"/>
+      <c r="Z66" s="62"/>
+      <c r="AA66" s="62"/>
+      <c r="AB66" s="62"/>
+    </row>
+    <row r="67" ht="27" spans="1:28">
+      <c r="A67" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K67" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L67" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N67" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="O67" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="62"/>
+      <c r="W67" s="62"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="62"/>
+      <c r="Z67" s="62"/>
+      <c r="AA67" s="62"/>
+      <c r="AB67" s="62"/>
+    </row>
+    <row r="68" ht="27" spans="1:28">
+      <c r="A68" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I68" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K68" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L68" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M68" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N68" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="72" t="s">
+      <c r="O68" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-    </row>
-    <row r="52" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="34" t="s">
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="62"/>
+      <c r="V68" s="62"/>
+      <c r="W68" s="62"/>
+      <c r="X68" s="62"/>
+      <c r="Y68" s="62"/>
+      <c r="Z68" s="62"/>
+      <c r="AA68" s="62"/>
+      <c r="AB68" s="62"/>
+    </row>
+    <row r="69" ht="27" spans="1:28">
+      <c r="A69" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B69" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C69" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D69" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="34" t="s">
+      <c r="E69" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H52" s="34" t="s">
+      <c r="H69" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I52" s="34" t="s">
+      <c r="I69" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J52" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="K52" s="46" t="s">
+      <c r="J69" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K69" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L52" s="34" t="s">
+      <c r="L69" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M52" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N52" s="34" t="s">
+      <c r="M69" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O69" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="O52" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="72" t="s">
+      <c r="P69" s="43"/>
+      <c r="Q69" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="69"/>
-      <c r="X52" s="69"/>
-      <c r="Y52" s="69"/>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-    </row>
-    <row r="53" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="34" t="s">
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="62"/>
+      <c r="V69" s="62"/>
+      <c r="W69" s="62"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="62"/>
+      <c r="Z69" s="62"/>
+      <c r="AA69" s="62"/>
+      <c r="AB69" s="62"/>
+    </row>
+    <row r="70" ht="27" spans="1:28">
+      <c r="A70" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B53" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C53" s="34" t="s">
+      <c r="B70" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D70" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="34" t="s">
+      <c r="E70" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H53" s="34" t="s">
+      <c r="H70" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="I70" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J53" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K53" s="46" t="s">
+      <c r="J70" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K70" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L53" s="34" t="s">
+      <c r="L70" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M53" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N53" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="O53" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="72" t="s">
+      <c r="M70" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N70" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O70" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="69"/>
-      <c r="X53" s="69"/>
-      <c r="Y53" s="69"/>
-      <c r="Z53" s="69"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A54" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" s="34" t="s">
+      <c r="R70" s="62"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="62"/>
+      <c r="V70" s="62"/>
+      <c r="W70" s="62"/>
+      <c r="X70" s="62"/>
+      <c r="Y70" s="62"/>
+      <c r="Z70" s="62"/>
+      <c r="AA70" s="62"/>
+      <c r="AB70" s="62"/>
+    </row>
+    <row r="71" ht="27" spans="1:28">
+      <c r="A71" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34" t="s">
+      <c r="E71" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I71" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J54" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K54" s="46"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="N54" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="O54" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="69"/>
-      <c r="S54" s="69"/>
-      <c r="T54" s="69"/>
-      <c r="U54" s="69"/>
-      <c r="V54" s="69"/>
-      <c r="W54" s="69"/>
-      <c r="X54" s="69"/>
-      <c r="Y54" s="69"/>
-      <c r="Z54" s="69"/>
-      <c r="AA54" s="69"/>
-      <c r="AB54" s="69"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A55" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="34" t="s">
+      <c r="J71" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K71" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L71" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M71" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N71" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="O71" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P71" s="48"/>
+      <c r="Q71" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="62"/>
+      <c r="V71" s="62"/>
+      <c r="W71" s="62"/>
+      <c r="X71" s="62"/>
+      <c r="Y71" s="62"/>
+      <c r="Z71" s="62"/>
+      <c r="AA71" s="62"/>
+      <c r="AB71" s="62"/>
+    </row>
+    <row r="72" ht="27" spans="1:28">
+      <c r="A72" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34" t="s">
+      <c r="E72" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I72" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J55" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K55" s="46"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="N55" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="O55" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="69"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="69"/>
-      <c r="U55" s="69"/>
-      <c r="V55" s="69"/>
-      <c r="W55" s="69"/>
-      <c r="X55" s="69"/>
-      <c r="Y55" s="69"/>
-      <c r="Z55" s="69"/>
-      <c r="AA55" s="69"/>
-      <c r="AB55" s="69"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A56" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D56" s="34" t="s">
+      <c r="J72" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K72" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L72" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M72" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N72" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="O72" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R72" s="66"/>
+      <c r="S72" s="66"/>
+      <c r="T72" s="66"/>
+      <c r="U72" s="66"/>
+      <c r="V72" s="66"/>
+      <c r="W72" s="66"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="66"/>
+      <c r="Z72" s="66"/>
+      <c r="AA72" s="66"/>
+      <c r="AB72" s="66"/>
+    </row>
+    <row r="73" ht="27" spans="1:28">
+      <c r="A73" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34" t="s">
+      <c r="E73" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I73" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J56" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K56" s="46"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="N56" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="O56" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="72"/>
-      <c r="R56" s="69"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="69"/>
-      <c r="W56" s="69"/>
-      <c r="X56" s="69"/>
-      <c r="Y56" s="69"/>
-      <c r="Z56" s="69"/>
-      <c r="AA56" s="69"/>
-      <c r="AB56" s="69"/>
-    </row>
-    <row r="57" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="34" t="s">
+      <c r="J73" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K73" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L73" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M73" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N73" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="O73" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="66"/>
+      <c r="W73" s="66"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="66"/>
+      <c r="Z73" s="66"/>
+      <c r="AA73" s="66"/>
+      <c r="AB73" s="66"/>
+    </row>
+    <row r="74" ht="27" spans="1:28">
+      <c r="A74" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B74" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C74" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D74" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="34" t="s">
+      <c r="E74" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H57" s="34" t="s">
+      <c r="H74" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I57" s="34" t="s">
+      <c r="I74" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J57" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K57" s="46" t="s">
+      <c r="J74" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K74" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L57" s="34" t="s">
+      <c r="L74" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M57" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N57" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="O57" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="72" t="s">
+      <c r="M74" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="N74" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="O74" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R57" s="69"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="69"/>
-      <c r="W57" s="69"/>
-      <c r="X57" s="69"/>
-      <c r="Y57" s="69"/>
-      <c r="Z57" s="69"/>
-      <c r="AA57" s="69"/>
-      <c r="AB57" s="69"/>
-    </row>
-    <row r="58" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" s="34" t="s">
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="66"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="66"/>
+      <c r="AB74" s="66"/>
+    </row>
+    <row r="75" ht="27" spans="1:28">
+      <c r="A75" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B75" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C75" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D75" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="34" t="s">
+      <c r="E75" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="34" t="s">
+      <c r="H75" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I58" s="34" t="s">
+      <c r="I75" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J58" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K58" s="46" t="s">
+      <c r="J75" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K75" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L58" s="34" t="s">
+      <c r="L75" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M58" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N58" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="O58" s="51" t="s">
+      <c r="M75" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="72" t="s">
+      <c r="N75" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O75" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="73"/>
-      <c r="W58" s="73"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="73"/>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="73"/>
-    </row>
-    <row r="59" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" s="34" t="s">
+      <c r="R75" s="62"/>
+      <c r="S75" s="62"/>
+      <c r="T75" s="62"/>
+      <c r="U75" s="62"/>
+      <c r="V75" s="62"/>
+      <c r="W75" s="62"/>
+      <c r="X75" s="62"/>
+      <c r="Y75" s="62"/>
+      <c r="Z75" s="62"/>
+      <c r="AA75" s="62"/>
+      <c r="AB75" s="62"/>
+    </row>
+    <row r="76" ht="27" spans="1:28">
+      <c r="A76" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B76" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C76" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D76" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="34" t="s">
+      <c r="E76" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H59" s="34" t="s">
+      <c r="H76" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I76" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J59" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K59" s="46" t="s">
+      <c r="J76" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K76" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L59" s="34" t="s">
+      <c r="L76" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M59" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N59" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="O59" s="51" t="s">
+      <c r="M76" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="72" t="s">
+      <c r="N76" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="O76" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
-    </row>
-    <row r="60" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="34" t="s">
+      <c r="R76" s="62"/>
+      <c r="S76" s="62"/>
+      <c r="T76" s="62"/>
+      <c r="U76" s="62"/>
+      <c r="V76" s="62"/>
+      <c r="W76" s="62"/>
+      <c r="X76" s="62"/>
+      <c r="Y76" s="62"/>
+      <c r="Z76" s="62"/>
+      <c r="AA76" s="62"/>
+      <c r="AB76" s="62"/>
+    </row>
+    <row r="77" ht="27" spans="1:28">
+      <c r="A77" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B77" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C77" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D77" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="34" t="s">
+      <c r="E77" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H77" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I60" s="34" t="s">
+      <c r="I77" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J60" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K60" s="46" t="s">
+      <c r="J77" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K77" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L60" s="34" t="s">
+      <c r="L77" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M60" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N60" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="O60" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="72" t="s">
+      <c r="M77" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N77" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="O77" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="73"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
-    </row>
-    <row r="61" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A61" s="34" t="s">
+      <c r="R77" s="62"/>
+      <c r="S77" s="62"/>
+      <c r="T77" s="62"/>
+      <c r="U77" s="62"/>
+      <c r="V77" s="62"/>
+      <c r="W77" s="62"/>
+      <c r="X77" s="62"/>
+      <c r="Y77" s="62"/>
+      <c r="Z77" s="62"/>
+      <c r="AA77" s="62"/>
+      <c r="AB77" s="62"/>
+    </row>
+    <row r="78" ht="27" spans="1:28">
+      <c r="A78" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B78" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C78" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D78" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="34" t="s">
+      <c r="E78" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H61" s="34" t="s">
+      <c r="H78" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I61" s="34" t="s">
+      <c r="I78" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J61" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="K61" s="46" t="s">
+      <c r="J78" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K78" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L61" s="34" t="s">
+      <c r="L78" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M61" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N61" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="O61" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="72" t="s">
+      <c r="M78" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N78" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O78" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R61" s="69"/>
-      <c r="S61" s="69"/>
-      <c r="T61" s="69"/>
-      <c r="U61" s="69"/>
-      <c r="V61" s="69"/>
-      <c r="W61" s="69"/>
-      <c r="X61" s="69"/>
-      <c r="Y61" s="69"/>
-      <c r="Z61" s="69"/>
-      <c r="AA61" s="69"/>
-      <c r="AB61" s="69"/>
-    </row>
-    <row r="62" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="34" t="s">
+      <c r="R78" s="62"/>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="62"/>
+      <c r="V78" s="62"/>
+      <c r="W78" s="62"/>
+      <c r="X78" s="62"/>
+      <c r="Y78" s="62"/>
+      <c r="Z78" s="62"/>
+      <c r="AA78" s="62"/>
+      <c r="AB78" s="62"/>
+    </row>
+    <row r="79" ht="27" spans="1:28">
+      <c r="A79" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B79" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C79" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D79" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="34" t="s">
+      <c r="E79" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H62" s="34" t="s">
+      <c r="H79" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I62" s="34" t="s">
+      <c r="I79" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J62" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="K62" s="46" t="s">
+      <c r="J79" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K79" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L62" s="34" t="s">
+      <c r="L79" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M62" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N62" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="O62" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="72" t="s">
+      <c r="M79" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N79" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="O79" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
-      <c r="X62" s="69"/>
-      <c r="Y62" s="69"/>
-      <c r="Z62" s="69"/>
-      <c r="AA62" s="69"/>
-      <c r="AB62" s="69"/>
-    </row>
-    <row r="63" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="34" t="s">
+      <c r="R79" s="62"/>
+      <c r="S79" s="62"/>
+      <c r="T79" s="62"/>
+      <c r="U79" s="62"/>
+      <c r="V79" s="62"/>
+      <c r="W79" s="62"/>
+      <c r="X79" s="62"/>
+      <c r="Y79" s="62"/>
+      <c r="Z79" s="62"/>
+      <c r="AA79" s="62"/>
+      <c r="AB79" s="62"/>
+    </row>
+    <row r="80" ht="27" spans="1:28">
+      <c r="A80" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B80" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C80" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D80" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="34" t="s">
+      <c r="E80" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H80" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="I80" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J63" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="K63" s="46" t="s">
+      <c r="J80" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K80" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L63" s="34" t="s">
+      <c r="L80" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M63" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N63" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="O63" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="72" t="s">
+      <c r="M80" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N80" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O80" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R63" s="69"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
-      <c r="X63" s="69"/>
-      <c r="Y63" s="69"/>
-      <c r="Z63" s="69"/>
-      <c r="AA63" s="69"/>
-      <c r="AB63" s="69"/>
-    </row>
-    <row r="64" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="34" t="s">
+      <c r="R80" s="62"/>
+      <c r="S80" s="62"/>
+      <c r="T80" s="62"/>
+      <c r="U80" s="62"/>
+      <c r="V80" s="62"/>
+      <c r="W80" s="62"/>
+      <c r="X80" s="62"/>
+      <c r="Y80" s="62"/>
+      <c r="Z80" s="62"/>
+      <c r="AA80" s="62"/>
+      <c r="AB80" s="62"/>
+    </row>
+    <row r="81" ht="27" spans="1:28">
+      <c r="A81" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B81" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C81" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D81" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="34" t="s">
+      <c r="E81" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H64" s="34" t="s">
+      <c r="H81" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="I81" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J64" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="K64" s="46" t="s">
+      <c r="J81" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K81" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="L64" s="34" t="s">
+      <c r="L81" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M64" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N64" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="O64" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="72" t="s">
+      <c r="M81" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="N81" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="O81" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="R64" s="69"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="69"/>
-      <c r="U64" s="69"/>
-      <c r="V64" s="69"/>
-      <c r="W64" s="69"/>
-      <c r="X64" s="69"/>
-      <c r="Y64" s="69"/>
-      <c r="Z64" s="69"/>
-      <c r="AA64" s="69"/>
-      <c r="AB64" s="69"/>
-    </row>
-    <row r="65" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I65" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J65" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="K65" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L65" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M65" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N65" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="O65" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R65" s="69"/>
-      <c r="S65" s="69"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="69"/>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="69"/>
-      <c r="AA65" s="69"/>
-      <c r="AB65" s="69"/>
-    </row>
-    <row r="66" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J66" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K66" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L66" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M66" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N66" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="O66" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R66" s="69"/>
-      <c r="S66" s="69"/>
-      <c r="T66" s="69"/>
-      <c r="U66" s="69"/>
-      <c r="V66" s="69"/>
-      <c r="W66" s="69"/>
-      <c r="X66" s="69"/>
-      <c r="Y66" s="69"/>
-      <c r="Z66" s="69"/>
-      <c r="AA66" s="69"/>
-      <c r="AB66" s="69"/>
-    </row>
-    <row r="67" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J67" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="K67" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L67" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M67" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N67" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="O67" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R67" s="69"/>
-      <c r="S67" s="69"/>
-      <c r="T67" s="69"/>
-      <c r="U67" s="69"/>
-      <c r="V67" s="69"/>
-      <c r="W67" s="69"/>
-      <c r="X67" s="69"/>
-      <c r="Y67" s="69"/>
-      <c r="Z67" s="69"/>
-      <c r="AA67" s="69"/>
-      <c r="AB67" s="69"/>
-    </row>
-    <row r="68" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E68" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J68" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K68" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L68" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M68" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N68" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="O68" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R68" s="69"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="69"/>
-      <c r="U68" s="69"/>
-      <c r="V68" s="69"/>
-      <c r="W68" s="69"/>
-      <c r="X68" s="69"/>
-      <c r="Y68" s="69"/>
-      <c r="Z68" s="69"/>
-      <c r="AA68" s="69"/>
-      <c r="AB68" s="69"/>
-    </row>
-    <row r="69" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E69" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J69" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K69" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L69" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M69" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N69" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="O69" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R69" s="69"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69"/>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="69"/>
-    </row>
-    <row r="70" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E70" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J70" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K70" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L70" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M70" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N70" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="O70" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R70" s="69"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="69"/>
-      <c r="U70" s="69"/>
-      <c r="V70" s="69"/>
-      <c r="W70" s="69"/>
-      <c r="X70" s="69"/>
-      <c r="Y70" s="69"/>
-      <c r="Z70" s="69"/>
-      <c r="AA70" s="69"/>
-      <c r="AB70" s="69"/>
-    </row>
-    <row r="71" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H71" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I71" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J71" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K71" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L71" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M71" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N71" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="O71" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R71" s="69"/>
-      <c r="S71" s="69"/>
-      <c r="T71" s="69"/>
-      <c r="U71" s="69"/>
-      <c r="V71" s="69"/>
-      <c r="W71" s="69"/>
-      <c r="X71" s="69"/>
-      <c r="Y71" s="69"/>
-      <c r="Z71" s="69"/>
-      <c r="AA71" s="69"/>
-      <c r="AB71" s="69"/>
-    </row>
-    <row r="72" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I72" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J72" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K72" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L72" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M72" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N72" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="O72" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R72" s="73"/>
-      <c r="S72" s="73"/>
-      <c r="T72" s="73"/>
-      <c r="U72" s="73"/>
-      <c r="V72" s="73"/>
-      <c r="W72" s="73"/>
-      <c r="X72" s="73"/>
-      <c r="Y72" s="73"/>
-      <c r="Z72" s="73"/>
-      <c r="AA72" s="73"/>
-      <c r="AB72" s="73"/>
-    </row>
-    <row r="73" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E73" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I73" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J73" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K73" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L73" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M73" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N73" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="O73" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R73" s="73"/>
-      <c r="S73" s="73"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="73"/>
-      <c r="W73" s="73"/>
-      <c r="X73" s="73"/>
-      <c r="Y73" s="73"/>
-      <c r="Z73" s="73"/>
-      <c r="AA73" s="73"/>
-      <c r="AB73" s="73"/>
-    </row>
-    <row r="74" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I74" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J74" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K74" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L74" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M74" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N74" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="O74" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R74" s="73"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
-      <c r="W74" s="73"/>
-      <c r="X74" s="73"/>
-      <c r="Y74" s="73"/>
-      <c r="Z74" s="73"/>
-      <c r="AA74" s="73"/>
-      <c r="AB74" s="73"/>
-    </row>
-    <row r="75" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J75" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K75" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L75" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M75" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N75" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="O75" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R75" s="69"/>
-      <c r="S75" s="69"/>
-      <c r="T75" s="69"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="69"/>
-      <c r="W75" s="69"/>
-      <c r="X75" s="69"/>
-      <c r="Y75" s="69"/>
-      <c r="Z75" s="69"/>
-      <c r="AA75" s="69"/>
-      <c r="AB75" s="69"/>
-    </row>
-    <row r="76" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A76" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I76" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J76" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K76" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L76" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M76" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="N76" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="O76" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R76" s="69"/>
-      <c r="S76" s="69"/>
-      <c r="T76" s="69"/>
-      <c r="U76" s="69"/>
-      <c r="V76" s="69"/>
-      <c r="W76" s="69"/>
-      <c r="X76" s="69"/>
-      <c r="Y76" s="69"/>
-      <c r="Z76" s="69"/>
-      <c r="AA76" s="69"/>
-      <c r="AB76" s="69"/>
-    </row>
-    <row r="77" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J77" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K77" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M77" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N77" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="O77" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R77" s="69"/>
-      <c r="S77" s="69"/>
-      <c r="T77" s="69"/>
-      <c r="U77" s="69"/>
-      <c r="V77" s="69"/>
-      <c r="W77" s="69"/>
-      <c r="X77" s="69"/>
-      <c r="Y77" s="69"/>
-      <c r="Z77" s="69"/>
-      <c r="AA77" s="69"/>
-      <c r="AB77" s="69"/>
-    </row>
-    <row r="78" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J78" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K78" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L78" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M78" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N78" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="O78" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R78" s="69"/>
-      <c r="S78" s="69"/>
-      <c r="T78" s="69"/>
-      <c r="U78" s="69"/>
-      <c r="V78" s="69"/>
-      <c r="W78" s="69"/>
-      <c r="X78" s="69"/>
-      <c r="Y78" s="69"/>
-      <c r="Z78" s="69"/>
-      <c r="AA78" s="69"/>
-      <c r="AB78" s="69"/>
-    </row>
-    <row r="79" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A79" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E79" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I79" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J79" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K79" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L79" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M79" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N79" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="O79" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P79" s="50"/>
-      <c r="Q79" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R79" s="69"/>
-      <c r="S79" s="69"/>
-      <c r="T79" s="69"/>
-      <c r="U79" s="69"/>
-      <c r="V79" s="69"/>
-      <c r="W79" s="69"/>
-      <c r="X79" s="69"/>
-      <c r="Y79" s="69"/>
-      <c r="Z79" s="69"/>
-      <c r="AA79" s="69"/>
-      <c r="AB79" s="69"/>
-    </row>
-    <row r="80" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H80" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I80" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J80" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K80" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L80" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M80" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N80" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="O80" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R80" s="69"/>
-      <c r="S80" s="69"/>
-      <c r="T80" s="69"/>
-      <c r="U80" s="69"/>
-      <c r="V80" s="69"/>
-      <c r="W80" s="69"/>
-      <c r="X80" s="69"/>
-      <c r="Y80" s="69"/>
-      <c r="Z80" s="69"/>
-      <c r="AA80" s="69"/>
-      <c r="AB80" s="69"/>
-    </row>
-    <row r="81" spans="1:28" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E81" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="H81" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="I81" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J81" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="K81" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="L81" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="M81" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N81" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="O81" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="R81" s="69"/>
-      <c r="S81" s="69"/>
-      <c r="T81" s="69"/>
-      <c r="U81" s="69"/>
-      <c r="V81" s="69"/>
-      <c r="W81" s="69"/>
-      <c r="X81" s="69"/>
-      <c r="Y81" s="69"/>
-      <c r="Z81" s="69"/>
-      <c r="AA81" s="69"/>
-      <c r="AB81" s="69"/>
+      <c r="R81" s="62"/>
+      <c r="S81" s="62"/>
+      <c r="T81" s="62"/>
+      <c r="U81" s="62"/>
+      <c r="V81" s="62"/>
+      <c r="W81" s="62"/>
+      <c r="X81" s="62"/>
+      <c r="Y81" s="62"/>
+      <c r="Z81" s="62"/>
+      <c r="AA81" s="62"/>
+      <c r="AB81" s="62"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U81"/>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
-      <formula1>"aarch64,x86_64"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47:E67">
+  <autoFilter ref="A1:U81">
+    <extLst/>
+  </autoFilter>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1"/>
-    <hyperlink ref="Q8" r:id="rId2"/>
-    <hyperlink ref="Q33" r:id="rId3"/>
-    <hyperlink ref="Q39" r:id="rId4"/>
-    <hyperlink ref="Q40" r:id="rId5"/>
-    <hyperlink ref="Q47" r:id="rId6"/>
+    <hyperlink ref="Q10" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
+    <hyperlink ref="Q8" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.4.2_470.57.02_linux.run"/>
+    <hyperlink ref="Q33" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
+    <hyperlink ref="Q39" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
+    <hyperlink ref="Q40" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
+    <hyperlink ref="Q47" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/swsm_driver_3.0.3.zip"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -6465,34 +7010,33 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="295">
   <si>
     <t>vendorID</t>
   </si>
@@ -494,7 +494,7 @@
     <t>SP351</t>
   </si>
   <si>
-    <t>MT27808A0-FCCF-EV</t>
+    <t>CX5</t>
   </si>
   <si>
     <t>03024QAY</t>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>MCX516A-CCAT</t>
-  </si>
-  <si>
-    <t>CX5</t>
   </si>
   <si>
     <t>06310158</t>
@@ -964,9 +961,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1025,8 +1022,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1034,7 +1052,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1048,29 +1074,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,6 +1097,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1093,29 +1120,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,38 +1159,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,7 +1186,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1288,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,31 +1330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,55 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,67 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,33 +1542,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1592,16 +1578,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1609,155 +1604,157 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1847,7 +1844,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1855,6 +1851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2315,8 +2312,8 @@
   <sheetPr/>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3477,7 +3474,7 @@
       <c r="N21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="20" t="s">
         <v>158</v>
       </c>
       <c r="P21" s="5" t="s">
@@ -4115,10 +4112,10 @@
       <c r="N33" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="P33" s="37" t="s">
+      <c r="P33" s="36" t="s">
         <v>191</v>
       </c>
       <c r="Q33" s="59" t="s">
@@ -4168,7 +4165,7 @@
       <c r="N34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="20" t="s">
         <v>158</v>
       </c>
       <c r="P34" s="5" t="s">
@@ -4226,10 +4223,10 @@
         <v>193</v>
       </c>
       <c r="O35" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="P35" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>195</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>32</v>
@@ -4279,10 +4276,10 @@
         <v>193</v>
       </c>
       <c r="O36" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="P36" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>32</v>
@@ -4299,7 +4296,7 @@
         <v>8086</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>21</v>
@@ -4308,38 +4305,38 @@
         <v>22</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24" t="s">
         <v>53</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K37" s="24" t="s">
         <v>182</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M37" s="24" t="s">
         <v>66</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>66</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="26" t="s">
         <v>32</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -4356,7 +4353,7 @@
         <v>8086</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>82</v>
@@ -4365,38 +4362,38 @@
         <v>22</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="26" t="s">
         <v>53</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K38" s="26" t="s">
         <v>91</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M38" s="26" t="s">
         <v>66</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O38" s="26" t="s">
         <v>66</v>
       </c>
       <c r="P38" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="26" t="s">
         <v>32</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -4431,7 +4428,7 @@
         <v>85</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
@@ -4450,7 +4447,7 @@
         <v>99</v>
       </c>
       <c r="Q39" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4482,7 +4479,7 @@
         <v>85</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
@@ -4501,7 +4498,7 @@
         <v>191</v>
       </c>
       <c r="Q40" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4533,13 +4530,13 @@
         <v>74</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>91</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M41" s="22" t="s">
         <v>56</v>
@@ -4562,13 +4559,13 @@
         <v>48</v>
       </c>
       <c r="B42" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>208</v>
-      </c>
       <c r="D42" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
@@ -4577,32 +4574,32 @@
         <v>22</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="38" t="s">
-        <v>210</v>
+      <c r="J42" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="K42" s="27" t="s">
         <v>182</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>56</v>
       </c>
       <c r="N42" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O42" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="O42" s="27" t="s">
+      <c r="P42" s="27" t="s">
         <v>213</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>214</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>32</v>
@@ -4614,16 +4611,16 @@
     </row>
     <row r="43" s="7" customFormat="1" spans="1:21">
       <c r="A43" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>216</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>21</v>
@@ -4632,32 +4629,32 @@
         <v>22</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="38" t="s">
-        <v>219</v>
+      <c r="J43" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="K43" s="27" t="s">
         <v>182</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M43" s="27" t="s">
         <v>44</v>
       </c>
       <c r="N43" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O43" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="O43" s="27" t="s">
+      <c r="P43" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>223</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>32</v>
@@ -4672,13 +4669,13 @@
         <v>114</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>114</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
@@ -4695,8 +4692,8 @@
       <c r="I44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J44" s="38" t="s">
-        <v>226</v>
+      <c r="J44" s="37" t="s">
+        <v>225</v>
       </c>
       <c r="K44" s="27" t="s">
         <v>182</v>
@@ -4708,13 +4705,13 @@
         <v>120</v>
       </c>
       <c r="N44" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O44" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="O44" s="27" t="s">
+      <c r="P44" s="27" t="s">
         <v>228</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>229</v>
       </c>
       <c r="Q44" s="63" t="s">
         <v>32</v>
@@ -4722,16 +4719,16 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>216</v>
       </c>
       <c r="C45" s="4">
         <v>1077</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>82</v>
@@ -4740,32 +4737,32 @@
         <v>22</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="38" t="s">
-        <v>230</v>
+      <c r="J45" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L45" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="M45" s="38" t="s">
+      <c r="L45" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="37" t="s">
         <v>44</v>
       </c>
       <c r="N45" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O45" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="O45" s="27" t="s">
+      <c r="P45" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>223</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>32</v>
@@ -4777,16 +4774,16 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>233</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>21</v>
@@ -4795,32 +4792,32 @@
         <v>22</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="L46" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="M46" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="M46" s="35" t="s">
+      <c r="N46" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="N46" s="35" t="s">
+      <c r="O46" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="O46" s="35" t="s">
+      <c r="P46" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>241</v>
       </c>
       <c r="Q46" s="64" t="s">
         <v>32</v>
@@ -4832,16 +4829,16 @@
     </row>
     <row r="47" ht="27" spans="1:28">
       <c r="A47" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="C47" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>243</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>244</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>82</v>
@@ -4850,35 +4847,35 @@
         <v>22</v>
       </c>
       <c r="G47" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="I47" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="J47" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K47" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J47" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K47" s="39" t="s">
+      <c r="L47" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="M47" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="N47" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="N47" s="30" t="s">
+      <c r="O47" s="30" t="s">
         <v>251</v>
-      </c>
-      <c r="O47" s="30" t="s">
-        <v>252</v>
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R47" s="62"/>
       <c r="S47" s="62"/>
@@ -4894,16 +4891,16 @@
     </row>
     <row r="48" ht="27" spans="1:28">
       <c r="A48" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="C48" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>243</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>244</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>82</v>
@@ -4912,35 +4909,35 @@
         <v>22</v>
       </c>
       <c r="G48" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="I48" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I48" s="30" t="s">
+      <c r="J48" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K48" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J48" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K48" s="39" t="s">
+      <c r="L48" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="M48" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="M48" s="30" t="s">
-        <v>250</v>
-      </c>
       <c r="N48" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O48" s="30" t="s">
         <v>254</v>
-      </c>
-      <c r="O48" s="30" t="s">
-        <v>255</v>
       </c>
       <c r="P48" s="41"/>
       <c r="Q48" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R48" s="62"/>
       <c r="S48" s="62"/>
@@ -4956,16 +4953,16 @@
     </row>
     <row r="49" ht="27" spans="1:28">
       <c r="A49" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>257</v>
-      </c>
       <c r="C49" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>82</v>
@@ -4974,35 +4971,35 @@
         <v>22</v>
       </c>
       <c r="G49" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="I49" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I49" s="30" t="s">
+      <c r="J49" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K49" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J49" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K49" s="39" t="s">
+      <c r="L49" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L49" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M49" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="N49" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="N49" s="30" t="s">
+      <c r="O49" s="30" t="s">
         <v>259</v>
-      </c>
-      <c r="O49" s="30" t="s">
-        <v>260</v>
       </c>
       <c r="P49" s="42"/>
       <c r="Q49" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R49" s="62"/>
       <c r="S49" s="62"/>
@@ -5018,16 +5015,16 @@
     </row>
     <row r="50" ht="27" spans="1:28">
       <c r="A50" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B50" s="29" t="s">
-        <v>257</v>
-      </c>
       <c r="C50" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>82</v>
@@ -5036,35 +5033,35 @@
         <v>22</v>
       </c>
       <c r="G50" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="I50" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="J50" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K50" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J50" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="K50" s="39" t="s">
+      <c r="L50" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L50" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M50" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N50" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O50" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P50" s="43"/>
       <c r="Q50" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R50" s="62"/>
       <c r="S50" s="62"/>
@@ -5080,16 +5077,16 @@
     </row>
     <row r="51" ht="27" spans="1:28">
       <c r="A51" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C51" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>82</v>
@@ -5098,35 +5095,35 @@
         <v>22</v>
       </c>
       <c r="G51" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="I51" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="J51" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="L51" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="K51" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L51" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="M51" s="30" t="s">
+      <c r="N51" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="N51" s="30" t="s">
+      <c r="O51" s="44" t="s">
         <v>266</v>
-      </c>
-      <c r="O51" s="44" t="s">
-        <v>267</v>
       </c>
       <c r="P51" s="45"/>
       <c r="Q51" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R51" s="62"/>
       <c r="S51" s="62"/>
@@ -5142,16 +5139,16 @@
     </row>
     <row r="52" ht="27" spans="1:28">
       <c r="A52" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C52" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>82</v>
@@ -5160,35 +5157,35 @@
         <v>22</v>
       </c>
       <c r="G52" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H52" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="I52" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="J52" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K52" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="L52" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="K52" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L52" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="M52" s="30" t="s">
-        <v>265</v>
-      </c>
       <c r="N52" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O52" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P52" s="43"/>
       <c r="Q52" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R52" s="62"/>
       <c r="S52" s="62"/>
@@ -5204,16 +5201,16 @@
     </row>
     <row r="53" ht="27" spans="1:28">
       <c r="A53" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>82</v>
@@ -5222,35 +5219,35 @@
         <v>22</v>
       </c>
       <c r="G53" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H53" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="I53" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="J53" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K53" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J53" s="28" t="s">
+      <c r="L53" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="N53" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="K53" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L53" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="M53" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>271</v>
-      </c>
       <c r="O53" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P53" s="30"/>
       <c r="Q53" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R53" s="62"/>
       <c r="S53" s="62"/>
@@ -5266,16 +5263,16 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>273</v>
-      </c>
       <c r="C54" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>82</v>
@@ -5286,21 +5283,21 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K54" s="39"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="N54" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="N54" s="46" t="s">
+      <c r="O54" s="44" t="s">
         <v>275</v>
-      </c>
-      <c r="O54" s="44" t="s">
-        <v>276</v>
       </c>
       <c r="P54" s="31"/>
       <c r="Q54" s="65"/>
@@ -5318,16 +5315,16 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>273</v>
-      </c>
       <c r="C55" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>82</v>
@@ -5338,21 +5335,21 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J55" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K55" s="39"/>
       <c r="L55" s="30"/>
       <c r="M55" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N55" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O55" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P55" s="47"/>
       <c r="Q55" s="65"/>
@@ -5370,16 +5367,16 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>273</v>
-      </c>
       <c r="C56" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>82</v>
@@ -5390,21 +5387,21 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J56" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K56" s="39"/>
       <c r="L56" s="30"/>
       <c r="M56" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O56" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P56" s="48"/>
       <c r="Q56" s="65"/>
@@ -5422,16 +5419,16 @@
     </row>
     <row r="57" ht="27" spans="1:28">
       <c r="A57" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C57" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>82</v>
@@ -5440,35 +5437,35 @@
         <v>22</v>
       </c>
       <c r="G57" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="I57" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="J57" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K57" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J57" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K57" s="39" t="s">
+      <c r="L57" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L57" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M57" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N57" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O57" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P57" s="48"/>
       <c r="Q57" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R57" s="62"/>
       <c r="S57" s="62"/>
@@ -5484,16 +5481,16 @@
     </row>
     <row r="58" ht="27" spans="1:28">
       <c r="A58" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C58" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>82</v>
@@ -5502,35 +5499,35 @@
         <v>22</v>
       </c>
       <c r="G58" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H58" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="I58" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="J58" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K58" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J58" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K58" s="39" t="s">
+      <c r="L58" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L58" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M58" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="N58" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="N58" s="28" t="s">
+      <c r="O58" s="44" t="s">
         <v>281</v>
-      </c>
-      <c r="O58" s="44" t="s">
-        <v>282</v>
       </c>
       <c r="P58" s="29"/>
       <c r="Q58" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R58" s="66"/>
       <c r="S58" s="66"/>
@@ -5546,16 +5543,16 @@
     </row>
     <row r="59" ht="27" spans="1:28">
       <c r="A59" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C59" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>82</v>
@@ -5564,35 +5561,35 @@
         <v>22</v>
       </c>
       <c r="G59" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H59" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="I59" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="J59" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K59" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J59" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K59" s="39" t="s">
+      <c r="L59" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L59" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M59" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N59" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O59" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P59" s="29"/>
       <c r="Q59" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R59" s="66"/>
       <c r="S59" s="66"/>
@@ -5608,16 +5605,16 @@
     </row>
     <row r="60" ht="27" spans="1:28">
       <c r="A60" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C60" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>82</v>
@@ -5626,35 +5623,35 @@
         <v>22</v>
       </c>
       <c r="G60" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H60" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="I60" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I60" s="30" t="s">
+      <c r="J60" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K60" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J60" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K60" s="39" t="s">
+      <c r="L60" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L60" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M60" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N60" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O60" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P60" s="29"/>
       <c r="Q60" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R60" s="66"/>
       <c r="S60" s="66"/>
@@ -5670,16 +5667,16 @@
     </row>
     <row r="61" ht="27" spans="1:28">
       <c r="A61" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C61" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>82</v>
@@ -5688,35 +5685,35 @@
         <v>22</v>
       </c>
       <c r="G61" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="I61" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="J61" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K61" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J61" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="K61" s="39" t="s">
+      <c r="L61" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L61" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M61" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N61" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O61" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P61" s="31"/>
       <c r="Q61" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R61" s="62"/>
       <c r="S61" s="62"/>
@@ -5732,16 +5729,16 @@
     </row>
     <row r="62" ht="27" spans="1:28">
       <c r="A62" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C62" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>82</v>
@@ -5750,35 +5747,35 @@
         <v>22</v>
       </c>
       <c r="G62" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H62" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H62" s="30" t="s">
+      <c r="I62" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I62" s="30" t="s">
+      <c r="J62" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K62" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J62" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="K62" s="39" t="s">
+      <c r="L62" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L62" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M62" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N62" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O62" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P62" s="31"/>
       <c r="Q62" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R62" s="62"/>
       <c r="S62" s="62"/>
@@ -5794,16 +5791,16 @@
     </row>
     <row r="63" ht="27" spans="1:28">
       <c r="A63" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C63" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>82</v>
@@ -5812,35 +5809,35 @@
         <v>22</v>
       </c>
       <c r="G63" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H63" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="I63" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I63" s="30" t="s">
+      <c r="J63" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K63" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J63" s="28" t="s">
+      <c r="L63" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M63" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="K63" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L63" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="M63" s="30" t="s">
-        <v>265</v>
-      </c>
       <c r="N63" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O63" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P63" s="49"/>
       <c r="Q63" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R63" s="62"/>
       <c r="S63" s="62"/>
@@ -5856,16 +5853,16 @@
     </row>
     <row r="64" ht="27" spans="1:28">
       <c r="A64" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C64" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>82</v>
@@ -5874,35 +5871,35 @@
         <v>22</v>
       </c>
       <c r="G64" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H64" s="30" t="s">
+      <c r="I64" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="J64" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K64" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J64" s="28" t="s">
+      <c r="L64" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M64" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="K64" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L64" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="M64" s="30" t="s">
-        <v>265</v>
-      </c>
       <c r="N64" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O64" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P64" s="43"/>
       <c r="Q64" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R64" s="62"/>
       <c r="S64" s="62"/>
@@ -5918,16 +5915,16 @@
     </row>
     <row r="65" ht="27" spans="1:28">
       <c r="A65" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C65" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>82</v>
@@ -5936,35 +5933,35 @@
         <v>22</v>
       </c>
       <c r="G65" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="I65" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="J65" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K65" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J65" s="28" t="s">
+      <c r="L65" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M65" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="K65" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L65" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="M65" s="30" t="s">
-        <v>265</v>
-      </c>
       <c r="N65" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O65" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P65" s="43"/>
       <c r="Q65" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R65" s="62"/>
       <c r="S65" s="62"/>
@@ -5980,16 +5977,16 @@
     </row>
     <row r="66" ht="27" spans="1:28">
       <c r="A66" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C66" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>82</v>
@@ -5998,35 +5995,35 @@
         <v>22</v>
       </c>
       <c r="G66" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H66" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H66" s="30" t="s">
+      <c r="I66" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="J66" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K66" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J66" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K66" s="39" t="s">
+      <c r="L66" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L66" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M66" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N66" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O66" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P66" s="47"/>
       <c r="Q66" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R66" s="62"/>
       <c r="S66" s="62"/>
@@ -6042,16 +6039,16 @@
     </row>
     <row r="67" ht="27" spans="1:28">
       <c r="A67" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C67" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>82</v>
@@ -6060,35 +6057,35 @@
         <v>22</v>
       </c>
       <c r="G67" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H67" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H67" s="30" t="s">
+      <c r="I67" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I67" s="30" t="s">
+      <c r="J67" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K67" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J67" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K67" s="39" t="s">
+      <c r="L67" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L67" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M67" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N67" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O67" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P67" s="48"/>
       <c r="Q67" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R67" s="62"/>
       <c r="S67" s="62"/>
@@ -6104,16 +6101,16 @@
     </row>
     <row r="68" ht="27" spans="1:28">
       <c r="A68" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B68" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C68" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E68" s="67" t="s">
         <v>21</v>
@@ -6122,35 +6119,35 @@
         <v>22</v>
       </c>
       <c r="G68" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H68" s="30" t="s">
+      <c r="I68" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I68" s="30" t="s">
+      <c r="J68" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K68" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J68" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K68" s="39" t="s">
+      <c r="L68" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L68" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M68" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="N68" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="N68" s="30" t="s">
+      <c r="O68" s="44" t="s">
         <v>266</v>
-      </c>
-      <c r="O68" s="44" t="s">
-        <v>267</v>
       </c>
       <c r="P68" s="45"/>
       <c r="Q68" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R68" s="62"/>
       <c r="S68" s="62"/>
@@ -6166,16 +6163,16 @@
     </row>
     <row r="69" ht="27" spans="1:28">
       <c r="A69" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B69" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C69" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E69" s="67" t="s">
         <v>21</v>
@@ -6184,35 +6181,35 @@
         <v>22</v>
       </c>
       <c r="G69" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H69" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="I69" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="J69" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K69" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J69" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K69" s="39" t="s">
+      <c r="L69" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L69" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M69" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N69" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O69" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P69" s="43"/>
       <c r="Q69" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R69" s="62"/>
       <c r="S69" s="62"/>
@@ -6228,16 +6225,16 @@
     </row>
     <row r="70" ht="27" spans="1:28">
       <c r="A70" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E70" s="67" t="s">
         <v>21</v>
@@ -6246,35 +6243,35 @@
         <v>22</v>
       </c>
       <c r="G70" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H70" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H70" s="30" t="s">
+      <c r="I70" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="J70" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K70" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J70" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K70" s="39" t="s">
+      <c r="L70" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L70" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M70" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N70" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O70" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P70" s="30"/>
       <c r="Q70" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R70" s="62"/>
       <c r="S70" s="62"/>
@@ -6290,16 +6287,16 @@
     </row>
     <row r="71" ht="27" spans="1:28">
       <c r="A71" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C71" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E71" s="67" t="s">
         <v>21</v>
@@ -6308,35 +6305,35 @@
         <v>22</v>
       </c>
       <c r="G71" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H71" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="I71" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I71" s="30" t="s">
+      <c r="J71" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K71" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J71" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K71" s="39" t="s">
+      <c r="L71" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L71" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M71" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O71" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P71" s="48"/>
       <c r="Q71" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R71" s="62"/>
       <c r="S71" s="62"/>
@@ -6352,16 +6349,16 @@
     </row>
     <row r="72" ht="27" spans="1:28">
       <c r="A72" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C72" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E72" s="67" t="s">
         <v>21</v>
@@ -6370,35 +6367,35 @@
         <v>22</v>
       </c>
       <c r="G72" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H72" s="30" t="s">
+      <c r="I72" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I72" s="30" t="s">
+      <c r="J72" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K72" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J72" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K72" s="39" t="s">
+      <c r="L72" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L72" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M72" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="N72" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="N72" s="28" t="s">
+      <c r="O72" s="44" t="s">
         <v>281</v>
-      </c>
-      <c r="O72" s="44" t="s">
-        <v>282</v>
       </c>
       <c r="P72" s="29"/>
       <c r="Q72" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R72" s="66"/>
       <c r="S72" s="66"/>
@@ -6414,16 +6411,16 @@
     </row>
     <row r="73" ht="27" spans="1:28">
       <c r="A73" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B73" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C73" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E73" s="67" t="s">
         <v>21</v>
@@ -6432,35 +6429,35 @@
         <v>22</v>
       </c>
       <c r="G73" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="I73" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="J73" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K73" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J73" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K73" s="39" t="s">
+      <c r="L73" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L73" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M73" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N73" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O73" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P73" s="29"/>
       <c r="Q73" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R73" s="66"/>
       <c r="S73" s="66"/>
@@ -6476,16 +6473,16 @@
     </row>
     <row r="74" ht="27" spans="1:28">
       <c r="A74" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C74" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E74" s="67" t="s">
         <v>21</v>
@@ -6494,35 +6491,35 @@
         <v>22</v>
       </c>
       <c r="G74" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H74" s="30" t="s">
+      <c r="I74" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I74" s="30" t="s">
+      <c r="J74" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K74" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J74" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K74" s="39" t="s">
+      <c r="L74" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L74" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M74" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N74" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O74" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P74" s="29"/>
       <c r="Q74" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R74" s="66"/>
       <c r="S74" s="66"/>
@@ -6538,16 +6535,16 @@
     </row>
     <row r="75" ht="27" spans="1:28">
       <c r="A75" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C75" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E75" s="67" t="s">
         <v>21</v>
@@ -6556,35 +6553,35 @@
         <v>22</v>
       </c>
       <c r="G75" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H75" s="30" t="s">
+      <c r="I75" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I75" s="30" t="s">
+      <c r="J75" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K75" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J75" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K75" s="39" t="s">
+      <c r="L75" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L75" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M75" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N75" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O75" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P75" s="31"/>
       <c r="Q75" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R75" s="62"/>
       <c r="S75" s="62"/>
@@ -6600,16 +6597,16 @@
     </row>
     <row r="76" ht="27" spans="1:28">
       <c r="A76" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C76" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E76" s="67" t="s">
         <v>21</v>
@@ -6618,35 +6615,35 @@
         <v>22</v>
       </c>
       <c r="G76" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H76" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H76" s="30" t="s">
+      <c r="I76" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I76" s="30" t="s">
+      <c r="J76" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K76" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J76" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K76" s="39" t="s">
+      <c r="L76" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L76" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M76" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N76" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O76" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P76" s="31"/>
       <c r="Q76" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R76" s="62"/>
       <c r="S76" s="62"/>
@@ -6662,16 +6659,16 @@
     </row>
     <row r="77" ht="27" spans="1:28">
       <c r="A77" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B77" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C77" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E77" s="67" t="s">
         <v>21</v>
@@ -6680,35 +6677,35 @@
         <v>22</v>
       </c>
       <c r="G77" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="I77" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I77" s="30" t="s">
+      <c r="J77" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K77" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J77" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K77" s="39" t="s">
+      <c r="L77" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L77" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M77" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N77" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O77" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P77" s="49"/>
       <c r="Q77" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R77" s="62"/>
       <c r="S77" s="62"/>
@@ -6724,16 +6721,16 @@
     </row>
     <row r="78" ht="27" spans="1:28">
       <c r="A78" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B78" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C78" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E78" s="67" t="s">
         <v>21</v>
@@ -6742,35 +6739,35 @@
         <v>22</v>
       </c>
       <c r="G78" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H78" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H78" s="30" t="s">
+      <c r="I78" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="J78" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K78" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J78" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K78" s="39" t="s">
+      <c r="L78" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L78" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M78" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N78" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O78" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P78" s="43"/>
       <c r="Q78" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R78" s="62"/>
       <c r="S78" s="62"/>
@@ -6786,16 +6783,16 @@
     </row>
     <row r="79" ht="27" spans="1:28">
       <c r="A79" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B79" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C79" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E79" s="67" t="s">
         <v>21</v>
@@ -6804,35 +6801,35 @@
         <v>22</v>
       </c>
       <c r="G79" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H79" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H79" s="30" t="s">
+      <c r="I79" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I79" s="30" t="s">
+      <c r="J79" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K79" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J79" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K79" s="39" t="s">
+      <c r="L79" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L79" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M79" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N79" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O79" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P79" s="43"/>
       <c r="Q79" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R79" s="62"/>
       <c r="S79" s="62"/>
@@ -6848,16 +6845,16 @@
     </row>
     <row r="80" ht="27" spans="1:28">
       <c r="A80" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B80" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C80" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E80" s="67" t="s">
         <v>21</v>
@@ -6866,35 +6863,35 @@
         <v>22</v>
       </c>
       <c r="G80" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H80" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H80" s="30" t="s">
+      <c r="I80" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I80" s="30" t="s">
+      <c r="J80" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K80" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J80" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K80" s="39" t="s">
+      <c r="L80" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L80" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M80" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N80" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O80" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P80" s="47"/>
       <c r="Q80" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R80" s="62"/>
       <c r="S80" s="62"/>
@@ -6910,16 +6907,16 @@
     </row>
     <row r="81" ht="27" spans="1:28">
       <c r="A81" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="31" t="s">
-        <v>263</v>
-      </c>
       <c r="C81" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E81" s="67" t="s">
         <v>21</v>
@@ -6928,35 +6925,35 @@
         <v>22</v>
       </c>
       <c r="G81" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="H81" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H81" s="30" t="s">
+      <c r="I81" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I81" s="30" t="s">
+      <c r="J81" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="K81" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="J81" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K81" s="39" t="s">
+      <c r="L81" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="L81" s="30" t="s">
-        <v>249</v>
-      </c>
       <c r="M81" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N81" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O81" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P81" s="48"/>
       <c r="Q81" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R81" s="62"/>
       <c r="S81" s="62"/>
@@ -7012,27 +7009,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\PR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$81</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="303">
   <si>
     <t>vendorID</t>
   </si>
@@ -955,18 +960,44 @@
   <si>
     <t>网卡速率不达标</t>
   </si>
+  <si>
+    <t>2022.06.09</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>f100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2M</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>06030216</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPe12000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPE12000-AP/LPE12002-AP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5207352D392184F5F7FBE52CE0A5C064DA1687B2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>621DB64CCD82A93E3B558A80AE2FA5A040940EF5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1022,150 +1053,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,194 +1077,8 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1514,249 +1221,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,13 +1234,13 @@
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1894,17 +1362,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1914,7 +1382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1922,59 +1390,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2047,6 +1469,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2304,19 +1729,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
@@ -2333,7 +1758,7 @@
     <col min="17" max="17" width="138" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:21">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2392,7 +1817,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -2449,7 +1874,7 @@
       <c r="T2" s="50"/>
       <c r="U2" s="50"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -2506,7 +1931,7 @@
       <c r="T3" s="50"/>
       <c r="U3" s="50"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
@@ -2563,7 +1988,7 @@
       <c r="T4" s="50"/>
       <c r="U4" s="51"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>48</v>
       </c>
@@ -2620,7 +2045,7 @@
       <c r="T5" s="50"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>60</v>
       </c>
@@ -2675,7 +2100,7 @@
       <c r="T6" s="50"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" ht="14.25" spans="1:21">
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -2732,7 +2157,7 @@
       <c r="T7" s="50"/>
       <c r="U7" s="52"/>
     </row>
-    <row r="8" ht="14.25" spans="1:21">
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>79</v>
       </c>
@@ -2785,7 +2210,7 @@
       <c r="T8" s="50"/>
       <c r="U8" s="51"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -2840,7 +2265,7 @@
       <c r="T9" s="50"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>79</v>
       </c>
@@ -2895,7 +2320,7 @@
       <c r="T10" s="50"/>
       <c r="U10" s="52"/>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:21">
+    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>101</v>
       </c>
@@ -2950,7 +2375,7 @@
       <c r="R11" s="12"/>
       <c r="U11" s="56"/>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:18">
+    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>114</v>
       </c>
@@ -3004,7 +2429,7 @@
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:17">
+    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>114</v>
       </c>
@@ -3057,7 +2482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="1:21">
+    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>101</v>
       </c>
@@ -3111,7 +2536,7 @@
       </c>
       <c r="U14" s="57"/>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:21">
+    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>101</v>
       </c>
@@ -3165,7 +2590,7 @@
       </c>
       <c r="U15" s="56"/>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:17">
+    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
@@ -3218,7 +2643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:17">
+    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>114</v>
       </c>
@@ -3271,7 +2696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:21">
+    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
@@ -3325,7 +2750,7 @@
       </c>
       <c r="U18" s="57"/>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:17">
+    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>101</v>
       </c>
@@ -3378,7 +2803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:17">
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>101</v>
       </c>
@@ -3431,7 +2856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:21">
+    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>114</v>
       </c>
@@ -3485,7 +2910,7 @@
       </c>
       <c r="U21" s="56"/>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:17">
+    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>60</v>
       </c>
@@ -3535,7 +2960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:17">
+    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
@@ -3585,7 +3010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:21">
+    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>37</v>
       </c>
@@ -3639,7 +3064,7 @@
       </c>
       <c r="U24" s="57"/>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:17">
+    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -3692,7 +3117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:17">
+    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
@@ -3745,7 +3170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:17">
+    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +3223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" spans="1:17">
+    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
@@ -3851,7 +3276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:17">
+    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
@@ -3904,7 +3329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
@@ -3961,7 +3386,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>101</v>
       </c>
@@ -4014,7 +3439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
@@ -4071,7 +3496,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" ht="14.25" spans="1:17">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>79</v>
       </c>
@@ -4122,7 +3547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:21">
+    <row r="34" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>114</v>
       </c>
@@ -4179,7 +3604,7 @@
       <c r="T34" s="56"/>
       <c r="U34" s="56"/>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:17">
+    <row r="35" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="s">
         <v>114</v>
       </c>
@@ -4232,7 +3657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" s="5" customFormat="1" spans="1:17">
+    <row r="36" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="22" t="s">
         <v>114</v>
       </c>
@@ -4285,7 +3710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>8086</v>
       </c>
@@ -4342,7 +3767,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>8086</v>
       </c>
@@ -4399,7 +3824,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
@@ -4450,7 +3875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
@@ -4501,7 +3926,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
         <v>48</v>
       </c>
@@ -4554,7 +3979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:21">
+    <row r="42" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27" t="s">
         <v>48</v>
       </c>
@@ -4609,7 +4034,7 @@
       <c r="T42" s="62"/>
       <c r="U42" s="62"/>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:21">
+    <row r="43" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="27" t="s">
         <v>214</v>
       </c>
@@ -4664,7 +4089,7 @@
       <c r="T43" s="62"/>
       <c r="U43" s="62"/>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:17">
+    <row r="44" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="27" t="s">
         <v>114</v>
       </c>
@@ -4717,7 +4142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="27" t="s">
         <v>214</v>
       </c>
@@ -4772,7 +4197,7 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="27" t="s">
         <v>214</v>
       </c>
@@ -4827,7 +4252,7 @@
       <c r="T46" s="57"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" ht="27" spans="1:28">
+    <row r="47" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="28" t="s">
         <v>241</v>
       </c>
@@ -4889,7 +4314,7 @@
       <c r="AA47" s="62"/>
       <c r="AB47" s="62"/>
     </row>
-    <row r="48" ht="27" spans="1:28">
+    <row r="48" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="28" t="s">
         <v>241</v>
       </c>
@@ -4951,7 +4376,7 @@
       <c r="AA48" s="62"/>
       <c r="AB48" s="62"/>
     </row>
-    <row r="49" ht="27" spans="1:28">
+    <row r="49" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="28" t="s">
         <v>255</v>
       </c>
@@ -5013,7 +4438,7 @@
       <c r="AA49" s="62"/>
       <c r="AB49" s="62"/>
     </row>
-    <row r="50" ht="27" spans="1:28">
+    <row r="50" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="28" t="s">
         <v>255</v>
       </c>
@@ -5075,7 +4500,7 @@
       <c r="AA50" s="62"/>
       <c r="AB50" s="62"/>
     </row>
-    <row r="51" ht="27" spans="1:28">
+    <row r="51" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
         <v>261</v>
       </c>
@@ -5137,7 +4562,7 @@
       <c r="AA51" s="62"/>
       <c r="AB51" s="62"/>
     </row>
-    <row r="52" ht="27" spans="1:28">
+    <row r="52" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="30" t="s">
         <v>261</v>
       </c>
@@ -5199,7 +4624,7 @@
       <c r="AA52" s="62"/>
       <c r="AB52" s="62"/>
     </row>
-    <row r="53" ht="27" spans="1:28">
+    <row r="53" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
         <v>261</v>
       </c>
@@ -5261,7 +4686,7 @@
       <c r="AA53" s="62"/>
       <c r="AB53" s="62"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
         <v>271</v>
       </c>
@@ -5313,7 +4738,7 @@
       <c r="AA54" s="62"/>
       <c r="AB54" s="62"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
         <v>271</v>
       </c>
@@ -5365,7 +4790,7 @@
       <c r="AA55" s="62"/>
       <c r="AB55" s="62"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
         <v>271</v>
       </c>
@@ -5417,7 +4842,7 @@
       <c r="AA56" s="62"/>
       <c r="AB56" s="62"/>
     </row>
-    <row r="57" ht="27" spans="1:28">
+    <row r="57" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
         <v>261</v>
       </c>
@@ -5479,7 +4904,7 @@
       <c r="AA57" s="62"/>
       <c r="AB57" s="62"/>
     </row>
-    <row r="58" ht="27" spans="1:28">
+    <row r="58" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="30" t="s">
         <v>261</v>
       </c>
@@ -5541,7 +4966,7 @@
       <c r="AA58" s="66"/>
       <c r="AB58" s="66"/>
     </row>
-    <row r="59" ht="27" spans="1:28">
+    <row r="59" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
         <v>261</v>
       </c>
@@ -5603,7 +5028,7 @@
       <c r="AA59" s="66"/>
       <c r="AB59" s="66"/>
     </row>
-    <row r="60" ht="27" spans="1:28">
+    <row r="60" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
         <v>261</v>
       </c>
@@ -5665,7 +5090,7 @@
       <c r="AA60" s="66"/>
       <c r="AB60" s="66"/>
     </row>
-    <row r="61" ht="27" spans="1:28">
+    <row r="61" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="30" t="s">
         <v>261</v>
       </c>
@@ -5727,7 +5152,7 @@
       <c r="AA61" s="62"/>
       <c r="AB61" s="62"/>
     </row>
-    <row r="62" ht="27" spans="1:28">
+    <row r="62" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="30" t="s">
         <v>261</v>
       </c>
@@ -5789,7 +5214,7 @@
       <c r="AA62" s="62"/>
       <c r="AB62" s="62"/>
     </row>
-    <row r="63" ht="27" spans="1:28">
+    <row r="63" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
         <v>261</v>
       </c>
@@ -5851,7 +5276,7 @@
       <c r="AA63" s="62"/>
       <c r="AB63" s="62"/>
     </row>
-    <row r="64" ht="27" spans="1:28">
+    <row r="64" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="30" t="s">
         <v>261</v>
       </c>
@@ -5913,7 +5338,7 @@
       <c r="AA64" s="62"/>
       <c r="AB64" s="62"/>
     </row>
-    <row r="65" ht="27" spans="1:28">
+    <row r="65" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="30" t="s">
         <v>261</v>
       </c>
@@ -5975,7 +5400,7 @@
       <c r="AA65" s="62"/>
       <c r="AB65" s="62"/>
     </row>
-    <row r="66" ht="27" spans="1:28">
+    <row r="66" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="30" t="s">
         <v>261</v>
       </c>
@@ -6037,7 +5462,7 @@
       <c r="AA66" s="62"/>
       <c r="AB66" s="62"/>
     </row>
-    <row r="67" ht="27" spans="1:28">
+    <row r="67" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="30" t="s">
         <v>261</v>
       </c>
@@ -6099,7 +5524,7 @@
       <c r="AA67" s="62"/>
       <c r="AB67" s="62"/>
     </row>
-    <row r="68" ht="27" spans="1:28">
+    <row r="68" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
         <v>261</v>
       </c>
@@ -6161,7 +5586,7 @@
       <c r="AA68" s="62"/>
       <c r="AB68" s="62"/>
     </row>
-    <row r="69" ht="27" spans="1:28">
+    <row r="69" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="30" t="s">
         <v>261</v>
       </c>
@@ -6223,7 +5648,7 @@
       <c r="AA69" s="62"/>
       <c r="AB69" s="62"/>
     </row>
-    <row r="70" ht="27" spans="1:28">
+    <row r="70" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
         <v>261</v>
       </c>
@@ -6285,7 +5710,7 @@
       <c r="AA70" s="62"/>
       <c r="AB70" s="62"/>
     </row>
-    <row r="71" ht="27" spans="1:28">
+    <row r="71" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="30" t="s">
         <v>261</v>
       </c>
@@ -6347,7 +5772,7 @@
       <c r="AA71" s="62"/>
       <c r="AB71" s="62"/>
     </row>
-    <row r="72" ht="27" spans="1:28">
+    <row r="72" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="30" t="s">
         <v>261</v>
       </c>
@@ -6409,7 +5834,7 @@
       <c r="AA72" s="66"/>
       <c r="AB72" s="66"/>
     </row>
-    <row r="73" ht="27" spans="1:28">
+    <row r="73" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="30" t="s">
         <v>261</v>
       </c>
@@ -6471,7 +5896,7 @@
       <c r="AA73" s="66"/>
       <c r="AB73" s="66"/>
     </row>
-    <row r="74" ht="27" spans="1:28">
+    <row r="74" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="30" t="s">
         <v>261</v>
       </c>
@@ -6533,7 +5958,7 @@
       <c r="AA74" s="66"/>
       <c r="AB74" s="66"/>
     </row>
-    <row r="75" ht="27" spans="1:28">
+    <row r="75" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="30" t="s">
         <v>261</v>
       </c>
@@ -6595,7 +6020,7 @@
       <c r="AA75" s="62"/>
       <c r="AB75" s="62"/>
     </row>
-    <row r="76" ht="27" spans="1:28">
+    <row r="76" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="30" t="s">
         <v>261</v>
       </c>
@@ -6657,7 +6082,7 @@
       <c r="AA76" s="62"/>
       <c r="AB76" s="62"/>
     </row>
-    <row r="77" ht="27" spans="1:28">
+    <row r="77" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="30" t="s">
         <v>261</v>
       </c>
@@ -6719,7 +6144,7 @@
       <c r="AA77" s="62"/>
       <c r="AB77" s="62"/>
     </row>
-    <row r="78" ht="27" spans="1:28">
+    <row r="78" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="30" t="s">
         <v>261</v>
       </c>
@@ -6781,7 +6206,7 @@
       <c r="AA78" s="62"/>
       <c r="AB78" s="62"/>
     </row>
-    <row r="79" ht="27" spans="1:28">
+    <row r="79" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="30" t="s">
         <v>261</v>
       </c>
@@ -6843,7 +6268,7 @@
       <c r="AA79" s="62"/>
       <c r="AB79" s="62"/>
     </row>
-    <row r="80" ht="27" spans="1:28">
+    <row r="80" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="30" t="s">
         <v>261</v>
       </c>
@@ -6905,7 +6330,7 @@
       <c r="AA80" s="62"/>
       <c r="AB80" s="62"/>
     </row>
-    <row r="81" ht="27" spans="1:28">
+    <row r="81" spans="1:28" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="30" t="s">
         <v>261</v>
       </c>
@@ -6967,39 +6392,164 @@
       <c r="AA81" s="62"/>
       <c r="AB81" s="62"/>
     </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P82" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q82" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R82" s="12"/>
+      <c r="S82" s="50"/>
+      <c r="T82" s="50"/>
+      <c r="U82" s="50"/>
+      <c r="V82" s="62"/>
+      <c r="W82" s="62"/>
+      <c r="X82" s="62"/>
+      <c r="Y82" s="62"/>
+      <c r="Z82" s="62"/>
+      <c r="AA82" s="62"/>
+      <c r="AB82" s="62"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A83" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P83" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q83" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R83" s="12"/>
+      <c r="S83" s="50"/>
+      <c r="T83" s="50"/>
+      <c r="U83" s="50"/>
+      <c r="V83" s="62"/>
+      <c r="W83" s="62"/>
+      <c r="X83" s="62"/>
+      <c r="Y83" s="62"/>
+      <c r="Z83" s="62"/>
+      <c r="AA83" s="62"/>
+      <c r="AB83" s="62"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U81">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:U81"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q8" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.4.2_470.57.02_linux.run"/>
-    <hyperlink ref="Q33" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q39" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q40" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q47" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/swsm_driver_3.0.3.zip"/>
+    <hyperlink ref="Q10" r:id="rId1"/>
+    <hyperlink ref="Q8" r:id="rId2"/>
+    <hyperlink ref="Q33" r:id="rId3"/>
+    <hyperlink ref="Q39" r:id="rId4"/>
+    <hyperlink ref="Q40" r:id="rId5"/>
+    <hyperlink ref="Q47" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -7007,7 +6557,7 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>292</v>
       </c>
@@ -7016,7 +6566,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>199</v>
       </c>
@@ -7024,7 +6574,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>199</v>
       </c>
@@ -7033,7 +6583,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\PR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\QLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$81</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="315">
   <si>
     <t>vendorID</t>
   </si>
@@ -735,6 +735,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -744,6 +745,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>207352D392184F5F7FBE52CE0A5C064DA1687B2</t>
@@ -758,6 +760,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -767,6 +770,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>roadcom</t>
@@ -781,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -790,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>CM57414</t>
@@ -990,6 +996,45 @@
   </si>
   <si>
     <t>621DB64CCD82A93E3B558A80AE2FA5A040940EF5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>02f0</t>
+  </si>
+  <si>
+    <t>openEuler 22.03-LTS</t>
+  </si>
+  <si>
+    <t>2022.06.09</t>
+  </si>
+  <si>
+    <t>Marvell/QLogic</t>
+  </si>
+  <si>
+    <t>QLE2770</t>
+  </si>
+  <si>
+    <t>Mach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>02e4</t>
+  </si>
+  <si>
+    <t>QLE2772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.06.08</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +1042,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1007,42 +1052,48 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0D0D0D"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1050,11 +1101,20 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1232,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -1389,6 +1449,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1735,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB83"/>
+  <dimension ref="A1:AB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1747,11 +1811,11 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
     <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="31.125" customWidth="1"/>
     <col min="15" max="15" width="28.125" customWidth="1"/>
     <col min="16" max="16" width="9.375" customWidth="1"/>
@@ -6519,6 +6583,186 @@
       <c r="Z83" s="62"/>
       <c r="AA83" s="62"/>
       <c r="AB83" s="62"/>
+    </row>
+    <row r="84" spans="1:28" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="E84" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G84" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="J84" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="M84" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="N84" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="O84" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G85" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="J85" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="M85" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="N85" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="O85" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="E86" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G86" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="J86" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="M86" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="N86" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="O86" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="E87" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G87" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="J87" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="M87" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="N87" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="O87" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="P87" s="68"/>
+      <c r="Q87" s="62" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U81"/>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\PR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Station\Gitee\website-v2\data\compatibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC31D18-5339-4437-9A3B-623374517517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="503"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="328">
   <si>
     <t>vendorID</t>
   </si>
@@ -1092,12 +1093,68 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>1e3e</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>x86_64</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>openEuler 22.03 LTS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi_driver</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1cd1fe6796b4df2ca062aac9496e3f5b201032d26f788c0cdfe202156a0ddf5e</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>iluvatar</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>天垓加速卡(BI-V100)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>天垓芯片(BI-V100)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>商用驱动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.06.21</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.7M</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1164,6 +1221,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1450,8 +1513,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1792,32 +1855,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O103" sqref="O103"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="31.125" customWidth="1"/>
-    <col min="15" max="15" width="28.125" customWidth="1"/>
-    <col min="16" max="16" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="31.08984375" customWidth="1"/>
+    <col min="15" max="15" width="28.08984375" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" customWidth="1"/>
     <col min="17" max="17" width="138" customWidth="1"/>
-    <col min="18" max="18" width="18.75" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1939,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -1933,7 +1996,7 @@
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1990,7 +2053,7 @@
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
@@ -2047,7 +2110,7 @@
       <c r="T4" s="45"/>
       <c r="U4" s="46"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2167,7 @@
       <c r="T5" s="45"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>57</v>
       </c>
@@ -2159,7 +2222,7 @@
       <c r="T6" s="45"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>45</v>
       </c>
@@ -2216,7 +2279,7 @@
       <c r="T7" s="45"/>
       <c r="U7" s="47"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>75</v>
       </c>
@@ -2269,7 +2332,7 @@
       <c r="T8" s="45"/>
       <c r="U8" s="46"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>57</v>
       </c>
@@ -2324,7 +2387,7 @@
       <c r="T9" s="45"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>75</v>
       </c>
@@ -2379,7 +2442,7 @@
       <c r="T10" s="45"/>
       <c r="U10" s="47"/>
     </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>94</v>
       </c>
@@ -2434,7 +2497,7 @@
       <c r="R11" s="12"/>
       <c r="U11" s="48"/>
     </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>107</v>
       </c>
@@ -2488,7 +2551,7 @@
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>107</v>
       </c>
@@ -2541,7 +2604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>94</v>
       </c>
@@ -2595,7 +2658,7 @@
       </c>
       <c r="U14" s="49"/>
     </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>94</v>
       </c>
@@ -2649,7 +2712,7 @@
       </c>
       <c r="U15" s="48"/>
     </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>107</v>
       </c>
@@ -2702,7 +2765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>107</v>
       </c>
@@ -2755,7 +2818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>94</v>
       </c>
@@ -2809,7 +2872,7 @@
       </c>
       <c r="U18" s="49"/>
     </row>
-    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>94</v>
       </c>
@@ -2862,7 +2925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>94</v>
       </c>
@@ -2915,7 +2978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
@@ -2969,7 +3032,7 @@
       </c>
       <c r="U21" s="48"/>
     </row>
-    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>57</v>
       </c>
@@ -3019,7 +3082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>57</v>
       </c>
@@ -3069,7 +3132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>35</v>
       </c>
@@ -3123,7 +3186,7 @@
       </c>
       <c r="U24" s="49"/>
     </row>
-    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -3176,7 +3239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
@@ -3229,7 +3292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -3282,7 +3345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
@@ -3335,7 +3398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
@@ -3388,7 +3451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
@@ -3445,7 +3508,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>94</v>
       </c>
@@ -3502,7 +3565,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>45</v>
       </c>
@@ -3559,7 +3622,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>75</v>
       </c>
@@ -3614,7 +3677,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
@@ -3668,7 +3731,7 @@
       </c>
       <c r="V34" s="60"/>
     </row>
-    <row r="35" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>107</v>
       </c>
@@ -3722,7 +3785,7 @@
       </c>
       <c r="V35" s="60"/>
     </row>
-    <row r="36" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>107</v>
       </c>
@@ -3776,7 +3839,7 @@
       </c>
       <c r="V36" s="60"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>8086</v>
       </c>
@@ -3833,7 +3896,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>8086</v>
       </c>
@@ -3890,7 +3953,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
@@ -3945,7 +4008,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -4000,7 +4063,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>45</v>
       </c>
@@ -4057,7 +4120,7 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>45</v>
       </c>
@@ -4112,7 +4175,7 @@
       <c r="T42" s="50"/>
       <c r="U42" s="50"/>
     </row>
-    <row r="43" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>195</v>
       </c>
@@ -4167,7 +4230,7 @@
       <c r="T43" s="50"/>
       <c r="U43" s="50"/>
     </row>
-    <row r="44" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>107</v>
       </c>
@@ -4224,7 +4287,7 @@
       <c r="T44" s="50"/>
       <c r="U44" s="50"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>195</v>
       </c>
@@ -4279,7 +4342,7 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>195</v>
       </c>
@@ -4334,7 +4397,7 @@
       <c r="T46" s="49"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="28" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>220</v>
       </c>
@@ -4389,7 +4452,7 @@
       <c r="T47" s="50"/>
       <c r="U47" s="50"/>
     </row>
-    <row r="48" spans="1:22" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="28" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>220</v>
       </c>
@@ -4444,7 +4507,7 @@
       <c r="T48" s="50"/>
       <c r="U48" s="50"/>
     </row>
-    <row r="49" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>234</v>
       </c>
@@ -4499,7 +4562,7 @@
       <c r="T49" s="50"/>
       <c r="U49" s="50"/>
     </row>
-    <row r="50" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>234</v>
       </c>
@@ -4554,7 +4617,7 @@
       <c r="T50" s="50"/>
       <c r="U50" s="50"/>
     </row>
-    <row r="51" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>240</v>
       </c>
@@ -4609,7 +4672,7 @@
       <c r="T51" s="50"/>
       <c r="U51" s="50"/>
     </row>
-    <row r="52" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>240</v>
       </c>
@@ -4664,7 +4727,7 @@
       <c r="T52" s="50"/>
       <c r="U52" s="50"/>
     </row>
-    <row r="53" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>240</v>
       </c>
@@ -4719,7 +4782,7 @@
       <c r="T53" s="50"/>
       <c r="U53" s="50"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>250</v>
       </c>
@@ -4764,7 +4827,7 @@
       <c r="T54" s="50"/>
       <c r="U54" s="50"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>250</v>
       </c>
@@ -4809,7 +4872,7 @@
       <c r="T55" s="50"/>
       <c r="U55" s="50"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>250</v>
       </c>
@@ -4854,7 +4917,7 @@
       <c r="T56" s="50"/>
       <c r="U56" s="50"/>
     </row>
-    <row r="57" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>240</v>
       </c>
@@ -4909,7 +4972,7 @@
       <c r="T57" s="50"/>
       <c r="U57" s="50"/>
     </row>
-    <row r="58" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>240</v>
       </c>
@@ -4964,7 +5027,7 @@
       <c r="T58" s="54"/>
       <c r="U58" s="54"/>
     </row>
-    <row r="59" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>240</v>
       </c>
@@ -5019,7 +5082,7 @@
       <c r="T59" s="54"/>
       <c r="U59" s="54"/>
     </row>
-    <row r="60" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>240</v>
       </c>
@@ -5074,7 +5137,7 @@
       <c r="T60" s="54"/>
       <c r="U60" s="54"/>
     </row>
-    <row r="61" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>240</v>
       </c>
@@ -5129,7 +5192,7 @@
       <c r="T61" s="50"/>
       <c r="U61" s="50"/>
     </row>
-    <row r="62" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>240</v>
       </c>
@@ -5184,7 +5247,7 @@
       <c r="T62" s="50"/>
       <c r="U62" s="50"/>
     </row>
-    <row r="63" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>240</v>
       </c>
@@ -5239,7 +5302,7 @@
       <c r="T63" s="50"/>
       <c r="U63" s="50"/>
     </row>
-    <row r="64" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>240</v>
       </c>
@@ -5294,7 +5357,7 @@
       <c r="T64" s="50"/>
       <c r="U64" s="50"/>
     </row>
-    <row r="65" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>240</v>
       </c>
@@ -5349,7 +5412,7 @@
       <c r="T65" s="50"/>
       <c r="U65" s="50"/>
     </row>
-    <row r="66" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>240</v>
       </c>
@@ -5404,7 +5467,7 @@
       <c r="T66" s="50"/>
       <c r="U66" s="50"/>
     </row>
-    <row r="67" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>240</v>
       </c>
@@ -5459,7 +5522,7 @@
       <c r="T67" s="50"/>
       <c r="U67" s="50"/>
     </row>
-    <row r="68" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>240</v>
       </c>
@@ -5514,7 +5577,7 @@
       <c r="T68" s="50"/>
       <c r="U68" s="50"/>
     </row>
-    <row r="69" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>240</v>
       </c>
@@ -5569,7 +5632,7 @@
       <c r="T69" s="50"/>
       <c r="U69" s="50"/>
     </row>
-    <row r="70" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>240</v>
       </c>
@@ -5624,7 +5687,7 @@
       <c r="T70" s="50"/>
       <c r="U70" s="50"/>
     </row>
-    <row r="71" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>240</v>
       </c>
@@ -5679,7 +5742,7 @@
       <c r="T71" s="50"/>
       <c r="U71" s="50"/>
     </row>
-    <row r="72" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>240</v>
       </c>
@@ -5734,7 +5797,7 @@
       <c r="T72" s="54"/>
       <c r="U72" s="54"/>
     </row>
-    <row r="73" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>240</v>
       </c>
@@ -5789,7 +5852,7 @@
       <c r="T73" s="54"/>
       <c r="U73" s="54"/>
     </row>
-    <row r="74" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>240</v>
       </c>
@@ -5844,7 +5907,7 @@
       <c r="T74" s="54"/>
       <c r="U74" s="54"/>
     </row>
-    <row r="75" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>240</v>
       </c>
@@ -5899,7 +5962,7 @@
       <c r="T75" s="50"/>
       <c r="U75" s="50"/>
     </row>
-    <row r="76" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>240</v>
       </c>
@@ -5954,7 +6017,7 @@
       <c r="T76" s="50"/>
       <c r="U76" s="50"/>
     </row>
-    <row r="77" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>240</v>
       </c>
@@ -6009,7 +6072,7 @@
       <c r="T77" s="50"/>
       <c r="U77" s="50"/>
     </row>
-    <row r="78" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>240</v>
       </c>
@@ -6064,7 +6127,7 @@
       <c r="T78" s="50"/>
       <c r="U78" s="50"/>
     </row>
-    <row r="79" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>240</v>
       </c>
@@ -6119,7 +6182,7 @@
       <c r="T79" s="50"/>
       <c r="U79" s="50"/>
     </row>
-    <row r="80" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>240</v>
       </c>
@@ -6174,7 +6237,7 @@
       <c r="T80" s="50"/>
       <c r="U80" s="50"/>
     </row>
-    <row r="81" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="28" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>240</v>
       </c>
@@ -6229,7 +6292,7 @@
       <c r="T81" s="50"/>
       <c r="U81" s="50"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>18</v>
       </c>
@@ -6286,7 +6349,7 @@
       <c r="T82" s="45"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>18</v>
       </c>
@@ -6343,7 +6406,7 @@
       <c r="T83" s="45"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
         <v>35</v>
       </c>
@@ -6388,7 +6451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="50" t="s">
         <v>35</v>
       </c>
@@ -6433,7 +6496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="50" t="s">
         <v>35</v>
       </c>
@@ -6478,7 +6541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="50" t="s">
         <v>35</v>
       </c>
@@ -6523,21 +6586,66 @@
         <v>32</v>
       </c>
     </row>
+    <row r="88" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F88" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="G88" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="H88" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="I88" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J88" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="K88" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="L88" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="M88" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="N88" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="O88" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U87"/>
+  <autoFilter ref="A1:U87" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1"/>
-    <hyperlink ref="Q8" r:id="rId2"/>
-    <hyperlink ref="Q33" r:id="rId3"/>
-    <hyperlink ref="Q39" r:id="rId4"/>
-    <hyperlink ref="Q40" r:id="rId5"/>
-    <hyperlink ref="Q47" r:id="rId6"/>
+    <hyperlink ref="Q10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
@@ -6545,22 +6653,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>271</v>
       </c>
@@ -6569,7 +6677,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -6577,7 +6685,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>181</v>
       </c>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\继承\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9750" tabRatio="503"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="9750" tabRatio="503"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$97</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="351">
   <si>
     <t>vendorID</t>
   </si>
@@ -1117,18 +1122,239 @@
   <si>
     <t>网卡速率不达标</t>
   </si>
+  <si>
+    <t>8086</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>159b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.07.08</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>992K</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>E810-XXV</t>
+  </si>
+  <si>
+    <t>06310219</t>
+  </si>
+  <si>
+    <t>d216</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>d216</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150-M</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150-M</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150-M</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30C-M</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30C-M</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR430C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SR430C-M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR630C-ME</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>E810-XXV-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1168,7 +1394,7 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1184,150 +1410,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1346,194 +1441,8 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1637,249 +1546,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1887,15 +1557,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2016,14 +1686,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2033,60 +1702,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2159,6 +1789,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2416,37 +2049,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="J78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.26666666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.3666666666667" customWidth="1"/>
-    <col min="6" max="6" width="20.45" customWidth="1"/>
-    <col min="7" max="7" width="12.6333333333333" customWidth="1"/>
-    <col min="8" max="8" width="17.9083333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
     <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="9.63333333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.725" customWidth="1"/>
-    <col min="14" max="14" width="31.0916666666667" customWidth="1"/>
-    <col min="15" max="15" width="28.0916666666667" customWidth="1"/>
-    <col min="16" max="16" width="9.36666666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="31.125" customWidth="1"/>
+    <col min="15" max="15" width="28.125" customWidth="1"/>
+    <col min="16" max="16" width="9.375" customWidth="1"/>
     <col min="17" max="17" width="138" customWidth="1"/>
-    <col min="18" max="18" width="18.725" customWidth="1"/>
+    <col min="18" max="18" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:21">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2138,7 @@
       <c r="T1" s="31"/>
       <c r="U1" s="31"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -2562,7 +2195,7 @@
       <c r="T2" s="49"/>
       <c r="U2" s="49"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
@@ -2619,7 +2252,7 @@
       <c r="T3" s="49"/>
       <c r="U3" s="49"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>36</v>
       </c>
@@ -2676,7 +2309,7 @@
       <c r="T4" s="49"/>
       <c r="U4" s="50"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
@@ -2733,7 +2366,7 @@
       <c r="T5" s="49"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>59</v>
       </c>
@@ -2788,7 +2421,7 @@
       <c r="T6" s="49"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>47</v>
       </c>
@@ -2845,7 +2478,7 @@
       <c r="T7" s="49"/>
       <c r="U7" s="51"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>78</v>
       </c>
@@ -2898,7 +2531,7 @@
       <c r="T8" s="49"/>
       <c r="U8" s="50"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>59</v>
       </c>
@@ -2953,7 +2586,7 @@
       <c r="T9" s="49"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>78</v>
       </c>
@@ -3008,7 +2641,7 @@
       <c r="T10" s="49"/>
       <c r="U10" s="51"/>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:21">
+    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>100</v>
       </c>
@@ -3063,7 +2696,7 @@
       <c r="R11" s="13"/>
       <c r="U11" s="52"/>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:18">
+    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>113</v>
       </c>
@@ -3117,7 +2750,7 @@
       </c>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:17">
+    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>113</v>
       </c>
@@ -3170,7 +2803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="1:21">
+    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>100</v>
       </c>
@@ -3224,7 +2857,7 @@
       </c>
       <c r="U14" s="53"/>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:21">
+    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>100</v>
       </c>
@@ -3278,7 +2911,7 @@
       </c>
       <c r="U15" s="52"/>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:17">
+    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>113</v>
       </c>
@@ -3331,7 +2964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:17">
+    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>113</v>
       </c>
@@ -3384,7 +3017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:21">
+    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>100</v>
       </c>
@@ -3438,7 +3071,7 @@
       </c>
       <c r="U18" s="53"/>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:17">
+    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>100</v>
       </c>
@@ -3491,7 +3124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:17">
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>100</v>
       </c>
@@ -3544,7 +3177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:21">
+    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>113</v>
       </c>
@@ -3598,7 +3231,7 @@
       </c>
       <c r="U21" s="52"/>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:17">
+    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>59</v>
       </c>
@@ -3648,7 +3281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:17">
+    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>59</v>
       </c>
@@ -3698,7 +3331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:21">
+    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>36</v>
       </c>
@@ -3752,7 +3385,7 @@
       </c>
       <c r="U24" s="53"/>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:17">
+    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
@@ -3805,7 +3438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:17">
+    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +3491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:17">
+    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
@@ -3911,7 +3544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" spans="1:17">
+    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>18</v>
       </c>
@@ -3964,7 +3597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:17">
+    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
@@ -4017,7 +3650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>18</v>
       </c>
@@ -4074,7 +3707,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>100</v>
       </c>
@@ -4131,7 +3764,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>47</v>
       </c>
@@ -4188,7 +3821,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>78</v>
       </c>
@@ -4243,7 +3876,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:22">
+    <row r="34" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
@@ -4295,9 +3928,8 @@
       <c r="Q34" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="54"/>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="1:22">
+    </row>
+    <row r="35" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>113</v>
       </c>
@@ -4349,9 +3981,8 @@
       <c r="Q35" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="54"/>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="1:22">
+    </row>
+    <row r="36" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>113</v>
       </c>
@@ -4403,9 +4034,8 @@
       <c r="Q36" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="54"/>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="25">
         <v>8086</v>
       </c>
@@ -4462,7 +4092,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="25">
         <v>8086</v>
       </c>
@@ -4519,7 +4149,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
@@ -4574,7 +4204,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
@@ -4629,7 +4259,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="24" t="s">
         <v>47</v>
       </c>
@@ -4686,7 +4316,7 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:21">
+    <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28" t="s">
         <v>47</v>
       </c>
@@ -4741,7 +4371,7 @@
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:21">
+    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>212</v>
       </c>
@@ -4796,7 +4426,7 @@
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:21">
+    <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="28" t="s">
         <v>113</v>
       </c>
@@ -4845,7 +4475,7 @@
       <c r="P44" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="Q44" s="55" t="s">
+      <c r="Q44" s="54" t="s">
         <v>33</v>
       </c>
       <c r="R44" s="8"/>
@@ -4853,7 +4483,7 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="28" t="s">
         <v>212</v>
       </c>
@@ -4908,7 +4538,7 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="28" t="s">
         <v>212</v>
       </c>
@@ -4955,7 +4585,7 @@
       <c r="P46" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="Q46" s="56" t="s">
+      <c r="Q46" s="55" t="s">
         <v>33</v>
       </c>
       <c r="R46" s="53"/>
@@ -4963,7 +4593,7 @@
       <c r="T46" s="53"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" ht="27" spans="1:21">
+    <row r="47" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>239</v>
       </c>
@@ -5010,7 +4640,7 @@
         <v>249</v>
       </c>
       <c r="P47" s="39"/>
-      <c r="Q47" s="57" t="s">
+      <c r="Q47" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R47" s="8"/>
@@ -5018,7 +4648,7 @@
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
     </row>
-    <row r="48" ht="27" spans="1:21">
+    <row r="48" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="29" t="s">
         <v>239</v>
       </c>
@@ -5065,7 +4695,7 @@
         <v>252</v>
       </c>
       <c r="P48" s="40"/>
-      <c r="Q48" s="57" t="s">
+      <c r="Q48" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R48" s="8"/>
@@ -5073,7 +4703,7 @@
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
     </row>
-    <row r="49" ht="27" spans="1:21">
+    <row r="49" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="29" t="s">
         <v>253</v>
       </c>
@@ -5120,7 +4750,7 @@
         <v>257</v>
       </c>
       <c r="P49" s="41"/>
-      <c r="Q49" s="57" t="s">
+      <c r="Q49" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R49" s="8"/>
@@ -5128,7 +4758,7 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
     </row>
-    <row r="50" ht="27" spans="1:21">
+    <row r="50" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="29" t="s">
         <v>253</v>
       </c>
@@ -5175,7 +4805,7 @@
         <v>257</v>
       </c>
       <c r="P50" s="42"/>
-      <c r="Q50" s="57" t="s">
+      <c r="Q50" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R50" s="8"/>
@@ -5183,7 +4813,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
     </row>
-    <row r="51" ht="27" spans="1:21">
+    <row r="51" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
         <v>259</v>
       </c>
@@ -5230,7 +4860,7 @@
         <v>264</v>
       </c>
       <c r="P51" s="44"/>
-      <c r="Q51" s="57" t="s">
+      <c r="Q51" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R51" s="8"/>
@@ -5238,7 +4868,7 @@
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
     </row>
-    <row r="52" ht="27" spans="1:21">
+    <row r="52" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
         <v>259</v>
       </c>
@@ -5285,7 +4915,7 @@
         <v>264</v>
       </c>
       <c r="P52" s="42"/>
-      <c r="Q52" s="57" t="s">
+      <c r="Q52" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R52" s="8"/>
@@ -5293,7 +4923,7 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" ht="27" spans="1:21">
+    <row r="53" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
         <v>259</v>
       </c>
@@ -5340,7 +4970,7 @@
         <v>264</v>
       </c>
       <c r="P53" s="31"/>
-      <c r="Q53" s="57" t="s">
+      <c r="Q53" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R53" s="8"/>
@@ -5348,7 +4978,7 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54" s="32" t="s">
         <v>269</v>
       </c>
@@ -5387,13 +5017,13 @@
         <v>273</v>
       </c>
       <c r="P54" s="32"/>
-      <c r="Q54" s="57"/>
+      <c r="Q54" s="56"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
         <v>269</v>
       </c>
@@ -5432,13 +5062,13 @@
         <v>273</v>
       </c>
       <c r="P55" s="46"/>
-      <c r="Q55" s="57"/>
+      <c r="Q55" s="56"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="32" t="s">
         <v>269</v>
       </c>
@@ -5477,13 +5107,13 @@
         <v>273</v>
       </c>
       <c r="P56" s="47"/>
-      <c r="Q56" s="57"/>
+      <c r="Q56" s="56"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" ht="27" spans="1:21">
+    <row r="57" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
         <v>259</v>
       </c>
@@ -5530,7 +5160,7 @@
         <v>264</v>
       </c>
       <c r="P57" s="47"/>
-      <c r="Q57" s="57" t="s">
+      <c r="Q57" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R57" s="8"/>
@@ -5538,7 +5168,7 @@
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
     </row>
-    <row r="58" ht="27" spans="1:21">
+    <row r="58" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
         <v>259</v>
       </c>
@@ -5585,15 +5215,15 @@
         <v>279</v>
       </c>
       <c r="P58" s="30"/>
-      <c r="Q58" s="57" t="s">
+      <c r="Q58" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="R58" s="58"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
-      <c r="U58" s="58"/>
-    </row>
-    <row r="59" ht="27" spans="1:21">
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+    </row>
+    <row r="59" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
         <v>259</v>
       </c>
@@ -5640,15 +5270,15 @@
         <v>279</v>
       </c>
       <c r="P59" s="30"/>
-      <c r="Q59" s="57" t="s">
+      <c r="Q59" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="R59" s="58"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="58"/>
-      <c r="U59" s="58"/>
-    </row>
-    <row r="60" ht="27" spans="1:21">
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+    </row>
+    <row r="60" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
         <v>259</v>
       </c>
@@ -5695,15 +5325,15 @@
         <v>279</v>
       </c>
       <c r="P60" s="30"/>
-      <c r="Q60" s="57" t="s">
+      <c r="Q60" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="R60" s="58"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="58"/>
-      <c r="U60" s="58"/>
-    </row>
-    <row r="61" ht="27" spans="1:21">
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+    </row>
+    <row r="61" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="31" t="s">
         <v>259</v>
       </c>
@@ -5750,7 +5380,7 @@
         <v>279</v>
       </c>
       <c r="P61" s="32"/>
-      <c r="Q61" s="57" t="s">
+      <c r="Q61" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R61" s="8"/>
@@ -5758,7 +5388,7 @@
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
     </row>
-    <row r="62" ht="27" spans="1:21">
+    <row r="62" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="31" t="s">
         <v>259</v>
       </c>
@@ -5805,7 +5435,7 @@
         <v>279</v>
       </c>
       <c r="P62" s="32"/>
-      <c r="Q62" s="57" t="s">
+      <c r="Q62" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R62" s="8"/>
@@ -5813,7 +5443,7 @@
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
     </row>
-    <row r="63" ht="27" spans="1:21">
+    <row r="63" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="31" t="s">
         <v>259</v>
       </c>
@@ -5860,7 +5490,7 @@
         <v>264</v>
       </c>
       <c r="P63" s="48"/>
-      <c r="Q63" s="57" t="s">
+      <c r="Q63" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R63" s="8"/>
@@ -5868,7 +5498,7 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" ht="27" spans="1:21">
+    <row r="64" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="31" t="s">
         <v>259</v>
       </c>
@@ -5915,7 +5545,7 @@
         <v>264</v>
       </c>
       <c r="P64" s="42"/>
-      <c r="Q64" s="57" t="s">
+      <c r="Q64" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R64" s="8"/>
@@ -5923,7 +5553,7 @@
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
     </row>
-    <row r="65" ht="27" spans="1:21">
+    <row r="65" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
         <v>259</v>
       </c>
@@ -5970,7 +5600,7 @@
         <v>264</v>
       </c>
       <c r="P65" s="42"/>
-      <c r="Q65" s="57" t="s">
+      <c r="Q65" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R65" s="8"/>
@@ -5978,7 +5608,7 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
     </row>
-    <row r="66" ht="27" spans="1:21">
+    <row r="66" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="31" t="s">
         <v>259</v>
       </c>
@@ -6025,7 +5655,7 @@
         <v>264</v>
       </c>
       <c r="P66" s="46"/>
-      <c r="Q66" s="57" t="s">
+      <c r="Q66" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R66" s="8"/>
@@ -6033,7 +5663,7 @@
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
     </row>
-    <row r="67" ht="27" spans="1:21">
+    <row r="67" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="31" t="s">
         <v>259</v>
       </c>
@@ -6080,7 +5710,7 @@
         <v>264</v>
       </c>
       <c r="P67" s="47"/>
-      <c r="Q67" s="57" t="s">
+      <c r="Q67" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R67" s="8"/>
@@ -6088,7 +5718,7 @@
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
     </row>
-    <row r="68" ht="27" spans="1:21">
+    <row r="68" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="31" t="s">
         <v>259</v>
       </c>
@@ -6101,7 +5731,7 @@
       <c r="D68" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E68" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F68" s="31" t="s">
@@ -6135,7 +5765,7 @@
         <v>264</v>
       </c>
       <c r="P68" s="44"/>
-      <c r="Q68" s="57" t="s">
+      <c r="Q68" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R68" s="8"/>
@@ -6143,7 +5773,7 @@
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
     </row>
-    <row r="69" ht="27" spans="1:21">
+    <row r="69" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="31" t="s">
         <v>259</v>
       </c>
@@ -6156,7 +5786,7 @@
       <c r="D69" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E69" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F69" s="31" t="s">
@@ -6190,7 +5820,7 @@
         <v>264</v>
       </c>
       <c r="P69" s="42"/>
-      <c r="Q69" s="57" t="s">
+      <c r="Q69" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R69" s="8"/>
@@ -6198,7 +5828,7 @@
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
     </row>
-    <row r="70" ht="27" spans="1:21">
+    <row r="70" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="31" t="s">
         <v>259</v>
       </c>
@@ -6211,7 +5841,7 @@
       <c r="D70" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="E70" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F70" s="31" t="s">
@@ -6245,7 +5875,7 @@
         <v>264</v>
       </c>
       <c r="P70" s="31"/>
-      <c r="Q70" s="57" t="s">
+      <c r="Q70" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R70" s="8"/>
@@ -6253,7 +5883,7 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="71" ht="27" spans="1:21">
+    <row r="71" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="31" t="s">
         <v>259</v>
       </c>
@@ -6266,7 +5896,7 @@
       <c r="D71" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E71" s="59" t="s">
+      <c r="E71" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F71" s="31" t="s">
@@ -6300,7 +5930,7 @@
         <v>264</v>
       </c>
       <c r="P71" s="47"/>
-      <c r="Q71" s="57" t="s">
+      <c r="Q71" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R71" s="8"/>
@@ -6308,7 +5938,7 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
     </row>
-    <row r="72" ht="27" spans="1:21">
+    <row r="72" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="31" t="s">
         <v>259</v>
       </c>
@@ -6321,7 +5951,7 @@
       <c r="D72" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E72" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F72" s="31" t="s">
@@ -6355,15 +5985,15 @@
         <v>279</v>
       </c>
       <c r="P72" s="30"/>
-      <c r="Q72" s="57" t="s">
+      <c r="Q72" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="R72" s="58"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="58"/>
-      <c r="U72" s="58"/>
-    </row>
-    <row r="73" ht="27" spans="1:21">
+      <c r="R72" s="57"/>
+      <c r="S72" s="57"/>
+      <c r="T72" s="57"/>
+      <c r="U72" s="57"/>
+    </row>
+    <row r="73" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="31" t="s">
         <v>259</v>
       </c>
@@ -6376,7 +6006,7 @@
       <c r="D73" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E73" s="59" t="s">
+      <c r="E73" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="31" t="s">
@@ -6410,15 +6040,15 @@
         <v>279</v>
       </c>
       <c r="P73" s="30"/>
-      <c r="Q73" s="57" t="s">
+      <c r="Q73" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="R73" s="58"/>
-      <c r="S73" s="58"/>
-      <c r="T73" s="58"/>
-      <c r="U73" s="58"/>
-    </row>
-    <row r="74" ht="27" spans="1:21">
+      <c r="R73" s="57"/>
+      <c r="S73" s="57"/>
+      <c r="T73" s="57"/>
+      <c r="U73" s="57"/>
+    </row>
+    <row r="74" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="31" t="s">
         <v>259</v>
       </c>
@@ -6431,7 +6061,7 @@
       <c r="D74" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="59" t="s">
+      <c r="E74" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F74" s="31" t="s">
@@ -6465,15 +6095,15 @@
         <v>279</v>
       </c>
       <c r="P74" s="30"/>
-      <c r="Q74" s="57" t="s">
+      <c r="Q74" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="R74" s="58"/>
-      <c r="S74" s="58"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="58"/>
-    </row>
-    <row r="75" ht="27" spans="1:21">
+      <c r="R74" s="57"/>
+      <c r="S74" s="57"/>
+      <c r="T74" s="57"/>
+      <c r="U74" s="57"/>
+    </row>
+    <row r="75" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="31" t="s">
         <v>259</v>
       </c>
@@ -6486,7 +6116,7 @@
       <c r="D75" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="59" t="s">
+      <c r="E75" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F75" s="31" t="s">
@@ -6520,7 +6150,7 @@
         <v>279</v>
       </c>
       <c r="P75" s="32"/>
-      <c r="Q75" s="57" t="s">
+      <c r="Q75" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R75" s="8"/>
@@ -6528,7 +6158,7 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
     </row>
-    <row r="76" ht="27" spans="1:21">
+    <row r="76" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="31" t="s">
         <v>259</v>
       </c>
@@ -6541,7 +6171,7 @@
       <c r="D76" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="59" t="s">
+      <c r="E76" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F76" s="31" t="s">
@@ -6575,7 +6205,7 @@
         <v>279</v>
       </c>
       <c r="P76" s="32"/>
-      <c r="Q76" s="57" t="s">
+      <c r="Q76" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R76" s="8"/>
@@ -6583,7 +6213,7 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
     </row>
-    <row r="77" ht="27" spans="1:21">
+    <row r="77" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
         <v>259</v>
       </c>
@@ -6596,7 +6226,7 @@
       <c r="D77" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E77" s="59" t="s">
+      <c r="E77" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F77" s="31" t="s">
@@ -6630,7 +6260,7 @@
         <v>264</v>
       </c>
       <c r="P77" s="48"/>
-      <c r="Q77" s="57" t="s">
+      <c r="Q77" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R77" s="8"/>
@@ -6638,7 +6268,7 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
     </row>
-    <row r="78" ht="27" spans="1:21">
+    <row r="78" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="31" t="s">
         <v>259</v>
       </c>
@@ -6651,7 +6281,7 @@
       <c r="D78" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E78" s="59" t="s">
+      <c r="E78" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F78" s="31" t="s">
@@ -6685,7 +6315,7 @@
         <v>264</v>
       </c>
       <c r="P78" s="42"/>
-      <c r="Q78" s="57" t="s">
+      <c r="Q78" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R78" s="8"/>
@@ -6693,7 +6323,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" ht="27" spans="1:21">
+    <row r="79" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="31" t="s">
         <v>259</v>
       </c>
@@ -6706,7 +6336,7 @@
       <c r="D79" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E79" s="59" t="s">
+      <c r="E79" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F79" s="31" t="s">
@@ -6740,7 +6370,7 @@
         <v>264</v>
       </c>
       <c r="P79" s="42"/>
-      <c r="Q79" s="57" t="s">
+      <c r="Q79" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R79" s="8"/>
@@ -6748,7 +6378,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" ht="27" spans="1:21">
+    <row r="80" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="31" t="s">
         <v>259</v>
       </c>
@@ -6761,7 +6391,7 @@
       <c r="D80" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F80" s="31" t="s">
@@ -6795,7 +6425,7 @@
         <v>264</v>
       </c>
       <c r="P80" s="46"/>
-      <c r="Q80" s="57" t="s">
+      <c r="Q80" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R80" s="8"/>
@@ -6803,7 +6433,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" ht="27" spans="1:21">
+    <row r="81" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="31" t="s">
         <v>259</v>
       </c>
@@ -6816,7 +6446,7 @@
       <c r="D81" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F81" s="31" t="s">
@@ -6850,7 +6480,7 @@
         <v>264</v>
       </c>
       <c r="P81" s="47"/>
-      <c r="Q81" s="57" t="s">
+      <c r="Q81" s="56" t="s">
         <v>250</v>
       </c>
       <c r="R81" s="8"/>
@@ -6858,7 +6488,7 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>18</v>
       </c>
@@ -6915,7 +6545,7 @@
       <c r="T82" s="49"/>
       <c r="U82" s="49"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>18</v>
       </c>
@@ -6972,11 +6602,11 @@
       <c r="T83" s="49"/>
       <c r="U83" s="49"/>
     </row>
-    <row r="84" s="8" customFormat="1" spans="1:17">
+    <row r="84" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="59" t="s">
         <v>297</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -7012,16 +6642,16 @@
       <c r="O84" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="P84" s="60"/>
+      <c r="P84" s="59"/>
       <c r="Q84" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" s="8" customFormat="1" spans="1:17">
+    <row r="85" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="59" t="s">
         <v>297</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -7057,16 +6687,16 @@
       <c r="O85" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="P85" s="60"/>
+      <c r="P85" s="59"/>
       <c r="Q85" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" s="8" customFormat="1" spans="1:17">
+    <row r="86" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="59" t="s">
         <v>297</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -7102,16 +6732,16 @@
       <c r="O86" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="P86" s="60"/>
+      <c r="P86" s="59"/>
       <c r="Q86" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" s="8" customFormat="1" spans="1:17">
+    <row r="87" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="59" t="s">
         <v>297</v>
       </c>
       <c r="C87" s="8" t="s">
@@ -7147,16 +6777,16 @@
       <c r="O87" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="P87" s="60"/>
+      <c r="P87" s="59"/>
       <c r="Q87" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" s="8" customFormat="1" spans="1:17">
+    <row r="88" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B88" s="60" t="s">
+      <c r="B88" s="59" t="s">
         <v>307</v>
       </c>
       <c r="E88" s="36" t="s">
@@ -7192,16 +6822,16 @@
       <c r="O88" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="P88" s="60"/>
+      <c r="P88" s="59"/>
       <c r="Q88" s="8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="89" s="8" customFormat="1" spans="1:17">
+    <row r="89" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="60">
+      <c r="B89" s="59">
         <v>1822</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -7243,18 +6873,18 @@
       <c r="O89" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="P89" s="60" t="s">
+      <c r="P89" s="59" t="s">
         <v>324</v>
       </c>
       <c r="Q89" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90" s="8" customFormat="1" spans="1:17">
+    <row r="90" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="60">
+      <c r="B90" s="59">
         <v>1822</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -7296,54 +6926,670 @@
       <c r="O90" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="P90" s="60" t="s">
+      <c r="P90" s="59" t="s">
         <v>324</v>
       </c>
       <c r="Q90" s="8" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="91" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B91" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="P91" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L92" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M92" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N92" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="O92" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U92" s="53"/>
+    </row>
+    <row r="93" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L93" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M93" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N93" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="O93" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H94" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J94" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K94" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M94" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N94" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="O94" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U94" s="53"/>
+    </row>
+    <row r="95" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L95" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M95" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N95" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="O95" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M96" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N96" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="O96" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U96" s="53"/>
+    </row>
+    <row r="97" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J97" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L97" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M97" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N97" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="O97" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J98" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N98" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="O98" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U98" s="52"/>
+    </row>
+    <row r="99" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J99" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K99" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N99" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="O99" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U99" s="52"/>
+    </row>
+    <row r="100" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J100" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L100" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N100" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="O100" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U100" s="52"/>
+    </row>
+    <row r="101" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J101" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L101" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N101" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="O101" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U101" s="52"/>
+    </row>
+    <row r="102" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J102" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K102" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L102" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N102" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="O102" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U102" s="52"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U88">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:U97"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q8" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.4.2_470.57.02_linux.run"/>
-    <hyperlink ref="Q33" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q39" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q40" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q47" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/swsm_driver_3.0.3.zip"/>
+    <hyperlink ref="Q10" r:id="rId1"/>
+    <hyperlink ref="Q8" r:id="rId2"/>
+    <hyperlink ref="Q33" r:id="rId3"/>
+    <hyperlink ref="Q39" r:id="rId4"/>
+    <hyperlink ref="Q40" r:id="rId5"/>
+    <hyperlink ref="Q47" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.725" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.0916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.45" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>325</v>
       </c>
@@ -7352,7 +7598,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>327</v>
       </c>
@@ -7360,7 +7606,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>327</v>
       </c>
@@ -7369,7 +7615,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -16,14 +16,14 @@
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$127</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="404">
   <si>
     <t>vendorID</t>
   </si>
@@ -1348,6 +1348,400 @@
   <si>
     <t>E810-XXV-2</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>009c</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX4121A-ACAT</t>
+  </si>
+  <si>
+    <t>06310106</t>
+  </si>
+  <si>
+    <t>0069</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0069</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX4121A-ACUT</t>
+  </si>
+  <si>
+    <t>06310183</t>
+  </si>
+  <si>
+    <t>d11b</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2c</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2c</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>333</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>380</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>380</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>02312DJG</t>
+  </si>
+  <si>
+    <t>03023TYJ</t>
+  </si>
+  <si>
+    <r>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX515A-CCAT</t>
+  </si>
+  <si>
+    <t>06310183</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>06310149</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>06310149</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0020</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX512A-ACAT</t>
+  </si>
+  <si>
+    <t>06310156</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0121</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0121</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX512A-ACUT</t>
+  </si>
+  <si>
+    <t>06310169</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0160</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0160</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX515A-CCUT</t>
+  </si>
+  <si>
+    <t>06310184</t>
+  </si>
+  <si>
+    <t>0020</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX512A-ACAT_C06</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>06310175</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0068</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P381</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>02312SCJ</t>
+  </si>
+  <si>
+    <r>
+      <t>d1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP382</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP382</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>03026PUN</t>
+  </si>
+  <si>
+    <t>d120</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP350</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>03024QAX</t>
+  </si>
+  <si>
+    <r>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCX653105A-ECAT</t>
+  </si>
+  <si>
+    <r>
+      <t>d1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SP5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>02312BWF</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1465,87 +1859,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1557,7 +1870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -1575,7 +1888,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1590,27 +1902,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1632,9 +1923,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1675,23 +1963,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1702,13 +1973,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2055,2099 +2329,2072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="41" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="31.125" customWidth="1"/>
-    <col min="15" max="15" width="28.125" customWidth="1"/>
-    <col min="16" max="16" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="138" customWidth="1"/>
-    <col min="18" max="18" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="5" customWidth="1"/>
+    <col min="2" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="12.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="41" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="5" customWidth="1"/>
+    <col min="14" max="14" width="31.125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="28.125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="138" style="5" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="51"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23" t="s">
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="50"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="51"/>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="R10" s="12"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="U11" s="52"/>
-    </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="23" t="s">
+      <c r="Q13" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="53"/>
-    </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="52"/>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="F18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="53"/>
-    </row>
-    <row r="19" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N20" s="23" t="s">
+      <c r="N20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="P20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="12" t="s">
         <v>117</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="52"/>
-    </row>
-    <row r="22" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>90</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="53"/>
-    </row>
-    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="23" t="s">
+      <c r="P26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="Q26" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="P27" s="23" t="s">
+      <c r="P27" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="Q27" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="Q28" s="23" t="s">
+      <c r="Q28" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N29" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="P29" s="23" t="s">
+      <c r="P29" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="Q29" s="23" t="s">
+      <c r="Q29" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="P30" s="23" t="s">
+      <c r="P30" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="Q30" s="23" t="s">
+      <c r="Q30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="N31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="P31" s="23" t="s">
+      <c r="P31" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="Q31" s="23" t="s">
+      <c r="Q31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="14" t="s">
+      <c r="F32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="N32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="P32" s="23" t="s">
+      <c r="P32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="23" t="s">
+      <c r="Q32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="4">
         <v>1214</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="F33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>84</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K33" s="5"/>
       <c r="L33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="N33" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P33" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="Q33" s="23" t="s">
+      <c r="Q33" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-    </row>
-    <row r="34" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="19" t="s">
+      <c r="F34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="12" t="s">
         <v>117</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="O34" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="P34" s="23" t="s">
+      <c r="P34" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="Q34" s="23" t="s">
+      <c r="Q34" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="20" t="s">
+      <c r="F35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M35" s="20" t="s">
+      <c r="M35" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="N35" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="O35" s="23" t="s">
+      <c r="O35" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="P35" s="23" t="s">
+      <c r="P35" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="Q35" s="23" t="s">
+      <c r="Q35" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="24" t="s">
+      <c r="F36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="23" t="s">
+      <c r="N36" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="O36" s="23" t="s">
+      <c r="O36" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="23" t="s">
+      <c r="P36" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="Q36" s="23" t="s">
+      <c r="Q36" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="25">
+      <c r="A37" s="13">
         <v>8086</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="13">
         <v>1583</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="13">
         <v>8086</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25" t="s">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M37" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N37" s="23" t="s">
+      <c r="N37" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O37" s="23" t="s">
+      <c r="O37" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="P37" s="23" t="s">
+      <c r="P37" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="Q37" s="23" t="s">
+      <c r="Q37" s="21" t="s">
         <v>33</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="25">
+      <c r="A38" s="13">
         <v>8086</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="13">
         <v>1583</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="13">
         <v>8086</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="27" t="s">
+      <c r="F38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27" t="s">
+      <c r="H38" s="15"/>
+      <c r="I38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="M38" s="27" t="s">
+      <c r="M38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="O38" s="34" t="s">
+      <c r="O38" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="P38" s="34" t="s">
+      <c r="P38" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="Q38" s="34" t="s">
+      <c r="Q38" s="21" t="s">
         <v>33</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
@@ -4187,22 +4434,18 @@
       <c r="M39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="23" t="s">
+      <c r="N39" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="O39" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="23" t="s">
+      <c r="P39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="Q39" s="23" t="s">
+      <c r="Q39" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -4242,91 +4485,83 @@
       <c r="M40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="O40" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="P40" s="23" t="s">
+      <c r="P40" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="Q40" s="23" t="s">
+      <c r="Q40" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="21">
         <v>3714</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="21">
         <v>5132</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="23" t="s">
+      <c r="F41" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="L41" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="M41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N41" s="23" t="s">
+      <c r="N41" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="O41" s="23" t="s">
+      <c r="O41" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="P41" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="23" t="s">
+      <c r="Q41" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
     </row>
     <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="16" t="s">
         <v>205</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -4335,53 +4570,49 @@
       <c r="F42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28" t="s">
+      <c r="H42" s="16"/>
+      <c r="I42" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L42" s="28" t="s">
+      <c r="L42" s="16" t="s">
         <v>208</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N42" s="34" t="s">
+      <c r="N42" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="O42" s="34" t="s">
+      <c r="O42" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="P42" s="34" t="s">
+      <c r="P42" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="Q42" s="34" t="s">
+      <c r="Q42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
     </row>
     <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="16" t="s">
         <v>214</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -4390,53 +4621,49 @@
       <c r="F43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28" t="s">
+      <c r="H43" s="16"/>
+      <c r="I43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="K43" s="28" t="s">
+      <c r="K43" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="M43" s="35" t="s">
+      <c r="M43" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="N43" s="28" t="s">
+      <c r="N43" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="O43" s="28" t="s">
+      <c r="O43" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="P43" s="28" t="s">
+      <c r="P43" s="16" t="s">
         <v>221</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
     </row>
     <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="16" t="s">
         <v>223</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4445,55 +4672,51 @@
       <c r="F44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="16" t="s">
         <v>117</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="28" t="s">
+      <c r="L44" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M44" s="28" t="s">
+      <c r="M44" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N44" s="28" t="s">
+      <c r="N44" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="O44" s="36" t="s">
+      <c r="O44" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="P44" s="28" t="s">
+      <c r="P44" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="Q44" s="54" t="s">
+      <c r="Q44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="16" t="s">
         <v>213</v>
       </c>
       <c r="C45" s="4">
         <v>1077</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="16" t="s">
         <v>214</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -4502,53 +4725,49 @@
       <c r="F45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="28" t="s">
+      <c r="I45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="21" t="s">
         <v>228</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L45" s="34" t="s">
+      <c r="L45" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="M45" s="35" t="s">
+      <c r="M45" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="N45" s="28" t="s">
+      <c r="N45" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="O45" s="28" t="s">
+      <c r="O45" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="P45" s="28" t="s">
+      <c r="P45" s="16" t="s">
         <v>221</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="16" t="s">
         <v>231</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -4557,3003 +4776,4318 @@
       <c r="F46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="16" t="s">
         <v>232</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="28" t="s">
+      <c r="I46" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="K46" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="35" t="s">
+      <c r="M46" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="N46" s="37" t="s">
+      <c r="N46" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="O46" s="35" t="s">
+      <c r="O46" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="P46" s="28" t="s">
+      <c r="P46" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="Q46" s="55" t="s">
+      <c r="Q46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="5"/>
     </row>
     <row r="47" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="31" t="s">
+      <c r="F47" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I47" s="31" t="s">
+      <c r="I47" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J47" s="29" t="s">
+      <c r="J47" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="K47" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L47" s="31" t="s">
+      <c r="L47" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M47" s="31" t="s">
+      <c r="M47" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="N47" s="31" t="s">
+      <c r="N47" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="O47" s="31" t="s">
+      <c r="O47" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="56" t="s">
+      <c r="P47" s="26"/>
+      <c r="Q47" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
     </row>
     <row r="48" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="31" t="s">
+      <c r="F48" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J48" s="29" t="s">
+      <c r="J48" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L48" s="31" t="s">
+      <c r="L48" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M48" s="31" t="s">
+      <c r="M48" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="N48" s="31" t="s">
+      <c r="N48" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="O48" s="31" t="s">
+      <c r="O48" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="56" t="s">
+      <c r="P48" s="27"/>
+      <c r="Q48" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
     </row>
     <row r="49" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="31" t="s">
+      <c r="F49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="K49" s="38" t="s">
+      <c r="K49" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L49" s="31" t="s">
+      <c r="L49" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M49" s="31" t="s">
+      <c r="M49" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="N49" s="31" t="s">
+      <c r="N49" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="O49" s="31" t="s">
+      <c r="O49" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="56" t="s">
+      <c r="P49" s="28"/>
+      <c r="Q49" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
     </row>
     <row r="50" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="31" t="s">
+      <c r="F50" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I50" s="31" t="s">
+      <c r="I50" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="J50" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L50" s="31" t="s">
+      <c r="L50" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M50" s="31" t="s">
+      <c r="M50" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="N50" s="31" t="s">
+      <c r="N50" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="O50" s="31" t="s">
+      <c r="O50" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="56" t="s">
+      <c r="P50" s="29"/>
+      <c r="Q50" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
     </row>
     <row r="51" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="31" t="s">
+      <c r="F51" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H51" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I51" s="31" t="s">
+      <c r="I51" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J51" s="29" t="s">
+      <c r="J51" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K51" s="38" t="s">
+      <c r="K51" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L51" s="31" t="s">
+      <c r="L51" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M51" s="31" t="s">
+      <c r="M51" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N51" s="31" t="s">
+      <c r="N51" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="O51" s="43" t="s">
+      <c r="O51" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="56" t="s">
+      <c r="P51" s="31"/>
+      <c r="Q51" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
     </row>
     <row r="52" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="31" t="s">
+      <c r="F52" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I52" s="31" t="s">
+      <c r="I52" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="J52" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="38" t="s">
+      <c r="K52" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L52" s="31" t="s">
+      <c r="L52" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="M52" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N52" s="31" t="s">
+      <c r="N52" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="O52" s="43" t="s">
+      <c r="O52" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="56" t="s">
+      <c r="P52" s="29"/>
+      <c r="Q52" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
     </row>
     <row r="53" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="31" t="s">
+      <c r="F53" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I53" s="31" t="s">
+      <c r="I53" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J53" s="29" t="s">
+      <c r="J53" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K53" s="38" t="s">
+      <c r="K53" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L53" s="31" t="s">
+      <c r="L53" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M53" s="31" t="s">
+      <c r="M53" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N53" s="31" t="s">
+      <c r="N53" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="O53" s="43" t="s">
+      <c r="O53" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="56" t="s">
+      <c r="P53" s="19"/>
+      <c r="Q53" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31" t="s">
+      <c r="F54" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K54" s="38"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31" t="s">
+      <c r="K54" s="25"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="N54" s="45" t="s">
+      <c r="N54" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="O54" s="43" t="s">
+      <c r="O54" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31" t="s">
+      <c r="F55" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J55" s="29" t="s">
+      <c r="J55" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K55" s="38"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31" t="s">
+      <c r="K55" s="25"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="N55" s="46" t="s">
+      <c r="N55" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="O55" s="43" t="s">
+      <c r="O55" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31" t="s">
+      <c r="F56" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J56" s="29" t="s">
+      <c r="J56" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K56" s="38"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31" t="s">
+      <c r="K56" s="25"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="N56" s="29" t="s">
+      <c r="N56" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="O56" s="43" t="s">
+      <c r="O56" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
     </row>
     <row r="57" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="31" t="s">
+      <c r="F57" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="H57" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I57" s="31" t="s">
+      <c r="I57" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J57" s="29" t="s">
+      <c r="J57" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K57" s="38" t="s">
+      <c r="K57" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L57" s="31" t="s">
+      <c r="L57" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M57" s="31" t="s">
+      <c r="M57" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N57" s="29" t="s">
+      <c r="N57" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="O57" s="43" t="s">
+      <c r="O57" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="56" t="s">
+      <c r="P57" s="34"/>
+      <c r="Q57" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
     </row>
     <row r="58" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="31" t="s">
+      <c r="F58" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="H58" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="I58" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J58" s="29" t="s">
+      <c r="J58" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K58" s="38" t="s">
+      <c r="K58" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L58" s="31" t="s">
+      <c r="L58" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M58" s="31" t="s">
+      <c r="M58" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N58" s="29" t="s">
+      <c r="N58" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="O58" s="43" t="s">
+      <c r="O58" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="56" t="s">
+      <c r="P58" s="18"/>
+      <c r="Q58" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
     </row>
     <row r="59" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="31" t="s">
+      <c r="F59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H59" s="31" t="s">
+      <c r="H59" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="I59" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J59" s="29" t="s">
+      <c r="J59" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K59" s="38" t="s">
+      <c r="K59" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L59" s="31" t="s">
+      <c r="L59" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M59" s="31" t="s">
+      <c r="M59" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N59" s="29" t="s">
+      <c r="N59" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="O59" s="43" t="s">
+      <c r="O59" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="56" t="s">
+      <c r="P59" s="18"/>
+      <c r="Q59" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
     </row>
     <row r="60" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="31" t="s">
+      <c r="F60" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="I60" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J60" s="29" t="s">
+      <c r="J60" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K60" s="38" t="s">
+      <c r="K60" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L60" s="31" t="s">
+      <c r="L60" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M60" s="31" t="s">
+      <c r="M60" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N60" s="29" t="s">
+      <c r="N60" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="O60" s="43" t="s">
+      <c r="O60" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="56" t="s">
+      <c r="P60" s="18"/>
+      <c r="Q60" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
     </row>
     <row r="61" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F61" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="31" t="s">
+      <c r="F61" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I61" s="31" t="s">
+      <c r="I61" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J61" s="29" t="s">
+      <c r="J61" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K61" s="38" t="s">
+      <c r="K61" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L61" s="31" t="s">
+      <c r="L61" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M61" s="31" t="s">
+      <c r="M61" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N61" s="31" t="s">
+      <c r="N61" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="O61" s="43" t="s">
+      <c r="O61" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="56" t="s">
+      <c r="P61" s="20"/>
+      <c r="Q61" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
     </row>
     <row r="62" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="31" t="s">
+      <c r="F62" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H62" s="31" t="s">
+      <c r="H62" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I62" s="31" t="s">
+      <c r="I62" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J62" s="29" t="s">
+      <c r="J62" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K62" s="38" t="s">
+      <c r="K62" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L62" s="31" t="s">
+      <c r="L62" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M62" s="31" t="s">
+      <c r="M62" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N62" s="31" t="s">
+      <c r="N62" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O62" s="43" t="s">
+      <c r="O62" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="56" t="s">
+      <c r="P62" s="20"/>
+      <c r="Q62" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
     </row>
     <row r="63" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="31" t="s">
+      <c r="F63" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H63" s="31" t="s">
+      <c r="H63" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I63" s="31" t="s">
+      <c r="I63" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J63" s="29" t="s">
+      <c r="J63" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K63" s="38" t="s">
+      <c r="K63" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L63" s="31" t="s">
+      <c r="L63" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M63" s="31" t="s">
+      <c r="M63" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N63" s="31" t="s">
+      <c r="N63" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="O63" s="43" t="s">
+      <c r="O63" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="56" t="s">
+      <c r="P63" s="35"/>
+      <c r="Q63" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
     </row>
     <row r="64" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="31" t="s">
+      <c r="F64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="H64" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I64" s="31" t="s">
+      <c r="I64" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="J64" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K64" s="38" t="s">
+      <c r="K64" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L64" s="31" t="s">
+      <c r="L64" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M64" s="31" t="s">
+      <c r="M64" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N64" s="31" t="s">
+      <c r="N64" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="O64" s="43" t="s">
+      <c r="O64" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="56" t="s">
+      <c r="P64" s="29"/>
+      <c r="Q64" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
     </row>
     <row r="65" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="31" t="s">
+      <c r="F65" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H65" s="31" t="s">
+      <c r="H65" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I65" s="31" t="s">
+      <c r="I65" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J65" s="29" t="s">
+      <c r="J65" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K65" s="38" t="s">
+      <c r="K65" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L65" s="31" t="s">
+      <c r="L65" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M65" s="31" t="s">
+      <c r="M65" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N65" s="31" t="s">
+      <c r="N65" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="O65" s="43" t="s">
+      <c r="O65" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="56" t="s">
+      <c r="P65" s="29"/>
+      <c r="Q65" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
     </row>
     <row r="66" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="31" t="s">
+      <c r="F66" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I66" s="31" t="s">
+      <c r="I66" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J66" s="29" t="s">
+      <c r="J66" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K66" s="38" t="s">
+      <c r="K66" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L66" s="31" t="s">
+      <c r="L66" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M66" s="31" t="s">
+      <c r="M66" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N66" s="31" t="s">
+      <c r="N66" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="O66" s="43" t="s">
+      <c r="O66" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="56" t="s">
+      <c r="P66" s="33"/>
+      <c r="Q66" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
     </row>
     <row r="67" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="19" t="s">
         <v>241</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F67" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="31" t="s">
+      <c r="F67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I67" s="31" t="s">
+      <c r="I67" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J67" s="29" t="s">
+      <c r="J67" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="K67" s="38" t="s">
+      <c r="K67" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L67" s="31" t="s">
+      <c r="L67" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M67" s="31" t="s">
+      <c r="M67" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N67" s="29" t="s">
+      <c r="N67" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="O67" s="43" t="s">
+      <c r="O67" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="56" t="s">
+      <c r="P67" s="34"/>
+      <c r="Q67" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
     </row>
     <row r="68" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="31" t="s">
+      <c r="F68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H68" s="31" t="s">
+      <c r="H68" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I68" s="31" t="s">
+      <c r="I68" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J68" s="29" t="s">
+      <c r="J68" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K68" s="38" t="s">
+      <c r="K68" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L68" s="31" t="s">
+      <c r="L68" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M68" s="31" t="s">
+      <c r="M68" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N68" s="31" t="s">
+      <c r="N68" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="O68" s="43" t="s">
+      <c r="O68" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="56" t="s">
+      <c r="P68" s="31"/>
+      <c r="Q68" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
     </row>
     <row r="69" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E69" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="31" t="s">
+      <c r="F69" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H69" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I69" s="31" t="s">
+      <c r="I69" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J69" s="29" t="s">
+      <c r="J69" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K69" s="38" t="s">
+      <c r="K69" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L69" s="31" t="s">
+      <c r="L69" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M69" s="31" t="s">
+      <c r="M69" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N69" s="31" t="s">
+      <c r="N69" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="43" t="s">
+      <c r="O69" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="56" t="s">
+      <c r="P69" s="29"/>
+      <c r="Q69" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
     </row>
     <row r="70" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E70" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="31" t="s">
+      <c r="F70" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H70" s="31" t="s">
+      <c r="H70" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I70" s="31" t="s">
+      <c r="I70" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J70" s="29" t="s">
+      <c r="J70" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K70" s="38" t="s">
+      <c r="K70" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L70" s="31" t="s">
+      <c r="L70" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M70" s="31" t="s">
+      <c r="M70" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N70" s="31" t="s">
+      <c r="N70" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="43" t="s">
+      <c r="O70" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="56" t="s">
+      <c r="P70" s="19"/>
+      <c r="Q70" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
     </row>
     <row r="71" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="31" t="s">
+      <c r="F71" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="H71" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I71" s="31" t="s">
+      <c r="I71" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J71" s="29" t="s">
+      <c r="J71" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K71" s="38" t="s">
+      <c r="K71" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L71" s="31" t="s">
+      <c r="L71" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M71" s="31" t="s">
+      <c r="M71" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N71" s="29" t="s">
+      <c r="N71" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="O71" s="43" t="s">
+      <c r="O71" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="56" t="s">
+      <c r="P71" s="34"/>
+      <c r="Q71" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
     </row>
     <row r="72" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E72" s="58" t="s">
+      <c r="E72" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="31" t="s">
+      <c r="F72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I72" s="31" t="s">
+      <c r="I72" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J72" s="29" t="s">
+      <c r="J72" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K72" s="38" t="s">
+      <c r="K72" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L72" s="31" t="s">
+      <c r="L72" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M72" s="31" t="s">
+      <c r="M72" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N72" s="29" t="s">
+      <c r="N72" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="O72" s="43" t="s">
+      <c r="O72" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="56" t="s">
+      <c r="P72" s="18"/>
+      <c r="Q72" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R72" s="57"/>
-      <c r="S72" s="57"/>
-      <c r="T72" s="57"/>
-      <c r="U72" s="57"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
     </row>
     <row r="73" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="31" t="s">
+      <c r="F73" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I73" s="31" t="s">
+      <c r="I73" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K73" s="38" t="s">
+      <c r="K73" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L73" s="31" t="s">
+      <c r="L73" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M73" s="31" t="s">
+      <c r="M73" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N73" s="29" t="s">
+      <c r="N73" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="O73" s="43" t="s">
+      <c r="O73" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="56" t="s">
+      <c r="P73" s="18"/>
+      <c r="Q73" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R73" s="57"/>
-      <c r="S73" s="57"/>
-      <c r="T73" s="57"/>
-      <c r="U73" s="57"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
     </row>
     <row r="74" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="58" t="s">
+      <c r="E74" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="31" t="s">
+      <c r="F74" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H74" s="31" t="s">
+      <c r="H74" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J74" s="29" t="s">
+      <c r="J74" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K74" s="38" t="s">
+      <c r="K74" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L74" s="31" t="s">
+      <c r="L74" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M74" s="31" t="s">
+      <c r="M74" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N74" s="29" t="s">
+      <c r="N74" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="O74" s="43" t="s">
+      <c r="O74" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="56" t="s">
+      <c r="P74" s="18"/>
+      <c r="Q74" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R74" s="57"/>
-      <c r="S74" s="57"/>
-      <c r="T74" s="57"/>
-      <c r="U74" s="57"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
     </row>
     <row r="75" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="31" t="s">
+      <c r="F75" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H75" s="31" t="s">
+      <c r="H75" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I75" s="31" t="s">
+      <c r="I75" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J75" s="29" t="s">
+      <c r="J75" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K75" s="38" t="s">
+      <c r="K75" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L75" s="31" t="s">
+      <c r="L75" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M75" s="31" t="s">
+      <c r="M75" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N75" s="31" t="s">
+      <c r="N75" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="O75" s="43" t="s">
+      <c r="O75" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="56" t="s">
+      <c r="P75" s="20"/>
+      <c r="Q75" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
     </row>
     <row r="76" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="58" t="s">
+      <c r="E76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="31" t="s">
+      <c r="F76" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H76" s="31" t="s">
+      <c r="H76" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I76" s="31" t="s">
+      <c r="I76" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J76" s="29" t="s">
+      <c r="J76" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K76" s="38" t="s">
+      <c r="K76" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L76" s="31" t="s">
+      <c r="L76" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M76" s="31" t="s">
+      <c r="M76" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="N76" s="31" t="s">
+      <c r="N76" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="O76" s="43" t="s">
+      <c r="O76" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="56" t="s">
+      <c r="P76" s="20"/>
+      <c r="Q76" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
     </row>
     <row r="77" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E77" s="58" t="s">
+      <c r="E77" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="31" t="s">
+      <c r="F77" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="H77" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I77" s="31" t="s">
+      <c r="I77" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J77" s="29" t="s">
+      <c r="J77" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K77" s="38" t="s">
+      <c r="K77" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L77" s="31" t="s">
+      <c r="L77" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M77" s="31" t="s">
+      <c r="M77" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N77" s="31" t="s">
+      <c r="N77" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="O77" s="43" t="s">
+      <c r="O77" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P77" s="48"/>
-      <c r="Q77" s="56" t="s">
+      <c r="P77" s="35"/>
+      <c r="Q77" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
     </row>
     <row r="78" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E78" s="58" t="s">
+      <c r="E78" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="31" t="s">
+      <c r="F78" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="H78" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I78" s="31" t="s">
+      <c r="I78" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J78" s="29" t="s">
+      <c r="J78" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K78" s="38" t="s">
+      <c r="K78" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L78" s="31" t="s">
+      <c r="L78" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M78" s="31" t="s">
+      <c r="M78" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N78" s="31" t="s">
+      <c r="N78" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="O78" s="43" t="s">
+      <c r="O78" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="56" t="s">
+      <c r="P78" s="29"/>
+      <c r="Q78" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
     </row>
     <row r="79" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D79" s="31" t="s">
+      <c r="D79" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E79" s="58" t="s">
+      <c r="E79" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="31" t="s">
+      <c r="F79" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I79" s="31" t="s">
+      <c r="I79" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J79" s="29" t="s">
+      <c r="J79" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K79" s="38" t="s">
+      <c r="K79" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L79" s="31" t="s">
+      <c r="L79" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M79" s="31" t="s">
+      <c r="M79" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N79" s="31" t="s">
+      <c r="N79" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="O79" s="43" t="s">
+      <c r="O79" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="56" t="s">
+      <c r="P79" s="29"/>
+      <c r="Q79" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
     </row>
     <row r="80" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E80" s="58" t="s">
+      <c r="E80" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="31" t="s">
+      <c r="F80" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I80" s="31" t="s">
+      <c r="I80" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J80" s="29" t="s">
+      <c r="J80" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K80" s="38" t="s">
+      <c r="K80" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L80" s="31" t="s">
+      <c r="L80" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M80" s="31" t="s">
+      <c r="M80" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N80" s="31" t="s">
+      <c r="N80" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="O80" s="43" t="s">
+      <c r="O80" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="56" t="s">
+      <c r="P80" s="33"/>
+      <c r="Q80" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
     </row>
     <row r="81" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E81" s="58" t="s">
+      <c r="E81" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="31" t="s">
+      <c r="F81" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I81" s="31" t="s">
+      <c r="I81" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J81" s="29" t="s">
+      <c r="J81" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="K81" s="38" t="s">
+      <c r="K81" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="L81" s="31" t="s">
+      <c r="L81" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="M81" s="31" t="s">
+      <c r="M81" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="N81" s="29" t="s">
+      <c r="N81" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="O81" s="43" t="s">
+      <c r="O81" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="56" t="s">
+      <c r="P81" s="34"/>
+      <c r="Q81" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" s="13" t="s">
+      <c r="F82" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I82" s="13" t="s">
+      <c r="I82" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="K82" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="L82" s="13" t="s">
+      <c r="L82" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="M82" s="13" t="s">
+      <c r="M82" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N82" s="13" t="s">
+      <c r="N82" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="O82" s="36" t="s">
+      <c r="O82" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="P82" s="13" t="s">
+      <c r="P82" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="Q82" s="13" t="s">
+      <c r="Q82" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R82" s="13"/>
-      <c r="S82" s="49"/>
-      <c r="T82" s="49"/>
-      <c r="U82" s="49"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="12" t="s">
         <v>290</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="13" t="s">
+      <c r="F83" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="I83" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="K83" s="13" t="s">
+      <c r="K83" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="L83" s="13" t="s">
+      <c r="L83" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M83" s="13" t="s">
+      <c r="M83" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N83" s="13" t="s">
+      <c r="N83" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="O83" s="36" t="s">
+      <c r="O83" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="P83" s="13" t="s">
+      <c r="P83" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="Q83" s="13" t="s">
+      <c r="Q83" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R83" s="13"/>
-      <c r="S83" s="49"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="49"/>
-    </row>
-    <row r="84" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+      <c r="R83" s="12"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+    </row>
+    <row r="84" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J84" s="36" t="s">
+      <c r="J84" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="M84" s="8" t="s">
+      <c r="M84" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N84" s="8" t="s">
+      <c r="N84" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="O84" s="8" t="s">
+      <c r="O84" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="8" t="s">
+      <c r="P84" s="39"/>
+      <c r="Q84" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
+    <row r="85" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J85" s="36" t="s">
+      <c r="J85" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="M85" s="8" t="s">
+      <c r="M85" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="N85" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="O85" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="8" t="s">
+      <c r="P85" s="39"/>
+      <c r="Q85" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="M86" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N86" s="8" t="s">
+      <c r="N86" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="O86" s="8" t="s">
+      <c r="O86" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="8" t="s">
+      <c r="P86" s="39"/>
+      <c r="Q86" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+    <row r="87" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="M87" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N87" s="8" t="s">
+      <c r="N87" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="O87" s="8" t="s">
+      <c r="O87" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="8" t="s">
+      <c r="P87" s="39"/>
+      <c r="Q87" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+    <row r="88" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="36" t="s">
+      <c r="F88" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L88" s="36" t="s">
+      <c r="L88" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="M88" s="8" t="s">
+      <c r="M88" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="N88" s="8" t="s">
+      <c r="N88" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="O88" s="8" t="s">
+      <c r="O88" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="8" t="s">
+      <c r="P88" s="39"/>
+      <c r="Q88" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="59">
+      <c r="B89" s="39">
         <v>1822</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="8" t="s">
+      <c r="F89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J89" s="36" t="s">
+      <c r="J89" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="K89" s="8" t="s">
+      <c r="K89" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="L89" s="8" t="s">
+      <c r="L89" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="M89" s="8" t="s">
+      <c r="M89" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N89" s="8" t="s">
+      <c r="N89" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="O89" s="8" t="s">
+      <c r="O89" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P89" s="59" t="s">
+      <c r="P89" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="Q89" s="8" t="s">
+      <c r="Q89" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="59">
+      <c r="B90" s="39">
         <v>1822</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" s="8" t="s">
+      <c r="F90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="L90" s="8" t="s">
+      <c r="L90" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M90" s="8" t="s">
+      <c r="M90" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N90" s="8" t="s">
+      <c r="N90" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="O90" s="8" t="s">
+      <c r="O90" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P90" s="59" t="s">
+      <c r="P90" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="Q90" s="8" t="s">
+      <c r="Q90" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+    <row r="91" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" s="8" t="s">
+      <c r="F91" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K91" s="13" t="s">
+      <c r="K91" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="L91" s="8" t="s">
+      <c r="L91" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M91" s="8" t="s">
+      <c r="M91" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="N91" s="8" t="s">
+      <c r="N91" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="O91" s="8" t="s">
+      <c r="O91" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P91" s="59" t="s">
+      <c r="P91" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="Q91" s="8" t="s">
+      <c r="Q91" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A92" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="19" t="s">
+      <c r="F92" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I92" s="19" t="s">
+      <c r="I92" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J92" s="19" t="s">
+      <c r="J92" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K92" s="19" t="s">
+      <c r="K92" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L92" s="19" t="s">
+      <c r="L92" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M92" s="19" t="s">
+      <c r="M92" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N92" s="23" t="s">
+      <c r="N92" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="O92" s="23" t="s">
+      <c r="O92" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="23" t="s">
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U92" s="53"/>
-    </row>
-    <row r="93" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A93" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="19" t="s">
+      <c r="F93" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H93" s="19" t="s">
+      <c r="H93" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I93" s="19" t="s">
+      <c r="I93" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J93" s="19" t="s">
+      <c r="J93" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K93" s="19" t="s">
+      <c r="K93" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="L93" s="19" t="s">
+      <c r="L93" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M93" s="19" t="s">
+      <c r="M93" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N93" s="34" t="s">
+      <c r="N93" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="O93" s="34" t="s">
+      <c r="O93" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34" t="s">
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="17" t="s">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A94" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="19" t="s">
+      <c r="F94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I94" s="19" t="s">
+      <c r="I94" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J94" s="19" t="s">
+      <c r="J94" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K94" s="19" t="s">
+      <c r="K94" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L94" s="19" t="s">
+      <c r="L94" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M94" s="19" t="s">
+      <c r="M94" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N94" s="60" t="s">
+      <c r="N94" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="O94" s="23" t="s">
+      <c r="O94" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="23" t="s">
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U94" s="53"/>
-    </row>
-    <row r="95" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="17" t="s">
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A95" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F95" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="19" t="s">
+      <c r="F95" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H95" s="19" t="s">
+      <c r="H95" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I95" s="19" t="s">
+      <c r="I95" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J95" s="19" t="s">
+      <c r="J95" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K95" s="19" t="s">
+      <c r="K95" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L95" s="19" t="s">
+      <c r="L95" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M95" s="19" t="s">
+      <c r="M95" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N95" s="60" t="s">
+      <c r="N95" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="O95" s="23" t="s">
+      <c r="O95" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23" t="s">
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="17" t="s">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A96" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F96" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="19" t="s">
+      <c r="F96" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I96" s="19" t="s">
+      <c r="I96" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J96" s="19" t="s">
+      <c r="J96" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K96" s="19" t="s">
+      <c r="K96" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L96" s="19" t="s">
+      <c r="L96" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M96" s="19" t="s">
+      <c r="M96" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N96" s="60" t="s">
+      <c r="N96" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="O96" s="23" t="s">
+      <c r="O96" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23" t="s">
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U96" s="53"/>
-    </row>
-    <row r="97" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="17" t="s">
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A97" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F97" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="19" t="s">
+      <c r="F97" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H97" s="19" t="s">
+      <c r="H97" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I97" s="19" t="s">
+      <c r="I97" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J97" s="19" t="s">
+      <c r="J97" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K97" s="19" t="s">
+      <c r="K97" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L97" s="19" t="s">
+      <c r="L97" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M97" s="19" t="s">
+      <c r="M97" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N97" s="60" t="s">
+      <c r="N97" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="O97" s="23" t="s">
+      <c r="O97" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="23" t="s">
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="17" t="s">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A98" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D98" s="61" t="s">
+      <c r="D98" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F98" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="19" t="s">
+      <c r="F98" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H98" s="19" t="s">
+      <c r="H98" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I98" s="19" t="s">
+      <c r="I98" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J98" s="19" t="s">
+      <c r="J98" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K98" s="19" t="s">
+      <c r="K98" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L98" s="19" t="s">
+      <c r="L98" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M98" s="13" t="s">
+      <c r="M98" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N98" s="62" t="s">
+      <c r="N98" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="O98" s="34" t="s">
+      <c r="O98" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34" t="s">
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U98" s="52"/>
-    </row>
-    <row r="99" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="17" t="s">
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A99" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="61" t="s">
+      <c r="D99" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F99" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="19" t="s">
+      <c r="F99" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H99" s="19" t="s">
+      <c r="H99" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I99" s="19" t="s">
+      <c r="I99" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J99" s="19" t="s">
+      <c r="J99" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K99" s="19" t="s">
+      <c r="K99" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L99" s="19" t="s">
+      <c r="L99" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M99" s="13" t="s">
+      <c r="M99" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N99" s="62" t="s">
+      <c r="N99" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="O99" s="34" t="s">
+      <c r="O99" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="P99" s="34"/>
-      <c r="Q99" s="34" t="s">
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U99" s="52"/>
-    </row>
-    <row r="100" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="17" t="s">
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A100" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F100" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="19" t="s">
+      <c r="F100" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H100" s="19" t="s">
+      <c r="H100" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I100" s="19" t="s">
+      <c r="I100" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J100" s="19" t="s">
+      <c r="J100" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K100" s="19" t="s">
+      <c r="K100" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L100" s="19" t="s">
+      <c r="L100" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M100" s="13" t="s">
+      <c r="M100" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N100" s="62" t="s">
+      <c r="N100" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="O100" s="34" t="s">
+      <c r="O100" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="P100" s="34"/>
-      <c r="Q100" s="34" t="s">
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U100" s="52"/>
-    </row>
-    <row r="101" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="17" t="s">
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A101" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="19" t="s">
+      <c r="F101" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H101" s="19" t="s">
+      <c r="H101" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I101" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J101" s="19" t="s">
+      <c r="J101" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K101" s="19" t="s">
+      <c r="K101" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L101" s="19" t="s">
+      <c r="L101" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M101" s="13" t="s">
+      <c r="M101" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N101" s="62" t="s">
+      <c r="N101" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="O101" s="34" t="s">
+      <c r="O101" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="P101" s="34"/>
-      <c r="Q101" s="34" t="s">
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U101" s="52"/>
-    </row>
-    <row r="102" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="17" t="s">
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A102" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" s="19" t="s">
+      <c r="F102" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="H102" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I102" s="19" t="s">
+      <c r="I102" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J102" s="19" t="s">
+      <c r="J102" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K102" s="19" t="s">
+      <c r="K102" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L102" s="19" t="s">
+      <c r="L102" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="M102" s="13" t="s">
+      <c r="M102" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N102" s="62" t="s">
+      <c r="N102" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="O102" s="34" t="s">
+      <c r="O102" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="P102" s="34"/>
-      <c r="Q102" s="34" t="s">
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U102" s="52"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A103" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L103" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M103" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N103" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P103" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q103" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A104" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L104" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M104" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N104" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="O104" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P104" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q104" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A105" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L105" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N105" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="O105" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P105" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q105" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A106" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L106" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M106" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N106" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="O106" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P106" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q106" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A107" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M107" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N107" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="O107" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P107" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q107" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R107" s="12"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A108" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L108" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M108" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N108" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="O108" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P108" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q108" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A109" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N109" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O109" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P109" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q109" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R109" s="12"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A110" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M110" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N110" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="O110" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="P110" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q110" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A111" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K111" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L111" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N111" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="O111" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P111" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q111" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A112" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I112" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L112" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M112" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N112" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="O112" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P112" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q112" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A113" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K113" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L113" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M113" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N113" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O113" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P113" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q113" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A114" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I114" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K114" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L114" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M114" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N114" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O114" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P114" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q114" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A115" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K115" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L115" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M115" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N115" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="O115" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P115" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q115" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A116" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I116" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K116" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L116" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M116" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N116" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="O116" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P116" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q116" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A117" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D117" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L117" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N117" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="O117" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P117" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q117" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A118" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I118" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J118" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L118" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M118" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N118" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="O118" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P118" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q118" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A119" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I119" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K119" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L119" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M119" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N119" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="O119" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P119" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q119" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A120" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D120" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K120" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L120" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M120" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N120" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="O120" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P120" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q120" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A121" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I121" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K121" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L121" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M121" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N121" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="O121" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P121" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q121" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A122" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I122" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L122" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M122" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N122" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="O122" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P122" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q122" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A123" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I123" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L123" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N123" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="O123" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P123" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q123" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A124" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I124" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L124" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M124" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N124" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="O124" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P124" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q124" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J125" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="K125" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L125" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M125" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N125" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="O125" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="P125" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q125" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" s="39">
+        <v>1822</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J126" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="N126" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="O126" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P126" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q126" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="39">
+        <v>1822</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D127" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M127" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="N127" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P127" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q127" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U97"/>
+  <autoFilter ref="A1:U127"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\继承\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="9750" tabRatio="503"/>
+    <workbookView windowWidth="28125" windowHeight="12450" tabRatio="503"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="396">
   <si>
     <t>vendorID</t>
   </si>
@@ -1111,44 +1106,22 @@
     <t>02312QRP</t>
   </si>
   <si>
-    <t>板卡</t>
-  </si>
-  <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>EXL710QDA2G1P5</t>
-  </si>
-  <si>
-    <t>网卡速率不达标</t>
-  </si>
-  <si>
-    <t>8086</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>159b</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>0003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ice</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2022.07.08</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>992K</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intel</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>E810-XXV-2</t>
   </si>
   <si>
     <t>E810-XXV</t>
@@ -1158,14 +1131,15 @@
   </si>
   <si>
     <t>d216</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>d216</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>R</t>
     </r>
     <r>
@@ -1173,7 +1147,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>U</t>
@@ -1187,10 +1160,15 @@
       </rPr>
       <t>150-M</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>S</t>
     </r>
     <r>
@@ -1198,7 +1176,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>P</t>
@@ -1212,21 +1189,16 @@
       </rPr>
       <t>150-M</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>P</t>
+      <t>d20</t>
     </r>
     <r>
       <rPr>
@@ -1235,44 +1207,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>150-M</t>
+      <t>f</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d20</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>f</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>SR</t>
     </r>
     <r>
@@ -1280,7 +1225,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -1294,10 +1238,35 @@
       </rPr>
       <t>30C-M</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>SR</t>
     </r>
     <r>
@@ -1305,7 +1274,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -1319,14 +1287,18 @@
       </rPr>
       <t>30C-M</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SR430C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>SR430C-M</t>
     </r>
     <r>
@@ -1334,24 +1306,16 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SR630C-ME</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>E810-XXV-2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>009c</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MCX4121A-ACAT</t>
@@ -1361,11 +1325,6 @@
   </si>
   <si>
     <t>0069</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0069</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MCX4121A-ACUT</t>
@@ -1375,10 +1334,38 @@
   </si>
   <si>
     <t>d11b</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>333</t>
+    </r>
+  </si>
+  <si>
+    <t>03023TYJ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>d1</t>
     </r>
     <r>
@@ -1386,47 +1373,19 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2c</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d1</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>2c</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>333</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>S</t>
     </r>
     <r>
@@ -1434,7 +1393,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>M</t>
@@ -1448,21 +1406,19 @@
       </rPr>
       <t>380</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
+  </si>
+  <si>
+    <t>02312DJG</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>M</t>
+      <t>000</t>
     </r>
     <r>
       <rPr>
@@ -1471,121 +1427,59 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>380</t>
+      <t>6</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>02312DJG</t>
-  </si>
-  <si>
-    <t>03023TYJ</t>
-  </si>
-  <si>
-    <r>
-      <t>000</t>
-    </r>
+  </si>
+  <si>
+    <t>MCX515A-CCAT</t>
+  </si>
+  <si>
+    <t>06310149</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>MCX512A-ACAT</t>
+  </si>
+  <si>
+    <t>06310156</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>MCX512A-ACUT</t>
+  </si>
+  <si>
+    <t>06310169</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>MCX515A-CCUT</t>
+  </si>
+  <si>
+    <t>06310184</t>
+  </si>
+  <si>
+    <t>MCX512A-ACAT_C06</t>
+  </si>
+  <si>
+    <t>06310175</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCX515A-CCAT</t>
-  </si>
-  <si>
-    <t>06310183</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>06310149</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>06310149</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0020</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCX512A-ACAT</t>
-  </si>
-  <si>
-    <t>06310156</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0121</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0121</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCX512A-ACUT</t>
-  </si>
-  <si>
-    <t>06310169</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0160</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0160</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCX515A-CCUT</t>
-  </si>
-  <si>
-    <t>06310184</t>
-  </si>
-  <si>
-    <t>0020</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCX512A-ACAT_C06</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>06310175</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0068</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>S</t>
     </r>
     <r>
@@ -1593,18 +1487,22 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>P381</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>02312SCJ</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>d1</t>
     </r>
     <r>
@@ -1612,15 +1510,77 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>35</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP382</t>
+  </si>
+  <si>
+    <t>03026PUN</t>
+  </si>
+  <si>
+    <t>d120</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <t>SP350</t>
+  </si>
+  <si>
+    <t>03024QAX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06</t>
+    </r>
+  </si>
+  <si>
+    <t>MCX653105A-ECAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>d1</t>
     </r>
     <r>
@@ -1628,104 +1588,19 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>35</t>
+      <t>29</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP382</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP382</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>03026PUN</t>
-  </si>
-  <si>
-    <t>d120</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP350</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>03024QAX</t>
-  </si>
-  <si>
-    <r>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCX653105A-ECAT</t>
-  </si>
-  <si>
-    <r>
-      <t>d1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>SP5</t>
     </r>
     <r>
@@ -1733,22 +1608,62 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>70</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>02312BWF</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2022.07.22</t>
+  </si>
+  <si>
+    <t>621DB64CCD82A93E3B558A80AE2FA5A040940EF</t>
+  </si>
+  <si>
+    <t>673K</t>
+  </si>
+  <si>
+    <t>SAS9300-8i</t>
+  </si>
+  <si>
+    <t>SAS3008</t>
+  </si>
+  <si>
+    <t>03023QGH</t>
+  </si>
+  <si>
+    <t>板卡</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>EXL710QDA2G1P5</t>
+  </si>
+  <si>
+    <t>网卡速率不达标</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1763,12 +1678,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1788,7 +1697,7 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1804,19 +1713,156 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,8 +1881,194 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1859,10 +2091,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1870,15 +2341,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1902,6 +2373,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1909,9 +2387,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1924,20 +2399,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1945,10 +2417,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1960,10 +2429,10 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1973,24 +2442,67 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2063,9 +2575,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2323,19 +2832,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126:G127"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="O95" workbookViewId="0">
+      <selection activeCell="Q104" sqref="Q104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" style="5" customWidth="1"/>
     <col min="2" max="4" width="9" style="5"/>
@@ -2356,7 +2865,7 @@
     <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:21">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2408,13 +2917,13 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -2471,7 +2980,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -2528,7 +3037,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -2585,7 +3094,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
@@ -2625,16 +3134,16 @@
       <c r="M5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="12"/>
@@ -2642,7 +3151,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
@@ -2680,16 +3189,16 @@
       <c r="M6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="12"/>
@@ -2697,7 +3206,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
@@ -2737,16 +3246,16 @@
       <c r="M7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R7" s="12"/>
@@ -2754,7 +3263,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
@@ -2792,14 +3301,14 @@
       <c r="M8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21" t="s">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15" t="s">
         <v>88</v>
       </c>
       <c r="R8" s="12"/>
@@ -2807,7 +3316,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" s="12" t="s">
         <v>59</v>
       </c>
@@ -2845,16 +3354,16 @@
       <c r="M9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R9" s="12"/>
@@ -2862,7 +3371,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10" s="12" t="s">
         <v>78</v>
       </c>
@@ -2900,16 +3409,16 @@
       <c r="M10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="15" t="s">
         <v>99</v>
       </c>
       <c r="R10" s="12"/>
@@ -2917,11 +3426,11 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2957,25 +3466,25 @@
       <c r="M11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -3011,25 +3520,25 @@
       <c r="M12" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -3065,24 +3574,24 @@
       <c r="M13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -3118,24 +3627,24 @@
       <c r="M14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -3171,24 +3680,24 @@
       <c r="M15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -3224,24 +3733,24 @@
       <c r="M16" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P16" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -3277,24 +3786,24 @@
       <c r="M17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>145</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -3330,24 +3839,24 @@
       <c r="M18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="Q18" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>145</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -3383,24 +3892,24 @@
       <c r="M19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -3436,24 +3945,24 @@
       <c r="M20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -3489,20 +3998,20 @@
       <c r="M21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="12" t="s">
         <v>59</v>
       </c>
@@ -3539,20 +4048,20 @@
       <c r="M22" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="O22" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="12" t="s">
         <v>59</v>
       </c>
@@ -3589,20 +4098,20 @@
       <c r="M23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
@@ -3642,20 +4151,20 @@
       <c r="M24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="21" t="s">
+      <c r="Q24" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
@@ -3695,20 +4204,20 @@
       <c r="M25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="12" t="s">
         <v>18</v>
       </c>
@@ -3748,20 +4257,20 @@
       <c r="M26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q26" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
@@ -3801,20 +4310,20 @@
       <c r="M27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="O27" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="Q27" s="21" t="s">
+      <c r="Q27" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="12" t="s">
         <v>18</v>
       </c>
@@ -3854,20 +4363,20 @@
       <c r="M28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="O28" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="Q28" s="21" t="s">
+      <c r="Q28" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
@@ -3907,20 +4416,20 @@
       <c r="M29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="O29" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="Q29" s="21" t="s">
+      <c r="Q29" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="12" t="s">
         <v>18</v>
       </c>
@@ -3960,24 +4469,24 @@
       <c r="M30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="O30" s="21" t="s">
+      <c r="O30" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="P30" s="21" t="s">
+      <c r="P30" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="Q30" s="21" t="s">
+      <c r="Q30" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -4013,20 +4522,20 @@
       <c r="M31" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="P31" s="21" t="s">
+      <c r="P31" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="Q31" s="21" t="s">
+      <c r="Q31" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="12" t="s">
         <v>47</v>
       </c>
@@ -4066,20 +4575,20 @@
       <c r="M32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O32" s="21" t="s">
+      <c r="O32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="P32" s="21" t="s">
+      <c r="P32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="21" t="s">
+      <c r="Q32" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17">
       <c r="A33" s="12" t="s">
         <v>78</v>
       </c>
@@ -4116,24 +4625,24 @@
       <c r="M33" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="O33" s="21" t="s">
+      <c r="O33" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="P33" s="21" t="s">
+      <c r="P33" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="Q33" s="21" t="s">
+      <c r="Q33" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17">
       <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -4169,24 +4678,24 @@
       <c r="M34" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="O34" s="21" t="s">
+      <c r="O34" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P34" s="21" t="s">
+      <c r="P34" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="Q34" s="21" t="s">
+      <c r="Q34" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:17">
+      <c r="A35" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -4207,196 +4716,196 @@
       <c r="H35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="14" t="s">
         <v>52</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M35" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N35" s="21" t="s">
+      <c r="N35" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="O35" s="21" t="s">
+      <c r="O35" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P35" s="21" t="s">
+      <c r="P35" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="Q35" s="21" t="s">
+      <c r="Q35" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:17">
+      <c r="A36" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="16" t="s">
+      <c r="F36" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="M36" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="O36" s="21" t="s">
+      <c r="O36" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="P36" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="Q36" s="21" t="s">
+      <c r="Q36" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="13">
+    <row r="37" spans="1:18">
+      <c r="A37" s="16">
         <v>8086</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="16">
         <v>1583</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="16">
         <v>8086</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="F37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="16"/>
+      <c r="I37" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N37" s="21" t="s">
+      <c r="N37" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="O37" s="21" t="s">
+      <c r="O37" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P37" s="21" t="s">
+      <c r="P37" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="Q37" s="21" t="s">
+      <c r="Q37" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="13">
+    <row r="38" spans="1:18">
+      <c r="A38" s="16">
         <v>8086</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="16">
         <v>1583</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="16">
         <v>8086</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="L38" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="M38" s="15" t="s">
+      <c r="M38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="N38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="O38" s="21" t="s">
+      <c r="O38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P38" s="21" t="s">
+      <c r="P38" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="Q38" s="21" t="s">
+      <c r="Q38" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
@@ -4434,20 +4943,20 @@
       <c r="M39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="N39" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="O39" s="21" t="s">
+      <c r="O39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Q39" s="21" t="s">
+      <c r="Q39" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
@@ -4485,83 +4994,83 @@
       <c r="M40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="N40" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="O40" s="21" t="s">
+      <c r="O40" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="P40" s="21" t="s">
+      <c r="P40" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="Q40" s="21" t="s">
+      <c r="Q40" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:17">
+      <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="15">
         <v>3714</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="15">
         <v>5132</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>71</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="L41" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N41" s="21" t="s">
+      <c r="N41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O41" s="21" t="s">
+      <c r="O41" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="P41" s="21" t="s">
+      <c r="P41" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="21" t="s">
+      <c r="Q41" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
+    <row r="42" s="7" customFormat="1" spans="1:17">
+      <c r="A42" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>205</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -4570,49 +5079,49 @@
       <c r="F42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16" t="s">
+      <c r="H42" s="13"/>
+      <c r="I42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="21" t="s">
+      <c r="J42" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L42" s="13" t="s">
         <v>208</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N42" s="21" t="s">
+      <c r="N42" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="O42" s="21" t="s">
+      <c r="O42" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="P42" s="21" t="s">
+      <c r="P42" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="Q42" s="21" t="s">
+      <c r="Q42" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
+    <row r="43" s="7" customFormat="1" spans="1:17">
+      <c r="A43" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>214</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -4621,49 +5130,49 @@
       <c r="F43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16" t="s">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="21" t="s">
+      <c r="J43" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="M43" s="22" t="s">
+      <c r="M43" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="N43" s="16" t="s">
+      <c r="N43" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="O43" s="16" t="s">
+      <c r="O43" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="P43" s="16" t="s">
+      <c r="P43" s="13" t="s">
         <v>221</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
+    <row r="44" s="7" customFormat="1" spans="1:17">
+      <c r="A44" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>223</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -4672,51 +5181,51 @@
       <c r="F44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="13" t="s">
         <v>117</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M44" s="16" t="s">
+      <c r="M44" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N44" s="16" t="s">
+      <c r="N44" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="P44" s="16" t="s">
+      <c r="P44" s="13" t="s">
         <v>227</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:17">
+      <c r="A45" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C45" s="4">
         <v>1077</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="13" t="s">
         <v>214</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -4725,49 +5234,49 @@
       <c r="F45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="13" t="s">
         <v>215</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="21" t="s">
+      <c r="J45" s="15" t="s">
         <v>228</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="M45" s="22" t="s">
+      <c r="M45" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="N45" s="16" t="s">
+      <c r="N45" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="O45" s="16" t="s">
+      <c r="O45" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="P45" s="16" t="s">
+      <c r="P45" s="13" t="s">
         <v>221</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:17">
+      <c r="A46" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="13" t="s">
         <v>231</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -4776,86 +5285,86 @@
       <c r="F46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="13" t="s">
         <v>232</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J46" s="21" t="s">
+      <c r="J46" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="K46" s="22" t="s">
+      <c r="K46" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="M46" s="22" t="s">
+      <c r="M46" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="N46" s="24" t="s">
+      <c r="N46" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="O46" s="22" t="s">
+      <c r="O46" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="P46" s="16" t="s">
+      <c r="P46" s="13" t="s">
         <v>238</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
+    <row r="47" ht="27" spans="1:21">
+      <c r="A47" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="19" t="s">
+      <c r="F47" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L47" s="19" t="s">
+      <c r="L47" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M47" s="19" t="s">
+      <c r="M47" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="O47" s="19" t="s">
+      <c r="O47" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="36" t="s">
+      <c r="P47" s="24"/>
+      <c r="Q47" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R47" s="7"/>
@@ -4863,54 +5372,54 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
+    <row r="48" ht="27" spans="1:21">
+      <c r="A48" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="19" t="s">
+      <c r="F48" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K48" s="25" t="s">
+      <c r="K48" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L48" s="19" t="s">
+      <c r="L48" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M48" s="19" t="s">
+      <c r="M48" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="O48" s="19" t="s">
+      <c r="O48" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="36" t="s">
+      <c r="P48" s="25"/>
+      <c r="Q48" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R48" s="7"/>
@@ -4918,54 +5427,54 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
+    <row r="49" ht="27" spans="1:21">
+      <c r="A49" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="19" t="s">
+      <c r="F49" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="J49" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="K49" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L49" s="19" t="s">
+      <c r="L49" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M49" s="19" t="s">
+      <c r="M49" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="N49" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="O49" s="19" t="s">
+      <c r="O49" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="36" t="s">
+      <c r="P49" s="26"/>
+      <c r="Q49" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R49" s="7"/>
@@ -4973,54 +5482,54 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
+    <row r="50" ht="27" spans="1:21">
+      <c r="A50" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="19" t="s">
+      <c r="F50" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K50" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L50" s="19" t="s">
+      <c r="L50" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M50" s="19" t="s">
+      <c r="M50" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="O50" s="19" t="s">
+      <c r="O50" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="36" t="s">
+      <c r="P50" s="27"/>
+      <c r="Q50" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R50" s="7"/>
@@ -5028,54 +5537,54 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="19" t="s">
+    <row r="51" ht="27" spans="1:21">
+      <c r="A51" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="19" t="s">
+      <c r="F51" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="K51" s="25" t="s">
+      <c r="K51" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M51" s="19" t="s">
+      <c r="M51" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N51" s="19" t="s">
+      <c r="N51" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="O51" s="30" t="s">
+      <c r="O51" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="36" t="s">
+      <c r="P51" s="29"/>
+      <c r="Q51" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R51" s="7"/>
@@ -5083,54 +5592,54 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="19" t="s">
+    <row r="52" ht="27" spans="1:21">
+      <c r="A52" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="19" t="s">
+      <c r="F52" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="J52" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="25" t="s">
+      <c r="K52" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M52" s="19" t="s">
+      <c r="M52" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="O52" s="30" t="s">
+      <c r="O52" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="36" t="s">
+      <c r="P52" s="27"/>
+      <c r="Q52" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R52" s="7"/>
@@ -5138,54 +5647,54 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="19" t="s">
+    <row r="53" ht="27" spans="1:21">
+      <c r="A53" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="19" t="s">
+      <c r="F53" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I53" s="19" t="s">
+      <c r="I53" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J53" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K53" s="25" t="s">
+      <c r="K53" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L53" s="19" t="s">
+      <c r="L53" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M53" s="19" t="s">
+      <c r="M53" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="O53" s="30" t="s">
+      <c r="O53" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="36" t="s">
+      <c r="P53" s="21"/>
+      <c r="Q53" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R53" s="7"/>
@@ -5193,189 +5702,189 @@
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" s="20" t="s">
+    <row r="54" spans="1:21">
+      <c r="A54" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19" t="s">
+      <c r="F54" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K54" s="25"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19" t="s">
+      <c r="K54" s="23"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="N54" s="32" t="s">
+      <c r="N54" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="O54" s="30" t="s">
+      <c r="O54" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="36"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="34"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:21">
+      <c r="A55" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19" t="s">
+      <c r="F55" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19" t="s">
+      <c r="K55" s="23"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="N55" s="33" t="s">
+      <c r="N55" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="O55" s="30" t="s">
+      <c r="O55" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="36"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="34"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A56" s="20" t="s">
+    <row r="56" spans="1:21">
+      <c r="A56" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19" t="s">
+      <c r="F56" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="J56" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19" t="s">
+      <c r="K56" s="23"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="N56" s="17" t="s">
+      <c r="N56" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="O56" s="30" t="s">
+      <c r="O56" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="36"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="34"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="19" t="s">
+    <row r="57" ht="27" spans="1:21">
+      <c r="A57" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="19" t="s">
+      <c r="F57" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H57" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I57" s="19" t="s">
+      <c r="I57" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J57" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K57" s="25" t="s">
+      <c r="K57" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M57" s="19" t="s">
+      <c r="M57" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N57" s="17" t="s">
+      <c r="N57" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="O57" s="30" t="s">
+      <c r="O57" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="36" t="s">
+      <c r="P57" s="32"/>
+      <c r="Q57" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R57" s="7"/>
@@ -5383,219 +5892,219 @@
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" s="19" t="s">
+    <row r="58" ht="27" spans="1:21">
+      <c r="A58" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="19" t="s">
+      <c r="F58" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="I58" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J58" s="17" t="s">
+      <c r="J58" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K58" s="25" t="s">
+      <c r="K58" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L58" s="19" t="s">
+      <c r="L58" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M58" s="19" t="s">
+      <c r="M58" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N58" s="17" t="s">
+      <c r="N58" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="O58" s="30" t="s">
+      <c r="O58" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="36" t="s">
+      <c r="P58" s="20"/>
+      <c r="Q58" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-    </row>
-    <row r="59" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" s="19" t="s">
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+    </row>
+    <row r="59" ht="27" spans="1:21">
+      <c r="A59" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="19" t="s">
+      <c r="F59" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I59" s="19" t="s">
+      <c r="I59" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K59" s="25" t="s">
+      <c r="K59" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L59" s="19" t="s">
+      <c r="L59" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M59" s="19" t="s">
+      <c r="M59" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N59" s="17" t="s">
+      <c r="N59" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="O59" s="30" t="s">
+      <c r="O59" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="36" t="s">
+      <c r="P59" s="20"/>
+      <c r="Q59" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-    </row>
-    <row r="60" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="19" t="s">
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+    </row>
+    <row r="60" ht="27" spans="1:21">
+      <c r="A60" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="19" t="s">
+      <c r="F60" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I60" s="19" t="s">
+      <c r="I60" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J60" s="17" t="s">
+      <c r="J60" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K60" s="25" t="s">
+      <c r="K60" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L60" s="19" t="s">
+      <c r="L60" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M60" s="19" t="s">
+      <c r="M60" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N60" s="17" t="s">
+      <c r="N60" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="O60" s="30" t="s">
+      <c r="O60" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="36" t="s">
+      <c r="P60" s="20"/>
+      <c r="Q60" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-    </row>
-    <row r="61" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A61" s="19" t="s">
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+    </row>
+    <row r="61" ht="27" spans="1:21">
+      <c r="A61" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F61" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="19" t="s">
+      <c r="F61" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I61" s="19" t="s">
+      <c r="I61" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J61" s="17" t="s">
+      <c r="J61" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="K61" s="25" t="s">
+      <c r="K61" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L61" s="19" t="s">
+      <c r="L61" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M61" s="19" t="s">
+      <c r="M61" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N61" s="19" t="s">
+      <c r="N61" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="O61" s="30" t="s">
+      <c r="O61" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="36" t="s">
+      <c r="P61" s="22"/>
+      <c r="Q61" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R61" s="7"/>
@@ -5603,54 +6112,54 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="19" t="s">
+    <row r="62" ht="27" spans="1:21">
+      <c r="A62" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="19" t="s">
+      <c r="F62" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I62" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J62" s="17" t="s">
+      <c r="J62" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="K62" s="25" t="s">
+      <c r="K62" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M62" s="19" t="s">
+      <c r="M62" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="O62" s="30" t="s">
+      <c r="O62" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="36" t="s">
+      <c r="P62" s="22"/>
+      <c r="Q62" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R62" s="7"/>
@@ -5658,54 +6167,54 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A63" s="19" t="s">
+    <row r="63" ht="27" spans="1:21">
+      <c r="A63" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="19" t="s">
+      <c r="F63" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J63" s="17" t="s">
+      <c r="J63" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="K63" s="25" t="s">
+      <c r="K63" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M63" s="19" t="s">
+      <c r="M63" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="N63" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="O63" s="30" t="s">
+      <c r="O63" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="36" t="s">
+      <c r="P63" s="33"/>
+      <c r="Q63" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R63" s="7"/>
@@ -5713,54 +6222,54 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A64" s="19" t="s">
+    <row r="64" ht="27" spans="1:21">
+      <c r="A64" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="19" t="s">
+      <c r="F64" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I64" s="19" t="s">
+      <c r="I64" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J64" s="17" t="s">
+      <c r="J64" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="K64" s="25" t="s">
+      <c r="K64" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L64" s="19" t="s">
+      <c r="L64" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M64" s="19" t="s">
+      <c r="M64" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N64" s="19" t="s">
+      <c r="N64" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="O64" s="30" t="s">
+      <c r="O64" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="36" t="s">
+      <c r="P64" s="27"/>
+      <c r="Q64" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R64" s="7"/>
@@ -5768,54 +6277,54 @@
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A65" s="19" t="s">
+    <row r="65" ht="27" spans="1:21">
+      <c r="A65" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="19" t="s">
+      <c r="F65" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I65" s="19" t="s">
+      <c r="I65" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J65" s="17" t="s">
+      <c r="J65" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="K65" s="25" t="s">
+      <c r="K65" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L65" s="19" t="s">
+      <c r="L65" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M65" s="19" t="s">
+      <c r="M65" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N65" s="19" t="s">
+      <c r="N65" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="O65" s="30" t="s">
+      <c r="O65" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="36" t="s">
+      <c r="P65" s="27"/>
+      <c r="Q65" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R65" s="7"/>
@@ -5823,54 +6332,54 @@
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A66" s="19" t="s">
+    <row r="66" ht="27" spans="1:21">
+      <c r="A66" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="19" t="s">
+      <c r="F66" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J66" s="17" t="s">
+      <c r="J66" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K66" s="25" t="s">
+      <c r="K66" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L66" s="19" t="s">
+      <c r="L66" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M66" s="19" t="s">
+      <c r="M66" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N66" s="19" t="s">
+      <c r="N66" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="O66" s="30" t="s">
+      <c r="O66" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="36" t="s">
+      <c r="P66" s="31"/>
+      <c r="Q66" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R66" s="7"/>
@@ -5878,54 +6387,54 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
     </row>
-    <row r="67" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="19" t="s">
+    <row r="67" ht="27" spans="1:21">
+      <c r="A67" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F67" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="19" t="s">
+      <c r="F67" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K67" s="25" t="s">
+      <c r="K67" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M67" s="19" t="s">
+      <c r="M67" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N67" s="17" t="s">
+      <c r="N67" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="O67" s="30" t="s">
+      <c r="O67" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="36" t="s">
+      <c r="P67" s="32"/>
+      <c r="Q67" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R67" s="7"/>
@@ -5933,54 +6442,54 @@
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
     </row>
-    <row r="68" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="19" t="s">
+    <row r="68" ht="27" spans="1:21">
+      <c r="A68" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="19" t="s">
+      <c r="F68" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J68" s="17" t="s">
+      <c r="J68" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K68" s="25" t="s">
+      <c r="K68" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L68" s="19" t="s">
+      <c r="L68" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M68" s="19" t="s">
+      <c r="M68" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N68" s="19" t="s">
+      <c r="N68" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="O68" s="30" t="s">
+      <c r="O68" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="36" t="s">
+      <c r="P68" s="29"/>
+      <c r="Q68" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R68" s="7"/>
@@ -5988,54 +6497,54 @@
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
     </row>
-    <row r="69" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="19" t="s">
+    <row r="69" ht="27" spans="1:21">
+      <c r="A69" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="F69" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I69" s="19" t="s">
+      <c r="I69" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K69" s="25" t="s">
+      <c r="K69" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L69" s="19" t="s">
+      <c r="L69" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M69" s="19" t="s">
+      <c r="M69" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N69" s="19" t="s">
+      <c r="N69" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="O69" s="30" t="s">
+      <c r="O69" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="36" t="s">
+      <c r="P69" s="27"/>
+      <c r="Q69" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R69" s="7"/>
@@ -6043,54 +6552,54 @@
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
     </row>
-    <row r="70" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="19" t="s">
+    <row r="70" ht="27" spans="1:21">
+      <c r="A70" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="19" t="s">
+      <c r="F70" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J70" s="17" t="s">
+      <c r="J70" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K70" s="25" t="s">
+      <c r="K70" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L70" s="19" t="s">
+      <c r="L70" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M70" s="19" t="s">
+      <c r="M70" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="O70" s="30" t="s">
+      <c r="O70" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="36" t="s">
+      <c r="P70" s="21"/>
+      <c r="Q70" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R70" s="7"/>
@@ -6098,54 +6607,54 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
     </row>
-    <row r="71" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A71" s="19" t="s">
+    <row r="71" ht="27" spans="1:21">
+      <c r="A71" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="19" t="s">
+      <c r="F71" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I71" s="19" t="s">
+      <c r="I71" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J71" s="17" t="s">
+      <c r="J71" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K71" s="25" t="s">
+      <c r="K71" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L71" s="19" t="s">
+      <c r="L71" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M71" s="19" t="s">
+      <c r="M71" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N71" s="17" t="s">
+      <c r="N71" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="O71" s="30" t="s">
+      <c r="O71" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="36" t="s">
+      <c r="P71" s="32"/>
+      <c r="Q71" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R71" s="7"/>
@@ -6153,219 +6662,219 @@
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
     </row>
-    <row r="72" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="19" t="s">
+    <row r="72" ht="27" spans="1:21">
+      <c r="A72" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="19" t="s">
+      <c r="F72" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="I72" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J72" s="17" t="s">
+      <c r="J72" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K72" s="25" t="s">
+      <c r="K72" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L72" s="19" t="s">
+      <c r="L72" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M72" s="19" t="s">
+      <c r="M72" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="N72" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="O72" s="30" t="s">
+      <c r="O72" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="36" t="s">
+      <c r="P72" s="20"/>
+      <c r="Q72" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-    </row>
-    <row r="73" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="19" t="s">
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+    </row>
+    <row r="73" ht="27" spans="1:21">
+      <c r="A73" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="19" t="s">
+      <c r="F73" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="I73" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J73" s="17" t="s">
+      <c r="J73" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K73" s="25" t="s">
+      <c r="K73" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L73" s="19" t="s">
+      <c r="L73" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M73" s="19" t="s">
+      <c r="M73" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N73" s="17" t="s">
+      <c r="N73" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="O73" s="30" t="s">
+      <c r="O73" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="36" t="s">
+      <c r="P73" s="20"/>
+      <c r="Q73" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-    </row>
-    <row r="74" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="19" t="s">
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+    </row>
+    <row r="74" ht="27" spans="1:21">
+      <c r="A74" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" s="19" t="s">
+      <c r="F74" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="I74" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J74" s="17" t="s">
+      <c r="J74" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K74" s="25" t="s">
+      <c r="K74" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L74" s="19" t="s">
+      <c r="L74" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M74" s="19" t="s">
+      <c r="M74" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N74" s="17" t="s">
+      <c r="N74" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="O74" s="30" t="s">
+      <c r="O74" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="36" t="s">
+      <c r="P74" s="20"/>
+      <c r="Q74" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-    </row>
-    <row r="75" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="19" t="s">
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+    </row>
+    <row r="75" ht="27" spans="1:21">
+      <c r="A75" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" s="19" t="s">
+      <c r="F75" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I75" s="19" t="s">
+      <c r="I75" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J75" s="17" t="s">
+      <c r="J75" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K75" s="25" t="s">
+      <c r="K75" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L75" s="19" t="s">
+      <c r="L75" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M75" s="19" t="s">
+      <c r="M75" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N75" s="19" t="s">
+      <c r="N75" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="O75" s="30" t="s">
+      <c r="O75" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="36" t="s">
+      <c r="P75" s="22"/>
+      <c r="Q75" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R75" s="7"/>
@@ -6373,54 +6882,54 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
-    <row r="76" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A76" s="19" t="s">
+    <row r="76" ht="27" spans="1:21">
+      <c r="A76" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="19" t="s">
+      <c r="F76" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I76" s="19" t="s">
+      <c r="I76" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J76" s="17" t="s">
+      <c r="J76" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K76" s="25" t="s">
+      <c r="K76" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L76" s="19" t="s">
+      <c r="L76" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M76" s="19" t="s">
+      <c r="M76" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="N76" s="19" t="s">
+      <c r="N76" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="O76" s="30" t="s">
+      <c r="O76" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="36" t="s">
+      <c r="P76" s="22"/>
+      <c r="Q76" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R76" s="7"/>
@@ -6428,54 +6937,54 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
     </row>
-    <row r="77" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="19" t="s">
+    <row r="77" ht="27" spans="1:21">
+      <c r="A77" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="19" t="s">
+      <c r="F77" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H77" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I77" s="19" t="s">
+      <c r="I77" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J77" s="17" t="s">
+      <c r="J77" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K77" s="25" t="s">
+      <c r="K77" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L77" s="19" t="s">
+      <c r="L77" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M77" s="19" t="s">
+      <c r="M77" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N77" s="19" t="s">
+      <c r="N77" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="O77" s="30" t="s">
+      <c r="O77" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="36" t="s">
+      <c r="P77" s="33"/>
+      <c r="Q77" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R77" s="7"/>
@@ -6483,54 +6992,54 @@
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
     </row>
-    <row r="78" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="19" t="s">
+    <row r="78" ht="27" spans="1:21">
+      <c r="A78" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="19" t="s">
+      <c r="F78" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H78" s="19" t="s">
+      <c r="H78" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I78" s="19" t="s">
+      <c r="I78" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="J78" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K78" s="25" t="s">
+      <c r="K78" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L78" s="19" t="s">
+      <c r="L78" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M78" s="19" t="s">
+      <c r="M78" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N78" s="19" t="s">
+      <c r="N78" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="O78" s="30" t="s">
+      <c r="O78" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="36" t="s">
+      <c r="P78" s="27"/>
+      <c r="Q78" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R78" s="7"/>
@@ -6538,54 +7047,54 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
-    <row r="79" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A79" s="19" t="s">
+    <row r="79" ht="27" spans="1:21">
+      <c r="A79" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F79" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="19" t="s">
+      <c r="F79" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H79" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I79" s="19" t="s">
+      <c r="I79" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J79" s="17" t="s">
+      <c r="J79" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K79" s="25" t="s">
+      <c r="K79" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L79" s="19" t="s">
+      <c r="L79" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M79" s="19" t="s">
+      <c r="M79" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N79" s="19" t="s">
+      <c r="N79" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="O79" s="30" t="s">
+      <c r="O79" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="36" t="s">
+      <c r="P79" s="27"/>
+      <c r="Q79" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R79" s="7"/>
@@ -6593,54 +7102,54 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
     </row>
-    <row r="80" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A80" s="19" t="s">
+    <row r="80" ht="27" spans="1:21">
+      <c r="A80" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E80" s="38" t="s">
+      <c r="E80" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="19" t="s">
+      <c r="F80" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H80" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I80" s="19" t="s">
+      <c r="I80" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J80" s="17" t="s">
+      <c r="J80" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K80" s="25" t="s">
+      <c r="K80" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L80" s="19" t="s">
+      <c r="L80" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M80" s="19" t="s">
+      <c r="M80" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N80" s="19" t="s">
+      <c r="N80" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="O80" s="30" t="s">
+      <c r="O80" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="36" t="s">
+      <c r="P80" s="31"/>
+      <c r="Q80" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R80" s="7"/>
@@ -6648,54 +7157,54 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
     </row>
-    <row r="81" spans="1:21" ht="27" x14ac:dyDescent="0.15">
-      <c r="A81" s="19" t="s">
+    <row r="81" ht="27" spans="1:21">
+      <c r="A81" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E81" s="38" t="s">
+      <c r="E81" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="19" t="s">
+      <c r="F81" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="19" t="s">
+      <c r="H81" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="I81" s="19" t="s">
+      <c r="I81" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K81" s="25" t="s">
+      <c r="K81" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="L81" s="19" t="s">
+      <c r="L81" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="M81" s="19" t="s">
+      <c r="M81" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="N81" s="17" t="s">
+      <c r="N81" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="O81" s="30" t="s">
+      <c r="O81" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="36" t="s">
+      <c r="P81" s="32"/>
+      <c r="Q81" s="34" t="s">
         <v>250</v>
       </c>
       <c r="R81" s="7"/>
@@ -6703,7 +7212,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="12" t="s">
         <v>18</v>
       </c>
@@ -6746,7 +7255,7 @@
       <c r="N82" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="O82" s="23" t="s">
+      <c r="O82" s="12" t="s">
         <v>294</v>
       </c>
       <c r="P82" s="12" t="s">
@@ -6760,7 +7269,7 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="12" t="s">
         <v>18</v>
       </c>
@@ -6803,7 +7312,7 @@
       <c r="N83" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="O83" s="23" t="s">
+      <c r="O83" s="12" t="s">
         <v>294</v>
       </c>
       <c r="P83" s="12" t="s">
@@ -6817,11 +7326,11 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" s="7" customFormat="1" spans="1:17">
       <c r="A84" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="37" t="s">
         <v>297</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -6845,7 +7354,7 @@
       <c r="I84" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="J84" s="12" t="s">
         <v>301</v>
       </c>
       <c r="M84" s="7" t="s">
@@ -6857,16 +7366,16 @@
       <c r="O84" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P84" s="39"/>
+      <c r="P84" s="37"/>
       <c r="Q84" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" s="7" customFormat="1" spans="1:17">
       <c r="A85" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="37" t="s">
         <v>297</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -6890,7 +7399,7 @@
       <c r="I85" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="J85" s="12" t="s">
         <v>301</v>
       </c>
       <c r="M85" s="7" t="s">
@@ -6902,16 +7411,16 @@
       <c r="O85" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P85" s="39"/>
+      <c r="P85" s="37"/>
       <c r="Q85" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" s="7" customFormat="1" spans="1:17">
       <c r="A86" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="37" t="s">
         <v>297</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -6947,16 +7456,16 @@
       <c r="O86" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P86" s="39"/>
+      <c r="P86" s="37"/>
       <c r="Q86" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" s="7" customFormat="1" spans="1:17">
       <c r="A87" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="37" t="s">
         <v>297</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -6992,28 +7501,28 @@
       <c r="O87" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P87" s="39"/>
+      <c r="P87" s="37"/>
       <c r="Q87" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" s="7" customFormat="1" spans="1:17">
       <c r="A88" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="23" t="s">
+      <c r="F88" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H88" s="12" t="s">
         <v>309</v>
       </c>
       <c r="I88" s="7" t="s">
@@ -7025,7 +7534,7 @@
       <c r="K88" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L88" s="23" t="s">
+      <c r="L88" s="12" t="s">
         <v>312</v>
       </c>
       <c r="M88" s="7" t="s">
@@ -7037,16 +7546,16 @@
       <c r="O88" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P88" s="39"/>
+      <c r="P88" s="37"/>
       <c r="Q88" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" s="7" customFormat="1" spans="1:17">
       <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B89" s="39">
+      <c r="B89" s="37">
         <v>1822</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -7070,7 +7579,7 @@
       <c r="I89" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="J89" s="12" t="s">
         <v>318</v>
       </c>
       <c r="K89" s="7" t="s">
@@ -7088,18 +7597,18 @@
       <c r="O89" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P89" s="39" t="s">
+      <c r="P89" s="37" t="s">
         <v>324</v>
       </c>
       <c r="Q89" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" s="7" customFormat="1" spans="1:17">
       <c r="A90" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="39">
+      <c r="B90" s="37">
         <v>1822</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -7141,25 +7650,25 @@
       <c r="O90" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P90" s="39" t="s">
+      <c r="P90" s="37" t="s">
         <v>324</v>
       </c>
       <c r="Q90" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" s="7" customFormat="1" spans="1:17">
       <c r="A91" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B91" s="39" t="s">
-        <v>330</v>
+        <v>59</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>325</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>81</v>
@@ -7168,48 +7677,48 @@
         <v>22</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>296</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>335</v>
+        <v>65</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P91" s="39" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="P91" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="Q91" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:17">
       <c r="A92" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="13" t="s">
         <v>145</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>21</v>
@@ -7238,29 +7747,29 @@
       <c r="M92" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N92" s="21" t="s">
+      <c r="N92" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="O92" s="21" t="s">
+      <c r="O92" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21" t="s">
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:17">
       <c r="A93" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="13" t="s">
         <v>145</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>81</v>
@@ -7289,22 +7798,22 @@
       <c r="M93" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N93" s="21" t="s">
+      <c r="N93" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="O93" s="21" t="s">
+      <c r="O93" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="21" t="s">
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:17">
       <c r="A94" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C94" s="12" t="s">
@@ -7341,21 +7850,21 @@
         <v>109</v>
       </c>
       <c r="N94" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="O94" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="O94" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21" t="s">
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:17">
       <c r="A95" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C95" s="12" t="s">
@@ -7392,21 +7901,21 @@
         <v>109</v>
       </c>
       <c r="N95" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="O95" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="O95" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P95" s="21"/>
-      <c r="Q95" s="21" t="s">
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:17">
       <c r="A96" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C96" s="12" t="s">
@@ -7443,21 +7952,21 @@
         <v>109</v>
       </c>
       <c r="N96" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="O96" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="O96" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P96" s="21"/>
-      <c r="Q96" s="21" t="s">
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:17">
       <c r="A97" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C97" s="12" t="s">
@@ -7494,28 +8003,28 @@
         <v>109</v>
       </c>
       <c r="N97" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="O97" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="O97" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="21" t="s">
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:17">
       <c r="A98" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D98" s="43" t="s">
-        <v>343</v>
+      <c r="D98" s="38" t="s">
+        <v>336</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>81</v>
@@ -7545,28 +8054,28 @@
         <v>109</v>
       </c>
       <c r="N98" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="O98" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="O98" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="21" t="s">
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:17">
       <c r="A99" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="43" t="s">
-        <v>344</v>
+      <c r="D99" s="38" t="s">
+        <v>338</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>81</v>
@@ -7596,21 +8105,21 @@
         <v>109</v>
       </c>
       <c r="N99" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="O99" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="O99" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="21" t="s">
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:17">
       <c r="A100" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -7647,21 +8156,21 @@
         <v>109</v>
       </c>
       <c r="N100" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="O100" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="O100" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21" t="s">
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:17">
       <c r="A101" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -7698,21 +8207,21 @@
         <v>109</v>
       </c>
       <c r="N101" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="O101" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="O101" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21" t="s">
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:17">
       <c r="A102" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="13" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -7749,28 +8258,28 @@
         <v>109</v>
       </c>
       <c r="N102" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="O102" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="O102" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="21" t="s">
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:17">
       <c r="A103" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>81</v>
@@ -7799,31 +8308,31 @@
       <c r="M103" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N103" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="O103" s="21" t="s">
+      <c r="N103" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="O103" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P103" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q103" s="21" t="s">
+      <c r="P103" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q103" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:17">
       <c r="A104" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>21</v>
@@ -7852,31 +8361,31 @@
       <c r="M104" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N104" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="O104" s="21" t="s">
+      <c r="N104" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="O104" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P104" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q104" s="21" t="s">
+      <c r="P104" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q104" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:17">
       <c r="A105" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>81</v>
@@ -7905,31 +8414,31 @@
       <c r="M105" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N105" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="O105" s="21" t="s">
+      <c r="N105" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="O105" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P105" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q105" s="21" t="s">
+      <c r="P105" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q105" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:17">
       <c r="A106" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>21</v>
@@ -7958,31 +8467,31 @@
       <c r="M106" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N106" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="O106" s="21" t="s">
+      <c r="N106" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="O106" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P106" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q106" s="21" t="s">
+      <c r="P106" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q106" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18">
       <c r="A107" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="43" t="s">
-        <v>358</v>
+      <c r="D107" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>21</v>
@@ -8012,31 +8521,31 @@
         <v>119</v>
       </c>
       <c r="N107" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="O107" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="O107" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P107" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q107" s="21" t="s">
+      <c r="P107" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q107" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R107" s="12"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:17">
       <c r="A108" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="43" t="s">
-        <v>358</v>
+      <c r="D108" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>81</v>
@@ -8066,30 +8575,30 @@
         <v>119</v>
       </c>
       <c r="N108" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="O108" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="O108" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P108" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q108" s="21" t="s">
+      <c r="P108" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q108" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18">
       <c r="A109" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="43" t="s">
-        <v>359</v>
+      <c r="D109" s="38" t="s">
+        <v>352</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>21</v>
@@ -8119,31 +8628,31 @@
         <v>119</v>
       </c>
       <c r="N109" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="O109" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="O109" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P109" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q109" s="21" t="s">
+      <c r="P109" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q109" s="15" t="s">
         <v>33</v>
       </c>
       <c r="R109" s="12"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:17">
       <c r="A110" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D110" s="43" t="s">
-        <v>360</v>
+      <c r="D110" s="38" t="s">
+        <v>352</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>81</v>
@@ -8173,30 +8682,30 @@
         <v>119</v>
       </c>
       <c r="N110" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="O110" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="O110" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P110" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q110" s="21" t="s">
+      <c r="P110" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q110" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A111" s="22" t="s">
+    <row r="111" spans="1:17">
+      <c r="A111" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D111" s="43" t="s">
-        <v>366</v>
+      <c r="D111" s="38" t="s">
+        <v>355</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>81</v>
@@ -8210,99 +8719,99 @@
       <c r="H111" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I111" s="22" t="s">
+      <c r="I111" s="14" t="s">
         <v>52</v>
       </c>
       <c r="J111" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K111" s="22" t="s">
+      <c r="K111" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L111" s="22" t="s">
+      <c r="L111" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M111" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N111" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="O111" s="21" t="s">
+      <c r="N111" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="O111" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P111" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q111" s="21" t="s">
+      <c r="P111" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q111" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A112" s="21" t="s">
+    <row r="112" spans="1:17">
+      <c r="A112" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D112" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="E112" s="16" t="s">
+      <c r="D112" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="E112" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" s="16" t="s">
+      <c r="F112" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="H112" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I112" s="21" t="s">
+      <c r="I112" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J112" s="16" t="s">
+      <c r="J112" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K112" s="16" t="s">
+      <c r="K112" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L112" s="16" t="s">
+      <c r="L112" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M112" s="16" t="s">
+      <c r="M112" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N112" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="O112" s="21" t="s">
+      <c r="N112" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="O112" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P112" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q112" s="21" t="s">
+      <c r="P112" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q112" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A113" s="22" t="s">
+    <row r="113" spans="1:17">
+      <c r="A113" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="43" t="s">
-        <v>372</v>
+      <c r="D113" s="38" t="s">
+        <v>358</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>81</v>
@@ -8316,99 +8825,99 @@
       <c r="H113" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I113" s="22" t="s">
+      <c r="I113" s="14" t="s">
         <v>52</v>
       </c>
       <c r="J113" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K113" s="22" t="s">
+      <c r="K113" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L113" s="22" t="s">
+      <c r="L113" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N113" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="O113" s="21" t="s">
+      <c r="N113" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="O113" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P113" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q113" s="21" t="s">
+      <c r="P113" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q113" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A114" s="21" t="s">
+    <row r="114" spans="1:17">
+      <c r="A114" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D114" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="E114" s="16" t="s">
+      <c r="D114" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="E114" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F114" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="16" t="s">
+      <c r="F114" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H114" s="16" t="s">
+      <c r="H114" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I114" s="21" t="s">
+      <c r="I114" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J114" s="16" t="s">
+      <c r="J114" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K114" s="16" t="s">
+      <c r="K114" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L114" s="16" t="s">
+      <c r="L114" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M114" s="16" t="s">
+      <c r="M114" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N114" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="O114" s="21" t="s">
+      <c r="N114" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="O114" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P114" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q114" s="21" t="s">
+      <c r="P114" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q114" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A115" s="22" t="s">
+    <row r="115" spans="1:17">
+      <c r="A115" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="43" t="s">
-        <v>375</v>
+      <c r="D115" s="38" t="s">
+        <v>361</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>81</v>
@@ -8422,99 +8931,99 @@
       <c r="H115" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I115" s="22" t="s">
+      <c r="I115" s="14" t="s">
         <v>52</v>
       </c>
       <c r="J115" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K115" s="22" t="s">
+      <c r="K115" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L115" s="22" t="s">
+      <c r="L115" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M115" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N115" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="O115" s="21" t="s">
+      <c r="N115" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="O115" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P115" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q115" s="21" t="s">
+      <c r="P115" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q115" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A116" s="21" t="s">
+    <row r="116" spans="1:17">
+      <c r="A116" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D116" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="E116" s="16" t="s">
+      <c r="D116" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="16" t="s">
+      <c r="F116" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H116" s="16" t="s">
+      <c r="H116" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I116" s="21" t="s">
+      <c r="I116" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J116" s="16" t="s">
+      <c r="J116" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K116" s="16" t="s">
+      <c r="K116" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L116" s="16" t="s">
+      <c r="L116" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M116" s="16" t="s">
+      <c r="M116" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N116" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="O116" s="21" t="s">
+      <c r="N116" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="O116" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P116" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q116" s="21" t="s">
+      <c r="P116" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q116" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A117" s="22" t="s">
+    <row r="117" spans="1:17">
+      <c r="A117" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D117" s="43" t="s">
-        <v>379</v>
+      <c r="D117" s="38" t="s">
+        <v>364</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>81</v>
@@ -8528,152 +9037,152 @@
       <c r="H117" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I117" s="22" t="s">
+      <c r="I117" s="14" t="s">
         <v>52</v>
       </c>
       <c r="J117" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K117" s="22" t="s">
+      <c r="K117" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L117" s="22" t="s">
+      <c r="L117" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M117" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N117" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="O117" s="21" t="s">
+      <c r="N117" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="O117" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P117" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q117" s="21" t="s">
+      <c r="P117" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q117" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A118" s="21" t="s">
+    <row r="118" spans="1:17">
+      <c r="A118" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D118" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="E118" s="16" t="s">
+      <c r="D118" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E118" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="16" t="s">
+      <c r="F118" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I118" s="21" t="s">
+      <c r="I118" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J118" s="16" t="s">
+      <c r="J118" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K118" s="16" t="s">
+      <c r="K118" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L118" s="16" t="s">
+      <c r="L118" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M118" s="16" t="s">
+      <c r="M118" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N118" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="O118" s="21" t="s">
+      <c r="N118" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="O118" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P118" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q118" s="21" t="s">
+      <c r="P118" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q118" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A119" s="21" t="s">
+    <row r="119" spans="1:17">
+      <c r="A119" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D119" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="E119" s="16" t="s">
+      <c r="D119" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="E119" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" s="16" t="s">
+      <c r="F119" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="H119" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I119" s="21" t="s">
+      <c r="I119" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J119" s="16" t="s">
+      <c r="J119" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K119" s="16" t="s">
+      <c r="K119" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L119" s="16" t="s">
+      <c r="L119" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M119" s="16" t="s">
+      <c r="M119" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N119" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="O119" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="O119" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P119" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q119" s="21" t="s">
+      <c r="P119" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q119" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A120" s="22" t="s">
+    <row r="120" spans="1:17">
+      <c r="A120" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D120" s="43" t="s">
-        <v>386</v>
+      <c r="D120" s="38" t="s">
+        <v>369</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>81</v>
@@ -8687,99 +9196,99 @@
       <c r="H120" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="I120" s="14" t="s">
         <v>52</v>
       </c>
       <c r="J120" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="K120" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="L120" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M120" s="12" t="s">
         <v>119</v>
       </c>
       <c r="N120" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="O120" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O120" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P120" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q120" s="21" t="s">
+      <c r="P120" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q120" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A121" s="21" t="s">
+    <row r="121" spans="1:17">
+      <c r="A121" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="E121" s="16" t="s">
+      <c r="D121" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E121" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="16" t="s">
+      <c r="F121" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H121" s="16" t="s">
+      <c r="H121" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I121" s="21" t="s">
+      <c r="I121" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J121" s="16" t="s">
+      <c r="J121" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K121" s="16" t="s">
+      <c r="K121" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L121" s="16" t="s">
+      <c r="L121" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M121" s="16" t="s">
+      <c r="M121" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N121" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="O121" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="O121" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P121" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q121" s="21" t="s">
+      <c r="P121" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q121" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:17">
       <c r="A122" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D122" s="43" t="s">
-        <v>389</v>
+      <c r="D122" s="38" t="s">
+        <v>372</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>21</v>
@@ -8793,7 +9302,7 @@
       <c r="H122" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I122" s="21" t="s">
+      <c r="I122" s="15" t="s">
         <v>52</v>
       </c>
       <c r="J122" s="12" t="s">
@@ -8809,30 +9318,30 @@
         <v>119</v>
       </c>
       <c r="N122" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="O122" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O122" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P122" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q122" s="21" t="s">
+      <c r="P122" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q122" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:17">
       <c r="A123" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D123" s="43" t="s">
-        <v>390</v>
+      <c r="D123" s="38" t="s">
+        <v>372</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>81</v>
@@ -8846,7 +9355,7 @@
       <c r="H123" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I123" s="21" t="s">
+      <c r="I123" s="15" t="s">
         <v>52</v>
       </c>
       <c r="J123" s="12" t="s">
@@ -8862,30 +9371,30 @@
         <v>119</v>
       </c>
       <c r="N123" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="O123" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="O123" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P123" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q123" s="21" t="s">
+      <c r="P123" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q123" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:17">
       <c r="A124" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="43" t="s">
-        <v>394</v>
+      <c r="D124" s="38" t="s">
+        <v>375</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>81</v>
@@ -8900,7 +9409,7 @@
         <v>117</v>
       </c>
       <c r="I124" s="40" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="J124" s="12" t="s">
         <v>186</v>
@@ -8915,30 +9424,30 @@
         <v>119</v>
       </c>
       <c r="N124" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="O124" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="O124" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="P124" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q124" s="21" t="s">
+      <c r="P124" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q124" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="16" t="s">
+    <row r="125" s="7" customFormat="1" spans="1:17">
+      <c r="A125" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D125" s="41" t="s">
-        <v>398</v>
+      <c r="D125" s="39" t="s">
+        <v>379</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>21</v>
@@ -8946,52 +9455,52 @@
       <c r="F125" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G125" s="16" t="s">
+      <c r="G125" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H125" s="16" t="s">
+      <c r="H125" s="13" t="s">
         <v>117</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J125" s="21" t="s">
+      <c r="J125" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="K125" s="16" t="s">
+      <c r="K125" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L125" s="16" t="s">
+      <c r="L125" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M125" s="16" t="s">
+      <c r="M125" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N125" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="O125" s="23" t="s">
+      <c r="N125" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="O125" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="P125" s="16" t="s">
+      <c r="P125" s="13" t="s">
         <v>227</v>
       </c>
       <c r="Q125" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" s="7" customFormat="1" spans="1:17">
       <c r="A126" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B126" s="39">
+      <c r="B126" s="37">
         <v>1822</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D126" s="43" t="s">
-        <v>400</v>
+      <c r="D126" s="38" t="s">
+        <v>381</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>81</v>
@@ -9008,7 +9517,7 @@
       <c r="I126" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J126" s="23" t="s">
+      <c r="J126" s="12" t="s">
         <v>318</v>
       </c>
       <c r="K126" s="7" t="s">
@@ -9020,31 +9529,31 @@
       <c r="M126" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N126" s="43" t="s">
-        <v>402</v>
+      <c r="N126" s="38" t="s">
+        <v>382</v>
       </c>
       <c r="O126" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P126" s="39" t="s">
-        <v>403</v>
+      <c r="P126" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="Q126" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" s="7" customFormat="1" spans="1:17">
       <c r="A127" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B127" s="39">
+      <c r="B127" s="37">
         <v>1822</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D127" s="43" t="s">
-        <v>401</v>
+      <c r="D127" s="38" t="s">
+        <v>381</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>21</v>
@@ -9073,49 +9582,105 @@
       <c r="M127" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N127" s="43" t="s">
-        <v>402</v>
+      <c r="N127" s="38" t="s">
+        <v>382</v>
       </c>
       <c r="O127" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P127" s="39" t="s">
-        <v>403</v>
+      <c r="P127" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="Q127" s="7" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="128" s="7" customFormat="1" spans="1:17">
+      <c r="A128" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="N128" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P128" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q128" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U127"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <autoFilter ref="A1:U127">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1"/>
-    <hyperlink ref="Q8" r:id="rId2"/>
-    <hyperlink ref="Q33" r:id="rId3"/>
-    <hyperlink ref="Q39" r:id="rId4"/>
-    <hyperlink ref="Q40" r:id="rId5"/>
-    <hyperlink ref="Q47" r:id="rId6"/>
+    <hyperlink ref="Q10" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
+    <hyperlink ref="Q8" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.4.2_470.57.02_linux.run"/>
+    <hyperlink ref="Q33" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
+    <hyperlink ref="Q39" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
+    <hyperlink ref="Q40" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
+    <hyperlink ref="Q47" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/swsm_driver_3.0.3.zip"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -9123,34 +9688,33 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$160</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="450">
   <si>
     <t>vendorID</t>
   </si>
@@ -1401,6 +1401,14 @@
   </si>
   <si>
     <t>42.5MB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>d120</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP350</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2001,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ159"/>
+  <dimension ref="A1:AMJ160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K163" sqref="K163"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25463,8 +25471,61 @@
         <v>438</v>
       </c>
     </row>
+    <row r="160" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A160" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L160" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M160" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N160" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="O160" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="P160" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q160" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U153"/>
+  <autoFilter ref="A1:U160"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$165</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="461">
   <si>
     <t>vendorID</t>
   </si>
@@ -1398,19 +1398,13 @@
     <t>168e</t>
   </si>
   <si>
-    <t>1.712.30-0</t>
-  </si>
-  <si>
     <t>530F-B2</t>
   </si>
   <si>
     <t>BCM57810</t>
   </si>
   <si>
-    <t>5.4.0-K</t>
-  </si>
-  <si>
-    <t>524KB</t>
+    <t>542KB</t>
   </si>
   <si>
     <t>360T-B</t>
@@ -2642,8 +2636,8 @@
   <sheetPr/>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="I142" workbookViewId="0">
-      <selection activeCell="I168" sqref="I168"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28292,9 +28286,7 @@
       <c r="G163" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H163" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="H163" s="4"/>
       <c r="I163" s="4" t="s">
         <v>52</v>
       </c>
@@ -28309,10 +28301,10 @@
         <v>218</v>
       </c>
       <c r="N163" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="O163" s="18" t="s">
         <v>449</v>
-      </c>
-      <c r="O163" s="18" t="s">
-        <v>450</v>
       </c>
       <c r="P163" s="4"/>
       <c r="Q163" s="4" t="s">
@@ -29348,9 +29340,7 @@
       <c r="G164" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H164" s="4" t="s">
-        <v>451</v>
-      </c>
+      <c r="H164" s="4"/>
       <c r="I164" s="4" t="s">
         <v>52</v>
       </c>
@@ -29359,13 +29349,13 @@
       </c>
       <c r="K164" s="4"/>
       <c r="L164" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M164" s="4" t="s">
         <v>65</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O164" s="4" t="s">
         <v>67</v>
@@ -30384,16 +30374,16 @@
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>21</v>
@@ -30402,38 +30392,38 @@
         <v>22</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I165" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J165" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="N165" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="L165" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="M165" s="5" t="s">
+      <c r="O165" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="N165" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="O165" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="Q165" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U164">
+  <autoFilter ref="A1:U165">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
@@ -30480,27 +30470,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="466">
   <si>
     <t>vendorID</t>
   </si>
@@ -1423,6 +1423,21 @@
   </si>
   <si>
     <t>S5239</t>
+  </si>
+  <si>
+    <t>07.722.02.00</t>
+  </si>
+  <si>
+    <t>2022.08.26</t>
+  </si>
+  <si>
+    <t>22MB</t>
+  </si>
+  <si>
+    <t>03033FAT/03024JNF</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz</t>
   </si>
   <si>
     <t>板卡</t>
@@ -2634,10 +2649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ165"/>
+  <dimension ref="A1:AMJ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="O152" workbookViewId="0">
+      <selection activeCell="Q174" sqref="Q174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2658,7 +2673,7 @@
     <col min="14" max="14" width="16.875" style="5" customWidth="1"/>
     <col min="15" max="15" width="15.375" style="5" customWidth="1"/>
     <col min="16" max="16" width="17" style="5" customWidth="1"/>
-    <col min="17" max="17" width="113" style="5" customWidth="1"/>
+    <col min="17" max="17" width="125.1" style="5" customWidth="1"/>
     <col min="18" max="18" width="18.75" style="5" customWidth="1"/>
     <col min="19" max="1024" width="9" style="5"/>
   </cols>
@@ -30422,6 +30437,150 @@
         <v>452</v>
       </c>
     </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O166" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P166" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q166" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B167" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J167" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L167" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="M167" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N167" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="O167" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q167" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B168" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J168" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N168" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="O168" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q168" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U165">
     <extLst/>
@@ -30470,27 +30629,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\9.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="板卡问题记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler22.03-LTS两类平台板卡兼容性'!$A$1:$U$172</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="468">
   <si>
     <t>vendorID</t>
   </si>
@@ -1451,18 +1456,20 @@
   <si>
     <t>网卡速率不达标</t>
   </si>
+  <si>
+    <t>2022.08.30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>22MB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1503,7 +1510,7 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1519,143 +1526,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1680,194 +1556,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1890,249 +1580,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2142,13 +1593,13 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2238,8 +1689,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2259,61 +1710,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2386,6 +1791,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2643,19 +2051,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AMJ168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="O152" workbookViewId="0">
-      <selection activeCell="Q174" sqref="Q174"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
@@ -2673,12 +2081,12 @@
     <col min="14" max="14" width="16.875" style="5" customWidth="1"/>
     <col min="15" max="15" width="15.375" style="5" customWidth="1"/>
     <col min="16" max="16" width="17" style="5" customWidth="1"/>
-    <col min="17" max="17" width="125.1" style="5" customWidth="1"/>
+    <col min="17" max="17" width="125.125" style="5" customWidth="1"/>
     <col min="18" max="18" width="18.75" style="5" customWidth="1"/>
     <col min="19" max="1024" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:21">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2144,7 @@
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -2793,7 +2201,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2850,7 +2258,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2907,7 +2315,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -2964,7 +2372,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -3019,7 +2427,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -3076,7 +2484,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
@@ -3129,7 +2537,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -3184,7 +2592,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
@@ -3239,7 +2647,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
@@ -3293,7 +2701,7 @@
       </c>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>113</v>
       </c>
@@ -3347,7 +2755,7 @@
       </c>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>113</v>
       </c>
@@ -3400,7 +2808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>100</v>
       </c>
@@ -3453,7 +2861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>100</v>
       </c>
@@ -3506,7 +2914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>113</v>
       </c>
@@ -3559,7 +2967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>113</v>
       </c>
@@ -3612,7 +3020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>100</v>
       </c>
@@ -3665,7 +3073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -3718,7 +3126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -3771,7 +3179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>113</v>
       </c>
@@ -3824,7 +3232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>59</v>
       </c>
@@ -3874,7 +3282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -3924,7 +3332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -3977,7 +3385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
@@ -4030,7 +3438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
@@ -4083,7 +3491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
@@ -4136,7 +3544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
@@ -4189,7 +3597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
@@ -4242,7 +3650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>18</v>
       </c>
@@ -4295,7 +3703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>100</v>
       </c>
@@ -4348,7 +3756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
@@ -4401,7 +3809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>78</v>
       </c>
@@ -4451,7 +3859,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
@@ -4504,7 +3912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
@@ -4557,7 +3965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>113</v>
       </c>
@@ -4610,7 +4018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="19">
         <v>8086</v>
       </c>
@@ -4664,7 +4072,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="19">
         <v>8086</v>
       </c>
@@ -4718,7 +4126,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
@@ -4769,7 +4177,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
@@ -4820,7 +4228,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>47</v>
       </c>
@@ -4873,7 +4281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:17">
+    <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
@@ -4924,7 +4332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:17">
+    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
         <v>212</v>
       </c>
@@ -4975,7 +4383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:17">
+    <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>113</v>
       </c>
@@ -5028,7 +4436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>212</v>
       </c>
@@ -5079,7 +4487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>212</v>
       </c>
@@ -5130,7 +4538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" ht="27" spans="1:21">
+    <row r="47" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
         <v>239</v>
       </c>
@@ -5185,7 +4593,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" ht="27" spans="1:21">
+    <row r="48" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="22" t="s">
         <v>239</v>
       </c>
@@ -5240,7 +4648,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" ht="27" spans="1:21">
+    <row r="49" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
         <v>253</v>
       </c>
@@ -5295,7 +4703,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" ht="27" spans="1:21">
+    <row r="50" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="22" t="s">
         <v>253</v>
       </c>
@@ -5350,7 +4758,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" ht="27" spans="1:21">
+    <row r="51" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
         <v>259</v>
       </c>
@@ -5405,7 +4813,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" ht="27" spans="1:21">
+    <row r="52" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
         <v>259</v>
       </c>
@@ -5460,7 +4868,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" ht="27" spans="1:21">
+    <row r="53" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
         <v>259</v>
       </c>
@@ -5515,7 +4923,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54" s="25" t="s">
         <v>269</v>
       </c>
@@ -5560,7 +4968,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55" s="25" t="s">
         <v>269</v>
       </c>
@@ -5605,7 +5013,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="25" t="s">
         <v>269</v>
       </c>
@@ -5650,7 +5058,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" ht="27" spans="1:21">
+    <row r="57" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="24" t="s">
         <v>259</v>
       </c>
@@ -5705,7 +5113,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" ht="27" spans="1:21">
+    <row r="58" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="24" t="s">
         <v>259</v>
       </c>
@@ -5760,7 +5168,7 @@
       <c r="T58" s="39"/>
       <c r="U58" s="39"/>
     </row>
-    <row r="59" ht="27" spans="1:21">
+    <row r="59" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
         <v>259</v>
       </c>
@@ -5815,7 +5223,7 @@
       <c r="T59" s="39"/>
       <c r="U59" s="39"/>
     </row>
-    <row r="60" ht="27" spans="1:21">
+    <row r="60" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
         <v>259</v>
       </c>
@@ -5870,7 +5278,7 @@
       <c r="T60" s="39"/>
       <c r="U60" s="39"/>
     </row>
-    <row r="61" ht="27" spans="1:21">
+    <row r="61" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
         <v>259</v>
       </c>
@@ -5925,7 +5333,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" ht="27" spans="1:21">
+    <row r="62" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
         <v>259</v>
       </c>
@@ -5980,7 +5388,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" ht="27" spans="1:21">
+    <row r="63" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
         <v>259</v>
       </c>
@@ -6035,7 +5443,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" ht="27" spans="1:21">
+    <row r="64" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="24" t="s">
         <v>259</v>
       </c>
@@ -6090,7 +5498,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" ht="27" spans="1:21">
+    <row r="65" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
         <v>259</v>
       </c>
@@ -6145,7 +5553,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" ht="27" spans="1:21">
+    <row r="66" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
         <v>259</v>
       </c>
@@ -6200,7 +5608,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
     </row>
-    <row r="67" ht="27" spans="1:21">
+    <row r="67" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
         <v>259</v>
       </c>
@@ -6255,7 +5663,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
     </row>
-    <row r="68" ht="27" spans="1:21">
+    <row r="68" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="24" t="s">
         <v>259</v>
       </c>
@@ -6310,7 +5718,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
     </row>
-    <row r="69" ht="27" spans="1:21">
+    <row r="69" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
         <v>259</v>
       </c>
@@ -6365,7 +5773,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
     </row>
-    <row r="70" ht="27" spans="1:21">
+    <row r="70" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="24" t="s">
         <v>259</v>
       </c>
@@ -6420,7 +5828,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
     </row>
-    <row r="71" ht="27" spans="1:21">
+    <row r="71" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="24" t="s">
         <v>259</v>
       </c>
@@ -6475,7 +5883,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
     </row>
-    <row r="72" ht="27" spans="1:21">
+    <row r="72" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
         <v>259</v>
       </c>
@@ -6530,7 +5938,7 @@
       <c r="T72" s="39"/>
       <c r="U72" s="39"/>
     </row>
-    <row r="73" ht="27" spans="1:21">
+    <row r="73" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="24" t="s">
         <v>259</v>
       </c>
@@ -6585,7 +5993,7 @@
       <c r="T73" s="39"/>
       <c r="U73" s="39"/>
     </row>
-    <row r="74" ht="27" spans="1:21">
+    <row r="74" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="24" t="s">
         <v>259</v>
       </c>
@@ -6640,7 +6048,7 @@
       <c r="T74" s="39"/>
       <c r="U74" s="39"/>
     </row>
-    <row r="75" ht="27" spans="1:21">
+    <row r="75" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
         <v>259</v>
       </c>
@@ -6695,7 +6103,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
-    <row r="76" ht="27" spans="1:21">
+    <row r="76" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="24" t="s">
         <v>259</v>
       </c>
@@ -6750,7 +6158,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
     </row>
-    <row r="77" ht="27" spans="1:21">
+    <row r="77" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="24" t="s">
         <v>259</v>
       </c>
@@ -6805,7 +6213,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
     </row>
-    <row r="78" ht="27" spans="1:21">
+    <row r="78" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
         <v>259</v>
       </c>
@@ -6860,7 +6268,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
-    <row r="79" ht="27" spans="1:21">
+    <row r="79" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="24" t="s">
         <v>259</v>
       </c>
@@ -6915,7 +6323,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
     </row>
-    <row r="80" ht="27" spans="1:21">
+    <row r="80" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="24" t="s">
         <v>259</v>
       </c>
@@ -6970,7 +6378,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
     </row>
-    <row r="81" ht="27" spans="1:21">
+    <row r="81" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
         <v>259</v>
       </c>
@@ -7025,7 +6433,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>18</v>
       </c>
@@ -7082,7 +6490,7 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>18</v>
       </c>
@@ -7139,7 +6547,7 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" s="7" customFormat="1" spans="1:17">
+    <row r="84" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>36</v>
       </c>
@@ -7184,7 +6592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" s="7" customFormat="1" spans="1:17">
+    <row r="85" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>36</v>
       </c>
@@ -7229,7 +6637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" s="7" customFormat="1" spans="1:17">
+    <row r="86" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>36</v>
       </c>
@@ -7274,7 +6682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" s="7" customFormat="1" spans="1:17">
+    <row r="87" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>36</v>
       </c>
@@ -7319,7 +6727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" s="7" customFormat="1" spans="1:17">
+    <row r="88" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>305</v>
       </c>
@@ -7364,7 +6772,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" s="7" customFormat="1" spans="1:17">
+    <row r="89" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
@@ -7417,7 +6825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" s="7" customFormat="1" spans="1:17">
+    <row r="90" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>47</v>
       </c>
@@ -7470,7 +6878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" s="7" customFormat="1" spans="1:17">
+    <row r="91" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>59</v>
       </c>
@@ -7520,7 +6928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>100</v>
       </c>
@@ -7571,7 +6979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>100</v>
       </c>
@@ -7622,7 +7030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>100</v>
       </c>
@@ -7673,7 +7081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>100</v>
       </c>
@@ -7724,7 +7132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>100</v>
       </c>
@@ -7775,7 +7183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>100</v>
       </c>
@@ -7826,7 +7234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>100</v>
       </c>
@@ -7877,7 +7285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>100</v>
       </c>
@@ -7928,7 +7336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>100</v>
       </c>
@@ -7979,7 +7387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>100</v>
       </c>
@@ -8030,7 +7438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>100</v>
       </c>
@@ -8081,7 +7489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>113</v>
       </c>
@@ -8134,7 +7542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>113</v>
       </c>
@@ -8187,7 +7595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>113</v>
       </c>
@@ -8240,7 +7648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>113</v>
       </c>
@@ -8293,7 +7701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>113</v>
       </c>
@@ -8347,7 +7755,7 @@
       </c>
       <c r="R107" s="7"/>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>113</v>
       </c>
@@ -8400,7 +7808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>113</v>
       </c>
@@ -8454,7 +7862,7 @@
       </c>
       <c r="R109" s="7"/>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>113</v>
       </c>
@@ -8507,7 +7915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="17" t="s">
         <v>113</v>
       </c>
@@ -8560,7 +7968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="18" t="s">
         <v>113</v>
       </c>
@@ -8613,7 +8021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113" s="17" t="s">
         <v>113</v>
       </c>
@@ -8666,7 +8074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -8719,7 +8127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115" s="17" t="s">
         <v>113</v>
       </c>
@@ -8772,7 +8180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A116" s="18" t="s">
         <v>113</v>
       </c>
@@ -8825,7 +8233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
         <v>113</v>
       </c>
@@ -8878,7 +8286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A118" s="18" t="s">
         <v>113</v>
       </c>
@@ -8931,7 +8339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
         <v>113</v>
       </c>
@@ -8984,7 +8392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A120" s="17" t="s">
         <v>113</v>
       </c>
@@ -9037,7 +8445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A121" s="18" t="s">
         <v>113</v>
       </c>
@@ -9090,7 +8498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
         <v>113</v>
       </c>
@@ -9143,7 +8551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
         <v>113</v>
       </c>
@@ -9196,7 +8604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
         <v>113</v>
       </c>
@@ -9249,7 +8657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" s="7" customFormat="1" spans="1:17">
+    <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="s">
         <v>113</v>
       </c>
@@ -9302,7 +8710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" s="7" customFormat="1" spans="1:17">
+    <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>47</v>
       </c>
@@ -9355,7 +8763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" s="7" customFormat="1" spans="1:17">
+    <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>47</v>
       </c>
@@ -9408,7 +8816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" s="7" customFormat="1" spans="1:17">
+    <row r="128" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7">
         <v>1000</v>
       </c>
@@ -9461,7 +8869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" s="4" customFormat="1" spans="1:17">
+    <row r="129" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>1000</v>
       </c>
@@ -9514,7 +8922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" s="8" customFormat="1" spans="1:1024">
+    <row r="130" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8">
         <v>1000</v>
       </c>
@@ -10574,7 +9982,7 @@
       <c r="AMI130" s="45"/>
       <c r="AMJ130" s="45"/>
     </row>
-    <row r="131" s="9" customFormat="1" spans="1:1024">
+    <row r="131" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="9">
         <v>1000</v>
       </c>
@@ -11634,7 +11042,7 @@
       <c r="AMI131" s="45"/>
       <c r="AMJ131" s="45"/>
     </row>
-    <row r="132" s="9" customFormat="1" spans="1:1024">
+    <row r="132" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="9">
         <v>9005</v>
       </c>
@@ -12694,7 +12102,7 @@
       <c r="AMI132" s="45"/>
       <c r="AMJ132" s="45"/>
     </row>
-    <row r="133" s="9" customFormat="1" spans="1:1024">
+    <row r="133" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="9">
         <v>9005</v>
       </c>
@@ -13754,7 +13162,7 @@
       <c r="AMI133" s="45"/>
       <c r="AMJ133" s="45"/>
     </row>
-    <row r="134" s="9" customFormat="1" spans="1:1024">
+    <row r="134" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="9">
         <v>1000</v>
       </c>
@@ -14814,7 +14222,7 @@
       <c r="AMI134" s="45"/>
       <c r="AMJ134" s="45"/>
     </row>
-    <row r="135" s="9" customFormat="1" spans="1:1024">
+    <row r="135" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="9">
         <v>1000</v>
       </c>
@@ -15874,7 +15282,7 @@
       <c r="AMI135" s="45"/>
       <c r="AMJ135" s="45"/>
     </row>
-    <row r="136" s="4" customFormat="1" spans="1:17">
+    <row r="136" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>1000</v>
       </c>
@@ -15924,7 +15332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" s="8" customFormat="1" spans="1:1024">
+    <row r="137" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="8">
         <v>1000</v>
       </c>
@@ -16982,7 +16390,7 @@
       <c r="AMI137" s="45"/>
       <c r="AMJ137" s="45"/>
     </row>
-    <row r="138" s="9" customFormat="1" spans="1:1024">
+    <row r="138" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="9">
         <v>9005</v>
       </c>
@@ -18040,7 +17448,7 @@
       <c r="AMI138" s="45"/>
       <c r="AMJ138" s="45"/>
     </row>
-    <row r="139" s="9" customFormat="1" spans="1:1024">
+    <row r="139" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
         <v>9005</v>
       </c>
@@ -19098,7 +18506,7 @@
       <c r="AMI139" s="45"/>
       <c r="AMJ139" s="45"/>
     </row>
-    <row r="140" s="9" customFormat="1" spans="1:1024">
+    <row r="140" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
         <v>1000</v>
       </c>
@@ -20156,7 +19564,7 @@
       <c r="AMI140" s="45"/>
       <c r="AMJ140" s="45"/>
     </row>
-    <row r="141" s="9" customFormat="1" spans="1:1024">
+    <row r="141" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9">
         <v>1000</v>
       </c>
@@ -21214,7 +20622,7 @@
       <c r="AMI141" s="45"/>
       <c r="AMJ141" s="45"/>
     </row>
-    <row r="142" s="9" customFormat="1" spans="1:1024">
+    <row r="142" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
         <v>1000</v>
       </c>
@@ -22272,7 +21680,7 @@
       <c r="AMI142" s="45"/>
       <c r="AMJ142" s="45"/>
     </row>
-    <row r="143" s="9" customFormat="1" spans="1:1024">
+    <row r="143" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
         <v>1000</v>
       </c>
@@ -23330,7 +22738,7 @@
       <c r="AMI143" s="45"/>
       <c r="AMJ143" s="45"/>
     </row>
-    <row r="144" s="9" customFormat="1" spans="1:1024">
+    <row r="144" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
         <v>1000</v>
       </c>
@@ -24388,7 +23796,7 @@
       <c r="AMI144" s="45"/>
       <c r="AMJ144" s="45"/>
     </row>
-    <row r="145" s="9" customFormat="1" spans="1:1024">
+    <row r="145" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="9">
         <v>1000</v>
       </c>
@@ -25446,7 +24854,7 @@
       <c r="AMI145" s="45"/>
       <c r="AMJ145" s="45"/>
     </row>
-    <row r="146" s="10" customFormat="1" spans="1:17">
+    <row r="146" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="10" t="s">
         <v>36</v>
       </c>
@@ -25491,7 +24899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" s="10" customFormat="1" spans="1:17">
+    <row r="147" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="10" t="s">
         <v>36</v>
       </c>
@@ -25536,7 +24944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" s="10" customFormat="1" spans="1:17">
+    <row r="148" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="10" t="s">
         <v>36</v>
       </c>
@@ -25581,7 +24989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" s="10" customFormat="1" spans="1:17">
+    <row r="149" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="10" t="s">
         <v>36</v>
       </c>
@@ -25626,7 +25034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" s="10" customFormat="1" spans="1:17">
+    <row r="150" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="10" t="s">
         <v>36</v>
       </c>
@@ -25671,7 +25079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" s="10" customFormat="1" spans="1:17">
+    <row r="151" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="10" t="s">
         <v>36</v>
       </c>
@@ -25716,7 +25124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" s="10" customFormat="1" spans="1:17">
+    <row r="152" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="10" t="s">
         <v>36</v>
       </c>
@@ -25761,7 +25169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" s="10" customFormat="1" spans="1:17">
+    <row r="153" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="10" t="s">
         <v>36</v>
       </c>
@@ -25806,7 +25214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
         <v>113</v>
       </c>
@@ -25857,7 +25265,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
         <v>113</v>
       </c>
@@ -25908,7 +25316,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
         <v>113</v>
       </c>
@@ -25959,7 +25367,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
         <v>113</v>
       </c>
@@ -26010,7 +25418,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
         <v>113</v>
       </c>
@@ -26061,7 +25469,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
         <v>113</v>
       </c>
@@ -26112,7 +25520,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
         <v>113</v>
       </c>
@@ -26165,7 +25573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" s="11" customFormat="1" spans="1:1024">
+    <row r="161" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
         <v>1000</v>
       </c>
@@ -27223,7 +26631,7 @@
       <c r="AMI161" s="4"/>
       <c r="AMJ161" s="4"/>
     </row>
-    <row r="162" s="11" customFormat="1" ht="15" customHeight="1" spans="1:1024">
+    <row r="162" spans="1:1024" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>113</v>
       </c>
@@ -28279,7 +27687,7 @@
       <c r="AMI162" s="4"/>
       <c r="AMJ162" s="4"/>
     </row>
-    <row r="163" s="11" customFormat="1" spans="1:1024">
+    <row r="163" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="44" t="s">
         <v>212</v>
       </c>
@@ -29333,7 +28741,7 @@
       <c r="AMI163" s="4"/>
       <c r="AMJ163" s="4"/>
     </row>
-    <row r="164" s="11" customFormat="1" spans="1:1024">
+    <row r="164" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>8086</v>
       </c>
@@ -30387,7 +29795,7 @@
       <c r="AMI164" s="4"/>
       <c r="AMJ164" s="4"/>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>452</v>
       </c>
@@ -30437,7 +29845,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>1000</v>
       </c>
@@ -30487,7 +29895,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>1000</v>
       </c>
@@ -30534,7 +29942,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>1000</v>
       </c>
@@ -30581,45 +29989,4264 @@
         <v>461</v>
       </c>
     </row>
+    <row r="169" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B169" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C169" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="M169" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N169" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="O169" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="P169" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q169" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="R169" s="45"/>
+      <c r="S169" s="45"/>
+      <c r="T169" s="45"/>
+      <c r="U169" s="45"/>
+      <c r="V169" s="45"/>
+      <c r="W169" s="45"/>
+      <c r="X169" s="45"/>
+      <c r="Y169" s="45"/>
+      <c r="Z169" s="45"/>
+      <c r="AA169" s="45"/>
+      <c r="AB169" s="45"/>
+      <c r="AC169" s="45"/>
+      <c r="AD169" s="45"/>
+      <c r="AE169" s="45"/>
+      <c r="AF169" s="45"/>
+      <c r="AG169" s="45"/>
+      <c r="AH169" s="45"/>
+      <c r="AI169" s="45"/>
+      <c r="AJ169" s="45"/>
+      <c r="AK169" s="45"/>
+      <c r="AL169" s="45"/>
+      <c r="AM169" s="45"/>
+      <c r="AN169" s="45"/>
+      <c r="AO169" s="45"/>
+      <c r="AP169" s="45"/>
+      <c r="AQ169" s="45"/>
+      <c r="AR169" s="45"/>
+      <c r="AS169" s="45"/>
+      <c r="AT169" s="45"/>
+      <c r="AU169" s="45"/>
+      <c r="AV169" s="45"/>
+      <c r="AW169" s="45"/>
+      <c r="AX169" s="45"/>
+      <c r="AY169" s="45"/>
+      <c r="AZ169" s="45"/>
+      <c r="BA169" s="45"/>
+      <c r="BB169" s="45"/>
+      <c r="BC169" s="45"/>
+      <c r="BD169" s="45"/>
+      <c r="BE169" s="45"/>
+      <c r="BF169" s="45"/>
+      <c r="BG169" s="45"/>
+      <c r="BH169" s="45"/>
+      <c r="BI169" s="45"/>
+      <c r="BJ169" s="45"/>
+      <c r="BK169" s="45"/>
+      <c r="BL169" s="45"/>
+      <c r="BM169" s="45"/>
+      <c r="BN169" s="45"/>
+      <c r="BO169" s="45"/>
+      <c r="BP169" s="45"/>
+      <c r="BQ169" s="45"/>
+      <c r="BR169" s="45"/>
+      <c r="BS169" s="45"/>
+      <c r="BT169" s="45"/>
+      <c r="BU169" s="45"/>
+      <c r="BV169" s="45"/>
+      <c r="BW169" s="45"/>
+      <c r="BX169" s="45"/>
+      <c r="BY169" s="45"/>
+      <c r="BZ169" s="45"/>
+      <c r="CA169" s="45"/>
+      <c r="CB169" s="45"/>
+      <c r="CC169" s="45"/>
+      <c r="CD169" s="45"/>
+      <c r="CE169" s="45"/>
+      <c r="CF169" s="45"/>
+      <c r="CG169" s="45"/>
+      <c r="CH169" s="45"/>
+      <c r="CI169" s="45"/>
+      <c r="CJ169" s="45"/>
+      <c r="CK169" s="45"/>
+      <c r="CL169" s="45"/>
+      <c r="CM169" s="45"/>
+      <c r="CN169" s="45"/>
+      <c r="CO169" s="45"/>
+      <c r="CP169" s="45"/>
+      <c r="CQ169" s="45"/>
+      <c r="CR169" s="45"/>
+      <c r="CS169" s="45"/>
+      <c r="CT169" s="45"/>
+      <c r="CU169" s="45"/>
+      <c r="CV169" s="45"/>
+      <c r="CW169" s="45"/>
+      <c r="CX169" s="45"/>
+      <c r="CY169" s="45"/>
+      <c r="CZ169" s="45"/>
+      <c r="DA169" s="45"/>
+      <c r="DB169" s="45"/>
+      <c r="DC169" s="45"/>
+      <c r="DD169" s="45"/>
+      <c r="DE169" s="45"/>
+      <c r="DF169" s="45"/>
+      <c r="DG169" s="45"/>
+      <c r="DH169" s="45"/>
+      <c r="DI169" s="45"/>
+      <c r="DJ169" s="45"/>
+      <c r="DK169" s="45"/>
+      <c r="DL169" s="45"/>
+      <c r="DM169" s="45"/>
+      <c r="DN169" s="45"/>
+      <c r="DO169" s="45"/>
+      <c r="DP169" s="45"/>
+      <c r="DQ169" s="45"/>
+      <c r="DR169" s="45"/>
+      <c r="DS169" s="45"/>
+      <c r="DT169" s="45"/>
+      <c r="DU169" s="45"/>
+      <c r="DV169" s="45"/>
+      <c r="DW169" s="45"/>
+      <c r="DX169" s="45"/>
+      <c r="DY169" s="45"/>
+      <c r="DZ169" s="45"/>
+      <c r="EA169" s="45"/>
+      <c r="EB169" s="45"/>
+      <c r="EC169" s="45"/>
+      <c r="ED169" s="45"/>
+      <c r="EE169" s="45"/>
+      <c r="EF169" s="45"/>
+      <c r="EG169" s="45"/>
+      <c r="EH169" s="45"/>
+      <c r="EI169" s="45"/>
+      <c r="EJ169" s="45"/>
+      <c r="EK169" s="45"/>
+      <c r="EL169" s="45"/>
+      <c r="EM169" s="45"/>
+      <c r="EN169" s="45"/>
+      <c r="EO169" s="45"/>
+      <c r="EP169" s="45"/>
+      <c r="EQ169" s="45"/>
+      <c r="ER169" s="45"/>
+      <c r="ES169" s="45"/>
+      <c r="ET169" s="45"/>
+      <c r="EU169" s="45"/>
+      <c r="EV169" s="45"/>
+      <c r="EW169" s="45"/>
+      <c r="EX169" s="45"/>
+      <c r="EY169" s="45"/>
+      <c r="EZ169" s="45"/>
+      <c r="FA169" s="45"/>
+      <c r="FB169" s="45"/>
+      <c r="FC169" s="45"/>
+      <c r="FD169" s="45"/>
+      <c r="FE169" s="45"/>
+      <c r="FF169" s="45"/>
+      <c r="FG169" s="45"/>
+      <c r="FH169" s="45"/>
+      <c r="FI169" s="45"/>
+      <c r="FJ169" s="45"/>
+      <c r="FK169" s="45"/>
+      <c r="FL169" s="45"/>
+      <c r="FM169" s="45"/>
+      <c r="FN169" s="45"/>
+      <c r="FO169" s="45"/>
+      <c r="FP169" s="45"/>
+      <c r="FQ169" s="45"/>
+      <c r="FR169" s="45"/>
+      <c r="FS169" s="45"/>
+      <c r="FT169" s="45"/>
+      <c r="FU169" s="45"/>
+      <c r="FV169" s="45"/>
+      <c r="FW169" s="45"/>
+      <c r="FX169" s="45"/>
+      <c r="FY169" s="45"/>
+      <c r="FZ169" s="45"/>
+      <c r="GA169" s="45"/>
+      <c r="GB169" s="45"/>
+      <c r="GC169" s="45"/>
+      <c r="GD169" s="45"/>
+      <c r="GE169" s="45"/>
+      <c r="GF169" s="45"/>
+      <c r="GG169" s="45"/>
+      <c r="GH169" s="45"/>
+      <c r="GI169" s="45"/>
+      <c r="GJ169" s="45"/>
+      <c r="GK169" s="45"/>
+      <c r="GL169" s="45"/>
+      <c r="GM169" s="45"/>
+      <c r="GN169" s="45"/>
+      <c r="GO169" s="45"/>
+      <c r="GP169" s="45"/>
+      <c r="GQ169" s="45"/>
+      <c r="GR169" s="45"/>
+      <c r="GS169" s="45"/>
+      <c r="GT169" s="45"/>
+      <c r="GU169" s="45"/>
+      <c r="GV169" s="45"/>
+      <c r="GW169" s="45"/>
+      <c r="GX169" s="45"/>
+      <c r="GY169" s="45"/>
+      <c r="GZ169" s="45"/>
+      <c r="HA169" s="45"/>
+      <c r="HB169" s="45"/>
+      <c r="HC169" s="45"/>
+      <c r="HD169" s="45"/>
+      <c r="HE169" s="45"/>
+      <c r="HF169" s="45"/>
+      <c r="HG169" s="45"/>
+      <c r="HH169" s="45"/>
+      <c r="HI169" s="45"/>
+      <c r="HJ169" s="45"/>
+      <c r="HK169" s="45"/>
+      <c r="HL169" s="45"/>
+      <c r="HM169" s="45"/>
+      <c r="HN169" s="45"/>
+      <c r="HO169" s="45"/>
+      <c r="HP169" s="45"/>
+      <c r="HQ169" s="45"/>
+      <c r="HR169" s="45"/>
+      <c r="HS169" s="45"/>
+      <c r="HT169" s="45"/>
+      <c r="HU169" s="45"/>
+      <c r="HV169" s="45"/>
+      <c r="HW169" s="45"/>
+      <c r="HX169" s="45"/>
+      <c r="HY169" s="45"/>
+      <c r="HZ169" s="45"/>
+      <c r="IA169" s="45"/>
+      <c r="IB169" s="45"/>
+      <c r="IC169" s="45"/>
+      <c r="ID169" s="45"/>
+      <c r="IE169" s="45"/>
+      <c r="IF169" s="45"/>
+      <c r="IG169" s="45"/>
+      <c r="IH169" s="45"/>
+      <c r="II169" s="45"/>
+      <c r="IJ169" s="45"/>
+      <c r="IK169" s="45"/>
+      <c r="IL169" s="45"/>
+      <c r="IM169" s="45"/>
+      <c r="IN169" s="45"/>
+      <c r="IO169" s="45"/>
+      <c r="IP169" s="45"/>
+      <c r="IQ169" s="45"/>
+      <c r="IR169" s="45"/>
+      <c r="IS169" s="45"/>
+      <c r="IT169" s="45"/>
+      <c r="IU169" s="45"/>
+      <c r="IV169" s="45"/>
+      <c r="IW169" s="45"/>
+      <c r="IX169" s="45"/>
+      <c r="IY169" s="45"/>
+      <c r="IZ169" s="45"/>
+      <c r="JA169" s="45"/>
+      <c r="JB169" s="45"/>
+      <c r="JC169" s="45"/>
+      <c r="JD169" s="45"/>
+      <c r="JE169" s="45"/>
+      <c r="JF169" s="45"/>
+      <c r="JG169" s="45"/>
+      <c r="JH169" s="45"/>
+      <c r="JI169" s="45"/>
+      <c r="JJ169" s="45"/>
+      <c r="JK169" s="45"/>
+      <c r="JL169" s="45"/>
+      <c r="JM169" s="45"/>
+      <c r="JN169" s="45"/>
+      <c r="JO169" s="45"/>
+      <c r="JP169" s="45"/>
+      <c r="JQ169" s="45"/>
+      <c r="JR169" s="45"/>
+      <c r="JS169" s="45"/>
+      <c r="JT169" s="45"/>
+      <c r="JU169" s="45"/>
+      <c r="JV169" s="45"/>
+      <c r="JW169" s="45"/>
+      <c r="JX169" s="45"/>
+      <c r="JY169" s="45"/>
+      <c r="JZ169" s="45"/>
+      <c r="KA169" s="45"/>
+      <c r="KB169" s="45"/>
+      <c r="KC169" s="45"/>
+      <c r="KD169" s="45"/>
+      <c r="KE169" s="45"/>
+      <c r="KF169" s="45"/>
+      <c r="KG169" s="45"/>
+      <c r="KH169" s="45"/>
+      <c r="KI169" s="45"/>
+      <c r="KJ169" s="45"/>
+      <c r="KK169" s="45"/>
+      <c r="KL169" s="45"/>
+      <c r="KM169" s="45"/>
+      <c r="KN169" s="45"/>
+      <c r="KO169" s="45"/>
+      <c r="KP169" s="45"/>
+      <c r="KQ169" s="45"/>
+      <c r="KR169" s="45"/>
+      <c r="KS169" s="45"/>
+      <c r="KT169" s="45"/>
+      <c r="KU169" s="45"/>
+      <c r="KV169" s="45"/>
+      <c r="KW169" s="45"/>
+      <c r="KX169" s="45"/>
+      <c r="KY169" s="45"/>
+      <c r="KZ169" s="45"/>
+      <c r="LA169" s="45"/>
+      <c r="LB169" s="45"/>
+      <c r="LC169" s="45"/>
+      <c r="LD169" s="45"/>
+      <c r="LE169" s="45"/>
+      <c r="LF169" s="45"/>
+      <c r="LG169" s="45"/>
+      <c r="LH169" s="45"/>
+      <c r="LI169" s="45"/>
+      <c r="LJ169" s="45"/>
+      <c r="LK169" s="45"/>
+      <c r="LL169" s="45"/>
+      <c r="LM169" s="45"/>
+      <c r="LN169" s="45"/>
+      <c r="LO169" s="45"/>
+      <c r="LP169" s="45"/>
+      <c r="LQ169" s="45"/>
+      <c r="LR169" s="45"/>
+      <c r="LS169" s="45"/>
+      <c r="LT169" s="45"/>
+      <c r="LU169" s="45"/>
+      <c r="LV169" s="45"/>
+      <c r="LW169" s="45"/>
+      <c r="LX169" s="45"/>
+      <c r="LY169" s="45"/>
+      <c r="LZ169" s="45"/>
+      <c r="MA169" s="45"/>
+      <c r="MB169" s="45"/>
+      <c r="MC169" s="45"/>
+      <c r="MD169" s="45"/>
+      <c r="ME169" s="45"/>
+      <c r="MF169" s="45"/>
+      <c r="MG169" s="45"/>
+      <c r="MH169" s="45"/>
+      <c r="MI169" s="45"/>
+      <c r="MJ169" s="45"/>
+      <c r="MK169" s="45"/>
+      <c r="ML169" s="45"/>
+      <c r="MM169" s="45"/>
+      <c r="MN169" s="45"/>
+      <c r="MO169" s="45"/>
+      <c r="MP169" s="45"/>
+      <c r="MQ169" s="45"/>
+      <c r="MR169" s="45"/>
+      <c r="MS169" s="45"/>
+      <c r="MT169" s="45"/>
+      <c r="MU169" s="45"/>
+      <c r="MV169" s="45"/>
+      <c r="MW169" s="45"/>
+      <c r="MX169" s="45"/>
+      <c r="MY169" s="45"/>
+      <c r="MZ169" s="45"/>
+      <c r="NA169" s="45"/>
+      <c r="NB169" s="45"/>
+      <c r="NC169" s="45"/>
+      <c r="ND169" s="45"/>
+      <c r="NE169" s="45"/>
+      <c r="NF169" s="45"/>
+      <c r="NG169" s="45"/>
+      <c r="NH169" s="45"/>
+      <c r="NI169" s="45"/>
+      <c r="NJ169" s="45"/>
+      <c r="NK169" s="45"/>
+      <c r="NL169" s="45"/>
+      <c r="NM169" s="45"/>
+      <c r="NN169" s="45"/>
+      <c r="NO169" s="45"/>
+      <c r="NP169" s="45"/>
+      <c r="NQ169" s="45"/>
+      <c r="NR169" s="45"/>
+      <c r="NS169" s="45"/>
+      <c r="NT169" s="45"/>
+      <c r="NU169" s="45"/>
+      <c r="NV169" s="45"/>
+      <c r="NW169" s="45"/>
+      <c r="NX169" s="45"/>
+      <c r="NY169" s="45"/>
+      <c r="NZ169" s="45"/>
+      <c r="OA169" s="45"/>
+      <c r="OB169" s="45"/>
+      <c r="OC169" s="45"/>
+      <c r="OD169" s="45"/>
+      <c r="OE169" s="45"/>
+      <c r="OF169" s="45"/>
+      <c r="OG169" s="45"/>
+      <c r="OH169" s="45"/>
+      <c r="OI169" s="45"/>
+      <c r="OJ169" s="45"/>
+      <c r="OK169" s="45"/>
+      <c r="OL169" s="45"/>
+      <c r="OM169" s="45"/>
+      <c r="ON169" s="45"/>
+      <c r="OO169" s="45"/>
+      <c r="OP169" s="45"/>
+      <c r="OQ169" s="45"/>
+      <c r="OR169" s="45"/>
+      <c r="OS169" s="45"/>
+      <c r="OT169" s="45"/>
+      <c r="OU169" s="45"/>
+      <c r="OV169" s="45"/>
+      <c r="OW169" s="45"/>
+      <c r="OX169" s="45"/>
+      <c r="OY169" s="45"/>
+      <c r="OZ169" s="45"/>
+      <c r="PA169" s="45"/>
+      <c r="PB169" s="45"/>
+      <c r="PC169" s="45"/>
+      <c r="PD169" s="45"/>
+      <c r="PE169" s="45"/>
+      <c r="PF169" s="45"/>
+      <c r="PG169" s="45"/>
+      <c r="PH169" s="45"/>
+      <c r="PI169" s="45"/>
+      <c r="PJ169" s="45"/>
+      <c r="PK169" s="45"/>
+      <c r="PL169" s="45"/>
+      <c r="PM169" s="45"/>
+      <c r="PN169" s="45"/>
+      <c r="PO169" s="45"/>
+      <c r="PP169" s="45"/>
+      <c r="PQ169" s="45"/>
+      <c r="PR169" s="45"/>
+      <c r="PS169" s="45"/>
+      <c r="PT169" s="45"/>
+      <c r="PU169" s="45"/>
+      <c r="PV169" s="45"/>
+      <c r="PW169" s="45"/>
+      <c r="PX169" s="45"/>
+      <c r="PY169" s="45"/>
+      <c r="PZ169" s="45"/>
+      <c r="QA169" s="45"/>
+      <c r="QB169" s="45"/>
+      <c r="QC169" s="45"/>
+      <c r="QD169" s="45"/>
+      <c r="QE169" s="45"/>
+      <c r="QF169" s="45"/>
+      <c r="QG169" s="45"/>
+      <c r="QH169" s="45"/>
+      <c r="QI169" s="45"/>
+      <c r="QJ169" s="45"/>
+      <c r="QK169" s="45"/>
+      <c r="QL169" s="45"/>
+      <c r="QM169" s="45"/>
+      <c r="QN169" s="45"/>
+      <c r="QO169" s="45"/>
+      <c r="QP169" s="45"/>
+      <c r="QQ169" s="45"/>
+      <c r="QR169" s="45"/>
+      <c r="QS169" s="45"/>
+      <c r="QT169" s="45"/>
+      <c r="QU169" s="45"/>
+      <c r="QV169" s="45"/>
+      <c r="QW169" s="45"/>
+      <c r="QX169" s="45"/>
+      <c r="QY169" s="45"/>
+      <c r="QZ169" s="45"/>
+      <c r="RA169" s="45"/>
+      <c r="RB169" s="45"/>
+      <c r="RC169" s="45"/>
+      <c r="RD169" s="45"/>
+      <c r="RE169" s="45"/>
+      <c r="RF169" s="45"/>
+      <c r="RG169" s="45"/>
+      <c r="RH169" s="45"/>
+      <c r="RI169" s="45"/>
+      <c r="RJ169" s="45"/>
+      <c r="RK169" s="45"/>
+      <c r="RL169" s="45"/>
+      <c r="RM169" s="45"/>
+      <c r="RN169" s="45"/>
+      <c r="RO169" s="45"/>
+      <c r="RP169" s="45"/>
+      <c r="RQ169" s="45"/>
+      <c r="RR169" s="45"/>
+      <c r="RS169" s="45"/>
+      <c r="RT169" s="45"/>
+      <c r="RU169" s="45"/>
+      <c r="RV169" s="45"/>
+      <c r="RW169" s="45"/>
+      <c r="RX169" s="45"/>
+      <c r="RY169" s="45"/>
+      <c r="RZ169" s="45"/>
+      <c r="SA169" s="45"/>
+      <c r="SB169" s="45"/>
+      <c r="SC169" s="45"/>
+      <c r="SD169" s="45"/>
+      <c r="SE169" s="45"/>
+      <c r="SF169" s="45"/>
+      <c r="SG169" s="45"/>
+      <c r="SH169" s="45"/>
+      <c r="SI169" s="45"/>
+      <c r="SJ169" s="45"/>
+      <c r="SK169" s="45"/>
+      <c r="SL169" s="45"/>
+      <c r="SM169" s="45"/>
+      <c r="SN169" s="45"/>
+      <c r="SO169" s="45"/>
+      <c r="SP169" s="45"/>
+      <c r="SQ169" s="45"/>
+      <c r="SR169" s="45"/>
+      <c r="SS169" s="45"/>
+      <c r="ST169" s="45"/>
+      <c r="SU169" s="45"/>
+      <c r="SV169" s="45"/>
+      <c r="SW169" s="45"/>
+      <c r="SX169" s="45"/>
+      <c r="SY169" s="45"/>
+      <c r="SZ169" s="45"/>
+      <c r="TA169" s="45"/>
+      <c r="TB169" s="45"/>
+      <c r="TC169" s="45"/>
+      <c r="TD169" s="45"/>
+      <c r="TE169" s="45"/>
+      <c r="TF169" s="45"/>
+      <c r="TG169" s="45"/>
+      <c r="TH169" s="45"/>
+      <c r="TI169" s="45"/>
+      <c r="TJ169" s="45"/>
+      <c r="TK169" s="45"/>
+      <c r="TL169" s="45"/>
+      <c r="TM169" s="45"/>
+      <c r="TN169" s="45"/>
+      <c r="TO169" s="45"/>
+      <c r="TP169" s="45"/>
+      <c r="TQ169" s="45"/>
+      <c r="TR169" s="45"/>
+      <c r="TS169" s="45"/>
+      <c r="TT169" s="45"/>
+      <c r="TU169" s="45"/>
+      <c r="TV169" s="45"/>
+      <c r="TW169" s="45"/>
+      <c r="TX169" s="45"/>
+      <c r="TY169" s="45"/>
+      <c r="TZ169" s="45"/>
+      <c r="UA169" s="45"/>
+      <c r="UB169" s="45"/>
+      <c r="UC169" s="45"/>
+      <c r="UD169" s="45"/>
+      <c r="UE169" s="45"/>
+      <c r="UF169" s="45"/>
+      <c r="UG169" s="45"/>
+      <c r="UH169" s="45"/>
+      <c r="UI169" s="45"/>
+      <c r="UJ169" s="45"/>
+      <c r="UK169" s="45"/>
+      <c r="UL169" s="45"/>
+      <c r="UM169" s="45"/>
+      <c r="UN169" s="45"/>
+      <c r="UO169" s="45"/>
+      <c r="UP169" s="45"/>
+      <c r="UQ169" s="45"/>
+      <c r="UR169" s="45"/>
+      <c r="US169" s="45"/>
+      <c r="UT169" s="45"/>
+      <c r="UU169" s="45"/>
+      <c r="UV169" s="45"/>
+      <c r="UW169" s="45"/>
+      <c r="UX169" s="45"/>
+      <c r="UY169" s="45"/>
+      <c r="UZ169" s="45"/>
+      <c r="VA169" s="45"/>
+      <c r="VB169" s="45"/>
+      <c r="VC169" s="45"/>
+      <c r="VD169" s="45"/>
+      <c r="VE169" s="45"/>
+      <c r="VF169" s="45"/>
+      <c r="VG169" s="45"/>
+      <c r="VH169" s="45"/>
+      <c r="VI169" s="45"/>
+      <c r="VJ169" s="45"/>
+      <c r="VK169" s="45"/>
+      <c r="VL169" s="45"/>
+      <c r="VM169" s="45"/>
+      <c r="VN169" s="45"/>
+      <c r="VO169" s="45"/>
+      <c r="VP169" s="45"/>
+      <c r="VQ169" s="45"/>
+      <c r="VR169" s="45"/>
+      <c r="VS169" s="45"/>
+      <c r="VT169" s="45"/>
+      <c r="VU169" s="45"/>
+      <c r="VV169" s="45"/>
+      <c r="VW169" s="45"/>
+      <c r="VX169" s="45"/>
+      <c r="VY169" s="45"/>
+      <c r="VZ169" s="45"/>
+      <c r="WA169" s="45"/>
+      <c r="WB169" s="45"/>
+      <c r="WC169" s="45"/>
+      <c r="WD169" s="45"/>
+      <c r="WE169" s="45"/>
+      <c r="WF169" s="45"/>
+      <c r="WG169" s="45"/>
+      <c r="WH169" s="45"/>
+      <c r="WI169" s="45"/>
+      <c r="WJ169" s="45"/>
+      <c r="WK169" s="45"/>
+      <c r="WL169" s="45"/>
+      <c r="WM169" s="45"/>
+      <c r="WN169" s="45"/>
+      <c r="WO169" s="45"/>
+      <c r="WP169" s="45"/>
+      <c r="WQ169" s="45"/>
+      <c r="WR169" s="45"/>
+      <c r="WS169" s="45"/>
+      <c r="WT169" s="45"/>
+      <c r="WU169" s="45"/>
+      <c r="WV169" s="45"/>
+      <c r="WW169" s="45"/>
+      <c r="WX169" s="45"/>
+      <c r="WY169" s="45"/>
+      <c r="WZ169" s="45"/>
+      <c r="XA169" s="45"/>
+      <c r="XB169" s="45"/>
+      <c r="XC169" s="45"/>
+      <c r="XD169" s="45"/>
+      <c r="XE169" s="45"/>
+      <c r="XF169" s="45"/>
+      <c r="XG169" s="45"/>
+      <c r="XH169" s="45"/>
+      <c r="XI169" s="45"/>
+      <c r="XJ169" s="45"/>
+      <c r="XK169" s="45"/>
+      <c r="XL169" s="45"/>
+      <c r="XM169" s="45"/>
+      <c r="XN169" s="45"/>
+      <c r="XO169" s="45"/>
+      <c r="XP169" s="45"/>
+      <c r="XQ169" s="45"/>
+      <c r="XR169" s="45"/>
+      <c r="XS169" s="45"/>
+      <c r="XT169" s="45"/>
+      <c r="XU169" s="45"/>
+      <c r="XV169" s="45"/>
+      <c r="XW169" s="45"/>
+      <c r="XX169" s="45"/>
+      <c r="XY169" s="45"/>
+      <c r="XZ169" s="45"/>
+      <c r="YA169" s="45"/>
+      <c r="YB169" s="45"/>
+      <c r="YC169" s="45"/>
+      <c r="YD169" s="45"/>
+      <c r="YE169" s="45"/>
+      <c r="YF169" s="45"/>
+      <c r="YG169" s="45"/>
+      <c r="YH169" s="45"/>
+      <c r="YI169" s="45"/>
+      <c r="YJ169" s="45"/>
+      <c r="YK169" s="45"/>
+      <c r="YL169" s="45"/>
+      <c r="YM169" s="45"/>
+      <c r="YN169" s="45"/>
+      <c r="YO169" s="45"/>
+      <c r="YP169" s="45"/>
+      <c r="YQ169" s="45"/>
+      <c r="YR169" s="45"/>
+      <c r="YS169" s="45"/>
+      <c r="YT169" s="45"/>
+      <c r="YU169" s="45"/>
+      <c r="YV169" s="45"/>
+      <c r="YW169" s="45"/>
+      <c r="YX169" s="45"/>
+      <c r="YY169" s="45"/>
+      <c r="YZ169" s="45"/>
+      <c r="ZA169" s="45"/>
+      <c r="ZB169" s="45"/>
+      <c r="ZC169" s="45"/>
+      <c r="ZD169" s="45"/>
+      <c r="ZE169" s="45"/>
+      <c r="ZF169" s="45"/>
+      <c r="ZG169" s="45"/>
+      <c r="ZH169" s="45"/>
+      <c r="ZI169" s="45"/>
+      <c r="ZJ169" s="45"/>
+      <c r="ZK169" s="45"/>
+      <c r="ZL169" s="45"/>
+      <c r="ZM169" s="45"/>
+      <c r="ZN169" s="45"/>
+      <c r="ZO169" s="45"/>
+      <c r="ZP169" s="45"/>
+      <c r="ZQ169" s="45"/>
+      <c r="ZR169" s="45"/>
+      <c r="ZS169" s="45"/>
+      <c r="ZT169" s="45"/>
+      <c r="ZU169" s="45"/>
+      <c r="ZV169" s="45"/>
+      <c r="ZW169" s="45"/>
+      <c r="ZX169" s="45"/>
+      <c r="ZY169" s="45"/>
+      <c r="ZZ169" s="45"/>
+      <c r="AAA169" s="45"/>
+      <c r="AAB169" s="45"/>
+      <c r="AAC169" s="45"/>
+      <c r="AAD169" s="45"/>
+      <c r="AAE169" s="45"/>
+      <c r="AAF169" s="45"/>
+      <c r="AAG169" s="45"/>
+      <c r="AAH169" s="45"/>
+      <c r="AAI169" s="45"/>
+      <c r="AAJ169" s="45"/>
+      <c r="AAK169" s="45"/>
+      <c r="AAL169" s="45"/>
+      <c r="AAM169" s="45"/>
+      <c r="AAN169" s="45"/>
+      <c r="AAO169" s="45"/>
+      <c r="AAP169" s="45"/>
+      <c r="AAQ169" s="45"/>
+      <c r="AAR169" s="45"/>
+      <c r="AAS169" s="45"/>
+      <c r="AAT169" s="45"/>
+      <c r="AAU169" s="45"/>
+      <c r="AAV169" s="45"/>
+      <c r="AAW169" s="45"/>
+      <c r="AAX169" s="45"/>
+      <c r="AAY169" s="45"/>
+      <c r="AAZ169" s="45"/>
+      <c r="ABA169" s="45"/>
+      <c r="ABB169" s="45"/>
+      <c r="ABC169" s="45"/>
+      <c r="ABD169" s="45"/>
+      <c r="ABE169" s="45"/>
+      <c r="ABF169" s="45"/>
+      <c r="ABG169" s="45"/>
+      <c r="ABH169" s="45"/>
+      <c r="ABI169" s="45"/>
+      <c r="ABJ169" s="45"/>
+      <c r="ABK169" s="45"/>
+      <c r="ABL169" s="45"/>
+      <c r="ABM169" s="45"/>
+      <c r="ABN169" s="45"/>
+      <c r="ABO169" s="45"/>
+      <c r="ABP169" s="45"/>
+      <c r="ABQ169" s="45"/>
+      <c r="ABR169" s="45"/>
+      <c r="ABS169" s="45"/>
+      <c r="ABT169" s="45"/>
+      <c r="ABU169" s="45"/>
+      <c r="ABV169" s="45"/>
+      <c r="ABW169" s="45"/>
+      <c r="ABX169" s="45"/>
+      <c r="ABY169" s="45"/>
+      <c r="ABZ169" s="45"/>
+      <c r="ACA169" s="45"/>
+      <c r="ACB169" s="45"/>
+      <c r="ACC169" s="45"/>
+      <c r="ACD169" s="45"/>
+      <c r="ACE169" s="45"/>
+      <c r="ACF169" s="45"/>
+      <c r="ACG169" s="45"/>
+      <c r="ACH169" s="45"/>
+      <c r="ACI169" s="45"/>
+      <c r="ACJ169" s="45"/>
+      <c r="ACK169" s="45"/>
+      <c r="ACL169" s="45"/>
+      <c r="ACM169" s="45"/>
+      <c r="ACN169" s="45"/>
+      <c r="ACO169" s="45"/>
+      <c r="ACP169" s="45"/>
+      <c r="ACQ169" s="45"/>
+      <c r="ACR169" s="45"/>
+      <c r="ACS169" s="45"/>
+      <c r="ACT169" s="45"/>
+      <c r="ACU169" s="45"/>
+      <c r="ACV169" s="45"/>
+      <c r="ACW169" s="45"/>
+      <c r="ACX169" s="45"/>
+      <c r="ACY169" s="45"/>
+      <c r="ACZ169" s="45"/>
+      <c r="ADA169" s="45"/>
+      <c r="ADB169" s="45"/>
+      <c r="ADC169" s="45"/>
+      <c r="ADD169" s="45"/>
+      <c r="ADE169" s="45"/>
+      <c r="ADF169" s="45"/>
+      <c r="ADG169" s="45"/>
+      <c r="ADH169" s="45"/>
+      <c r="ADI169" s="45"/>
+      <c r="ADJ169" s="45"/>
+      <c r="ADK169" s="45"/>
+      <c r="ADL169" s="45"/>
+      <c r="ADM169" s="45"/>
+      <c r="ADN169" s="45"/>
+      <c r="ADO169" s="45"/>
+      <c r="ADP169" s="45"/>
+      <c r="ADQ169" s="45"/>
+      <c r="ADR169" s="45"/>
+      <c r="ADS169" s="45"/>
+      <c r="ADT169" s="45"/>
+      <c r="ADU169" s="45"/>
+      <c r="ADV169" s="45"/>
+      <c r="ADW169" s="45"/>
+      <c r="ADX169" s="45"/>
+      <c r="ADY169" s="45"/>
+      <c r="ADZ169" s="45"/>
+      <c r="AEA169" s="45"/>
+      <c r="AEB169" s="45"/>
+      <c r="AEC169" s="45"/>
+      <c r="AED169" s="45"/>
+      <c r="AEE169" s="45"/>
+      <c r="AEF169" s="45"/>
+      <c r="AEG169" s="45"/>
+      <c r="AEH169" s="45"/>
+      <c r="AEI169" s="45"/>
+      <c r="AEJ169" s="45"/>
+      <c r="AEK169" s="45"/>
+      <c r="AEL169" s="45"/>
+      <c r="AEM169" s="45"/>
+      <c r="AEN169" s="45"/>
+      <c r="AEO169" s="45"/>
+      <c r="AEP169" s="45"/>
+      <c r="AEQ169" s="45"/>
+      <c r="AER169" s="45"/>
+      <c r="AES169" s="45"/>
+      <c r="AET169" s="45"/>
+      <c r="AEU169" s="45"/>
+      <c r="AEV169" s="45"/>
+      <c r="AEW169" s="45"/>
+      <c r="AEX169" s="45"/>
+      <c r="AEY169" s="45"/>
+      <c r="AEZ169" s="45"/>
+      <c r="AFA169" s="45"/>
+      <c r="AFB169" s="45"/>
+      <c r="AFC169" s="45"/>
+      <c r="AFD169" s="45"/>
+      <c r="AFE169" s="45"/>
+      <c r="AFF169" s="45"/>
+      <c r="AFG169" s="45"/>
+      <c r="AFH169" s="45"/>
+      <c r="AFI169" s="45"/>
+      <c r="AFJ169" s="45"/>
+      <c r="AFK169" s="45"/>
+      <c r="AFL169" s="45"/>
+      <c r="AFM169" s="45"/>
+      <c r="AFN169" s="45"/>
+      <c r="AFO169" s="45"/>
+      <c r="AFP169" s="45"/>
+      <c r="AFQ169" s="45"/>
+      <c r="AFR169" s="45"/>
+      <c r="AFS169" s="45"/>
+      <c r="AFT169" s="45"/>
+      <c r="AFU169" s="45"/>
+      <c r="AFV169" s="45"/>
+      <c r="AFW169" s="45"/>
+      <c r="AFX169" s="45"/>
+      <c r="AFY169" s="45"/>
+      <c r="AFZ169" s="45"/>
+      <c r="AGA169" s="45"/>
+      <c r="AGB169" s="45"/>
+      <c r="AGC169" s="45"/>
+      <c r="AGD169" s="45"/>
+      <c r="AGE169" s="45"/>
+      <c r="AGF169" s="45"/>
+      <c r="AGG169" s="45"/>
+      <c r="AGH169" s="45"/>
+      <c r="AGI169" s="45"/>
+      <c r="AGJ169" s="45"/>
+      <c r="AGK169" s="45"/>
+      <c r="AGL169" s="45"/>
+      <c r="AGM169" s="45"/>
+      <c r="AGN169" s="45"/>
+      <c r="AGO169" s="45"/>
+      <c r="AGP169" s="45"/>
+      <c r="AGQ169" s="45"/>
+      <c r="AGR169" s="45"/>
+      <c r="AGS169" s="45"/>
+      <c r="AGT169" s="45"/>
+      <c r="AGU169" s="45"/>
+      <c r="AGV169" s="45"/>
+      <c r="AGW169" s="45"/>
+      <c r="AGX169" s="45"/>
+      <c r="AGY169" s="45"/>
+      <c r="AGZ169" s="45"/>
+      <c r="AHA169" s="45"/>
+      <c r="AHB169" s="45"/>
+      <c r="AHC169" s="45"/>
+      <c r="AHD169" s="45"/>
+      <c r="AHE169" s="45"/>
+      <c r="AHF169" s="45"/>
+      <c r="AHG169" s="45"/>
+      <c r="AHH169" s="45"/>
+      <c r="AHI169" s="45"/>
+      <c r="AHJ169" s="45"/>
+      <c r="AHK169" s="45"/>
+      <c r="AHL169" s="45"/>
+      <c r="AHM169" s="45"/>
+      <c r="AHN169" s="45"/>
+      <c r="AHO169" s="45"/>
+      <c r="AHP169" s="45"/>
+      <c r="AHQ169" s="45"/>
+      <c r="AHR169" s="45"/>
+      <c r="AHS169" s="45"/>
+      <c r="AHT169" s="45"/>
+      <c r="AHU169" s="45"/>
+      <c r="AHV169" s="45"/>
+      <c r="AHW169" s="45"/>
+      <c r="AHX169" s="45"/>
+      <c r="AHY169" s="45"/>
+      <c r="AHZ169" s="45"/>
+      <c r="AIA169" s="45"/>
+      <c r="AIB169" s="45"/>
+      <c r="AIC169" s="45"/>
+      <c r="AID169" s="45"/>
+      <c r="AIE169" s="45"/>
+      <c r="AIF169" s="45"/>
+      <c r="AIG169" s="45"/>
+      <c r="AIH169" s="45"/>
+      <c r="AII169" s="45"/>
+      <c r="AIJ169" s="45"/>
+      <c r="AIK169" s="45"/>
+      <c r="AIL169" s="45"/>
+      <c r="AIM169" s="45"/>
+      <c r="AIN169" s="45"/>
+      <c r="AIO169" s="45"/>
+      <c r="AIP169" s="45"/>
+      <c r="AIQ169" s="45"/>
+      <c r="AIR169" s="45"/>
+      <c r="AIS169" s="45"/>
+      <c r="AIT169" s="45"/>
+      <c r="AIU169" s="45"/>
+      <c r="AIV169" s="45"/>
+      <c r="AIW169" s="45"/>
+      <c r="AIX169" s="45"/>
+      <c r="AIY169" s="45"/>
+      <c r="AIZ169" s="45"/>
+      <c r="AJA169" s="45"/>
+      <c r="AJB169" s="45"/>
+      <c r="AJC169" s="45"/>
+      <c r="AJD169" s="45"/>
+      <c r="AJE169" s="45"/>
+      <c r="AJF169" s="45"/>
+      <c r="AJG169" s="45"/>
+      <c r="AJH169" s="45"/>
+      <c r="AJI169" s="45"/>
+      <c r="AJJ169" s="45"/>
+      <c r="AJK169" s="45"/>
+      <c r="AJL169" s="45"/>
+      <c r="AJM169" s="45"/>
+      <c r="AJN169" s="45"/>
+      <c r="AJO169" s="45"/>
+      <c r="AJP169" s="45"/>
+      <c r="AJQ169" s="45"/>
+      <c r="AJR169" s="45"/>
+      <c r="AJS169" s="45"/>
+      <c r="AJT169" s="45"/>
+      <c r="AJU169" s="45"/>
+      <c r="AJV169" s="45"/>
+      <c r="AJW169" s="45"/>
+      <c r="AJX169" s="45"/>
+      <c r="AJY169" s="45"/>
+      <c r="AJZ169" s="45"/>
+      <c r="AKA169" s="45"/>
+      <c r="AKB169" s="45"/>
+      <c r="AKC169" s="45"/>
+      <c r="AKD169" s="45"/>
+      <c r="AKE169" s="45"/>
+      <c r="AKF169" s="45"/>
+      <c r="AKG169" s="45"/>
+      <c r="AKH169" s="45"/>
+      <c r="AKI169" s="45"/>
+      <c r="AKJ169" s="45"/>
+      <c r="AKK169" s="45"/>
+      <c r="AKL169" s="45"/>
+      <c r="AKM169" s="45"/>
+      <c r="AKN169" s="45"/>
+      <c r="AKO169" s="45"/>
+      <c r="AKP169" s="45"/>
+      <c r="AKQ169" s="45"/>
+      <c r="AKR169" s="45"/>
+      <c r="AKS169" s="45"/>
+      <c r="AKT169" s="45"/>
+      <c r="AKU169" s="45"/>
+      <c r="AKV169" s="45"/>
+      <c r="AKW169" s="45"/>
+      <c r="AKX169" s="45"/>
+      <c r="AKY169" s="45"/>
+      <c r="AKZ169" s="45"/>
+      <c r="ALA169" s="45"/>
+      <c r="ALB169" s="45"/>
+      <c r="ALC169" s="45"/>
+      <c r="ALD169" s="45"/>
+      <c r="ALE169" s="45"/>
+      <c r="ALF169" s="45"/>
+      <c r="ALG169" s="45"/>
+      <c r="ALH169" s="45"/>
+      <c r="ALI169" s="45"/>
+      <c r="ALJ169" s="45"/>
+      <c r="ALK169" s="45"/>
+      <c r="ALL169" s="45"/>
+      <c r="ALM169" s="45"/>
+      <c r="ALN169" s="45"/>
+      <c r="ALO169" s="45"/>
+      <c r="ALP169" s="45"/>
+      <c r="ALQ169" s="45"/>
+      <c r="ALR169" s="45"/>
+      <c r="ALS169" s="45"/>
+      <c r="ALT169" s="45"/>
+      <c r="ALU169" s="45"/>
+      <c r="ALV169" s="45"/>
+      <c r="ALW169" s="45"/>
+      <c r="ALX169" s="45"/>
+      <c r="ALY169" s="45"/>
+      <c r="ALZ169" s="45"/>
+      <c r="AMA169" s="45"/>
+      <c r="AMB169" s="45"/>
+      <c r="AMC169" s="45"/>
+      <c r="AMD169" s="45"/>
+      <c r="AME169" s="45"/>
+      <c r="AMF169" s="45"/>
+      <c r="AMG169" s="45"/>
+      <c r="AMH169" s="45"/>
+      <c r="AMI169" s="45"/>
+      <c r="AMJ169" s="45"/>
+    </row>
+    <row r="170" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B170" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C170" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="M170" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N170" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="O170" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="P170" s="41"/>
+      <c r="Q170" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="R170" s="45"/>
+      <c r="S170" s="45"/>
+      <c r="T170" s="45"/>
+      <c r="U170" s="45"/>
+      <c r="V170" s="45"/>
+      <c r="W170" s="45"/>
+      <c r="X170" s="45"/>
+      <c r="Y170" s="45"/>
+      <c r="Z170" s="45"/>
+      <c r="AA170" s="45"/>
+      <c r="AB170" s="45"/>
+      <c r="AC170" s="45"/>
+      <c r="AD170" s="45"/>
+      <c r="AE170" s="45"/>
+      <c r="AF170" s="45"/>
+      <c r="AG170" s="45"/>
+      <c r="AH170" s="45"/>
+      <c r="AI170" s="45"/>
+      <c r="AJ170" s="45"/>
+      <c r="AK170" s="45"/>
+      <c r="AL170" s="45"/>
+      <c r="AM170" s="45"/>
+      <c r="AN170" s="45"/>
+      <c r="AO170" s="45"/>
+      <c r="AP170" s="45"/>
+      <c r="AQ170" s="45"/>
+      <c r="AR170" s="45"/>
+      <c r="AS170" s="45"/>
+      <c r="AT170" s="45"/>
+      <c r="AU170" s="45"/>
+      <c r="AV170" s="45"/>
+      <c r="AW170" s="45"/>
+      <c r="AX170" s="45"/>
+      <c r="AY170" s="45"/>
+      <c r="AZ170" s="45"/>
+      <c r="BA170" s="45"/>
+      <c r="BB170" s="45"/>
+      <c r="BC170" s="45"/>
+      <c r="BD170" s="45"/>
+      <c r="BE170" s="45"/>
+      <c r="BF170" s="45"/>
+      <c r="BG170" s="45"/>
+      <c r="BH170" s="45"/>
+      <c r="BI170" s="45"/>
+      <c r="BJ170" s="45"/>
+      <c r="BK170" s="45"/>
+      <c r="BL170" s="45"/>
+      <c r="BM170" s="45"/>
+      <c r="BN170" s="45"/>
+      <c r="BO170" s="45"/>
+      <c r="BP170" s="45"/>
+      <c r="BQ170" s="45"/>
+      <c r="BR170" s="45"/>
+      <c r="BS170" s="45"/>
+      <c r="BT170" s="45"/>
+      <c r="BU170" s="45"/>
+      <c r="BV170" s="45"/>
+      <c r="BW170" s="45"/>
+      <c r="BX170" s="45"/>
+      <c r="BY170" s="45"/>
+      <c r="BZ170" s="45"/>
+      <c r="CA170" s="45"/>
+      <c r="CB170" s="45"/>
+      <c r="CC170" s="45"/>
+      <c r="CD170" s="45"/>
+      <c r="CE170" s="45"/>
+      <c r="CF170" s="45"/>
+      <c r="CG170" s="45"/>
+      <c r="CH170" s="45"/>
+      <c r="CI170" s="45"/>
+      <c r="CJ170" s="45"/>
+      <c r="CK170" s="45"/>
+      <c r="CL170" s="45"/>
+      <c r="CM170" s="45"/>
+      <c r="CN170" s="45"/>
+      <c r="CO170" s="45"/>
+      <c r="CP170" s="45"/>
+      <c r="CQ170" s="45"/>
+      <c r="CR170" s="45"/>
+      <c r="CS170" s="45"/>
+      <c r="CT170" s="45"/>
+      <c r="CU170" s="45"/>
+      <c r="CV170" s="45"/>
+      <c r="CW170" s="45"/>
+      <c r="CX170" s="45"/>
+      <c r="CY170" s="45"/>
+      <c r="CZ170" s="45"/>
+      <c r="DA170" s="45"/>
+      <c r="DB170" s="45"/>
+      <c r="DC170" s="45"/>
+      <c r="DD170" s="45"/>
+      <c r="DE170" s="45"/>
+      <c r="DF170" s="45"/>
+      <c r="DG170" s="45"/>
+      <c r="DH170" s="45"/>
+      <c r="DI170" s="45"/>
+      <c r="DJ170" s="45"/>
+      <c r="DK170" s="45"/>
+      <c r="DL170" s="45"/>
+      <c r="DM170" s="45"/>
+      <c r="DN170" s="45"/>
+      <c r="DO170" s="45"/>
+      <c r="DP170" s="45"/>
+      <c r="DQ170" s="45"/>
+      <c r="DR170" s="45"/>
+      <c r="DS170" s="45"/>
+      <c r="DT170" s="45"/>
+      <c r="DU170" s="45"/>
+      <c r="DV170" s="45"/>
+      <c r="DW170" s="45"/>
+      <c r="DX170" s="45"/>
+      <c r="DY170" s="45"/>
+      <c r="DZ170" s="45"/>
+      <c r="EA170" s="45"/>
+      <c r="EB170" s="45"/>
+      <c r="EC170" s="45"/>
+      <c r="ED170" s="45"/>
+      <c r="EE170" s="45"/>
+      <c r="EF170" s="45"/>
+      <c r="EG170" s="45"/>
+      <c r="EH170" s="45"/>
+      <c r="EI170" s="45"/>
+      <c r="EJ170" s="45"/>
+      <c r="EK170" s="45"/>
+      <c r="EL170" s="45"/>
+      <c r="EM170" s="45"/>
+      <c r="EN170" s="45"/>
+      <c r="EO170" s="45"/>
+      <c r="EP170" s="45"/>
+      <c r="EQ170" s="45"/>
+      <c r="ER170" s="45"/>
+      <c r="ES170" s="45"/>
+      <c r="ET170" s="45"/>
+      <c r="EU170" s="45"/>
+      <c r="EV170" s="45"/>
+      <c r="EW170" s="45"/>
+      <c r="EX170" s="45"/>
+      <c r="EY170" s="45"/>
+      <c r="EZ170" s="45"/>
+      <c r="FA170" s="45"/>
+      <c r="FB170" s="45"/>
+      <c r="FC170" s="45"/>
+      <c r="FD170" s="45"/>
+      <c r="FE170" s="45"/>
+      <c r="FF170" s="45"/>
+      <c r="FG170" s="45"/>
+      <c r="FH170" s="45"/>
+      <c r="FI170" s="45"/>
+      <c r="FJ170" s="45"/>
+      <c r="FK170" s="45"/>
+      <c r="FL170" s="45"/>
+      <c r="FM170" s="45"/>
+      <c r="FN170" s="45"/>
+      <c r="FO170" s="45"/>
+      <c r="FP170" s="45"/>
+      <c r="FQ170" s="45"/>
+      <c r="FR170" s="45"/>
+      <c r="FS170" s="45"/>
+      <c r="FT170" s="45"/>
+      <c r="FU170" s="45"/>
+      <c r="FV170" s="45"/>
+      <c r="FW170" s="45"/>
+      <c r="FX170" s="45"/>
+      <c r="FY170" s="45"/>
+      <c r="FZ170" s="45"/>
+      <c r="GA170" s="45"/>
+      <c r="GB170" s="45"/>
+      <c r="GC170" s="45"/>
+      <c r="GD170" s="45"/>
+      <c r="GE170" s="45"/>
+      <c r="GF170" s="45"/>
+      <c r="GG170" s="45"/>
+      <c r="GH170" s="45"/>
+      <c r="GI170" s="45"/>
+      <c r="GJ170" s="45"/>
+      <c r="GK170" s="45"/>
+      <c r="GL170" s="45"/>
+      <c r="GM170" s="45"/>
+      <c r="GN170" s="45"/>
+      <c r="GO170" s="45"/>
+      <c r="GP170" s="45"/>
+      <c r="GQ170" s="45"/>
+      <c r="GR170" s="45"/>
+      <c r="GS170" s="45"/>
+      <c r="GT170" s="45"/>
+      <c r="GU170" s="45"/>
+      <c r="GV170" s="45"/>
+      <c r="GW170" s="45"/>
+      <c r="GX170" s="45"/>
+      <c r="GY170" s="45"/>
+      <c r="GZ170" s="45"/>
+      <c r="HA170" s="45"/>
+      <c r="HB170" s="45"/>
+      <c r="HC170" s="45"/>
+      <c r="HD170" s="45"/>
+      <c r="HE170" s="45"/>
+      <c r="HF170" s="45"/>
+      <c r="HG170" s="45"/>
+      <c r="HH170" s="45"/>
+      <c r="HI170" s="45"/>
+      <c r="HJ170" s="45"/>
+      <c r="HK170" s="45"/>
+      <c r="HL170" s="45"/>
+      <c r="HM170" s="45"/>
+      <c r="HN170" s="45"/>
+      <c r="HO170" s="45"/>
+      <c r="HP170" s="45"/>
+      <c r="HQ170" s="45"/>
+      <c r="HR170" s="45"/>
+      <c r="HS170" s="45"/>
+      <c r="HT170" s="45"/>
+      <c r="HU170" s="45"/>
+      <c r="HV170" s="45"/>
+      <c r="HW170" s="45"/>
+      <c r="HX170" s="45"/>
+      <c r="HY170" s="45"/>
+      <c r="HZ170" s="45"/>
+      <c r="IA170" s="45"/>
+      <c r="IB170" s="45"/>
+      <c r="IC170" s="45"/>
+      <c r="ID170" s="45"/>
+      <c r="IE170" s="45"/>
+      <c r="IF170" s="45"/>
+      <c r="IG170" s="45"/>
+      <c r="IH170" s="45"/>
+      <c r="II170" s="45"/>
+      <c r="IJ170" s="45"/>
+      <c r="IK170" s="45"/>
+      <c r="IL170" s="45"/>
+      <c r="IM170" s="45"/>
+      <c r="IN170" s="45"/>
+      <c r="IO170" s="45"/>
+      <c r="IP170" s="45"/>
+      <c r="IQ170" s="45"/>
+      <c r="IR170" s="45"/>
+      <c r="IS170" s="45"/>
+      <c r="IT170" s="45"/>
+      <c r="IU170" s="45"/>
+      <c r="IV170" s="45"/>
+      <c r="IW170" s="45"/>
+      <c r="IX170" s="45"/>
+      <c r="IY170" s="45"/>
+      <c r="IZ170" s="45"/>
+      <c r="JA170" s="45"/>
+      <c r="JB170" s="45"/>
+      <c r="JC170" s="45"/>
+      <c r="JD170" s="45"/>
+      <c r="JE170" s="45"/>
+      <c r="JF170" s="45"/>
+      <c r="JG170" s="45"/>
+      <c r="JH170" s="45"/>
+      <c r="JI170" s="45"/>
+      <c r="JJ170" s="45"/>
+      <c r="JK170" s="45"/>
+      <c r="JL170" s="45"/>
+      <c r="JM170" s="45"/>
+      <c r="JN170" s="45"/>
+      <c r="JO170" s="45"/>
+      <c r="JP170" s="45"/>
+      <c r="JQ170" s="45"/>
+      <c r="JR170" s="45"/>
+      <c r="JS170" s="45"/>
+      <c r="JT170" s="45"/>
+      <c r="JU170" s="45"/>
+      <c r="JV170" s="45"/>
+      <c r="JW170" s="45"/>
+      <c r="JX170" s="45"/>
+      <c r="JY170" s="45"/>
+      <c r="JZ170" s="45"/>
+      <c r="KA170" s="45"/>
+      <c r="KB170" s="45"/>
+      <c r="KC170" s="45"/>
+      <c r="KD170" s="45"/>
+      <c r="KE170" s="45"/>
+      <c r="KF170" s="45"/>
+      <c r="KG170" s="45"/>
+      <c r="KH170" s="45"/>
+      <c r="KI170" s="45"/>
+      <c r="KJ170" s="45"/>
+      <c r="KK170" s="45"/>
+      <c r="KL170" s="45"/>
+      <c r="KM170" s="45"/>
+      <c r="KN170" s="45"/>
+      <c r="KO170" s="45"/>
+      <c r="KP170" s="45"/>
+      <c r="KQ170" s="45"/>
+      <c r="KR170" s="45"/>
+      <c r="KS170" s="45"/>
+      <c r="KT170" s="45"/>
+      <c r="KU170" s="45"/>
+      <c r="KV170" s="45"/>
+      <c r="KW170" s="45"/>
+      <c r="KX170" s="45"/>
+      <c r="KY170" s="45"/>
+      <c r="KZ170" s="45"/>
+      <c r="LA170" s="45"/>
+      <c r="LB170" s="45"/>
+      <c r="LC170" s="45"/>
+      <c r="LD170" s="45"/>
+      <c r="LE170" s="45"/>
+      <c r="LF170" s="45"/>
+      <c r="LG170" s="45"/>
+      <c r="LH170" s="45"/>
+      <c r="LI170" s="45"/>
+      <c r="LJ170" s="45"/>
+      <c r="LK170" s="45"/>
+      <c r="LL170" s="45"/>
+      <c r="LM170" s="45"/>
+      <c r="LN170" s="45"/>
+      <c r="LO170" s="45"/>
+      <c r="LP170" s="45"/>
+      <c r="LQ170" s="45"/>
+      <c r="LR170" s="45"/>
+      <c r="LS170" s="45"/>
+      <c r="LT170" s="45"/>
+      <c r="LU170" s="45"/>
+      <c r="LV170" s="45"/>
+      <c r="LW170" s="45"/>
+      <c r="LX170" s="45"/>
+      <c r="LY170" s="45"/>
+      <c r="LZ170" s="45"/>
+      <c r="MA170" s="45"/>
+      <c r="MB170" s="45"/>
+      <c r="MC170" s="45"/>
+      <c r="MD170" s="45"/>
+      <c r="ME170" s="45"/>
+      <c r="MF170" s="45"/>
+      <c r="MG170" s="45"/>
+      <c r="MH170" s="45"/>
+      <c r="MI170" s="45"/>
+      <c r="MJ170" s="45"/>
+      <c r="MK170" s="45"/>
+      <c r="ML170" s="45"/>
+      <c r="MM170" s="45"/>
+      <c r="MN170" s="45"/>
+      <c r="MO170" s="45"/>
+      <c r="MP170" s="45"/>
+      <c r="MQ170" s="45"/>
+      <c r="MR170" s="45"/>
+      <c r="MS170" s="45"/>
+      <c r="MT170" s="45"/>
+      <c r="MU170" s="45"/>
+      <c r="MV170" s="45"/>
+      <c r="MW170" s="45"/>
+      <c r="MX170" s="45"/>
+      <c r="MY170" s="45"/>
+      <c r="MZ170" s="45"/>
+      <c r="NA170" s="45"/>
+      <c r="NB170" s="45"/>
+      <c r="NC170" s="45"/>
+      <c r="ND170" s="45"/>
+      <c r="NE170" s="45"/>
+      <c r="NF170" s="45"/>
+      <c r="NG170" s="45"/>
+      <c r="NH170" s="45"/>
+      <c r="NI170" s="45"/>
+      <c r="NJ170" s="45"/>
+      <c r="NK170" s="45"/>
+      <c r="NL170" s="45"/>
+      <c r="NM170" s="45"/>
+      <c r="NN170" s="45"/>
+      <c r="NO170" s="45"/>
+      <c r="NP170" s="45"/>
+      <c r="NQ170" s="45"/>
+      <c r="NR170" s="45"/>
+      <c r="NS170" s="45"/>
+      <c r="NT170" s="45"/>
+      <c r="NU170" s="45"/>
+      <c r="NV170" s="45"/>
+      <c r="NW170" s="45"/>
+      <c r="NX170" s="45"/>
+      <c r="NY170" s="45"/>
+      <c r="NZ170" s="45"/>
+      <c r="OA170" s="45"/>
+      <c r="OB170" s="45"/>
+      <c r="OC170" s="45"/>
+      <c r="OD170" s="45"/>
+      <c r="OE170" s="45"/>
+      <c r="OF170" s="45"/>
+      <c r="OG170" s="45"/>
+      <c r="OH170" s="45"/>
+      <c r="OI170" s="45"/>
+      <c r="OJ170" s="45"/>
+      <c r="OK170" s="45"/>
+      <c r="OL170" s="45"/>
+      <c r="OM170" s="45"/>
+      <c r="ON170" s="45"/>
+      <c r="OO170" s="45"/>
+      <c r="OP170" s="45"/>
+      <c r="OQ170" s="45"/>
+      <c r="OR170" s="45"/>
+      <c r="OS170" s="45"/>
+      <c r="OT170" s="45"/>
+      <c r="OU170" s="45"/>
+      <c r="OV170" s="45"/>
+      <c r="OW170" s="45"/>
+      <c r="OX170" s="45"/>
+      <c r="OY170" s="45"/>
+      <c r="OZ170" s="45"/>
+      <c r="PA170" s="45"/>
+      <c r="PB170" s="45"/>
+      <c r="PC170" s="45"/>
+      <c r="PD170" s="45"/>
+      <c r="PE170" s="45"/>
+      <c r="PF170" s="45"/>
+      <c r="PG170" s="45"/>
+      <c r="PH170" s="45"/>
+      <c r="PI170" s="45"/>
+      <c r="PJ170" s="45"/>
+      <c r="PK170" s="45"/>
+      <c r="PL170" s="45"/>
+      <c r="PM170" s="45"/>
+      <c r="PN170" s="45"/>
+      <c r="PO170" s="45"/>
+      <c r="PP170" s="45"/>
+      <c r="PQ170" s="45"/>
+      <c r="PR170" s="45"/>
+      <c r="PS170" s="45"/>
+      <c r="PT170" s="45"/>
+      <c r="PU170" s="45"/>
+      <c r="PV170" s="45"/>
+      <c r="PW170" s="45"/>
+      <c r="PX170" s="45"/>
+      <c r="PY170" s="45"/>
+      <c r="PZ170" s="45"/>
+      <c r="QA170" s="45"/>
+      <c r="QB170" s="45"/>
+      <c r="QC170" s="45"/>
+      <c r="QD170" s="45"/>
+      <c r="QE170" s="45"/>
+      <c r="QF170" s="45"/>
+      <c r="QG170" s="45"/>
+      <c r="QH170" s="45"/>
+      <c r="QI170" s="45"/>
+      <c r="QJ170" s="45"/>
+      <c r="QK170" s="45"/>
+      <c r="QL170" s="45"/>
+      <c r="QM170" s="45"/>
+      <c r="QN170" s="45"/>
+      <c r="QO170" s="45"/>
+      <c r="QP170" s="45"/>
+      <c r="QQ170" s="45"/>
+      <c r="QR170" s="45"/>
+      <c r="QS170" s="45"/>
+      <c r="QT170" s="45"/>
+      <c r="QU170" s="45"/>
+      <c r="QV170" s="45"/>
+      <c r="QW170" s="45"/>
+      <c r="QX170" s="45"/>
+      <c r="QY170" s="45"/>
+      <c r="QZ170" s="45"/>
+      <c r="RA170" s="45"/>
+      <c r="RB170" s="45"/>
+      <c r="RC170" s="45"/>
+      <c r="RD170" s="45"/>
+      <c r="RE170" s="45"/>
+      <c r="RF170" s="45"/>
+      <c r="RG170" s="45"/>
+      <c r="RH170" s="45"/>
+      <c r="RI170" s="45"/>
+      <c r="RJ170" s="45"/>
+      <c r="RK170" s="45"/>
+      <c r="RL170" s="45"/>
+      <c r="RM170" s="45"/>
+      <c r="RN170" s="45"/>
+      <c r="RO170" s="45"/>
+      <c r="RP170" s="45"/>
+      <c r="RQ170" s="45"/>
+      <c r="RR170" s="45"/>
+      <c r="RS170" s="45"/>
+      <c r="RT170" s="45"/>
+      <c r="RU170" s="45"/>
+      <c r="RV170" s="45"/>
+      <c r="RW170" s="45"/>
+      <c r="RX170" s="45"/>
+      <c r="RY170" s="45"/>
+      <c r="RZ170" s="45"/>
+      <c r="SA170" s="45"/>
+      <c r="SB170" s="45"/>
+      <c r="SC170" s="45"/>
+      <c r="SD170" s="45"/>
+      <c r="SE170" s="45"/>
+      <c r="SF170" s="45"/>
+      <c r="SG170" s="45"/>
+      <c r="SH170" s="45"/>
+      <c r="SI170" s="45"/>
+      <c r="SJ170" s="45"/>
+      <c r="SK170" s="45"/>
+      <c r="SL170" s="45"/>
+      <c r="SM170" s="45"/>
+      <c r="SN170" s="45"/>
+      <c r="SO170" s="45"/>
+      <c r="SP170" s="45"/>
+      <c r="SQ170" s="45"/>
+      <c r="SR170" s="45"/>
+      <c r="SS170" s="45"/>
+      <c r="ST170" s="45"/>
+      <c r="SU170" s="45"/>
+      <c r="SV170" s="45"/>
+      <c r="SW170" s="45"/>
+      <c r="SX170" s="45"/>
+      <c r="SY170" s="45"/>
+      <c r="SZ170" s="45"/>
+      <c r="TA170" s="45"/>
+      <c r="TB170" s="45"/>
+      <c r="TC170" s="45"/>
+      <c r="TD170" s="45"/>
+      <c r="TE170" s="45"/>
+      <c r="TF170" s="45"/>
+      <c r="TG170" s="45"/>
+      <c r="TH170" s="45"/>
+      <c r="TI170" s="45"/>
+      <c r="TJ170" s="45"/>
+      <c r="TK170" s="45"/>
+      <c r="TL170" s="45"/>
+      <c r="TM170" s="45"/>
+      <c r="TN170" s="45"/>
+      <c r="TO170" s="45"/>
+      <c r="TP170" s="45"/>
+      <c r="TQ170" s="45"/>
+      <c r="TR170" s="45"/>
+      <c r="TS170" s="45"/>
+      <c r="TT170" s="45"/>
+      <c r="TU170" s="45"/>
+      <c r="TV170" s="45"/>
+      <c r="TW170" s="45"/>
+      <c r="TX170" s="45"/>
+      <c r="TY170" s="45"/>
+      <c r="TZ170" s="45"/>
+      <c r="UA170" s="45"/>
+      <c r="UB170" s="45"/>
+      <c r="UC170" s="45"/>
+      <c r="UD170" s="45"/>
+      <c r="UE170" s="45"/>
+      <c r="UF170" s="45"/>
+      <c r="UG170" s="45"/>
+      <c r="UH170" s="45"/>
+      <c r="UI170" s="45"/>
+      <c r="UJ170" s="45"/>
+      <c r="UK170" s="45"/>
+      <c r="UL170" s="45"/>
+      <c r="UM170" s="45"/>
+      <c r="UN170" s="45"/>
+      <c r="UO170" s="45"/>
+      <c r="UP170" s="45"/>
+      <c r="UQ170" s="45"/>
+      <c r="UR170" s="45"/>
+      <c r="US170" s="45"/>
+      <c r="UT170" s="45"/>
+      <c r="UU170" s="45"/>
+      <c r="UV170" s="45"/>
+      <c r="UW170" s="45"/>
+      <c r="UX170" s="45"/>
+      <c r="UY170" s="45"/>
+      <c r="UZ170" s="45"/>
+      <c r="VA170" s="45"/>
+      <c r="VB170" s="45"/>
+      <c r="VC170" s="45"/>
+      <c r="VD170" s="45"/>
+      <c r="VE170" s="45"/>
+      <c r="VF170" s="45"/>
+      <c r="VG170" s="45"/>
+      <c r="VH170" s="45"/>
+      <c r="VI170" s="45"/>
+      <c r="VJ170" s="45"/>
+      <c r="VK170" s="45"/>
+      <c r="VL170" s="45"/>
+      <c r="VM170" s="45"/>
+      <c r="VN170" s="45"/>
+      <c r="VO170" s="45"/>
+      <c r="VP170" s="45"/>
+      <c r="VQ170" s="45"/>
+      <c r="VR170" s="45"/>
+      <c r="VS170" s="45"/>
+      <c r="VT170" s="45"/>
+      <c r="VU170" s="45"/>
+      <c r="VV170" s="45"/>
+      <c r="VW170" s="45"/>
+      <c r="VX170" s="45"/>
+      <c r="VY170" s="45"/>
+      <c r="VZ170" s="45"/>
+      <c r="WA170" s="45"/>
+      <c r="WB170" s="45"/>
+      <c r="WC170" s="45"/>
+      <c r="WD170" s="45"/>
+      <c r="WE170" s="45"/>
+      <c r="WF170" s="45"/>
+      <c r="WG170" s="45"/>
+      <c r="WH170" s="45"/>
+      <c r="WI170" s="45"/>
+      <c r="WJ170" s="45"/>
+      <c r="WK170" s="45"/>
+      <c r="WL170" s="45"/>
+      <c r="WM170" s="45"/>
+      <c r="WN170" s="45"/>
+      <c r="WO170" s="45"/>
+      <c r="WP170" s="45"/>
+      <c r="WQ170" s="45"/>
+      <c r="WR170" s="45"/>
+      <c r="WS170" s="45"/>
+      <c r="WT170" s="45"/>
+      <c r="WU170" s="45"/>
+      <c r="WV170" s="45"/>
+      <c r="WW170" s="45"/>
+      <c r="WX170" s="45"/>
+      <c r="WY170" s="45"/>
+      <c r="WZ170" s="45"/>
+      <c r="XA170" s="45"/>
+      <c r="XB170" s="45"/>
+      <c r="XC170" s="45"/>
+      <c r="XD170" s="45"/>
+      <c r="XE170" s="45"/>
+      <c r="XF170" s="45"/>
+      <c r="XG170" s="45"/>
+      <c r="XH170" s="45"/>
+      <c r="XI170" s="45"/>
+      <c r="XJ170" s="45"/>
+      <c r="XK170" s="45"/>
+      <c r="XL170" s="45"/>
+      <c r="XM170" s="45"/>
+      <c r="XN170" s="45"/>
+      <c r="XO170" s="45"/>
+      <c r="XP170" s="45"/>
+      <c r="XQ170" s="45"/>
+      <c r="XR170" s="45"/>
+      <c r="XS170" s="45"/>
+      <c r="XT170" s="45"/>
+      <c r="XU170" s="45"/>
+      <c r="XV170" s="45"/>
+      <c r="XW170" s="45"/>
+      <c r="XX170" s="45"/>
+      <c r="XY170" s="45"/>
+      <c r="XZ170" s="45"/>
+      <c r="YA170" s="45"/>
+      <c r="YB170" s="45"/>
+      <c r="YC170" s="45"/>
+      <c r="YD170" s="45"/>
+      <c r="YE170" s="45"/>
+      <c r="YF170" s="45"/>
+      <c r="YG170" s="45"/>
+      <c r="YH170" s="45"/>
+      <c r="YI170" s="45"/>
+      <c r="YJ170" s="45"/>
+      <c r="YK170" s="45"/>
+      <c r="YL170" s="45"/>
+      <c r="YM170" s="45"/>
+      <c r="YN170" s="45"/>
+      <c r="YO170" s="45"/>
+      <c r="YP170" s="45"/>
+      <c r="YQ170" s="45"/>
+      <c r="YR170" s="45"/>
+      <c r="YS170" s="45"/>
+      <c r="YT170" s="45"/>
+      <c r="YU170" s="45"/>
+      <c r="YV170" s="45"/>
+      <c r="YW170" s="45"/>
+      <c r="YX170" s="45"/>
+      <c r="YY170" s="45"/>
+      <c r="YZ170" s="45"/>
+      <c r="ZA170" s="45"/>
+      <c r="ZB170" s="45"/>
+      <c r="ZC170" s="45"/>
+      <c r="ZD170" s="45"/>
+      <c r="ZE170" s="45"/>
+      <c r="ZF170" s="45"/>
+      <c r="ZG170" s="45"/>
+      <c r="ZH170" s="45"/>
+      <c r="ZI170" s="45"/>
+      <c r="ZJ170" s="45"/>
+      <c r="ZK170" s="45"/>
+      <c r="ZL170" s="45"/>
+      <c r="ZM170" s="45"/>
+      <c r="ZN170" s="45"/>
+      <c r="ZO170" s="45"/>
+      <c r="ZP170" s="45"/>
+      <c r="ZQ170" s="45"/>
+      <c r="ZR170" s="45"/>
+      <c r="ZS170" s="45"/>
+      <c r="ZT170" s="45"/>
+      <c r="ZU170" s="45"/>
+      <c r="ZV170" s="45"/>
+      <c r="ZW170" s="45"/>
+      <c r="ZX170" s="45"/>
+      <c r="ZY170" s="45"/>
+      <c r="ZZ170" s="45"/>
+      <c r="AAA170" s="45"/>
+      <c r="AAB170" s="45"/>
+      <c r="AAC170" s="45"/>
+      <c r="AAD170" s="45"/>
+      <c r="AAE170" s="45"/>
+      <c r="AAF170" s="45"/>
+      <c r="AAG170" s="45"/>
+      <c r="AAH170" s="45"/>
+      <c r="AAI170" s="45"/>
+      <c r="AAJ170" s="45"/>
+      <c r="AAK170" s="45"/>
+      <c r="AAL170" s="45"/>
+      <c r="AAM170" s="45"/>
+      <c r="AAN170" s="45"/>
+      <c r="AAO170" s="45"/>
+      <c r="AAP170" s="45"/>
+      <c r="AAQ170" s="45"/>
+      <c r="AAR170" s="45"/>
+      <c r="AAS170" s="45"/>
+      <c r="AAT170" s="45"/>
+      <c r="AAU170" s="45"/>
+      <c r="AAV170" s="45"/>
+      <c r="AAW170" s="45"/>
+      <c r="AAX170" s="45"/>
+      <c r="AAY170" s="45"/>
+      <c r="AAZ170" s="45"/>
+      <c r="ABA170" s="45"/>
+      <c r="ABB170" s="45"/>
+      <c r="ABC170" s="45"/>
+      <c r="ABD170" s="45"/>
+      <c r="ABE170" s="45"/>
+      <c r="ABF170" s="45"/>
+      <c r="ABG170" s="45"/>
+      <c r="ABH170" s="45"/>
+      <c r="ABI170" s="45"/>
+      <c r="ABJ170" s="45"/>
+      <c r="ABK170" s="45"/>
+      <c r="ABL170" s="45"/>
+      <c r="ABM170" s="45"/>
+      <c r="ABN170" s="45"/>
+      <c r="ABO170" s="45"/>
+      <c r="ABP170" s="45"/>
+      <c r="ABQ170" s="45"/>
+      <c r="ABR170" s="45"/>
+      <c r="ABS170" s="45"/>
+      <c r="ABT170" s="45"/>
+      <c r="ABU170" s="45"/>
+      <c r="ABV170" s="45"/>
+      <c r="ABW170" s="45"/>
+      <c r="ABX170" s="45"/>
+      <c r="ABY170" s="45"/>
+      <c r="ABZ170" s="45"/>
+      <c r="ACA170" s="45"/>
+      <c r="ACB170" s="45"/>
+      <c r="ACC170" s="45"/>
+      <c r="ACD170" s="45"/>
+      <c r="ACE170" s="45"/>
+      <c r="ACF170" s="45"/>
+      <c r="ACG170" s="45"/>
+      <c r="ACH170" s="45"/>
+      <c r="ACI170" s="45"/>
+      <c r="ACJ170" s="45"/>
+      <c r="ACK170" s="45"/>
+      <c r="ACL170" s="45"/>
+      <c r="ACM170" s="45"/>
+      <c r="ACN170" s="45"/>
+      <c r="ACO170" s="45"/>
+      <c r="ACP170" s="45"/>
+      <c r="ACQ170" s="45"/>
+      <c r="ACR170" s="45"/>
+      <c r="ACS170" s="45"/>
+      <c r="ACT170" s="45"/>
+      <c r="ACU170" s="45"/>
+      <c r="ACV170" s="45"/>
+      <c r="ACW170" s="45"/>
+      <c r="ACX170" s="45"/>
+      <c r="ACY170" s="45"/>
+      <c r="ACZ170" s="45"/>
+      <c r="ADA170" s="45"/>
+      <c r="ADB170" s="45"/>
+      <c r="ADC170" s="45"/>
+      <c r="ADD170" s="45"/>
+      <c r="ADE170" s="45"/>
+      <c r="ADF170" s="45"/>
+      <c r="ADG170" s="45"/>
+      <c r="ADH170" s="45"/>
+      <c r="ADI170" s="45"/>
+      <c r="ADJ170" s="45"/>
+      <c r="ADK170" s="45"/>
+      <c r="ADL170" s="45"/>
+      <c r="ADM170" s="45"/>
+      <c r="ADN170" s="45"/>
+      <c r="ADO170" s="45"/>
+      <c r="ADP170" s="45"/>
+      <c r="ADQ170" s="45"/>
+      <c r="ADR170" s="45"/>
+      <c r="ADS170" s="45"/>
+      <c r="ADT170" s="45"/>
+      <c r="ADU170" s="45"/>
+      <c r="ADV170" s="45"/>
+      <c r="ADW170" s="45"/>
+      <c r="ADX170" s="45"/>
+      <c r="ADY170" s="45"/>
+      <c r="ADZ170" s="45"/>
+      <c r="AEA170" s="45"/>
+      <c r="AEB170" s="45"/>
+      <c r="AEC170" s="45"/>
+      <c r="AED170" s="45"/>
+      <c r="AEE170" s="45"/>
+      <c r="AEF170" s="45"/>
+      <c r="AEG170" s="45"/>
+      <c r="AEH170" s="45"/>
+      <c r="AEI170" s="45"/>
+      <c r="AEJ170" s="45"/>
+      <c r="AEK170" s="45"/>
+      <c r="AEL170" s="45"/>
+      <c r="AEM170" s="45"/>
+      <c r="AEN170" s="45"/>
+      <c r="AEO170" s="45"/>
+      <c r="AEP170" s="45"/>
+      <c r="AEQ170" s="45"/>
+      <c r="AER170" s="45"/>
+      <c r="AES170" s="45"/>
+      <c r="AET170" s="45"/>
+      <c r="AEU170" s="45"/>
+      <c r="AEV170" s="45"/>
+      <c r="AEW170" s="45"/>
+      <c r="AEX170" s="45"/>
+      <c r="AEY170" s="45"/>
+      <c r="AEZ170" s="45"/>
+      <c r="AFA170" s="45"/>
+      <c r="AFB170" s="45"/>
+      <c r="AFC170" s="45"/>
+      <c r="AFD170" s="45"/>
+      <c r="AFE170" s="45"/>
+      <c r="AFF170" s="45"/>
+      <c r="AFG170" s="45"/>
+      <c r="AFH170" s="45"/>
+      <c r="AFI170" s="45"/>
+      <c r="AFJ170" s="45"/>
+      <c r="AFK170" s="45"/>
+      <c r="AFL170" s="45"/>
+      <c r="AFM170" s="45"/>
+      <c r="AFN170" s="45"/>
+      <c r="AFO170" s="45"/>
+      <c r="AFP170" s="45"/>
+      <c r="AFQ170" s="45"/>
+      <c r="AFR170" s="45"/>
+      <c r="AFS170" s="45"/>
+      <c r="AFT170" s="45"/>
+      <c r="AFU170" s="45"/>
+      <c r="AFV170" s="45"/>
+      <c r="AFW170" s="45"/>
+      <c r="AFX170" s="45"/>
+      <c r="AFY170" s="45"/>
+      <c r="AFZ170" s="45"/>
+      <c r="AGA170" s="45"/>
+      <c r="AGB170" s="45"/>
+      <c r="AGC170" s="45"/>
+      <c r="AGD170" s="45"/>
+      <c r="AGE170" s="45"/>
+      <c r="AGF170" s="45"/>
+      <c r="AGG170" s="45"/>
+      <c r="AGH170" s="45"/>
+      <c r="AGI170" s="45"/>
+      <c r="AGJ170" s="45"/>
+      <c r="AGK170" s="45"/>
+      <c r="AGL170" s="45"/>
+      <c r="AGM170" s="45"/>
+      <c r="AGN170" s="45"/>
+      <c r="AGO170" s="45"/>
+      <c r="AGP170" s="45"/>
+      <c r="AGQ170" s="45"/>
+      <c r="AGR170" s="45"/>
+      <c r="AGS170" s="45"/>
+      <c r="AGT170" s="45"/>
+      <c r="AGU170" s="45"/>
+      <c r="AGV170" s="45"/>
+      <c r="AGW170" s="45"/>
+      <c r="AGX170" s="45"/>
+      <c r="AGY170" s="45"/>
+      <c r="AGZ170" s="45"/>
+      <c r="AHA170" s="45"/>
+      <c r="AHB170" s="45"/>
+      <c r="AHC170" s="45"/>
+      <c r="AHD170" s="45"/>
+      <c r="AHE170" s="45"/>
+      <c r="AHF170" s="45"/>
+      <c r="AHG170" s="45"/>
+      <c r="AHH170" s="45"/>
+      <c r="AHI170" s="45"/>
+      <c r="AHJ170" s="45"/>
+      <c r="AHK170" s="45"/>
+      <c r="AHL170" s="45"/>
+      <c r="AHM170" s="45"/>
+      <c r="AHN170" s="45"/>
+      <c r="AHO170" s="45"/>
+      <c r="AHP170" s="45"/>
+      <c r="AHQ170" s="45"/>
+      <c r="AHR170" s="45"/>
+      <c r="AHS170" s="45"/>
+      <c r="AHT170" s="45"/>
+      <c r="AHU170" s="45"/>
+      <c r="AHV170" s="45"/>
+      <c r="AHW170" s="45"/>
+      <c r="AHX170" s="45"/>
+      <c r="AHY170" s="45"/>
+      <c r="AHZ170" s="45"/>
+      <c r="AIA170" s="45"/>
+      <c r="AIB170" s="45"/>
+      <c r="AIC170" s="45"/>
+      <c r="AID170" s="45"/>
+      <c r="AIE170" s="45"/>
+      <c r="AIF170" s="45"/>
+      <c r="AIG170" s="45"/>
+      <c r="AIH170" s="45"/>
+      <c r="AII170" s="45"/>
+      <c r="AIJ170" s="45"/>
+      <c r="AIK170" s="45"/>
+      <c r="AIL170" s="45"/>
+      <c r="AIM170" s="45"/>
+      <c r="AIN170" s="45"/>
+      <c r="AIO170" s="45"/>
+      <c r="AIP170" s="45"/>
+      <c r="AIQ170" s="45"/>
+      <c r="AIR170" s="45"/>
+      <c r="AIS170" s="45"/>
+      <c r="AIT170" s="45"/>
+      <c r="AIU170" s="45"/>
+      <c r="AIV170" s="45"/>
+      <c r="AIW170" s="45"/>
+      <c r="AIX170" s="45"/>
+      <c r="AIY170" s="45"/>
+      <c r="AIZ170" s="45"/>
+      <c r="AJA170" s="45"/>
+      <c r="AJB170" s="45"/>
+      <c r="AJC170" s="45"/>
+      <c r="AJD170" s="45"/>
+      <c r="AJE170" s="45"/>
+      <c r="AJF170" s="45"/>
+      <c r="AJG170" s="45"/>
+      <c r="AJH170" s="45"/>
+      <c r="AJI170" s="45"/>
+      <c r="AJJ170" s="45"/>
+      <c r="AJK170" s="45"/>
+      <c r="AJL170" s="45"/>
+      <c r="AJM170" s="45"/>
+      <c r="AJN170" s="45"/>
+      <c r="AJO170" s="45"/>
+      <c r="AJP170" s="45"/>
+      <c r="AJQ170" s="45"/>
+      <c r="AJR170" s="45"/>
+      <c r="AJS170" s="45"/>
+      <c r="AJT170" s="45"/>
+      <c r="AJU170" s="45"/>
+      <c r="AJV170" s="45"/>
+      <c r="AJW170" s="45"/>
+      <c r="AJX170" s="45"/>
+      <c r="AJY170" s="45"/>
+      <c r="AJZ170" s="45"/>
+      <c r="AKA170" s="45"/>
+      <c r="AKB170" s="45"/>
+      <c r="AKC170" s="45"/>
+      <c r="AKD170" s="45"/>
+      <c r="AKE170" s="45"/>
+      <c r="AKF170" s="45"/>
+      <c r="AKG170" s="45"/>
+      <c r="AKH170" s="45"/>
+      <c r="AKI170" s="45"/>
+      <c r="AKJ170" s="45"/>
+      <c r="AKK170" s="45"/>
+      <c r="AKL170" s="45"/>
+      <c r="AKM170" s="45"/>
+      <c r="AKN170" s="45"/>
+      <c r="AKO170" s="45"/>
+      <c r="AKP170" s="45"/>
+      <c r="AKQ170" s="45"/>
+      <c r="AKR170" s="45"/>
+      <c r="AKS170" s="45"/>
+      <c r="AKT170" s="45"/>
+      <c r="AKU170" s="45"/>
+      <c r="AKV170" s="45"/>
+      <c r="AKW170" s="45"/>
+      <c r="AKX170" s="45"/>
+      <c r="AKY170" s="45"/>
+      <c r="AKZ170" s="45"/>
+      <c r="ALA170" s="45"/>
+      <c r="ALB170" s="45"/>
+      <c r="ALC170" s="45"/>
+      <c r="ALD170" s="45"/>
+      <c r="ALE170" s="45"/>
+      <c r="ALF170" s="45"/>
+      <c r="ALG170" s="45"/>
+      <c r="ALH170" s="45"/>
+      <c r="ALI170" s="45"/>
+      <c r="ALJ170" s="45"/>
+      <c r="ALK170" s="45"/>
+      <c r="ALL170" s="45"/>
+      <c r="ALM170" s="45"/>
+      <c r="ALN170" s="45"/>
+      <c r="ALO170" s="45"/>
+      <c r="ALP170" s="45"/>
+      <c r="ALQ170" s="45"/>
+      <c r="ALR170" s="45"/>
+      <c r="ALS170" s="45"/>
+      <c r="ALT170" s="45"/>
+      <c r="ALU170" s="45"/>
+      <c r="ALV170" s="45"/>
+      <c r="ALW170" s="45"/>
+      <c r="ALX170" s="45"/>
+      <c r="ALY170" s="45"/>
+      <c r="ALZ170" s="45"/>
+      <c r="AMA170" s="45"/>
+      <c r="AMB170" s="45"/>
+      <c r="AMC170" s="45"/>
+      <c r="AMD170" s="45"/>
+      <c r="AME170" s="45"/>
+      <c r="AMF170" s="45"/>
+      <c r="AMG170" s="45"/>
+      <c r="AMH170" s="45"/>
+      <c r="AMI170" s="45"/>
+      <c r="AMJ170" s="45"/>
+    </row>
+    <row r="171" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B171" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C171" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="M171" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N171" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="O171" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="P171" s="41"/>
+      <c r="Q171" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="R171" s="45"/>
+      <c r="S171" s="45"/>
+      <c r="T171" s="45"/>
+      <c r="U171" s="45"/>
+      <c r="V171" s="45"/>
+      <c r="W171" s="45"/>
+      <c r="X171" s="45"/>
+      <c r="Y171" s="45"/>
+      <c r="Z171" s="45"/>
+      <c r="AA171" s="45"/>
+      <c r="AB171" s="45"/>
+      <c r="AC171" s="45"/>
+      <c r="AD171" s="45"/>
+      <c r="AE171" s="45"/>
+      <c r="AF171" s="45"/>
+      <c r="AG171" s="45"/>
+      <c r="AH171" s="45"/>
+      <c r="AI171" s="45"/>
+      <c r="AJ171" s="45"/>
+      <c r="AK171" s="45"/>
+      <c r="AL171" s="45"/>
+      <c r="AM171" s="45"/>
+      <c r="AN171" s="45"/>
+      <c r="AO171" s="45"/>
+      <c r="AP171" s="45"/>
+      <c r="AQ171" s="45"/>
+      <c r="AR171" s="45"/>
+      <c r="AS171" s="45"/>
+      <c r="AT171" s="45"/>
+      <c r="AU171" s="45"/>
+      <c r="AV171" s="45"/>
+      <c r="AW171" s="45"/>
+      <c r="AX171" s="45"/>
+      <c r="AY171" s="45"/>
+      <c r="AZ171" s="45"/>
+      <c r="BA171" s="45"/>
+      <c r="BB171" s="45"/>
+      <c r="BC171" s="45"/>
+      <c r="BD171" s="45"/>
+      <c r="BE171" s="45"/>
+      <c r="BF171" s="45"/>
+      <c r="BG171" s="45"/>
+      <c r="BH171" s="45"/>
+      <c r="BI171" s="45"/>
+      <c r="BJ171" s="45"/>
+      <c r="BK171" s="45"/>
+      <c r="BL171" s="45"/>
+      <c r="BM171" s="45"/>
+      <c r="BN171" s="45"/>
+      <c r="BO171" s="45"/>
+      <c r="BP171" s="45"/>
+      <c r="BQ171" s="45"/>
+      <c r="BR171" s="45"/>
+      <c r="BS171" s="45"/>
+      <c r="BT171" s="45"/>
+      <c r="BU171" s="45"/>
+      <c r="BV171" s="45"/>
+      <c r="BW171" s="45"/>
+      <c r="BX171" s="45"/>
+      <c r="BY171" s="45"/>
+      <c r="BZ171" s="45"/>
+      <c r="CA171" s="45"/>
+      <c r="CB171" s="45"/>
+      <c r="CC171" s="45"/>
+      <c r="CD171" s="45"/>
+      <c r="CE171" s="45"/>
+      <c r="CF171" s="45"/>
+      <c r="CG171" s="45"/>
+      <c r="CH171" s="45"/>
+      <c r="CI171" s="45"/>
+      <c r="CJ171" s="45"/>
+      <c r="CK171" s="45"/>
+      <c r="CL171" s="45"/>
+      <c r="CM171" s="45"/>
+      <c r="CN171" s="45"/>
+      <c r="CO171" s="45"/>
+      <c r="CP171" s="45"/>
+      <c r="CQ171" s="45"/>
+      <c r="CR171" s="45"/>
+      <c r="CS171" s="45"/>
+      <c r="CT171" s="45"/>
+      <c r="CU171" s="45"/>
+      <c r="CV171" s="45"/>
+      <c r="CW171" s="45"/>
+      <c r="CX171" s="45"/>
+      <c r="CY171" s="45"/>
+      <c r="CZ171" s="45"/>
+      <c r="DA171" s="45"/>
+      <c r="DB171" s="45"/>
+      <c r="DC171" s="45"/>
+      <c r="DD171" s="45"/>
+      <c r="DE171" s="45"/>
+      <c r="DF171" s="45"/>
+      <c r="DG171" s="45"/>
+      <c r="DH171" s="45"/>
+      <c r="DI171" s="45"/>
+      <c r="DJ171" s="45"/>
+      <c r="DK171" s="45"/>
+      <c r="DL171" s="45"/>
+      <c r="DM171" s="45"/>
+      <c r="DN171" s="45"/>
+      <c r="DO171" s="45"/>
+      <c r="DP171" s="45"/>
+      <c r="DQ171" s="45"/>
+      <c r="DR171" s="45"/>
+      <c r="DS171" s="45"/>
+      <c r="DT171" s="45"/>
+      <c r="DU171" s="45"/>
+      <c r="DV171" s="45"/>
+      <c r="DW171" s="45"/>
+      <c r="DX171" s="45"/>
+      <c r="DY171" s="45"/>
+      <c r="DZ171" s="45"/>
+      <c r="EA171" s="45"/>
+      <c r="EB171" s="45"/>
+      <c r="EC171" s="45"/>
+      <c r="ED171" s="45"/>
+      <c r="EE171" s="45"/>
+      <c r="EF171" s="45"/>
+      <c r="EG171" s="45"/>
+      <c r="EH171" s="45"/>
+      <c r="EI171" s="45"/>
+      <c r="EJ171" s="45"/>
+      <c r="EK171" s="45"/>
+      <c r="EL171" s="45"/>
+      <c r="EM171" s="45"/>
+      <c r="EN171" s="45"/>
+      <c r="EO171" s="45"/>
+      <c r="EP171" s="45"/>
+      <c r="EQ171" s="45"/>
+      <c r="ER171" s="45"/>
+      <c r="ES171" s="45"/>
+      <c r="ET171" s="45"/>
+      <c r="EU171" s="45"/>
+      <c r="EV171" s="45"/>
+      <c r="EW171" s="45"/>
+      <c r="EX171" s="45"/>
+      <c r="EY171" s="45"/>
+      <c r="EZ171" s="45"/>
+      <c r="FA171" s="45"/>
+      <c r="FB171" s="45"/>
+      <c r="FC171" s="45"/>
+      <c r="FD171" s="45"/>
+      <c r="FE171" s="45"/>
+      <c r="FF171" s="45"/>
+      <c r="FG171" s="45"/>
+      <c r="FH171" s="45"/>
+      <c r="FI171" s="45"/>
+      <c r="FJ171" s="45"/>
+      <c r="FK171" s="45"/>
+      <c r="FL171" s="45"/>
+      <c r="FM171" s="45"/>
+      <c r="FN171" s="45"/>
+      <c r="FO171" s="45"/>
+      <c r="FP171" s="45"/>
+      <c r="FQ171" s="45"/>
+      <c r="FR171" s="45"/>
+      <c r="FS171" s="45"/>
+      <c r="FT171" s="45"/>
+      <c r="FU171" s="45"/>
+      <c r="FV171" s="45"/>
+      <c r="FW171" s="45"/>
+      <c r="FX171" s="45"/>
+      <c r="FY171" s="45"/>
+      <c r="FZ171" s="45"/>
+      <c r="GA171" s="45"/>
+      <c r="GB171" s="45"/>
+      <c r="GC171" s="45"/>
+      <c r="GD171" s="45"/>
+      <c r="GE171" s="45"/>
+      <c r="GF171" s="45"/>
+      <c r="GG171" s="45"/>
+      <c r="GH171" s="45"/>
+      <c r="GI171" s="45"/>
+      <c r="GJ171" s="45"/>
+      <c r="GK171" s="45"/>
+      <c r="GL171" s="45"/>
+      <c r="GM171" s="45"/>
+      <c r="GN171" s="45"/>
+      <c r="GO171" s="45"/>
+      <c r="GP171" s="45"/>
+      <c r="GQ171" s="45"/>
+      <c r="GR171" s="45"/>
+      <c r="GS171" s="45"/>
+      <c r="GT171" s="45"/>
+      <c r="GU171" s="45"/>
+      <c r="GV171" s="45"/>
+      <c r="GW171" s="45"/>
+      <c r="GX171" s="45"/>
+      <c r="GY171" s="45"/>
+      <c r="GZ171" s="45"/>
+      <c r="HA171" s="45"/>
+      <c r="HB171" s="45"/>
+      <c r="HC171" s="45"/>
+      <c r="HD171" s="45"/>
+      <c r="HE171" s="45"/>
+      <c r="HF171" s="45"/>
+      <c r="HG171" s="45"/>
+      <c r="HH171" s="45"/>
+      <c r="HI171" s="45"/>
+      <c r="HJ171" s="45"/>
+      <c r="HK171" s="45"/>
+      <c r="HL171" s="45"/>
+      <c r="HM171" s="45"/>
+      <c r="HN171" s="45"/>
+      <c r="HO171" s="45"/>
+      <c r="HP171" s="45"/>
+      <c r="HQ171" s="45"/>
+      <c r="HR171" s="45"/>
+      <c r="HS171" s="45"/>
+      <c r="HT171" s="45"/>
+      <c r="HU171" s="45"/>
+      <c r="HV171" s="45"/>
+      <c r="HW171" s="45"/>
+      <c r="HX171" s="45"/>
+      <c r="HY171" s="45"/>
+      <c r="HZ171" s="45"/>
+      <c r="IA171" s="45"/>
+      <c r="IB171" s="45"/>
+      <c r="IC171" s="45"/>
+      <c r="ID171" s="45"/>
+      <c r="IE171" s="45"/>
+      <c r="IF171" s="45"/>
+      <c r="IG171" s="45"/>
+      <c r="IH171" s="45"/>
+      <c r="II171" s="45"/>
+      <c r="IJ171" s="45"/>
+      <c r="IK171" s="45"/>
+      <c r="IL171" s="45"/>
+      <c r="IM171" s="45"/>
+      <c r="IN171" s="45"/>
+      <c r="IO171" s="45"/>
+      <c r="IP171" s="45"/>
+      <c r="IQ171" s="45"/>
+      <c r="IR171" s="45"/>
+      <c r="IS171" s="45"/>
+      <c r="IT171" s="45"/>
+      <c r="IU171" s="45"/>
+      <c r="IV171" s="45"/>
+      <c r="IW171" s="45"/>
+      <c r="IX171" s="45"/>
+      <c r="IY171" s="45"/>
+      <c r="IZ171" s="45"/>
+      <c r="JA171" s="45"/>
+      <c r="JB171" s="45"/>
+      <c r="JC171" s="45"/>
+      <c r="JD171" s="45"/>
+      <c r="JE171" s="45"/>
+      <c r="JF171" s="45"/>
+      <c r="JG171" s="45"/>
+      <c r="JH171" s="45"/>
+      <c r="JI171" s="45"/>
+      <c r="JJ171" s="45"/>
+      <c r="JK171" s="45"/>
+      <c r="JL171" s="45"/>
+      <c r="JM171" s="45"/>
+      <c r="JN171" s="45"/>
+      <c r="JO171" s="45"/>
+      <c r="JP171" s="45"/>
+      <c r="JQ171" s="45"/>
+      <c r="JR171" s="45"/>
+      <c r="JS171" s="45"/>
+      <c r="JT171" s="45"/>
+      <c r="JU171" s="45"/>
+      <c r="JV171" s="45"/>
+      <c r="JW171" s="45"/>
+      <c r="JX171" s="45"/>
+      <c r="JY171" s="45"/>
+      <c r="JZ171" s="45"/>
+      <c r="KA171" s="45"/>
+      <c r="KB171" s="45"/>
+      <c r="KC171" s="45"/>
+      <c r="KD171" s="45"/>
+      <c r="KE171" s="45"/>
+      <c r="KF171" s="45"/>
+      <c r="KG171" s="45"/>
+      <c r="KH171" s="45"/>
+      <c r="KI171" s="45"/>
+      <c r="KJ171" s="45"/>
+      <c r="KK171" s="45"/>
+      <c r="KL171" s="45"/>
+      <c r="KM171" s="45"/>
+      <c r="KN171" s="45"/>
+      <c r="KO171" s="45"/>
+      <c r="KP171" s="45"/>
+      <c r="KQ171" s="45"/>
+      <c r="KR171" s="45"/>
+      <c r="KS171" s="45"/>
+      <c r="KT171" s="45"/>
+      <c r="KU171" s="45"/>
+      <c r="KV171" s="45"/>
+      <c r="KW171" s="45"/>
+      <c r="KX171" s="45"/>
+      <c r="KY171" s="45"/>
+      <c r="KZ171" s="45"/>
+      <c r="LA171" s="45"/>
+      <c r="LB171" s="45"/>
+      <c r="LC171" s="45"/>
+      <c r="LD171" s="45"/>
+      <c r="LE171" s="45"/>
+      <c r="LF171" s="45"/>
+      <c r="LG171" s="45"/>
+      <c r="LH171" s="45"/>
+      <c r="LI171" s="45"/>
+      <c r="LJ171" s="45"/>
+      <c r="LK171" s="45"/>
+      <c r="LL171" s="45"/>
+      <c r="LM171" s="45"/>
+      <c r="LN171" s="45"/>
+      <c r="LO171" s="45"/>
+      <c r="LP171" s="45"/>
+      <c r="LQ171" s="45"/>
+      <c r="LR171" s="45"/>
+      <c r="LS171" s="45"/>
+      <c r="LT171" s="45"/>
+      <c r="LU171" s="45"/>
+      <c r="LV171" s="45"/>
+      <c r="LW171" s="45"/>
+      <c r="LX171" s="45"/>
+      <c r="LY171" s="45"/>
+      <c r="LZ171" s="45"/>
+      <c r="MA171" s="45"/>
+      <c r="MB171" s="45"/>
+      <c r="MC171" s="45"/>
+      <c r="MD171" s="45"/>
+      <c r="ME171" s="45"/>
+      <c r="MF171" s="45"/>
+      <c r="MG171" s="45"/>
+      <c r="MH171" s="45"/>
+      <c r="MI171" s="45"/>
+      <c r="MJ171" s="45"/>
+      <c r="MK171" s="45"/>
+      <c r="ML171" s="45"/>
+      <c r="MM171" s="45"/>
+      <c r="MN171" s="45"/>
+      <c r="MO171" s="45"/>
+      <c r="MP171" s="45"/>
+      <c r="MQ171" s="45"/>
+      <c r="MR171" s="45"/>
+      <c r="MS171" s="45"/>
+      <c r="MT171" s="45"/>
+      <c r="MU171" s="45"/>
+      <c r="MV171" s="45"/>
+      <c r="MW171" s="45"/>
+      <c r="MX171" s="45"/>
+      <c r="MY171" s="45"/>
+      <c r="MZ171" s="45"/>
+      <c r="NA171" s="45"/>
+      <c r="NB171" s="45"/>
+      <c r="NC171" s="45"/>
+      <c r="ND171" s="45"/>
+      <c r="NE171" s="45"/>
+      <c r="NF171" s="45"/>
+      <c r="NG171" s="45"/>
+      <c r="NH171" s="45"/>
+      <c r="NI171" s="45"/>
+      <c r="NJ171" s="45"/>
+      <c r="NK171" s="45"/>
+      <c r="NL171" s="45"/>
+      <c r="NM171" s="45"/>
+      <c r="NN171" s="45"/>
+      <c r="NO171" s="45"/>
+      <c r="NP171" s="45"/>
+      <c r="NQ171" s="45"/>
+      <c r="NR171" s="45"/>
+      <c r="NS171" s="45"/>
+      <c r="NT171" s="45"/>
+      <c r="NU171" s="45"/>
+      <c r="NV171" s="45"/>
+      <c r="NW171" s="45"/>
+      <c r="NX171" s="45"/>
+      <c r="NY171" s="45"/>
+      <c r="NZ171" s="45"/>
+      <c r="OA171" s="45"/>
+      <c r="OB171" s="45"/>
+      <c r="OC171" s="45"/>
+      <c r="OD171" s="45"/>
+      <c r="OE171" s="45"/>
+      <c r="OF171" s="45"/>
+      <c r="OG171" s="45"/>
+      <c r="OH171" s="45"/>
+      <c r="OI171" s="45"/>
+      <c r="OJ171" s="45"/>
+      <c r="OK171" s="45"/>
+      <c r="OL171" s="45"/>
+      <c r="OM171" s="45"/>
+      <c r="ON171" s="45"/>
+      <c r="OO171" s="45"/>
+      <c r="OP171" s="45"/>
+      <c r="OQ171" s="45"/>
+      <c r="OR171" s="45"/>
+      <c r="OS171" s="45"/>
+      <c r="OT171" s="45"/>
+      <c r="OU171" s="45"/>
+      <c r="OV171" s="45"/>
+      <c r="OW171" s="45"/>
+      <c r="OX171" s="45"/>
+      <c r="OY171" s="45"/>
+      <c r="OZ171" s="45"/>
+      <c r="PA171" s="45"/>
+      <c r="PB171" s="45"/>
+      <c r="PC171" s="45"/>
+      <c r="PD171" s="45"/>
+      <c r="PE171" s="45"/>
+      <c r="PF171" s="45"/>
+      <c r="PG171" s="45"/>
+      <c r="PH171" s="45"/>
+      <c r="PI171" s="45"/>
+      <c r="PJ171" s="45"/>
+      <c r="PK171" s="45"/>
+      <c r="PL171" s="45"/>
+      <c r="PM171" s="45"/>
+      <c r="PN171" s="45"/>
+      <c r="PO171" s="45"/>
+      <c r="PP171" s="45"/>
+      <c r="PQ171" s="45"/>
+      <c r="PR171" s="45"/>
+      <c r="PS171" s="45"/>
+      <c r="PT171" s="45"/>
+      <c r="PU171" s="45"/>
+      <c r="PV171" s="45"/>
+      <c r="PW171" s="45"/>
+      <c r="PX171" s="45"/>
+      <c r="PY171" s="45"/>
+      <c r="PZ171" s="45"/>
+      <c r="QA171" s="45"/>
+      <c r="QB171" s="45"/>
+      <c r="QC171" s="45"/>
+      <c r="QD171" s="45"/>
+      <c r="QE171" s="45"/>
+      <c r="QF171" s="45"/>
+      <c r="QG171" s="45"/>
+      <c r="QH171" s="45"/>
+      <c r="QI171" s="45"/>
+      <c r="QJ171" s="45"/>
+      <c r="QK171" s="45"/>
+      <c r="QL171" s="45"/>
+      <c r="QM171" s="45"/>
+      <c r="QN171" s="45"/>
+      <c r="QO171" s="45"/>
+      <c r="QP171" s="45"/>
+      <c r="QQ171" s="45"/>
+      <c r="QR171" s="45"/>
+      <c r="QS171" s="45"/>
+      <c r="QT171" s="45"/>
+      <c r="QU171" s="45"/>
+      <c r="QV171" s="45"/>
+      <c r="QW171" s="45"/>
+      <c r="QX171" s="45"/>
+      <c r="QY171" s="45"/>
+      <c r="QZ171" s="45"/>
+      <c r="RA171" s="45"/>
+      <c r="RB171" s="45"/>
+      <c r="RC171" s="45"/>
+      <c r="RD171" s="45"/>
+      <c r="RE171" s="45"/>
+      <c r="RF171" s="45"/>
+      <c r="RG171" s="45"/>
+      <c r="RH171" s="45"/>
+      <c r="RI171" s="45"/>
+      <c r="RJ171" s="45"/>
+      <c r="RK171" s="45"/>
+      <c r="RL171" s="45"/>
+      <c r="RM171" s="45"/>
+      <c r="RN171" s="45"/>
+      <c r="RO171" s="45"/>
+      <c r="RP171" s="45"/>
+      <c r="RQ171" s="45"/>
+      <c r="RR171" s="45"/>
+      <c r="RS171" s="45"/>
+      <c r="RT171" s="45"/>
+      <c r="RU171" s="45"/>
+      <c r="RV171" s="45"/>
+      <c r="RW171" s="45"/>
+      <c r="RX171" s="45"/>
+      <c r="RY171" s="45"/>
+      <c r="RZ171" s="45"/>
+      <c r="SA171" s="45"/>
+      <c r="SB171" s="45"/>
+      <c r="SC171" s="45"/>
+      <c r="SD171" s="45"/>
+      <c r="SE171" s="45"/>
+      <c r="SF171" s="45"/>
+      <c r="SG171" s="45"/>
+      <c r="SH171" s="45"/>
+      <c r="SI171" s="45"/>
+      <c r="SJ171" s="45"/>
+      <c r="SK171" s="45"/>
+      <c r="SL171" s="45"/>
+      <c r="SM171" s="45"/>
+      <c r="SN171" s="45"/>
+      <c r="SO171" s="45"/>
+      <c r="SP171" s="45"/>
+      <c r="SQ171" s="45"/>
+      <c r="SR171" s="45"/>
+      <c r="SS171" s="45"/>
+      <c r="ST171" s="45"/>
+      <c r="SU171" s="45"/>
+      <c r="SV171" s="45"/>
+      <c r="SW171" s="45"/>
+      <c r="SX171" s="45"/>
+      <c r="SY171" s="45"/>
+      <c r="SZ171" s="45"/>
+      <c r="TA171" s="45"/>
+      <c r="TB171" s="45"/>
+      <c r="TC171" s="45"/>
+      <c r="TD171" s="45"/>
+      <c r="TE171" s="45"/>
+      <c r="TF171" s="45"/>
+      <c r="TG171" s="45"/>
+      <c r="TH171" s="45"/>
+      <c r="TI171" s="45"/>
+      <c r="TJ171" s="45"/>
+      <c r="TK171" s="45"/>
+      <c r="TL171" s="45"/>
+      <c r="TM171" s="45"/>
+      <c r="TN171" s="45"/>
+      <c r="TO171" s="45"/>
+      <c r="TP171" s="45"/>
+      <c r="TQ171" s="45"/>
+      <c r="TR171" s="45"/>
+      <c r="TS171" s="45"/>
+      <c r="TT171" s="45"/>
+      <c r="TU171" s="45"/>
+      <c r="TV171" s="45"/>
+      <c r="TW171" s="45"/>
+      <c r="TX171" s="45"/>
+      <c r="TY171" s="45"/>
+      <c r="TZ171" s="45"/>
+      <c r="UA171" s="45"/>
+      <c r="UB171" s="45"/>
+      <c r="UC171" s="45"/>
+      <c r="UD171" s="45"/>
+      <c r="UE171" s="45"/>
+      <c r="UF171" s="45"/>
+      <c r="UG171" s="45"/>
+      <c r="UH171" s="45"/>
+      <c r="UI171" s="45"/>
+      <c r="UJ171" s="45"/>
+      <c r="UK171" s="45"/>
+      <c r="UL171" s="45"/>
+      <c r="UM171" s="45"/>
+      <c r="UN171" s="45"/>
+      <c r="UO171" s="45"/>
+      <c r="UP171" s="45"/>
+      <c r="UQ171" s="45"/>
+      <c r="UR171" s="45"/>
+      <c r="US171" s="45"/>
+      <c r="UT171" s="45"/>
+      <c r="UU171" s="45"/>
+      <c r="UV171" s="45"/>
+      <c r="UW171" s="45"/>
+      <c r="UX171" s="45"/>
+      <c r="UY171" s="45"/>
+      <c r="UZ171" s="45"/>
+      <c r="VA171" s="45"/>
+      <c r="VB171" s="45"/>
+      <c r="VC171" s="45"/>
+      <c r="VD171" s="45"/>
+      <c r="VE171" s="45"/>
+      <c r="VF171" s="45"/>
+      <c r="VG171" s="45"/>
+      <c r="VH171" s="45"/>
+      <c r="VI171" s="45"/>
+      <c r="VJ171" s="45"/>
+      <c r="VK171" s="45"/>
+      <c r="VL171" s="45"/>
+      <c r="VM171" s="45"/>
+      <c r="VN171" s="45"/>
+      <c r="VO171" s="45"/>
+      <c r="VP171" s="45"/>
+      <c r="VQ171" s="45"/>
+      <c r="VR171" s="45"/>
+      <c r="VS171" s="45"/>
+      <c r="VT171" s="45"/>
+      <c r="VU171" s="45"/>
+      <c r="VV171" s="45"/>
+      <c r="VW171" s="45"/>
+      <c r="VX171" s="45"/>
+      <c r="VY171" s="45"/>
+      <c r="VZ171" s="45"/>
+      <c r="WA171" s="45"/>
+      <c r="WB171" s="45"/>
+      <c r="WC171" s="45"/>
+      <c r="WD171" s="45"/>
+      <c r="WE171" s="45"/>
+      <c r="WF171" s="45"/>
+      <c r="WG171" s="45"/>
+      <c r="WH171" s="45"/>
+      <c r="WI171" s="45"/>
+      <c r="WJ171" s="45"/>
+      <c r="WK171" s="45"/>
+      <c r="WL171" s="45"/>
+      <c r="WM171" s="45"/>
+      <c r="WN171" s="45"/>
+      <c r="WO171" s="45"/>
+      <c r="WP171" s="45"/>
+      <c r="WQ171" s="45"/>
+      <c r="WR171" s="45"/>
+      <c r="WS171" s="45"/>
+      <c r="WT171" s="45"/>
+      <c r="WU171" s="45"/>
+      <c r="WV171" s="45"/>
+      <c r="WW171" s="45"/>
+      <c r="WX171" s="45"/>
+      <c r="WY171" s="45"/>
+      <c r="WZ171" s="45"/>
+      <c r="XA171" s="45"/>
+      <c r="XB171" s="45"/>
+      <c r="XC171" s="45"/>
+      <c r="XD171" s="45"/>
+      <c r="XE171" s="45"/>
+      <c r="XF171" s="45"/>
+      <c r="XG171" s="45"/>
+      <c r="XH171" s="45"/>
+      <c r="XI171" s="45"/>
+      <c r="XJ171" s="45"/>
+      <c r="XK171" s="45"/>
+      <c r="XL171" s="45"/>
+      <c r="XM171" s="45"/>
+      <c r="XN171" s="45"/>
+      <c r="XO171" s="45"/>
+      <c r="XP171" s="45"/>
+      <c r="XQ171" s="45"/>
+      <c r="XR171" s="45"/>
+      <c r="XS171" s="45"/>
+      <c r="XT171" s="45"/>
+      <c r="XU171" s="45"/>
+      <c r="XV171" s="45"/>
+      <c r="XW171" s="45"/>
+      <c r="XX171" s="45"/>
+      <c r="XY171" s="45"/>
+      <c r="XZ171" s="45"/>
+      <c r="YA171" s="45"/>
+      <c r="YB171" s="45"/>
+      <c r="YC171" s="45"/>
+      <c r="YD171" s="45"/>
+      <c r="YE171" s="45"/>
+      <c r="YF171" s="45"/>
+      <c r="YG171" s="45"/>
+      <c r="YH171" s="45"/>
+      <c r="YI171" s="45"/>
+      <c r="YJ171" s="45"/>
+      <c r="YK171" s="45"/>
+      <c r="YL171" s="45"/>
+      <c r="YM171" s="45"/>
+      <c r="YN171" s="45"/>
+      <c r="YO171" s="45"/>
+      <c r="YP171" s="45"/>
+      <c r="YQ171" s="45"/>
+      <c r="YR171" s="45"/>
+      <c r="YS171" s="45"/>
+      <c r="YT171" s="45"/>
+      <c r="YU171" s="45"/>
+      <c r="YV171" s="45"/>
+      <c r="YW171" s="45"/>
+      <c r="YX171" s="45"/>
+      <c r="YY171" s="45"/>
+      <c r="YZ171" s="45"/>
+      <c r="ZA171" s="45"/>
+      <c r="ZB171" s="45"/>
+      <c r="ZC171" s="45"/>
+      <c r="ZD171" s="45"/>
+      <c r="ZE171" s="45"/>
+      <c r="ZF171" s="45"/>
+      <c r="ZG171" s="45"/>
+      <c r="ZH171" s="45"/>
+      <c r="ZI171" s="45"/>
+      <c r="ZJ171" s="45"/>
+      <c r="ZK171" s="45"/>
+      <c r="ZL171" s="45"/>
+      <c r="ZM171" s="45"/>
+      <c r="ZN171" s="45"/>
+      <c r="ZO171" s="45"/>
+      <c r="ZP171" s="45"/>
+      <c r="ZQ171" s="45"/>
+      <c r="ZR171" s="45"/>
+      <c r="ZS171" s="45"/>
+      <c r="ZT171" s="45"/>
+      <c r="ZU171" s="45"/>
+      <c r="ZV171" s="45"/>
+      <c r="ZW171" s="45"/>
+      <c r="ZX171" s="45"/>
+      <c r="ZY171" s="45"/>
+      <c r="ZZ171" s="45"/>
+      <c r="AAA171" s="45"/>
+      <c r="AAB171" s="45"/>
+      <c r="AAC171" s="45"/>
+      <c r="AAD171" s="45"/>
+      <c r="AAE171" s="45"/>
+      <c r="AAF171" s="45"/>
+      <c r="AAG171" s="45"/>
+      <c r="AAH171" s="45"/>
+      <c r="AAI171" s="45"/>
+      <c r="AAJ171" s="45"/>
+      <c r="AAK171" s="45"/>
+      <c r="AAL171" s="45"/>
+      <c r="AAM171" s="45"/>
+      <c r="AAN171" s="45"/>
+      <c r="AAO171" s="45"/>
+      <c r="AAP171" s="45"/>
+      <c r="AAQ171" s="45"/>
+      <c r="AAR171" s="45"/>
+      <c r="AAS171" s="45"/>
+      <c r="AAT171" s="45"/>
+      <c r="AAU171" s="45"/>
+      <c r="AAV171" s="45"/>
+      <c r="AAW171" s="45"/>
+      <c r="AAX171" s="45"/>
+      <c r="AAY171" s="45"/>
+      <c r="AAZ171" s="45"/>
+      <c r="ABA171" s="45"/>
+      <c r="ABB171" s="45"/>
+      <c r="ABC171" s="45"/>
+      <c r="ABD171" s="45"/>
+      <c r="ABE171" s="45"/>
+      <c r="ABF171" s="45"/>
+      <c r="ABG171" s="45"/>
+      <c r="ABH171" s="45"/>
+      <c r="ABI171" s="45"/>
+      <c r="ABJ171" s="45"/>
+      <c r="ABK171" s="45"/>
+      <c r="ABL171" s="45"/>
+      <c r="ABM171" s="45"/>
+      <c r="ABN171" s="45"/>
+      <c r="ABO171" s="45"/>
+      <c r="ABP171" s="45"/>
+      <c r="ABQ171" s="45"/>
+      <c r="ABR171" s="45"/>
+      <c r="ABS171" s="45"/>
+      <c r="ABT171" s="45"/>
+      <c r="ABU171" s="45"/>
+      <c r="ABV171" s="45"/>
+      <c r="ABW171" s="45"/>
+      <c r="ABX171" s="45"/>
+      <c r="ABY171" s="45"/>
+      <c r="ABZ171" s="45"/>
+      <c r="ACA171" s="45"/>
+      <c r="ACB171" s="45"/>
+      <c r="ACC171" s="45"/>
+      <c r="ACD171" s="45"/>
+      <c r="ACE171" s="45"/>
+      <c r="ACF171" s="45"/>
+      <c r="ACG171" s="45"/>
+      <c r="ACH171" s="45"/>
+      <c r="ACI171" s="45"/>
+      <c r="ACJ171" s="45"/>
+      <c r="ACK171" s="45"/>
+      <c r="ACL171" s="45"/>
+      <c r="ACM171" s="45"/>
+      <c r="ACN171" s="45"/>
+      <c r="ACO171" s="45"/>
+      <c r="ACP171" s="45"/>
+      <c r="ACQ171" s="45"/>
+      <c r="ACR171" s="45"/>
+      <c r="ACS171" s="45"/>
+      <c r="ACT171" s="45"/>
+      <c r="ACU171" s="45"/>
+      <c r="ACV171" s="45"/>
+      <c r="ACW171" s="45"/>
+      <c r="ACX171" s="45"/>
+      <c r="ACY171" s="45"/>
+      <c r="ACZ171" s="45"/>
+      <c r="ADA171" s="45"/>
+      <c r="ADB171" s="45"/>
+      <c r="ADC171" s="45"/>
+      <c r="ADD171" s="45"/>
+      <c r="ADE171" s="45"/>
+      <c r="ADF171" s="45"/>
+      <c r="ADG171" s="45"/>
+      <c r="ADH171" s="45"/>
+      <c r="ADI171" s="45"/>
+      <c r="ADJ171" s="45"/>
+      <c r="ADK171" s="45"/>
+      <c r="ADL171" s="45"/>
+      <c r="ADM171" s="45"/>
+      <c r="ADN171" s="45"/>
+      <c r="ADO171" s="45"/>
+      <c r="ADP171" s="45"/>
+      <c r="ADQ171" s="45"/>
+      <c r="ADR171" s="45"/>
+      <c r="ADS171" s="45"/>
+      <c r="ADT171" s="45"/>
+      <c r="ADU171" s="45"/>
+      <c r="ADV171" s="45"/>
+      <c r="ADW171" s="45"/>
+      <c r="ADX171" s="45"/>
+      <c r="ADY171" s="45"/>
+      <c r="ADZ171" s="45"/>
+      <c r="AEA171" s="45"/>
+      <c r="AEB171" s="45"/>
+      <c r="AEC171" s="45"/>
+      <c r="AED171" s="45"/>
+      <c r="AEE171" s="45"/>
+      <c r="AEF171" s="45"/>
+      <c r="AEG171" s="45"/>
+      <c r="AEH171" s="45"/>
+      <c r="AEI171" s="45"/>
+      <c r="AEJ171" s="45"/>
+      <c r="AEK171" s="45"/>
+      <c r="AEL171" s="45"/>
+      <c r="AEM171" s="45"/>
+      <c r="AEN171" s="45"/>
+      <c r="AEO171" s="45"/>
+      <c r="AEP171" s="45"/>
+      <c r="AEQ171" s="45"/>
+      <c r="AER171" s="45"/>
+      <c r="AES171" s="45"/>
+      <c r="AET171" s="45"/>
+      <c r="AEU171" s="45"/>
+      <c r="AEV171" s="45"/>
+      <c r="AEW171" s="45"/>
+      <c r="AEX171" s="45"/>
+      <c r="AEY171" s="45"/>
+      <c r="AEZ171" s="45"/>
+      <c r="AFA171" s="45"/>
+      <c r="AFB171" s="45"/>
+      <c r="AFC171" s="45"/>
+      <c r="AFD171" s="45"/>
+      <c r="AFE171" s="45"/>
+      <c r="AFF171" s="45"/>
+      <c r="AFG171" s="45"/>
+      <c r="AFH171" s="45"/>
+      <c r="AFI171" s="45"/>
+      <c r="AFJ171" s="45"/>
+      <c r="AFK171" s="45"/>
+      <c r="AFL171" s="45"/>
+      <c r="AFM171" s="45"/>
+      <c r="AFN171" s="45"/>
+      <c r="AFO171" s="45"/>
+      <c r="AFP171" s="45"/>
+      <c r="AFQ171" s="45"/>
+      <c r="AFR171" s="45"/>
+      <c r="AFS171" s="45"/>
+      <c r="AFT171" s="45"/>
+      <c r="AFU171" s="45"/>
+      <c r="AFV171" s="45"/>
+      <c r="AFW171" s="45"/>
+      <c r="AFX171" s="45"/>
+      <c r="AFY171" s="45"/>
+      <c r="AFZ171" s="45"/>
+      <c r="AGA171" s="45"/>
+      <c r="AGB171" s="45"/>
+      <c r="AGC171" s="45"/>
+      <c r="AGD171" s="45"/>
+      <c r="AGE171" s="45"/>
+      <c r="AGF171" s="45"/>
+      <c r="AGG171" s="45"/>
+      <c r="AGH171" s="45"/>
+      <c r="AGI171" s="45"/>
+      <c r="AGJ171" s="45"/>
+      <c r="AGK171" s="45"/>
+      <c r="AGL171" s="45"/>
+      <c r="AGM171" s="45"/>
+      <c r="AGN171" s="45"/>
+      <c r="AGO171" s="45"/>
+      <c r="AGP171" s="45"/>
+      <c r="AGQ171" s="45"/>
+      <c r="AGR171" s="45"/>
+      <c r="AGS171" s="45"/>
+      <c r="AGT171" s="45"/>
+      <c r="AGU171" s="45"/>
+      <c r="AGV171" s="45"/>
+      <c r="AGW171" s="45"/>
+      <c r="AGX171" s="45"/>
+      <c r="AGY171" s="45"/>
+      <c r="AGZ171" s="45"/>
+      <c r="AHA171" s="45"/>
+      <c r="AHB171" s="45"/>
+      <c r="AHC171" s="45"/>
+      <c r="AHD171" s="45"/>
+      <c r="AHE171" s="45"/>
+      <c r="AHF171" s="45"/>
+      <c r="AHG171" s="45"/>
+      <c r="AHH171" s="45"/>
+      <c r="AHI171" s="45"/>
+      <c r="AHJ171" s="45"/>
+      <c r="AHK171" s="45"/>
+      <c r="AHL171" s="45"/>
+      <c r="AHM171" s="45"/>
+      <c r="AHN171" s="45"/>
+      <c r="AHO171" s="45"/>
+      <c r="AHP171" s="45"/>
+      <c r="AHQ171" s="45"/>
+      <c r="AHR171" s="45"/>
+      <c r="AHS171" s="45"/>
+      <c r="AHT171" s="45"/>
+      <c r="AHU171" s="45"/>
+      <c r="AHV171" s="45"/>
+      <c r="AHW171" s="45"/>
+      <c r="AHX171" s="45"/>
+      <c r="AHY171" s="45"/>
+      <c r="AHZ171" s="45"/>
+      <c r="AIA171" s="45"/>
+      <c r="AIB171" s="45"/>
+      <c r="AIC171" s="45"/>
+      <c r="AID171" s="45"/>
+      <c r="AIE171" s="45"/>
+      <c r="AIF171" s="45"/>
+      <c r="AIG171" s="45"/>
+      <c r="AIH171" s="45"/>
+      <c r="AII171" s="45"/>
+      <c r="AIJ171" s="45"/>
+      <c r="AIK171" s="45"/>
+      <c r="AIL171" s="45"/>
+      <c r="AIM171" s="45"/>
+      <c r="AIN171" s="45"/>
+      <c r="AIO171" s="45"/>
+      <c r="AIP171" s="45"/>
+      <c r="AIQ171" s="45"/>
+      <c r="AIR171" s="45"/>
+      <c r="AIS171" s="45"/>
+      <c r="AIT171" s="45"/>
+      <c r="AIU171" s="45"/>
+      <c r="AIV171" s="45"/>
+      <c r="AIW171" s="45"/>
+      <c r="AIX171" s="45"/>
+      <c r="AIY171" s="45"/>
+      <c r="AIZ171" s="45"/>
+      <c r="AJA171" s="45"/>
+      <c r="AJB171" s="45"/>
+      <c r="AJC171" s="45"/>
+      <c r="AJD171" s="45"/>
+      <c r="AJE171" s="45"/>
+      <c r="AJF171" s="45"/>
+      <c r="AJG171" s="45"/>
+      <c r="AJH171" s="45"/>
+      <c r="AJI171" s="45"/>
+      <c r="AJJ171" s="45"/>
+      <c r="AJK171" s="45"/>
+      <c r="AJL171" s="45"/>
+      <c r="AJM171" s="45"/>
+      <c r="AJN171" s="45"/>
+      <c r="AJO171" s="45"/>
+      <c r="AJP171" s="45"/>
+      <c r="AJQ171" s="45"/>
+      <c r="AJR171" s="45"/>
+      <c r="AJS171" s="45"/>
+      <c r="AJT171" s="45"/>
+      <c r="AJU171" s="45"/>
+      <c r="AJV171" s="45"/>
+      <c r="AJW171" s="45"/>
+      <c r="AJX171" s="45"/>
+      <c r="AJY171" s="45"/>
+      <c r="AJZ171" s="45"/>
+      <c r="AKA171" s="45"/>
+      <c r="AKB171" s="45"/>
+      <c r="AKC171" s="45"/>
+      <c r="AKD171" s="45"/>
+      <c r="AKE171" s="45"/>
+      <c r="AKF171" s="45"/>
+      <c r="AKG171" s="45"/>
+      <c r="AKH171" s="45"/>
+      <c r="AKI171" s="45"/>
+      <c r="AKJ171" s="45"/>
+      <c r="AKK171" s="45"/>
+      <c r="AKL171" s="45"/>
+      <c r="AKM171" s="45"/>
+      <c r="AKN171" s="45"/>
+      <c r="AKO171" s="45"/>
+      <c r="AKP171" s="45"/>
+      <c r="AKQ171" s="45"/>
+      <c r="AKR171" s="45"/>
+      <c r="AKS171" s="45"/>
+      <c r="AKT171" s="45"/>
+      <c r="AKU171" s="45"/>
+      <c r="AKV171" s="45"/>
+      <c r="AKW171" s="45"/>
+      <c r="AKX171" s="45"/>
+      <c r="AKY171" s="45"/>
+      <c r="AKZ171" s="45"/>
+      <c r="ALA171" s="45"/>
+      <c r="ALB171" s="45"/>
+      <c r="ALC171" s="45"/>
+      <c r="ALD171" s="45"/>
+      <c r="ALE171" s="45"/>
+      <c r="ALF171" s="45"/>
+      <c r="ALG171" s="45"/>
+      <c r="ALH171" s="45"/>
+      <c r="ALI171" s="45"/>
+      <c r="ALJ171" s="45"/>
+      <c r="ALK171" s="45"/>
+      <c r="ALL171" s="45"/>
+      <c r="ALM171" s="45"/>
+      <c r="ALN171" s="45"/>
+      <c r="ALO171" s="45"/>
+      <c r="ALP171" s="45"/>
+      <c r="ALQ171" s="45"/>
+      <c r="ALR171" s="45"/>
+      <c r="ALS171" s="45"/>
+      <c r="ALT171" s="45"/>
+      <c r="ALU171" s="45"/>
+      <c r="ALV171" s="45"/>
+      <c r="ALW171" s="45"/>
+      <c r="ALX171" s="45"/>
+      <c r="ALY171" s="45"/>
+      <c r="ALZ171" s="45"/>
+      <c r="AMA171" s="45"/>
+      <c r="AMB171" s="45"/>
+      <c r="AMC171" s="45"/>
+      <c r="AMD171" s="45"/>
+      <c r="AME171" s="45"/>
+      <c r="AMF171" s="45"/>
+      <c r="AMG171" s="45"/>
+      <c r="AMH171" s="45"/>
+      <c r="AMI171" s="45"/>
+      <c r="AMJ171" s="45"/>
+    </row>
+    <row r="172" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B172" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C172" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="L172" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="M172" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N172" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="O172" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="P172" s="41"/>
+      <c r="Q172" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="R172" s="45"/>
+      <c r="S172" s="45"/>
+      <c r="T172" s="45"/>
+      <c r="U172" s="45"/>
+      <c r="V172" s="45"/>
+      <c r="W172" s="45"/>
+      <c r="X172" s="45"/>
+      <c r="Y172" s="45"/>
+      <c r="Z172" s="45"/>
+      <c r="AA172" s="45"/>
+      <c r="AB172" s="45"/>
+      <c r="AC172" s="45"/>
+      <c r="AD172" s="45"/>
+      <c r="AE172" s="45"/>
+      <c r="AF172" s="45"/>
+      <c r="AG172" s="45"/>
+      <c r="AH172" s="45"/>
+      <c r="AI172" s="45"/>
+      <c r="AJ172" s="45"/>
+      <c r="AK172" s="45"/>
+      <c r="AL172" s="45"/>
+      <c r="AM172" s="45"/>
+      <c r="AN172" s="45"/>
+      <c r="AO172" s="45"/>
+      <c r="AP172" s="45"/>
+      <c r="AQ172" s="45"/>
+      <c r="AR172" s="45"/>
+      <c r="AS172" s="45"/>
+      <c r="AT172" s="45"/>
+      <c r="AU172" s="45"/>
+      <c r="AV172" s="45"/>
+      <c r="AW172" s="45"/>
+      <c r="AX172" s="45"/>
+      <c r="AY172" s="45"/>
+      <c r="AZ172" s="45"/>
+      <c r="BA172" s="45"/>
+      <c r="BB172" s="45"/>
+      <c r="BC172" s="45"/>
+      <c r="BD172" s="45"/>
+      <c r="BE172" s="45"/>
+      <c r="BF172" s="45"/>
+      <c r="BG172" s="45"/>
+      <c r="BH172" s="45"/>
+      <c r="BI172" s="45"/>
+      <c r="BJ172" s="45"/>
+      <c r="BK172" s="45"/>
+      <c r="BL172" s="45"/>
+      <c r="BM172" s="45"/>
+      <c r="BN172" s="45"/>
+      <c r="BO172" s="45"/>
+      <c r="BP172" s="45"/>
+      <c r="BQ172" s="45"/>
+      <c r="BR172" s="45"/>
+      <c r="BS172" s="45"/>
+      <c r="BT172" s="45"/>
+      <c r="BU172" s="45"/>
+      <c r="BV172" s="45"/>
+      <c r="BW172" s="45"/>
+      <c r="BX172" s="45"/>
+      <c r="BY172" s="45"/>
+      <c r="BZ172" s="45"/>
+      <c r="CA172" s="45"/>
+      <c r="CB172" s="45"/>
+      <c r="CC172" s="45"/>
+      <c r="CD172" s="45"/>
+      <c r="CE172" s="45"/>
+      <c r="CF172" s="45"/>
+      <c r="CG172" s="45"/>
+      <c r="CH172" s="45"/>
+      <c r="CI172" s="45"/>
+      <c r="CJ172" s="45"/>
+      <c r="CK172" s="45"/>
+      <c r="CL172" s="45"/>
+      <c r="CM172" s="45"/>
+      <c r="CN172" s="45"/>
+      <c r="CO172" s="45"/>
+      <c r="CP172" s="45"/>
+      <c r="CQ172" s="45"/>
+      <c r="CR172" s="45"/>
+      <c r="CS172" s="45"/>
+      <c r="CT172" s="45"/>
+      <c r="CU172" s="45"/>
+      <c r="CV172" s="45"/>
+      <c r="CW172" s="45"/>
+      <c r="CX172" s="45"/>
+      <c r="CY172" s="45"/>
+      <c r="CZ172" s="45"/>
+      <c r="DA172" s="45"/>
+      <c r="DB172" s="45"/>
+      <c r="DC172" s="45"/>
+      <c r="DD172" s="45"/>
+      <c r="DE172" s="45"/>
+      <c r="DF172" s="45"/>
+      <c r="DG172" s="45"/>
+      <c r="DH172" s="45"/>
+      <c r="DI172" s="45"/>
+      <c r="DJ172" s="45"/>
+      <c r="DK172" s="45"/>
+      <c r="DL172" s="45"/>
+      <c r="DM172" s="45"/>
+      <c r="DN172" s="45"/>
+      <c r="DO172" s="45"/>
+      <c r="DP172" s="45"/>
+      <c r="DQ172" s="45"/>
+      <c r="DR172" s="45"/>
+      <c r="DS172" s="45"/>
+      <c r="DT172" s="45"/>
+      <c r="DU172" s="45"/>
+      <c r="DV172" s="45"/>
+      <c r="DW172" s="45"/>
+      <c r="DX172" s="45"/>
+      <c r="DY172" s="45"/>
+      <c r="DZ172" s="45"/>
+      <c r="EA172" s="45"/>
+      <c r="EB172" s="45"/>
+      <c r="EC172" s="45"/>
+      <c r="ED172" s="45"/>
+      <c r="EE172" s="45"/>
+      <c r="EF172" s="45"/>
+      <c r="EG172" s="45"/>
+      <c r="EH172" s="45"/>
+      <c r="EI172" s="45"/>
+      <c r="EJ172" s="45"/>
+      <c r="EK172" s="45"/>
+      <c r="EL172" s="45"/>
+      <c r="EM172" s="45"/>
+      <c r="EN172" s="45"/>
+      <c r="EO172" s="45"/>
+      <c r="EP172" s="45"/>
+      <c r="EQ172" s="45"/>
+      <c r="ER172" s="45"/>
+      <c r="ES172" s="45"/>
+      <c r="ET172" s="45"/>
+      <c r="EU172" s="45"/>
+      <c r="EV172" s="45"/>
+      <c r="EW172" s="45"/>
+      <c r="EX172" s="45"/>
+      <c r="EY172" s="45"/>
+      <c r="EZ172" s="45"/>
+      <c r="FA172" s="45"/>
+      <c r="FB172" s="45"/>
+      <c r="FC172" s="45"/>
+      <c r="FD172" s="45"/>
+      <c r="FE172" s="45"/>
+      <c r="FF172" s="45"/>
+      <c r="FG172" s="45"/>
+      <c r="FH172" s="45"/>
+      <c r="FI172" s="45"/>
+      <c r="FJ172" s="45"/>
+      <c r="FK172" s="45"/>
+      <c r="FL172" s="45"/>
+      <c r="FM172" s="45"/>
+      <c r="FN172" s="45"/>
+      <c r="FO172" s="45"/>
+      <c r="FP172" s="45"/>
+      <c r="FQ172" s="45"/>
+      <c r="FR172" s="45"/>
+      <c r="FS172" s="45"/>
+      <c r="FT172" s="45"/>
+      <c r="FU172" s="45"/>
+      <c r="FV172" s="45"/>
+      <c r="FW172" s="45"/>
+      <c r="FX172" s="45"/>
+      <c r="FY172" s="45"/>
+      <c r="FZ172" s="45"/>
+      <c r="GA172" s="45"/>
+      <c r="GB172" s="45"/>
+      <c r="GC172" s="45"/>
+      <c r="GD172" s="45"/>
+      <c r="GE172" s="45"/>
+      <c r="GF172" s="45"/>
+      <c r="GG172" s="45"/>
+      <c r="GH172" s="45"/>
+      <c r="GI172" s="45"/>
+      <c r="GJ172" s="45"/>
+      <c r="GK172" s="45"/>
+      <c r="GL172" s="45"/>
+      <c r="GM172" s="45"/>
+      <c r="GN172" s="45"/>
+      <c r="GO172" s="45"/>
+      <c r="GP172" s="45"/>
+      <c r="GQ172" s="45"/>
+      <c r="GR172" s="45"/>
+      <c r="GS172" s="45"/>
+      <c r="GT172" s="45"/>
+      <c r="GU172" s="45"/>
+      <c r="GV172" s="45"/>
+      <c r="GW172" s="45"/>
+      <c r="GX172" s="45"/>
+      <c r="GY172" s="45"/>
+      <c r="GZ172" s="45"/>
+      <c r="HA172" s="45"/>
+      <c r="HB172" s="45"/>
+      <c r="HC172" s="45"/>
+      <c r="HD172" s="45"/>
+      <c r="HE172" s="45"/>
+      <c r="HF172" s="45"/>
+      <c r="HG172" s="45"/>
+      <c r="HH172" s="45"/>
+      <c r="HI172" s="45"/>
+      <c r="HJ172" s="45"/>
+      <c r="HK172" s="45"/>
+      <c r="HL172" s="45"/>
+      <c r="HM172" s="45"/>
+      <c r="HN172" s="45"/>
+      <c r="HO172" s="45"/>
+      <c r="HP172" s="45"/>
+      <c r="HQ172" s="45"/>
+      <c r="HR172" s="45"/>
+      <c r="HS172" s="45"/>
+      <c r="HT172" s="45"/>
+      <c r="HU172" s="45"/>
+      <c r="HV172" s="45"/>
+      <c r="HW172" s="45"/>
+      <c r="HX172" s="45"/>
+      <c r="HY172" s="45"/>
+      <c r="HZ172" s="45"/>
+      <c r="IA172" s="45"/>
+      <c r="IB172" s="45"/>
+      <c r="IC172" s="45"/>
+      <c r="ID172" s="45"/>
+      <c r="IE172" s="45"/>
+      <c r="IF172" s="45"/>
+      <c r="IG172" s="45"/>
+      <c r="IH172" s="45"/>
+      <c r="II172" s="45"/>
+      <c r="IJ172" s="45"/>
+      <c r="IK172" s="45"/>
+      <c r="IL172" s="45"/>
+      <c r="IM172" s="45"/>
+      <c r="IN172" s="45"/>
+      <c r="IO172" s="45"/>
+      <c r="IP172" s="45"/>
+      <c r="IQ172" s="45"/>
+      <c r="IR172" s="45"/>
+      <c r="IS172" s="45"/>
+      <c r="IT172" s="45"/>
+      <c r="IU172" s="45"/>
+      <c r="IV172" s="45"/>
+      <c r="IW172" s="45"/>
+      <c r="IX172" s="45"/>
+      <c r="IY172" s="45"/>
+      <c r="IZ172" s="45"/>
+      <c r="JA172" s="45"/>
+      <c r="JB172" s="45"/>
+      <c r="JC172" s="45"/>
+      <c r="JD172" s="45"/>
+      <c r="JE172" s="45"/>
+      <c r="JF172" s="45"/>
+      <c r="JG172" s="45"/>
+      <c r="JH172" s="45"/>
+      <c r="JI172" s="45"/>
+      <c r="JJ172" s="45"/>
+      <c r="JK172" s="45"/>
+      <c r="JL172" s="45"/>
+      <c r="JM172" s="45"/>
+      <c r="JN172" s="45"/>
+      <c r="JO172" s="45"/>
+      <c r="JP172" s="45"/>
+      <c r="JQ172" s="45"/>
+      <c r="JR172" s="45"/>
+      <c r="JS172" s="45"/>
+      <c r="JT172" s="45"/>
+      <c r="JU172" s="45"/>
+      <c r="JV172" s="45"/>
+      <c r="JW172" s="45"/>
+      <c r="JX172" s="45"/>
+      <c r="JY172" s="45"/>
+      <c r="JZ172" s="45"/>
+      <c r="KA172" s="45"/>
+      <c r="KB172" s="45"/>
+      <c r="KC172" s="45"/>
+      <c r="KD172" s="45"/>
+      <c r="KE172" s="45"/>
+      <c r="KF172" s="45"/>
+      <c r="KG172" s="45"/>
+      <c r="KH172" s="45"/>
+      <c r="KI172" s="45"/>
+      <c r="KJ172" s="45"/>
+      <c r="KK172" s="45"/>
+      <c r="KL172" s="45"/>
+      <c r="KM172" s="45"/>
+      <c r="KN172" s="45"/>
+      <c r="KO172" s="45"/>
+      <c r="KP172" s="45"/>
+      <c r="KQ172" s="45"/>
+      <c r="KR172" s="45"/>
+      <c r="KS172" s="45"/>
+      <c r="KT172" s="45"/>
+      <c r="KU172" s="45"/>
+      <c r="KV172" s="45"/>
+      <c r="KW172" s="45"/>
+      <c r="KX172" s="45"/>
+      <c r="KY172" s="45"/>
+      <c r="KZ172" s="45"/>
+      <c r="LA172" s="45"/>
+      <c r="LB172" s="45"/>
+      <c r="LC172" s="45"/>
+      <c r="LD172" s="45"/>
+      <c r="LE172" s="45"/>
+      <c r="LF172" s="45"/>
+      <c r="LG172" s="45"/>
+      <c r="LH172" s="45"/>
+      <c r="LI172" s="45"/>
+      <c r="LJ172" s="45"/>
+      <c r="LK172" s="45"/>
+      <c r="LL172" s="45"/>
+      <c r="LM172" s="45"/>
+      <c r="LN172" s="45"/>
+      <c r="LO172" s="45"/>
+      <c r="LP172" s="45"/>
+      <c r="LQ172" s="45"/>
+      <c r="LR172" s="45"/>
+      <c r="LS172" s="45"/>
+      <c r="LT172" s="45"/>
+      <c r="LU172" s="45"/>
+      <c r="LV172" s="45"/>
+      <c r="LW172" s="45"/>
+      <c r="LX172" s="45"/>
+      <c r="LY172" s="45"/>
+      <c r="LZ172" s="45"/>
+      <c r="MA172" s="45"/>
+      <c r="MB172" s="45"/>
+      <c r="MC172" s="45"/>
+      <c r="MD172" s="45"/>
+      <c r="ME172" s="45"/>
+      <c r="MF172" s="45"/>
+      <c r="MG172" s="45"/>
+      <c r="MH172" s="45"/>
+      <c r="MI172" s="45"/>
+      <c r="MJ172" s="45"/>
+      <c r="MK172" s="45"/>
+      <c r="ML172" s="45"/>
+      <c r="MM172" s="45"/>
+      <c r="MN172" s="45"/>
+      <c r="MO172" s="45"/>
+      <c r="MP172" s="45"/>
+      <c r="MQ172" s="45"/>
+      <c r="MR172" s="45"/>
+      <c r="MS172" s="45"/>
+      <c r="MT172" s="45"/>
+      <c r="MU172" s="45"/>
+      <c r="MV172" s="45"/>
+      <c r="MW172" s="45"/>
+      <c r="MX172" s="45"/>
+      <c r="MY172" s="45"/>
+      <c r="MZ172" s="45"/>
+      <c r="NA172" s="45"/>
+      <c r="NB172" s="45"/>
+      <c r="NC172" s="45"/>
+      <c r="ND172" s="45"/>
+      <c r="NE172" s="45"/>
+      <c r="NF172" s="45"/>
+      <c r="NG172" s="45"/>
+      <c r="NH172" s="45"/>
+      <c r="NI172" s="45"/>
+      <c r="NJ172" s="45"/>
+      <c r="NK172" s="45"/>
+      <c r="NL172" s="45"/>
+      <c r="NM172" s="45"/>
+      <c r="NN172" s="45"/>
+      <c r="NO172" s="45"/>
+      <c r="NP172" s="45"/>
+      <c r="NQ172" s="45"/>
+      <c r="NR172" s="45"/>
+      <c r="NS172" s="45"/>
+      <c r="NT172" s="45"/>
+      <c r="NU172" s="45"/>
+      <c r="NV172" s="45"/>
+      <c r="NW172" s="45"/>
+      <c r="NX172" s="45"/>
+      <c r="NY172" s="45"/>
+      <c r="NZ172" s="45"/>
+      <c r="OA172" s="45"/>
+      <c r="OB172" s="45"/>
+      <c r="OC172" s="45"/>
+      <c r="OD172" s="45"/>
+      <c r="OE172" s="45"/>
+      <c r="OF172" s="45"/>
+      <c r="OG172" s="45"/>
+      <c r="OH172" s="45"/>
+      <c r="OI172" s="45"/>
+      <c r="OJ172" s="45"/>
+      <c r="OK172" s="45"/>
+      <c r="OL172" s="45"/>
+      <c r="OM172" s="45"/>
+      <c r="ON172" s="45"/>
+      <c r="OO172" s="45"/>
+      <c r="OP172" s="45"/>
+      <c r="OQ172" s="45"/>
+      <c r="OR172" s="45"/>
+      <c r="OS172" s="45"/>
+      <c r="OT172" s="45"/>
+      <c r="OU172" s="45"/>
+      <c r="OV172" s="45"/>
+      <c r="OW172" s="45"/>
+      <c r="OX172" s="45"/>
+      <c r="OY172" s="45"/>
+      <c r="OZ172" s="45"/>
+      <c r="PA172" s="45"/>
+      <c r="PB172" s="45"/>
+      <c r="PC172" s="45"/>
+      <c r="PD172" s="45"/>
+      <c r="PE172" s="45"/>
+      <c r="PF172" s="45"/>
+      <c r="PG172" s="45"/>
+      <c r="PH172" s="45"/>
+      <c r="PI172" s="45"/>
+      <c r="PJ172" s="45"/>
+      <c r="PK172" s="45"/>
+      <c r="PL172" s="45"/>
+      <c r="PM172" s="45"/>
+      <c r="PN172" s="45"/>
+      <c r="PO172" s="45"/>
+      <c r="PP172" s="45"/>
+      <c r="PQ172" s="45"/>
+      <c r="PR172" s="45"/>
+      <c r="PS172" s="45"/>
+      <c r="PT172" s="45"/>
+      <c r="PU172" s="45"/>
+      <c r="PV172" s="45"/>
+      <c r="PW172" s="45"/>
+      <c r="PX172" s="45"/>
+      <c r="PY172" s="45"/>
+      <c r="PZ172" s="45"/>
+      <c r="QA172" s="45"/>
+      <c r="QB172" s="45"/>
+      <c r="QC172" s="45"/>
+      <c r="QD172" s="45"/>
+      <c r="QE172" s="45"/>
+      <c r="QF172" s="45"/>
+      <c r="QG172" s="45"/>
+      <c r="QH172" s="45"/>
+      <c r="QI172" s="45"/>
+      <c r="QJ172" s="45"/>
+      <c r="QK172" s="45"/>
+      <c r="QL172" s="45"/>
+      <c r="QM172" s="45"/>
+      <c r="QN172" s="45"/>
+      <c r="QO172" s="45"/>
+      <c r="QP172" s="45"/>
+      <c r="QQ172" s="45"/>
+      <c r="QR172" s="45"/>
+      <c r="QS172" s="45"/>
+      <c r="QT172" s="45"/>
+      <c r="QU172" s="45"/>
+      <c r="QV172" s="45"/>
+      <c r="QW172" s="45"/>
+      <c r="QX172" s="45"/>
+      <c r="QY172" s="45"/>
+      <c r="QZ172" s="45"/>
+      <c r="RA172" s="45"/>
+      <c r="RB172" s="45"/>
+      <c r="RC172" s="45"/>
+      <c r="RD172" s="45"/>
+      <c r="RE172" s="45"/>
+      <c r="RF172" s="45"/>
+      <c r="RG172" s="45"/>
+      <c r="RH172" s="45"/>
+      <c r="RI172" s="45"/>
+      <c r="RJ172" s="45"/>
+      <c r="RK172" s="45"/>
+      <c r="RL172" s="45"/>
+      <c r="RM172" s="45"/>
+      <c r="RN172" s="45"/>
+      <c r="RO172" s="45"/>
+      <c r="RP172" s="45"/>
+      <c r="RQ172" s="45"/>
+      <c r="RR172" s="45"/>
+      <c r="RS172" s="45"/>
+      <c r="RT172" s="45"/>
+      <c r="RU172" s="45"/>
+      <c r="RV172" s="45"/>
+      <c r="RW172" s="45"/>
+      <c r="RX172" s="45"/>
+      <c r="RY172" s="45"/>
+      <c r="RZ172" s="45"/>
+      <c r="SA172" s="45"/>
+      <c r="SB172" s="45"/>
+      <c r="SC172" s="45"/>
+      <c r="SD172" s="45"/>
+      <c r="SE172" s="45"/>
+      <c r="SF172" s="45"/>
+      <c r="SG172" s="45"/>
+      <c r="SH172" s="45"/>
+      <c r="SI172" s="45"/>
+      <c r="SJ172" s="45"/>
+      <c r="SK172" s="45"/>
+      <c r="SL172" s="45"/>
+      <c r="SM172" s="45"/>
+      <c r="SN172" s="45"/>
+      <c r="SO172" s="45"/>
+      <c r="SP172" s="45"/>
+      <c r="SQ172" s="45"/>
+      <c r="SR172" s="45"/>
+      <c r="SS172" s="45"/>
+      <c r="ST172" s="45"/>
+      <c r="SU172" s="45"/>
+      <c r="SV172" s="45"/>
+      <c r="SW172" s="45"/>
+      <c r="SX172" s="45"/>
+      <c r="SY172" s="45"/>
+      <c r="SZ172" s="45"/>
+      <c r="TA172" s="45"/>
+      <c r="TB172" s="45"/>
+      <c r="TC172" s="45"/>
+      <c r="TD172" s="45"/>
+      <c r="TE172" s="45"/>
+      <c r="TF172" s="45"/>
+      <c r="TG172" s="45"/>
+      <c r="TH172" s="45"/>
+      <c r="TI172" s="45"/>
+      <c r="TJ172" s="45"/>
+      <c r="TK172" s="45"/>
+      <c r="TL172" s="45"/>
+      <c r="TM172" s="45"/>
+      <c r="TN172" s="45"/>
+      <c r="TO172" s="45"/>
+      <c r="TP172" s="45"/>
+      <c r="TQ172" s="45"/>
+      <c r="TR172" s="45"/>
+      <c r="TS172" s="45"/>
+      <c r="TT172" s="45"/>
+      <c r="TU172" s="45"/>
+      <c r="TV172" s="45"/>
+      <c r="TW172" s="45"/>
+      <c r="TX172" s="45"/>
+      <c r="TY172" s="45"/>
+      <c r="TZ172" s="45"/>
+      <c r="UA172" s="45"/>
+      <c r="UB172" s="45"/>
+      <c r="UC172" s="45"/>
+      <c r="UD172" s="45"/>
+      <c r="UE172" s="45"/>
+      <c r="UF172" s="45"/>
+      <c r="UG172" s="45"/>
+      <c r="UH172" s="45"/>
+      <c r="UI172" s="45"/>
+      <c r="UJ172" s="45"/>
+      <c r="UK172" s="45"/>
+      <c r="UL172" s="45"/>
+      <c r="UM172" s="45"/>
+      <c r="UN172" s="45"/>
+      <c r="UO172" s="45"/>
+      <c r="UP172" s="45"/>
+      <c r="UQ172" s="45"/>
+      <c r="UR172" s="45"/>
+      <c r="US172" s="45"/>
+      <c r="UT172" s="45"/>
+      <c r="UU172" s="45"/>
+      <c r="UV172" s="45"/>
+      <c r="UW172" s="45"/>
+      <c r="UX172" s="45"/>
+      <c r="UY172" s="45"/>
+      <c r="UZ172" s="45"/>
+      <c r="VA172" s="45"/>
+      <c r="VB172" s="45"/>
+      <c r="VC172" s="45"/>
+      <c r="VD172" s="45"/>
+      <c r="VE172" s="45"/>
+      <c r="VF172" s="45"/>
+      <c r="VG172" s="45"/>
+      <c r="VH172" s="45"/>
+      <c r="VI172" s="45"/>
+      <c r="VJ172" s="45"/>
+      <c r="VK172" s="45"/>
+      <c r="VL172" s="45"/>
+      <c r="VM172" s="45"/>
+      <c r="VN172" s="45"/>
+      <c r="VO172" s="45"/>
+      <c r="VP172" s="45"/>
+      <c r="VQ172" s="45"/>
+      <c r="VR172" s="45"/>
+      <c r="VS172" s="45"/>
+      <c r="VT172" s="45"/>
+      <c r="VU172" s="45"/>
+      <c r="VV172" s="45"/>
+      <c r="VW172" s="45"/>
+      <c r="VX172" s="45"/>
+      <c r="VY172" s="45"/>
+      <c r="VZ172" s="45"/>
+      <c r="WA172" s="45"/>
+      <c r="WB172" s="45"/>
+      <c r="WC172" s="45"/>
+      <c r="WD172" s="45"/>
+      <c r="WE172" s="45"/>
+      <c r="WF172" s="45"/>
+      <c r="WG172" s="45"/>
+      <c r="WH172" s="45"/>
+      <c r="WI172" s="45"/>
+      <c r="WJ172" s="45"/>
+      <c r="WK172" s="45"/>
+      <c r="WL172" s="45"/>
+      <c r="WM172" s="45"/>
+      <c r="WN172" s="45"/>
+      <c r="WO172" s="45"/>
+      <c r="WP172" s="45"/>
+      <c r="WQ172" s="45"/>
+      <c r="WR172" s="45"/>
+      <c r="WS172" s="45"/>
+      <c r="WT172" s="45"/>
+      <c r="WU172" s="45"/>
+      <c r="WV172" s="45"/>
+      <c r="WW172" s="45"/>
+      <c r="WX172" s="45"/>
+      <c r="WY172" s="45"/>
+      <c r="WZ172" s="45"/>
+      <c r="XA172" s="45"/>
+      <c r="XB172" s="45"/>
+      <c r="XC172" s="45"/>
+      <c r="XD172" s="45"/>
+      <c r="XE172" s="45"/>
+      <c r="XF172" s="45"/>
+      <c r="XG172" s="45"/>
+      <c r="XH172" s="45"/>
+      <c r="XI172" s="45"/>
+      <c r="XJ172" s="45"/>
+      <c r="XK172" s="45"/>
+      <c r="XL172" s="45"/>
+      <c r="XM172" s="45"/>
+      <c r="XN172" s="45"/>
+      <c r="XO172" s="45"/>
+      <c r="XP172" s="45"/>
+      <c r="XQ172" s="45"/>
+      <c r="XR172" s="45"/>
+      <c r="XS172" s="45"/>
+      <c r="XT172" s="45"/>
+      <c r="XU172" s="45"/>
+      <c r="XV172" s="45"/>
+      <c r="XW172" s="45"/>
+      <c r="XX172" s="45"/>
+      <c r="XY172" s="45"/>
+      <c r="XZ172" s="45"/>
+      <c r="YA172" s="45"/>
+      <c r="YB172" s="45"/>
+      <c r="YC172" s="45"/>
+      <c r="YD172" s="45"/>
+      <c r="YE172" s="45"/>
+      <c r="YF172" s="45"/>
+      <c r="YG172" s="45"/>
+      <c r="YH172" s="45"/>
+      <c r="YI172" s="45"/>
+      <c r="YJ172" s="45"/>
+      <c r="YK172" s="45"/>
+      <c r="YL172" s="45"/>
+      <c r="YM172" s="45"/>
+      <c r="YN172" s="45"/>
+      <c r="YO172" s="45"/>
+      <c r="YP172" s="45"/>
+      <c r="YQ172" s="45"/>
+      <c r="YR172" s="45"/>
+      <c r="YS172" s="45"/>
+      <c r="YT172" s="45"/>
+      <c r="YU172" s="45"/>
+      <c r="YV172" s="45"/>
+      <c r="YW172" s="45"/>
+      <c r="YX172" s="45"/>
+      <c r="YY172" s="45"/>
+      <c r="YZ172" s="45"/>
+      <c r="ZA172" s="45"/>
+      <c r="ZB172" s="45"/>
+      <c r="ZC172" s="45"/>
+      <c r="ZD172" s="45"/>
+      <c r="ZE172" s="45"/>
+      <c r="ZF172" s="45"/>
+      <c r="ZG172" s="45"/>
+      <c r="ZH172" s="45"/>
+      <c r="ZI172" s="45"/>
+      <c r="ZJ172" s="45"/>
+      <c r="ZK172" s="45"/>
+      <c r="ZL172" s="45"/>
+      <c r="ZM172" s="45"/>
+      <c r="ZN172" s="45"/>
+      <c r="ZO172" s="45"/>
+      <c r="ZP172" s="45"/>
+      <c r="ZQ172" s="45"/>
+      <c r="ZR172" s="45"/>
+      <c r="ZS172" s="45"/>
+      <c r="ZT172" s="45"/>
+      <c r="ZU172" s="45"/>
+      <c r="ZV172" s="45"/>
+      <c r="ZW172" s="45"/>
+      <c r="ZX172" s="45"/>
+      <c r="ZY172" s="45"/>
+      <c r="ZZ172" s="45"/>
+      <c r="AAA172" s="45"/>
+      <c r="AAB172" s="45"/>
+      <c r="AAC172" s="45"/>
+      <c r="AAD172" s="45"/>
+      <c r="AAE172" s="45"/>
+      <c r="AAF172" s="45"/>
+      <c r="AAG172" s="45"/>
+      <c r="AAH172" s="45"/>
+      <c r="AAI172" s="45"/>
+      <c r="AAJ172" s="45"/>
+      <c r="AAK172" s="45"/>
+      <c r="AAL172" s="45"/>
+      <c r="AAM172" s="45"/>
+      <c r="AAN172" s="45"/>
+      <c r="AAO172" s="45"/>
+      <c r="AAP172" s="45"/>
+      <c r="AAQ172" s="45"/>
+      <c r="AAR172" s="45"/>
+      <c r="AAS172" s="45"/>
+      <c r="AAT172" s="45"/>
+      <c r="AAU172" s="45"/>
+      <c r="AAV172" s="45"/>
+      <c r="AAW172" s="45"/>
+      <c r="AAX172" s="45"/>
+      <c r="AAY172" s="45"/>
+      <c r="AAZ172" s="45"/>
+      <c r="ABA172" s="45"/>
+      <c r="ABB172" s="45"/>
+      <c r="ABC172" s="45"/>
+      <c r="ABD172" s="45"/>
+      <c r="ABE172" s="45"/>
+      <c r="ABF172" s="45"/>
+      <c r="ABG172" s="45"/>
+      <c r="ABH172" s="45"/>
+      <c r="ABI172" s="45"/>
+      <c r="ABJ172" s="45"/>
+      <c r="ABK172" s="45"/>
+      <c r="ABL172" s="45"/>
+      <c r="ABM172" s="45"/>
+      <c r="ABN172" s="45"/>
+      <c r="ABO172" s="45"/>
+      <c r="ABP172" s="45"/>
+      <c r="ABQ172" s="45"/>
+      <c r="ABR172" s="45"/>
+      <c r="ABS172" s="45"/>
+      <c r="ABT172" s="45"/>
+      <c r="ABU172" s="45"/>
+      <c r="ABV172" s="45"/>
+      <c r="ABW172" s="45"/>
+      <c r="ABX172" s="45"/>
+      <c r="ABY172" s="45"/>
+      <c r="ABZ172" s="45"/>
+      <c r="ACA172" s="45"/>
+      <c r="ACB172" s="45"/>
+      <c r="ACC172" s="45"/>
+      <c r="ACD172" s="45"/>
+      <c r="ACE172" s="45"/>
+      <c r="ACF172" s="45"/>
+      <c r="ACG172" s="45"/>
+      <c r="ACH172" s="45"/>
+      <c r="ACI172" s="45"/>
+      <c r="ACJ172" s="45"/>
+      <c r="ACK172" s="45"/>
+      <c r="ACL172" s="45"/>
+      <c r="ACM172" s="45"/>
+      <c r="ACN172" s="45"/>
+      <c r="ACO172" s="45"/>
+      <c r="ACP172" s="45"/>
+      <c r="ACQ172" s="45"/>
+      <c r="ACR172" s="45"/>
+      <c r="ACS172" s="45"/>
+      <c r="ACT172" s="45"/>
+      <c r="ACU172" s="45"/>
+      <c r="ACV172" s="45"/>
+      <c r="ACW172" s="45"/>
+      <c r="ACX172" s="45"/>
+      <c r="ACY172" s="45"/>
+      <c r="ACZ172" s="45"/>
+      <c r="ADA172" s="45"/>
+      <c r="ADB172" s="45"/>
+      <c r="ADC172" s="45"/>
+      <c r="ADD172" s="45"/>
+      <c r="ADE172" s="45"/>
+      <c r="ADF172" s="45"/>
+      <c r="ADG172" s="45"/>
+      <c r="ADH172" s="45"/>
+      <c r="ADI172" s="45"/>
+      <c r="ADJ172" s="45"/>
+      <c r="ADK172" s="45"/>
+      <c r="ADL172" s="45"/>
+      <c r="ADM172" s="45"/>
+      <c r="ADN172" s="45"/>
+      <c r="ADO172" s="45"/>
+      <c r="ADP172" s="45"/>
+      <c r="ADQ172" s="45"/>
+      <c r="ADR172" s="45"/>
+      <c r="ADS172" s="45"/>
+      <c r="ADT172" s="45"/>
+      <c r="ADU172" s="45"/>
+      <c r="ADV172" s="45"/>
+      <c r="ADW172" s="45"/>
+      <c r="ADX172" s="45"/>
+      <c r="ADY172" s="45"/>
+      <c r="ADZ172" s="45"/>
+      <c r="AEA172" s="45"/>
+      <c r="AEB172" s="45"/>
+      <c r="AEC172" s="45"/>
+      <c r="AED172" s="45"/>
+      <c r="AEE172" s="45"/>
+      <c r="AEF172" s="45"/>
+      <c r="AEG172" s="45"/>
+      <c r="AEH172" s="45"/>
+      <c r="AEI172" s="45"/>
+      <c r="AEJ172" s="45"/>
+      <c r="AEK172" s="45"/>
+      <c r="AEL172" s="45"/>
+      <c r="AEM172" s="45"/>
+      <c r="AEN172" s="45"/>
+      <c r="AEO172" s="45"/>
+      <c r="AEP172" s="45"/>
+      <c r="AEQ172" s="45"/>
+      <c r="AER172" s="45"/>
+      <c r="AES172" s="45"/>
+      <c r="AET172" s="45"/>
+      <c r="AEU172" s="45"/>
+      <c r="AEV172" s="45"/>
+      <c r="AEW172" s="45"/>
+      <c r="AEX172" s="45"/>
+      <c r="AEY172" s="45"/>
+      <c r="AEZ172" s="45"/>
+      <c r="AFA172" s="45"/>
+      <c r="AFB172" s="45"/>
+      <c r="AFC172" s="45"/>
+      <c r="AFD172" s="45"/>
+      <c r="AFE172" s="45"/>
+      <c r="AFF172" s="45"/>
+      <c r="AFG172" s="45"/>
+      <c r="AFH172" s="45"/>
+      <c r="AFI172" s="45"/>
+      <c r="AFJ172" s="45"/>
+      <c r="AFK172" s="45"/>
+      <c r="AFL172" s="45"/>
+      <c r="AFM172" s="45"/>
+      <c r="AFN172" s="45"/>
+      <c r="AFO172" s="45"/>
+      <c r="AFP172" s="45"/>
+      <c r="AFQ172" s="45"/>
+      <c r="AFR172" s="45"/>
+      <c r="AFS172" s="45"/>
+      <c r="AFT172" s="45"/>
+      <c r="AFU172" s="45"/>
+      <c r="AFV172" s="45"/>
+      <c r="AFW172" s="45"/>
+      <c r="AFX172" s="45"/>
+      <c r="AFY172" s="45"/>
+      <c r="AFZ172" s="45"/>
+      <c r="AGA172" s="45"/>
+      <c r="AGB172" s="45"/>
+      <c r="AGC172" s="45"/>
+      <c r="AGD172" s="45"/>
+      <c r="AGE172" s="45"/>
+      <c r="AGF172" s="45"/>
+      <c r="AGG172" s="45"/>
+      <c r="AGH172" s="45"/>
+      <c r="AGI172" s="45"/>
+      <c r="AGJ172" s="45"/>
+      <c r="AGK172" s="45"/>
+      <c r="AGL172" s="45"/>
+      <c r="AGM172" s="45"/>
+      <c r="AGN172" s="45"/>
+      <c r="AGO172" s="45"/>
+      <c r="AGP172" s="45"/>
+      <c r="AGQ172" s="45"/>
+      <c r="AGR172" s="45"/>
+      <c r="AGS172" s="45"/>
+      <c r="AGT172" s="45"/>
+      <c r="AGU172" s="45"/>
+      <c r="AGV172" s="45"/>
+      <c r="AGW172" s="45"/>
+      <c r="AGX172" s="45"/>
+      <c r="AGY172" s="45"/>
+      <c r="AGZ172" s="45"/>
+      <c r="AHA172" s="45"/>
+      <c r="AHB172" s="45"/>
+      <c r="AHC172" s="45"/>
+      <c r="AHD172" s="45"/>
+      <c r="AHE172" s="45"/>
+      <c r="AHF172" s="45"/>
+      <c r="AHG172" s="45"/>
+      <c r="AHH172" s="45"/>
+      <c r="AHI172" s="45"/>
+      <c r="AHJ172" s="45"/>
+      <c r="AHK172" s="45"/>
+      <c r="AHL172" s="45"/>
+      <c r="AHM172" s="45"/>
+      <c r="AHN172" s="45"/>
+      <c r="AHO172" s="45"/>
+      <c r="AHP172" s="45"/>
+      <c r="AHQ172" s="45"/>
+      <c r="AHR172" s="45"/>
+      <c r="AHS172" s="45"/>
+      <c r="AHT172" s="45"/>
+      <c r="AHU172" s="45"/>
+      <c r="AHV172" s="45"/>
+      <c r="AHW172" s="45"/>
+      <c r="AHX172" s="45"/>
+      <c r="AHY172" s="45"/>
+      <c r="AHZ172" s="45"/>
+      <c r="AIA172" s="45"/>
+      <c r="AIB172" s="45"/>
+      <c r="AIC172" s="45"/>
+      <c r="AID172" s="45"/>
+      <c r="AIE172" s="45"/>
+      <c r="AIF172" s="45"/>
+      <c r="AIG172" s="45"/>
+      <c r="AIH172" s="45"/>
+      <c r="AII172" s="45"/>
+      <c r="AIJ172" s="45"/>
+      <c r="AIK172" s="45"/>
+      <c r="AIL172" s="45"/>
+      <c r="AIM172" s="45"/>
+      <c r="AIN172" s="45"/>
+      <c r="AIO172" s="45"/>
+      <c r="AIP172" s="45"/>
+      <c r="AIQ172" s="45"/>
+      <c r="AIR172" s="45"/>
+      <c r="AIS172" s="45"/>
+      <c r="AIT172" s="45"/>
+      <c r="AIU172" s="45"/>
+      <c r="AIV172" s="45"/>
+      <c r="AIW172" s="45"/>
+      <c r="AIX172" s="45"/>
+      <c r="AIY172" s="45"/>
+      <c r="AIZ172" s="45"/>
+      <c r="AJA172" s="45"/>
+      <c r="AJB172" s="45"/>
+      <c r="AJC172" s="45"/>
+      <c r="AJD172" s="45"/>
+      <c r="AJE172" s="45"/>
+      <c r="AJF172" s="45"/>
+      <c r="AJG172" s="45"/>
+      <c r="AJH172" s="45"/>
+      <c r="AJI172" s="45"/>
+      <c r="AJJ172" s="45"/>
+      <c r="AJK172" s="45"/>
+      <c r="AJL172" s="45"/>
+      <c r="AJM172" s="45"/>
+      <c r="AJN172" s="45"/>
+      <c r="AJO172" s="45"/>
+      <c r="AJP172" s="45"/>
+      <c r="AJQ172" s="45"/>
+      <c r="AJR172" s="45"/>
+      <c r="AJS172" s="45"/>
+      <c r="AJT172" s="45"/>
+      <c r="AJU172" s="45"/>
+      <c r="AJV172" s="45"/>
+      <c r="AJW172" s="45"/>
+      <c r="AJX172" s="45"/>
+      <c r="AJY172" s="45"/>
+      <c r="AJZ172" s="45"/>
+      <c r="AKA172" s="45"/>
+      <c r="AKB172" s="45"/>
+      <c r="AKC172" s="45"/>
+      <c r="AKD172" s="45"/>
+      <c r="AKE172" s="45"/>
+      <c r="AKF172" s="45"/>
+      <c r="AKG172" s="45"/>
+      <c r="AKH172" s="45"/>
+      <c r="AKI172" s="45"/>
+      <c r="AKJ172" s="45"/>
+      <c r="AKK172" s="45"/>
+      <c r="AKL172" s="45"/>
+      <c r="AKM172" s="45"/>
+      <c r="AKN172" s="45"/>
+      <c r="AKO172" s="45"/>
+      <c r="AKP172" s="45"/>
+      <c r="AKQ172" s="45"/>
+      <c r="AKR172" s="45"/>
+      <c r="AKS172" s="45"/>
+      <c r="AKT172" s="45"/>
+      <c r="AKU172" s="45"/>
+      <c r="AKV172" s="45"/>
+      <c r="AKW172" s="45"/>
+      <c r="AKX172" s="45"/>
+      <c r="AKY172" s="45"/>
+      <c r="AKZ172" s="45"/>
+      <c r="ALA172" s="45"/>
+      <c r="ALB172" s="45"/>
+      <c r="ALC172" s="45"/>
+      <c r="ALD172" s="45"/>
+      <c r="ALE172" s="45"/>
+      <c r="ALF172" s="45"/>
+      <c r="ALG172" s="45"/>
+      <c r="ALH172" s="45"/>
+      <c r="ALI172" s="45"/>
+      <c r="ALJ172" s="45"/>
+      <c r="ALK172" s="45"/>
+      <c r="ALL172" s="45"/>
+      <c r="ALM172" s="45"/>
+      <c r="ALN172" s="45"/>
+      <c r="ALO172" s="45"/>
+      <c r="ALP172" s="45"/>
+      <c r="ALQ172" s="45"/>
+      <c r="ALR172" s="45"/>
+      <c r="ALS172" s="45"/>
+      <c r="ALT172" s="45"/>
+      <c r="ALU172" s="45"/>
+      <c r="ALV172" s="45"/>
+      <c r="ALW172" s="45"/>
+      <c r="ALX172" s="45"/>
+      <c r="ALY172" s="45"/>
+      <c r="ALZ172" s="45"/>
+      <c r="AMA172" s="45"/>
+      <c r="AMB172" s="45"/>
+      <c r="AMC172" s="45"/>
+      <c r="AMD172" s="45"/>
+      <c r="AME172" s="45"/>
+      <c r="AMF172" s="45"/>
+      <c r="AMG172" s="45"/>
+      <c r="AMH172" s="45"/>
+      <c r="AMI172" s="45"/>
+      <c r="AMJ172" s="45"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U165">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:U172"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.4.2_470.57.02_linux.run"/>
-    <hyperlink ref="Q10" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q33" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
-    <hyperlink ref="Q39" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q40" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q47" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/swsm_driver_3.0.3.zip"/>
-    <hyperlink ref="Q154" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
-    <hyperlink ref="Q155" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
-    <hyperlink ref="Q156" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
-    <hyperlink ref="Q158" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
-    <hyperlink ref="Q157" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
-    <hyperlink ref="Q159" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
+    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="Q10" r:id="rId2"/>
+    <hyperlink ref="Q33" r:id="rId3"/>
+    <hyperlink ref="Q39" r:id="rId4"/>
+    <hyperlink ref="Q40" r:id="rId5"/>
+    <hyperlink ref="Q47" r:id="rId6"/>
+    <hyperlink ref="Q154" r:id="rId7"/>
+    <hyperlink ref="Q155" r:id="rId8"/>
+    <hyperlink ref="Q156" r:id="rId9"/>
+    <hyperlink ref="Q158" r:id="rId10"/>
+    <hyperlink ref="Q157" r:id="rId11"/>
+    <hyperlink ref="Q159" r:id="rId12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -30627,7 +34254,7 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>462</v>
       </c>
@@ -30636,7 +34263,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>464</v>
       </c>
@@ -30644,7 +34271,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>464</v>
       </c>
@@ -30653,7 +34280,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>

--- a/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler22.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\9.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler22.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="466">
   <si>
     <t>vendorID</t>
   </si>
@@ -1379,9 +1374,6 @@
     </r>
   </si>
   <si>
-    <t>07.706.03.00-rc1</t>
-  </si>
-  <si>
     <t>2022.08.08</t>
   </si>
   <si>
@@ -1409,7 +1401,7 @@
     <t>BCM57810</t>
   </si>
   <si>
-    <t>542KB</t>
+    <t>524KB</t>
   </si>
   <si>
     <t>360T-B</t>
@@ -1445,6 +1437,9 @@
     <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz</t>
   </si>
   <si>
+    <t>2022.08.30</t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
@@ -1455,21 +1450,19 @@
   </si>
   <si>
     <t>网卡速率不达标</t>
-  </si>
-  <si>
-    <t>2022.08.30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>22MB</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1510,7 +1503,7 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1526,12 +1519,143 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1556,8 +1680,194 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1580,10 +1890,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1593,13 +2142,13 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1689,8 +2238,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1710,15 +2259,61 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1791,9 +2386,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2051,19 +2643,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
@@ -2086,7 +2678,7 @@
     <col min="19" max="1024" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:21">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2736,7 @@
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -2201,7 +2793,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2258,7 +2850,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2315,7 +2907,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -2372,7 +2964,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -2427,7 +3019,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -2484,7 +3076,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="A8" s="7" t="s">
         <v>78</v>
       </c>
@@ -2537,7 +3129,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -2592,7 +3184,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
@@ -2647,7 +3239,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
@@ -2701,7 +3293,7 @@
       </c>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>113</v>
       </c>
@@ -2755,7 +3347,7 @@
       </c>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="7" t="s">
         <v>113</v>
       </c>
@@ -2808,7 +3400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="7" t="s">
         <v>100</v>
       </c>
@@ -2861,7 +3453,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
         <v>100</v>
       </c>
@@ -2914,7 +3506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
         <v>113</v>
       </c>
@@ -2967,7 +3559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
         <v>113</v>
       </c>
@@ -3020,7 +3612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
         <v>100</v>
       </c>
@@ -3073,7 +3665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
@@ -3126,7 +3718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -3179,7 +3771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="5" t="s">
         <v>113</v>
       </c>
@@ -3232,7 +3824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="7" t="s">
         <v>59</v>
       </c>
@@ -3282,7 +3874,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -3332,7 +3924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -3385,7 +3977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
@@ -3438,7 +4030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
@@ -3491,7 +4083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
@@ -3544,7 +4136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
@@ -3597,7 +4189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
@@ -3650,7 +4242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="7" t="s">
         <v>18</v>
       </c>
@@ -3703,7 +4295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="7" t="s">
         <v>100</v>
       </c>
@@ -3756,7 +4348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
@@ -3809,7 +4401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17">
       <c r="A33" s="7" t="s">
         <v>78</v>
       </c>
@@ -3859,7 +4451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17">
       <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
@@ -3912,7 +4504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17">
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
@@ -3965,7 +4557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17">
       <c r="A36" s="18" t="s">
         <v>113</v>
       </c>
@@ -4018,7 +4610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18">
       <c r="A37" s="19">
         <v>8086</v>
       </c>
@@ -4072,7 +4664,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18">
       <c r="A38" s="19">
         <v>8086</v>
       </c>
@@ -4126,7 +4718,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
@@ -4177,7 +4769,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
@@ -4228,7 +4820,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17">
       <c r="A41" s="16" t="s">
         <v>47</v>
       </c>
@@ -4281,7 +4873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" s="7" customFormat="1" spans="1:17">
       <c r="A42" s="16" t="s">
         <v>47</v>
       </c>
@@ -4332,7 +4924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" s="7" customFormat="1" spans="1:17">
       <c r="A43" s="16" t="s">
         <v>212</v>
       </c>
@@ -4383,7 +4975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" s="7" customFormat="1" spans="1:17">
       <c r="A44" s="16" t="s">
         <v>113</v>
       </c>
@@ -4436,7 +5028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17">
       <c r="A45" s="16" t="s">
         <v>212</v>
       </c>
@@ -4487,7 +5079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17">
       <c r="A46" s="16" t="s">
         <v>212</v>
       </c>
@@ -4538,7 +5130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" ht="27" spans="1:21">
       <c r="A47" s="22" t="s">
         <v>239</v>
       </c>
@@ -4593,7 +5185,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" ht="27" spans="1:21">
       <c r="A48" s="22" t="s">
         <v>239</v>
       </c>
@@ -4648,7 +5240,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" ht="27" spans="1:21">
       <c r="A49" s="22" t="s">
         <v>253</v>
       </c>
@@ -4703,7 +5295,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" ht="27" spans="1:21">
       <c r="A50" s="22" t="s">
         <v>253</v>
       </c>
@@ -4758,7 +5350,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" ht="27" spans="1:21">
       <c r="A51" s="24" t="s">
         <v>259</v>
       </c>
@@ -4813,7 +5405,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" ht="27" spans="1:21">
       <c r="A52" s="24" t="s">
         <v>259</v>
       </c>
@@ -4868,7 +5460,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" ht="27" spans="1:21">
       <c r="A53" s="24" t="s">
         <v>259</v>
       </c>
@@ -4923,7 +5515,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21">
       <c r="A54" s="25" t="s">
         <v>269</v>
       </c>
@@ -4968,7 +5560,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21">
       <c r="A55" s="25" t="s">
         <v>269</v>
       </c>
@@ -5013,7 +5605,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21">
       <c r="A56" s="25" t="s">
         <v>269</v>
       </c>
@@ -5058,7 +5650,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" ht="27" spans="1:21">
       <c r="A57" s="24" t="s">
         <v>259</v>
       </c>
@@ -5113,7 +5705,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" ht="27" spans="1:21">
       <c r="A58" s="24" t="s">
         <v>259</v>
       </c>
@@ -5168,7 +5760,7 @@
       <c r="T58" s="39"/>
       <c r="U58" s="39"/>
     </row>
-    <row r="59" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" ht="27" spans="1:21">
       <c r="A59" s="24" t="s">
         <v>259</v>
       </c>
@@ -5223,7 +5815,7 @@
       <c r="T59" s="39"/>
       <c r="U59" s="39"/>
     </row>
-    <row r="60" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" ht="27" spans="1:21">
       <c r="A60" s="24" t="s">
         <v>259</v>
       </c>
@@ -5278,7 +5870,7 @@
       <c r="T60" s="39"/>
       <c r="U60" s="39"/>
     </row>
-    <row r="61" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" ht="27" spans="1:21">
       <c r="A61" s="24" t="s">
         <v>259</v>
       </c>
@@ -5333,7 +5925,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" ht="27" spans="1:21">
       <c r="A62" s="24" t="s">
         <v>259</v>
       </c>
@@ -5388,7 +5980,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" ht="27" spans="1:21">
       <c r="A63" s="24" t="s">
         <v>259</v>
       </c>
@@ -5443,7 +6035,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" ht="27" spans="1:21">
       <c r="A64" s="24" t="s">
         <v>259</v>
       </c>
@@ -5498,7 +6090,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" ht="27" spans="1:21">
       <c r="A65" s="24" t="s">
         <v>259</v>
       </c>
@@ -5553,7 +6145,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" ht="27" spans="1:21">
       <c r="A66" s="24" t="s">
         <v>259</v>
       </c>
@@ -5608,7 +6200,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
     </row>
-    <row r="67" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" ht="27" spans="1:21">
       <c r="A67" s="24" t="s">
         <v>259</v>
       </c>
@@ -5663,7 +6255,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
     </row>
-    <row r="68" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" ht="27" spans="1:21">
       <c r="A68" s="24" t="s">
         <v>259</v>
       </c>
@@ -5718,7 +6310,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
     </row>
-    <row r="69" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" ht="27" spans="1:21">
       <c r="A69" s="24" t="s">
         <v>259</v>
       </c>
@@ -5773,7 +6365,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
     </row>
-    <row r="70" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" ht="27" spans="1:21">
       <c r="A70" s="24" t="s">
         <v>259</v>
       </c>
@@ -5828,7 +6420,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
     </row>
-    <row r="71" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" ht="27" spans="1:21">
       <c r="A71" s="24" t="s">
         <v>259</v>
       </c>
@@ -5883,7 +6475,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
     </row>
-    <row r="72" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" ht="27" spans="1:21">
       <c r="A72" s="24" t="s">
         <v>259</v>
       </c>
@@ -5938,7 +6530,7 @@
       <c r="T72" s="39"/>
       <c r="U72" s="39"/>
     </row>
-    <row r="73" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" ht="27" spans="1:21">
       <c r="A73" s="24" t="s">
         <v>259</v>
       </c>
@@ -5993,7 +6585,7 @@
       <c r="T73" s="39"/>
       <c r="U73" s="39"/>
     </row>
-    <row r="74" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" ht="27" spans="1:21">
       <c r="A74" s="24" t="s">
         <v>259</v>
       </c>
@@ -6048,7 +6640,7 @@
       <c r="T74" s="39"/>
       <c r="U74" s="39"/>
     </row>
-    <row r="75" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" ht="27" spans="1:21">
       <c r="A75" s="24" t="s">
         <v>259</v>
       </c>
@@ -6103,7 +6695,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
-    <row r="76" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" ht="27" spans="1:21">
       <c r="A76" s="24" t="s">
         <v>259</v>
       </c>
@@ -6158,7 +6750,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
     </row>
-    <row r="77" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" ht="27" spans="1:21">
       <c r="A77" s="24" t="s">
         <v>259</v>
       </c>
@@ -6213,7 +6805,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
     </row>
-    <row r="78" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" ht="27" spans="1:21">
       <c r="A78" s="24" t="s">
         <v>259</v>
       </c>
@@ -6268,7 +6860,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
-    <row r="79" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" ht="27" spans="1:21">
       <c r="A79" s="24" t="s">
         <v>259</v>
       </c>
@@ -6323,7 +6915,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
     </row>
-    <row r="80" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" ht="27" spans="1:21">
       <c r="A80" s="24" t="s">
         <v>259</v>
       </c>
@@ -6378,7 +6970,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
     </row>
-    <row r="81" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" ht="27" spans="1:21">
       <c r="A81" s="24" t="s">
         <v>259</v>
       </c>
@@ -6433,7 +7025,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="7" t="s">
         <v>18</v>
       </c>
@@ -6490,7 +7082,7 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="7" t="s">
         <v>18</v>
       </c>
@@ -6547,7 +7139,7 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" s="7" customFormat="1" spans="1:17">
       <c r="A84" s="7" t="s">
         <v>36</v>
       </c>
@@ -6592,7 +7184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" s="7" customFormat="1" spans="1:17">
       <c r="A85" s="7" t="s">
         <v>36</v>
       </c>
@@ -6637,7 +7229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" s="7" customFormat="1" spans="1:17">
       <c r="A86" s="7" t="s">
         <v>36</v>
       </c>
@@ -6682,7 +7274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" s="7" customFormat="1" spans="1:17">
       <c r="A87" s="7" t="s">
         <v>36</v>
       </c>
@@ -6727,7 +7319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" s="7" customFormat="1" spans="1:17">
       <c r="A88" s="7" t="s">
         <v>305</v>
       </c>
@@ -6772,7 +7364,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" s="7" customFormat="1" spans="1:17">
       <c r="A89" s="7" t="s">
         <v>47</v>
       </c>
@@ -6825,7 +7417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" s="7" customFormat="1" spans="1:17">
       <c r="A90" s="7" t="s">
         <v>47</v>
       </c>
@@ -6878,7 +7470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" s="7" customFormat="1" spans="1:17">
       <c r="A91" s="7" t="s">
         <v>59</v>
       </c>
@@ -6928,7 +7520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:17">
       <c r="A92" s="7" t="s">
         <v>100</v>
       </c>
@@ -6979,7 +7571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:17">
       <c r="A93" s="7" t="s">
         <v>100</v>
       </c>
@@ -7030,7 +7622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:17">
       <c r="A94" s="7" t="s">
         <v>100</v>
       </c>
@@ -7081,7 +7673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:17">
       <c r="A95" s="7" t="s">
         <v>100</v>
       </c>
@@ -7132,7 +7724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:17">
       <c r="A96" s="7" t="s">
         <v>100</v>
       </c>
@@ -7183,7 +7775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:17">
       <c r="A97" s="7" t="s">
         <v>100</v>
       </c>
@@ -7234,7 +7826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:17">
       <c r="A98" s="7" t="s">
         <v>100</v>
       </c>
@@ -7285,7 +7877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:17">
       <c r="A99" s="7" t="s">
         <v>100</v>
       </c>
@@ -7336,7 +7928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:17">
       <c r="A100" s="7" t="s">
         <v>100</v>
       </c>
@@ -7387,7 +7979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:17">
       <c r="A101" s="7" t="s">
         <v>100</v>
       </c>
@@ -7438,7 +8030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:17">
       <c r="A102" s="7" t="s">
         <v>100</v>
       </c>
@@ -7489,7 +8081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:17">
       <c r="A103" s="7" t="s">
         <v>113</v>
       </c>
@@ -7542,7 +8134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:17">
       <c r="A104" s="7" t="s">
         <v>113</v>
       </c>
@@ -7595,7 +8187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:17">
       <c r="A105" s="7" t="s">
         <v>113</v>
       </c>
@@ -7648,7 +8240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:17">
       <c r="A106" s="7" t="s">
         <v>113</v>
       </c>
@@ -7701,7 +8293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:18">
       <c r="A107" s="7" t="s">
         <v>113</v>
       </c>
@@ -7755,7 +8347,7 @@
       </c>
       <c r="R107" s="7"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:17">
       <c r="A108" s="7" t="s">
         <v>113</v>
       </c>
@@ -7808,7 +8400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:18">
       <c r="A109" s="7" t="s">
         <v>113</v>
       </c>
@@ -7862,7 +8454,7 @@
       </c>
       <c r="R109" s="7"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:17">
       <c r="A110" s="7" t="s">
         <v>113</v>
       </c>
@@ -7915,7 +8507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:17">
       <c r="A111" s="17" t="s">
         <v>113</v>
       </c>
@@ -7968,7 +8560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:17">
       <c r="A112" s="18" t="s">
         <v>113</v>
       </c>
@@ -8021,7 +8613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:17">
       <c r="A113" s="17" t="s">
         <v>113</v>
       </c>
@@ -8074,7 +8666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:17">
       <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
@@ -8127,7 +8719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:17">
       <c r="A115" s="17" t="s">
         <v>113</v>
       </c>
@@ -8180,7 +8772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:17">
       <c r="A116" s="18" t="s">
         <v>113</v>
       </c>
@@ -8233,7 +8825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:17">
       <c r="A117" s="17" t="s">
         <v>113</v>
       </c>
@@ -8286,7 +8878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:17">
       <c r="A118" s="18" t="s">
         <v>113</v>
       </c>
@@ -8339,7 +8931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:17">
       <c r="A119" s="18" t="s">
         <v>113</v>
       </c>
@@ -8392,7 +8984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:17">
       <c r="A120" s="17" t="s">
         <v>113</v>
       </c>
@@ -8445,7 +9037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:17">
       <c r="A121" s="18" t="s">
         <v>113</v>
       </c>
@@ -8498,7 +9090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:17">
       <c r="A122" s="5" t="s">
         <v>113</v>
       </c>
@@ -8551,7 +9143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:17">
       <c r="A123" s="5" t="s">
         <v>113</v>
       </c>
@@ -8604,7 +9196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:17">
       <c r="A124" s="5" t="s">
         <v>113</v>
       </c>
@@ -8657,7 +9249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" s="7" customFormat="1" spans="1:17">
       <c r="A125" s="16" t="s">
         <v>113</v>
       </c>
@@ -8710,7 +9302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" s="7" customFormat="1" spans="1:17">
       <c r="A126" s="7" t="s">
         <v>47</v>
       </c>
@@ -8763,7 +9355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" s="7" customFormat="1" spans="1:17">
       <c r="A127" s="7" t="s">
         <v>47</v>
       </c>
@@ -8816,7 +9408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" s="7" customFormat="1" spans="1:17">
       <c r="A128" s="7">
         <v>1000</v>
       </c>
@@ -8869,7 +9461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" s="4" customFormat="1" spans="1:17">
       <c r="A129" s="4">
         <v>1000</v>
       </c>
@@ -8922,7 +9514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" s="8" customFormat="1" spans="1:1024">
       <c r="A130" s="8">
         <v>1000</v>
       </c>
@@ -9982,7 +10574,7 @@
       <c r="AMI130" s="45"/>
       <c r="AMJ130" s="45"/>
     </row>
-    <row r="131" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" s="9" customFormat="1" spans="1:1024">
       <c r="A131" s="9">
         <v>1000</v>
       </c>
@@ -11042,7 +11634,7 @@
       <c r="AMI131" s="45"/>
       <c r="AMJ131" s="45"/>
     </row>
-    <row r="132" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" s="9" customFormat="1" spans="1:1024">
       <c r="A132" s="9">
         <v>9005</v>
       </c>
@@ -12102,7 +12694,7 @@
       <c r="AMI132" s="45"/>
       <c r="AMJ132" s="45"/>
     </row>
-    <row r="133" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" s="9" customFormat="1" spans="1:1024">
       <c r="A133" s="9">
         <v>9005</v>
       </c>
@@ -13162,7 +13754,7 @@
       <c r="AMI133" s="45"/>
       <c r="AMJ133" s="45"/>
     </row>
-    <row r="134" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" s="9" customFormat="1" spans="1:1024">
       <c r="A134" s="9">
         <v>1000</v>
       </c>
@@ -14222,7 +14814,7 @@
       <c r="AMI134" s="45"/>
       <c r="AMJ134" s="45"/>
     </row>
-    <row r="135" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" s="9" customFormat="1" spans="1:1024">
       <c r="A135" s="9">
         <v>1000</v>
       </c>
@@ -15282,7 +15874,7 @@
       <c r="AMI135" s="45"/>
       <c r="AMJ135" s="45"/>
     </row>
-    <row r="136" spans="1:1024" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" s="4" customFormat="1" spans="1:17">
       <c r="A136" s="4">
         <v>1000</v>
       </c>
@@ -15332,7 +15924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" s="8" customFormat="1" spans="1:1024">
       <c r="A137" s="8">
         <v>1000</v>
       </c>
@@ -16390,7 +16982,7 @@
       <c r="AMI137" s="45"/>
       <c r="AMJ137" s="45"/>
     </row>
-    <row r="138" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" s="9" customFormat="1" spans="1:1024">
       <c r="A138" s="9">
         <v>9005</v>
       </c>
@@ -17448,7 +18040,7 @@
       <c r="AMI138" s="45"/>
       <c r="AMJ138" s="45"/>
     </row>
-    <row r="139" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" s="9" customFormat="1" spans="1:1024">
       <c r="A139" s="9">
         <v>9005</v>
       </c>
@@ -18506,7 +19098,7 @@
       <c r="AMI139" s="45"/>
       <c r="AMJ139" s="45"/>
     </row>
-    <row r="140" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" s="9" customFormat="1" spans="1:1024">
       <c r="A140" s="9">
         <v>1000</v>
       </c>
@@ -19564,7 +20156,7 @@
       <c r="AMI140" s="45"/>
       <c r="AMJ140" s="45"/>
     </row>
-    <row r="141" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" s="9" customFormat="1" spans="1:1024">
       <c r="A141" s="9">
         <v>1000</v>
       </c>
@@ -20622,7 +21214,7 @@
       <c r="AMI141" s="45"/>
       <c r="AMJ141" s="45"/>
     </row>
-    <row r="142" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" s="9" customFormat="1" spans="1:1024">
       <c r="A142" s="9">
         <v>1000</v>
       </c>
@@ -21680,7 +22272,7 @@
       <c r="AMI142" s="45"/>
       <c r="AMJ142" s="45"/>
     </row>
-    <row r="143" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" s="9" customFormat="1" spans="1:1024">
       <c r="A143" s="9">
         <v>1000</v>
       </c>
@@ -22738,7 +23330,7 @@
       <c r="AMI143" s="45"/>
       <c r="AMJ143" s="45"/>
     </row>
-    <row r="144" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" s="9" customFormat="1" spans="1:1024">
       <c r="A144" s="9">
         <v>1000</v>
       </c>
@@ -23796,7 +24388,7 @@
       <c r="AMI144" s="45"/>
       <c r="AMJ144" s="45"/>
     </row>
-    <row r="145" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" s="9" customFormat="1" spans="1:1024">
       <c r="A145" s="9">
         <v>1000</v>
       </c>
@@ -24854,7 +25446,7 @@
       <c r="AMI145" s="45"/>
       <c r="AMJ145" s="45"/>
     </row>
-    <row r="146" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" s="10" customFormat="1" spans="1:17">
       <c r="A146" s="10" t="s">
         <v>36</v>
       </c>
@@ -24899,7 +25491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" s="10" customFormat="1" spans="1:17">
       <c r="A147" s="10" t="s">
         <v>36</v>
       </c>
@@ -24944,7 +25536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" s="10" customFormat="1" spans="1:17">
       <c r="A148" s="10" t="s">
         <v>36</v>
       </c>
@@ -24989,7 +25581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" s="10" customFormat="1" spans="1:17">
       <c r="A149" s="10" t="s">
         <v>36</v>
       </c>
@@ -25034,7 +25626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" s="10" customFormat="1" spans="1:17">
       <c r="A150" s="10" t="s">
         <v>36</v>
       </c>
@@ -25079,7 +25671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" s="10" customFormat="1" spans="1:17">
       <c r="A151" s="10" t="s">
         <v>36</v>
       </c>
@@ -25124,7 +25716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" s="10" customFormat="1" spans="1:17">
       <c r="A152" s="10" t="s">
         <v>36</v>
       </c>
@@ -25169,7 +25761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" s="10" customFormat="1" spans="1:17">
       <c r="A153" s="10" t="s">
         <v>36</v>
       </c>
@@ -25214,7 +25806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:17">
       <c r="A154" s="5" t="s">
         <v>113</v>
       </c>
@@ -25265,7 +25857,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:17">
       <c r="A155" s="5" t="s">
         <v>113</v>
       </c>
@@ -25316,7 +25908,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="156" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:17">
       <c r="A156" s="5" t="s">
         <v>113</v>
       </c>
@@ -25367,7 +25959,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="157" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:17">
       <c r="A157" s="5" t="s">
         <v>113</v>
       </c>
@@ -25418,7 +26010,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:17">
       <c r="A158" s="5" t="s">
         <v>113</v>
       </c>
@@ -25469,7 +26061,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="159" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:17">
       <c r="A159" s="5" t="s">
         <v>113</v>
       </c>
@@ -25520,7 +26112,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="160" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:17">
       <c r="A160" s="5" t="s">
         <v>113</v>
       </c>
@@ -25573,7 +26165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" s="11" customFormat="1" spans="1:1024">
       <c r="A161" s="4">
         <v>1000</v>
       </c>
@@ -25596,13 +26188,13 @@
         <v>126</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>105</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K161" s="4"/>
       <c r="L161" s="4" t="s">
@@ -25612,13 +26204,13 @@
         <v>109</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O161" s="4" t="s">
         <v>136</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q161" s="4" t="s">
         <v>33</v>
@@ -26631,7 +27223,7 @@
       <c r="AMI161" s="4"/>
       <c r="AMJ161" s="4"/>
     </row>
-    <row r="162" spans="1:1024" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" s="11" customFormat="1" ht="15" customHeight="1" spans="1:1024">
       <c r="A162" s="4" t="s">
         <v>113</v>
       </c>
@@ -26639,10 +27231,10 @@
         <v>1015</v>
       </c>
       <c r="C162" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>81</v>
@@ -26660,7 +27252,7 @@
         <v>52</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K162" s="4"/>
       <c r="L162" s="4" t="s">
@@ -26670,7 +27262,7 @@
         <v>119</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O162" s="18" t="s">
         <v>121</v>
@@ -27687,12 +28279,12 @@
       <c r="AMI162" s="4"/>
       <c r="AMJ162" s="4"/>
     </row>
-    <row r="163" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" s="11" customFormat="1" spans="1:1024">
       <c r="A163" s="44" t="s">
         <v>212</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C163" s="44" t="s">
         <v>212</v>
@@ -27714,7 +28306,7 @@
         <v>52</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K163" s="4"/>
       <c r="L163" s="4" t="s">
@@ -27724,10 +28316,10 @@
         <v>218</v>
       </c>
       <c r="N163" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="O163" s="18" t="s">
         <v>448</v>
-      </c>
-      <c r="O163" s="18" t="s">
-        <v>449</v>
       </c>
       <c r="P163" s="4"/>
       <c r="Q163" s="4" t="s">
@@ -28741,7 +29333,7 @@
       <c r="AMI163" s="4"/>
       <c r="AMJ163" s="4"/>
     </row>
-    <row r="164" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" s="11" customFormat="1" spans="1:1024">
       <c r="A164" s="4">
         <v>8086</v>
       </c>
@@ -28749,7 +29341,7 @@
         <v>1521</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D164" s="4">
         <v>1005</v>
@@ -28768,17 +29360,17 @@
         <v>52</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K164" s="4"/>
       <c r="L164" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M164" s="4" t="s">
         <v>65</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O164" s="4" t="s">
         <v>67</v>
@@ -29795,18 +30387,18 @@
       <c r="AMI164" s="4"/>
       <c r="AMJ164" s="4"/>
     </row>
-    <row r="165" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:17">
       <c r="A165" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>21</v>
@@ -29815,37 +30407,37 @@
         <v>22</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I165" s="5" t="s">
         <v>73</v>
       </c>
       <c r="J165" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="M165" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="L165" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="M165" s="5" t="s">
+      <c r="N165" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="O165" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="O165" s="4" t="s">
-        <v>456</v>
-      </c>
       <c r="Q165" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
-    <row r="166" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:17">
       <c r="A166" s="4">
         <v>1000</v>
       </c>
@@ -29868,16 +30460,16 @@
         <v>126</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I166" s="5" t="s">
         <v>105</v>
       </c>
       <c r="J166" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L166" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="L166" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="M166" s="5" t="s">
         <v>109</v>
@@ -29889,13 +30481,13 @@
         <v>130</v>
       </c>
       <c r="P166" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q166" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="Q166" s="5" t="s">
-        <v>461</v>
-      </c>
     </row>
-    <row r="167" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:17">
       <c r="A167" s="4">
         <v>1000</v>
       </c>
@@ -29918,16 +30510,16 @@
         <v>126</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I167" s="5" t="s">
         <v>105</v>
       </c>
       <c r="J167" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L167" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="L167" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="M167" s="5" t="s">
         <v>109</v>
@@ -29939,10 +30531,10 @@
         <v>130</v>
       </c>
       <c r="Q167" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="168" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:17">
       <c r="A168" s="4">
         <v>1000</v>
       </c>
@@ -29965,16 +30557,16 @@
         <v>126</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I168" s="5" t="s">
         <v>105</v>
       </c>
       <c r="J168" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="L168" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="L168" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="M168" s="5" t="s">
         <v>109</v>
@@ -29986,10 +30578,10 @@
         <v>130</v>
       </c>
       <c r="Q168" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" s="9" customFormat="1" spans="1:1024">
       <c r="A169" s="9">
         <v>1000</v>
       </c>
@@ -30012,16 +30604,16 @@
         <v>126</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I169" s="8" t="s">
         <v>105</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>109</v>
@@ -30036,7 +30628,7 @@
         <v>410</v>
       </c>
       <c r="Q169" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R169" s="45"/>
       <c r="S169" s="45"/>
@@ -31046,7 +31638,7 @@
       <c r="AMI169" s="45"/>
       <c r="AMJ169" s="45"/>
     </row>
-    <row r="170" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" s="9" customFormat="1" spans="1:1024">
       <c r="A170" s="9">
         <v>1000</v>
       </c>
@@ -31069,16 +31661,16 @@
         <v>126</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>105</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L170" s="9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>109</v>
@@ -31091,7 +31683,7 @@
       </c>
       <c r="P170" s="41"/>
       <c r="Q170" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R170" s="45"/>
       <c r="S170" s="45"/>
@@ -32101,7 +32693,7 @@
       <c r="AMI170" s="45"/>
       <c r="AMJ170" s="45"/>
     </row>
-    <row r="171" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" s="9" customFormat="1" spans="1:1024">
       <c r="A171" s="9">
         <v>1000</v>
       </c>
@@ -32124,16 +32716,16 @@
         <v>126</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>105</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M171" s="8" t="s">
         <v>109</v>
@@ -32146,7 +32738,7 @@
       </c>
       <c r="P171" s="41"/>
       <c r="Q171" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R171" s="45"/>
       <c r="S171" s="45"/>
@@ -33156,7 +33748,7 @@
       <c r="AMI171" s="45"/>
       <c r="AMJ171" s="45"/>
     </row>
-    <row r="172" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" s="9" customFormat="1" spans="1:1024">
       <c r="A172" s="9">
         <v>1000</v>
       </c>
@@ -33179,16 +33771,16 @@
         <v>126</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I172" s="8" t="s">
         <v>105</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L172" s="9" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M172" s="8" t="s">
         <v>109</v>
@@ -33201,7 +33793,7 @@
       </c>
       <c r="P172" s="41"/>
       <c r="Q172" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R172" s="45"/>
       <c r="S172" s="45"/>
@@ -34212,41 +34804,44 @@
       <c r="AMJ172" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U172"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <autoFilter ref="A1:U172">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10 E47:E67 E82:E83">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1"/>
-    <hyperlink ref="Q10" r:id="rId2"/>
-    <hyperlink ref="Q33" r:id="rId3"/>
-    <hyperlink ref="Q39" r:id="rId4"/>
-    <hyperlink ref="Q40" r:id="rId5"/>
-    <hyperlink ref="Q47" r:id="rId6"/>
-    <hyperlink ref="Q154" r:id="rId7"/>
-    <hyperlink ref="Q155" r:id="rId8"/>
-    <hyperlink ref="Q156" r:id="rId9"/>
-    <hyperlink ref="Q158" r:id="rId10"/>
-    <hyperlink ref="Q157" r:id="rId11"/>
-    <hyperlink ref="Q159" r:id="rId12"/>
+    <hyperlink ref="Q8" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.4.2_470.57.02_linux.run"/>
+    <hyperlink ref="Q10" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
+    <hyperlink ref="Q33" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
+    <hyperlink ref="Q39" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
+    <hyperlink ref="Q40" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/aarch64/Packages/cuda_11.6.1_510.47.03_linux_sbsa.run"/>
+    <hyperlink ref="Q47" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/swsm_driver_3.0.3.zip"/>
+    <hyperlink ref="Q154" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
+    <hyperlink ref="Q155" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
+    <hyperlink ref="Q156" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
+    <hyperlink ref="Q158" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
+    <hyperlink ref="Q157" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
+    <hyperlink ref="Q159" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-22.03-LTS/contrib/drivers/source/Packages/MLNX_OFED_SRC-5.7-1.0.2.0.tgz"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -34254,7 +34849,7 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>462</v>
       </c>
@@ -34263,7 +34858,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>464</v>
       </c>
@@ -34271,7 +34866,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>464</v>
       </c>
@@ -34280,8 +34875,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>
